--- a/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
@@ -2396,7 +2396,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>如果正在使用 Azure Active Directory 域服務 （AADDS），請在主要區域中部署 ADDS，因為此服務只能投影到一個訂閱中</t>
+          <t>在 Windows Server 上部署 Active Directory 時，請使用具有可用性區域的位置，並在這些區域中部署至少兩個 VM。如果不可用，請在可用性集中部署</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2413,7 +2413,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>如果正在使用 Windows 伺服器上的 AD，Azure 中的資源是否使用正確的域控制器？</t>
+          <t>如果正在使用域控制器，請確保將資源設置為使用正確的域控制器。</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2646,13 +2646,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>通過使用虛擬網路配置標識 （ADDS） 網路分段，並將對等互連回中心。在應用程式登陸區域內提供身份驗證 （舊版） 。</t>
+          <t>通過使用虛擬網路配置標識網路分段，並對等互連到中心。在應用程式登陸區域內提供身份驗證 （舊版） 。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>如果 AD 位於 Windows Server 上，請在 Indentity 管理組中建立專用標識訂閱，以託管 Windows Server Active Directory 域控制器</t>
+          <t>如果伺服器將用於標識服務（如域控制器），請在標識管理組中建立專用標識訂閱，以託管這些服務</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>如果要部署至少兩個運行 AD DS 的 VM 作為域控制器，請將它們添加到不同的可用性區域。如果在該區域中不可用，請在可用性集中進行部署。</t>
+          <t>如果在 GatewaySubnet 中使用路由表，請確保傳播閘道路由。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5137,7 +5137,7 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
         </is>
       </c>
       <c r="I92" s="15" t="n"/>
@@ -5145,7 +5145,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>如果在 GatewaySubnet 中使用路由表，請確保傳播閘道路由。</t>
+          <t>如果使用 ExpressRoute，則本地路由應是動態的：如果連接失敗，它應收斂到線路的剩餘連接。負載應在兩個連接之間共用，理想情況下應作為主動/主動共用，儘管也支持主動/被動。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5183,7 +5183,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -5191,7 +5191,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5207,12 +5207,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>IP計劃</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>如果使用 ExpressRoute，則本地路由應是動態的：如果連接失敗，它應收斂到線路的剩餘連接。負載應在兩個連接之間共用，理想情況下應作為主動/主動共用，儘管也支持主動/被動。</t>
+          <t>確保 Azure 區域和本地位置之間不使用重疊的 IP 位址空間</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5229,15 +5229,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5258,13 +5262,13 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>確保 Azure 區域和本地位置之間不使用重疊的 IP 位址空間</t>
+          <t>使用專用 Internet 位址分配範圍中的 IP 位址 （RFC 1918）。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5287,7 +5291,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5308,13 +5312,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>使用專用 Internet 位址分配範圍中的 IP 位址 （RFC 1918）。</t>
+          <t>確保不會浪費 IP 位址空間，不要建立不必要的大型虛擬網路（例如 /16）</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5337,7 +5341,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5358,7 +5362,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>確保不會浪費 IP 位址空間，不要建立不必要的大型虛擬網路（例如 /16）</t>
+          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5375,19 +5379,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5408,13 +5412,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
+          <t>對於只需要在 Azure 中進行名稱解析的環境，請使用 Azure 專用 DNS 進行解析，並使用委託區域進行名稱解析（例如“azure.contoso.com”）。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5425,7 +5429,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
@@ -5437,7 +5441,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5458,7 +5462,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>對於只需要在 Azure 中進行名稱解析的環境，請使用 Azure 專用 DNS 進行解析，並使用委託區域進行名稱解析（例如“azure.contoso.com”）。</t>
+          <t>對於需要跨 Azure 和本地進行名稱解析的環境，請考慮使用 Azure DNS 專用解析程式。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5475,19 +5479,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5508,13 +5512,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>對於需要跨 Azure 和本地進行名稱解析的環境，請考慮使用 Azure DNS 專用解析程式。</t>
+          <t>需要並部署自己的 DNS（例如 Red Hat OpenShift）的特殊工作負載應使用其首選的 DNS 解決方案。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5525,19 +5529,15 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,13 +5558,13 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>需要並部署自己的 DNS（例如 Red Hat OpenShift）的特殊工作負載應使用其首選的 DNS 解決方案。</t>
+          <t>啟用 Azure DNS 的自動註冊，以自動管理虛擬網路中部署的虛擬機的 DNS 記錄的生命週期。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5575,15 +5575,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I101" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5599,18 +5603,18 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>啟用 Azure DNS 的自動註冊，以自動管理虛擬網路中部署的虛擬機的 DNS 記錄的生命週期。</t>
+          <t>請考慮使用 Azure Bastion 安全地連接到網路。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5621,19 +5625,15 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>請考慮使用 Azure Bastion 安全地連接到網路。</t>
+          <t>在子網 /26 或更大的情況下使用 Azure Bastion。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5671,7 +5671,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="I103" s="15" t="n"/>
@@ -5679,7 +5679,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5700,13 +5700,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>在子網 /26 或更大的情況下使用 Azure Bastion。</t>
+          <t>使用 Azure 防火牆管理發往 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東/西流量篩選（如果組織需要）</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5717,15 +5717,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5746,13 +5750,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 防火牆管理發往 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東/西流量篩選（如果組織需要）</t>
+          <t>創建全域 Azure 防火牆策略來管理全球網路環境中的安全狀況，並將其分配給所有 Azure 防火牆實例。通過 Azure 基於角色的訪問控制將增量防火牆策略委派給本地安全團隊，從而允許精細策略來滿足特定區域的要求。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5763,7 +5767,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
@@ -5775,7 +5779,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5796,13 +5800,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>創建全域 Azure 防火牆策略來管理全球網路環境中的安全狀況，並將其分配給所有 Azure 防火牆實例。通過 Azure 基於角色的訪問控制將增量防火牆策略委派給本地安全團隊，從而允許精細策略來滿足特定區域的要求。</t>
+          <t>如果組織希望使用此類解決方案來幫助保護出站連接，請在 Firewall Manager 中配置受支援的合作夥伴 SaaS 安全提供者。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5825,7 +5829,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5846,13 +5850,13 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>如果組織希望使用此類解決方案來幫助保護出站連接，請在 Firewall Manager 中配置受支援的合作夥伴 SaaS 安全提供者。</t>
+          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為登陸區域的入站 HTTP/S 連接提供全域保護。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5863,19 +5867,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5896,13 +5900,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為登陸區域的入站 HTTP/S 連接提供全域保護。</t>
+          <t>使用 Azure Front Door 和 Azure 應用程式閘道幫助保護 HTTP/S 應用時，請在 Azure Front Door 中使用 WAF 策略。鎖定 Azure 應用程式閘道，以便僅接收來自 Azure Front Door 的流量。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5913,7 +5917,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
@@ -5925,7 +5929,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5946,13 +5950,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 Azure 應用程式閘道幫助保護 HTTP/S 應用時，請在 Azure Front Door 中使用 WAF 策略。鎖定 Azure 應用程式閘道，以便僅接收來自 Azure Front Door 的流量。</t>
+          <t>部署 入站 HTTP/S 連接需要部署 WAF 和其他反向代理，將它們部署在登陸區域虛擬網路中，並將它們與它們保護和公開給 Internet 的應用一起部署。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5968,14 +5972,14 @@
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5996,7 +6000,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>部署 入站 HTTP/S 連接需要部署 WAF 和其他反向代理，將它們部署在登陸區域虛擬網路中，並將它們與它們保護和公開給 Internet 的應用一起部署。</t>
+          <t>使用 Azure DDoS 網路或 IP 防護計劃來幫助保護虛擬網路中的公共 IP 位址終結點。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6013,19 +6017,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6046,7 +6050,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure DDoS 網路或 IP 防護計劃來幫助保護虛擬網路中的公共 IP 位址終結點。</t>
+          <t>使用基於 FQDN 的網路規則和具有 DNS 代理的 Azure 防火牆，通過應用程式規則不支援的協定篩選流向 Internet 的出口流量。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6063,19 +6067,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6096,7 +6095,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>使用基於 FQDN 的網路規則和具有 DNS 代理的 Azure 防火牆，通過應用程式規則不支援的協定篩選流向 Internet 的出口流量。</t>
+          <t>使用 Azure 防火牆高級版獲得額外的安全性和保護。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6113,7 +6112,7 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I112" s="15" t="n"/>
@@ -6121,7 +6120,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6142,7 +6141,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 防火牆高級版獲得額外的安全性和保護。</t>
+          <t>將 Azure 防火牆威脅情報模式配置為「警報」和「拒絕」，以獲得額外保護。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6167,7 +6166,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6188,7 +6187,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 防火牆威脅情報模式配置為「警報」和「拒絕」，以獲得額外保護。</t>
+          <t>將 Azure 防火牆 IDPS 模式配置為「拒絕」以獲得額外保護。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6205,7 +6204,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6213,7 +6212,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6234,7 +6233,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 防火牆 IDPS 模式配置為「拒絕」以獲得額外保護。</t>
+          <t>對於未連接到虛擬 WAN 的 VNet 中的子網，請附加路由表，以便將 Internet 流量重定向到 Azure 防火牆或網路虛擬設備</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6251,14 +6250,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6279,7 +6278,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>對於未連接到虛擬 WAN 的 VNet 中的子網，請附加路由表，以便將 Internet 流量重定向到 Azure 防火牆或網路虛擬設備</t>
+          <t>在即將到來的重大更改之前評估和審查網路出站流量配置和策略。2025 年 9 月 30 日，新部署的預設出站訪問將停用，僅允許顯式訪問配置</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6296,14 +6295,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6319,12 +6318,12 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>PaaS的</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>在即將到來的重大更改之前評估和審查網路出站流量配置和策略。2025 年 9 月 30 日，新部署的預設出站訪問將停用，僅允許顯式訪問配置</t>
+          <t>確保注入虛擬網路的 Azure PaaS 服務的控制平面通信不會中斷，例如使用 0.0.0.0/0 路由或阻止控制平面流量的 NSG 規則。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6341,14 +6340,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6369,13 +6373,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>確保注入虛擬網路的 Azure PaaS 服務的控制平面通信不會中斷，例如使用 0.0.0.0/0 路由或阻止控制平面流量的 NSG 規則。</t>
+          <t>將專用連結（如果可用）用於共用的 Azure PaaS 服務。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6386,19 +6390,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6419,7 +6423,7 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>將專用連結（如果可用）用於共用的 Azure PaaS 服務。</t>
+          <t>通過專用終結點和 ExpressRoute 專用對等互連從本地訪問 Azure PaaS 服務。此方法可避免通過公共 Internet 傳輸。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6441,14 +6445,14 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6469,7 +6473,7 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>通過專用終結點和 ExpressRoute 專用對等互連從本地訪問 Azure PaaS 服務。此方法可避免通過公共 Internet 傳輸。</t>
+          <t>默認情況下，不要在所有子網上啟用虛擬網路服務終結點。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6491,14 +6495,14 @@
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6519,7 +6523,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>默認情況下，不要在所有子網上啟用虛擬網路服務終結點。</t>
+          <t>使用 FQDN（而不是 Azure 防火牆或 NVA 中的 IP 位址）篩選發往 Azure PaaS 服務的出口流量，以防止數據外洩。如果使用專用連結，則可以阻止所有 FQDN，否則僅允許所需的 PaaS 服務。</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6548,7 +6552,7 @@
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6564,18 +6568,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>PaaS的</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>使用 FQDN（而不是 Azure 防火牆或 NVA 中的 IP 位址）篩選發往 Azure PaaS 服務的出口流量，以防止數據外洩。如果使用專用連結，則可以阻止所有 FQDN，否則僅允許所需的 PaaS 服務。</t>
+          <t>對 Azure 防火牆子網使用 /26 前置綴。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6586,19 +6590,15 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>對 Azure 防火牆子網使用 /26 前置綴。</t>
+          <t>至少對閘道子網使用 /27 前置綴</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6636,7 +6636,7 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="I123" s="15" t="n"/>
@@ -6644,7 +6644,7 @@
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6665,13 +6665,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>至少對閘道子網使用 /27 前置綴</t>
+          <t>不要依賴使用 VirtualNetwork 服務標記的 NSG 入站預設規則來限制連接。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6682,7 +6682,7 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="I124" s="15" t="n"/>
@@ -6690,7 +6690,7 @@
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>不要依賴使用 VirtualNetwork 服務標記的 NSG 入站預設規則來限制連接。</t>
+          <t>將子網創建委託給登陸區域擁有者。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6728,15 +6728,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6757,7 +6761,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>將子網創建委託給登陸區域擁有者。</t>
+          <t>使用 NSG 説明保護跨子網的流量，以及跨平台的東/西流量（登陸區域之間的流量）。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6774,19 +6778,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6807,7 +6811,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>使用 NSG 説明保護跨子網的流量，以及跨平台的東/西流量（登陸區域之間的流量）。</t>
+          <t>應用程式團隊應在子網級別的NSG上使用應用程式安全組來幫助保護登陸區域中的多層 VM。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6822,11 +6826,7 @@
         </is>
       </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
+      <c r="H127" s="15" t="n"/>
       <c r="I127" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -6836,7 +6836,7 @@
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>應用程式團隊應在子網級別的NSG上使用應用程式安全組來幫助保護登陸區域中的多層 VM。</t>
+          <t>使用 NSG 和應用程式安全組對登陸區域內的流量進行微分段，並避免使用中心 NVA 篩選流量流。</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6872,7 +6872,11 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="n"/>
+      <c r="H128" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
       <c r="I128" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -6882,7 +6886,7 @@
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6903,7 +6907,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>使用 NSG 和應用程式安全組對登陸區域內的流量進行微分段，並避免使用中心 NVA 篩選流量流。</t>
+          <t>啟用 NSG 流日誌並將其饋送到流量分析中，以深入了解內部和外部流量流。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6925,14 +6929,14 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6948,12 +6952,12 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>虛擬廣域網</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>啟用 NSG 流日誌並將其饋送到流量分析中，以深入了解內部和外部流量流。</t>
+          <t>請考慮使用虛擬 WAN 來簡化 Azure 網路管理，並確保在虛擬 WAN 路由設計清單中明確描述你的方案</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -6970,19 +6974,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7003,7 +7007,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>請考慮使用虛擬 WAN 來簡化 Azure 網路管理，並確保在虛擬 WAN 路由設計清單中明確描述你的方案</t>
+          <t>使用每個 Azure 區域的虛擬 WAN 中心，透過通用的全球 Azure 虛擬 WAN 跨 Azure 區域將多個登陸區域連接在一起。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7020,19 +7024,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7053,13 +7052,13 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>使用每個 Azure 區域的虛擬 WAN 中心，透過通用的全球 Azure 虛擬 WAN 跨 Azure 區域將多個登陸區域連接在一起。</t>
+          <t>遵循“Azure 中的流量保留在 Azure 中”的原則，以便通過 Microsoft 主幹網络跨 Azure 中的資源進行通信</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7077,7 +7076,7 @@
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7098,13 +7097,13 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>遵循“Azure 中的流量保留在 Azure 中”的原則，以便通過 Microsoft 主幹網络在 Azure 中的資源之間進行通信</t>
+          <t>若要進行出站 Internet 流量保護和篩選，請在安全中心部署 Azure 防火牆</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
       <c r="E133" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -7116,13 +7115,18 @@
       <c r="H133" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7143,7 +7147,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>若要進行出站 Internet 流量保護和篩選，請在安全中心部署 Azure 防火牆</t>
+          <t>確保網路體系結構在 Azure 虛擬 WAN 限制範圍內。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7160,19 +7164,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7193,7 +7192,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>確保網路體系結構在 Azure 虛擬 WAN 限制範圍內。</t>
+          <t>使用適用於虛擬 WAN 的 Azure Monitor 見解監視虛擬 WAN 的端到端拓撲、狀態和關鍵指標。</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7210,14 +7209,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7238,7 +7237,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>使用適用於虛擬 WAN 的 Azure Monitor 見解監視虛擬 WAN 的端到端拓撲、狀態和關鍵指標。</t>
+          <t>請確保 IaC 部署不會在虛擬 WAN 中禁用分支到分支流量，除非應顯式阻止這些流。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7255,14 +7254,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7283,7 +7282,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>請確保 IaC 部署不會在虛擬 WAN 中禁用分支到分支流量，除非應顯式阻止這些流。</t>
+          <t>使用 AS-Path 作為中心路由首選項，因為它比 ExpressRoute 或 VPN 更靈活。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7300,14 +7299,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7328,7 +7327,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>使用 AS-Path 作為中心路由首選項，因為它比 ExpressRoute 或 VPN 更靈活。</t>
+          <t>請確保 IaC 部署在虛擬 WAN 中配置基於標籤的傳播，否則虛擬中心之間的連接將受到損害。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7345,14 +7344,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7373,13 +7372,13 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>請確保 IaC 部署在虛擬 WAN 中配置基於標籤的傳播，否則虛擬中心之間的連接將受到損害。</t>
+          <t>為虛擬中心分配足夠的IP空間，最好是 /23前置綴。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7390,14 +7389,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7408,17 +7407,17 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>為虛擬中心分配足夠的IP空間，最好是 /23前置綴。</t>
+          <t>戰略性地利用 Azure Policy，為環境定義控制，使用策略計劃對相關策略進行分組。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7435,14 +7434,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7463,13 +7462,13 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>戰略性地利用 Azure Policy，為環境定義控制，使用策略計劃對相關策略進行分組。</t>
+          <t>確定所需的 Azure 標記，並使用「追加」策略模式通過 Azure Policy 強制使用。</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7480,14 +7479,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7508,7 +7507,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>確定所需的 Azure 標記，並使用「追加」策略模式通過 Azure Policy 強制使用。</t>
+          <t>將法規和合規性要求映射到 Azure Policy 定義和 Azure 角色分配。</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7525,14 +7524,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7553,7 +7552,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>將法規和合規性要求映射到 Azure Policy 定義和 Azure 角色分配。</t>
+          <t>在中間根管理組建立 Azure Policy 定義，以便可以在繼承的範圍內分配這些定義</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7577,7 +7576,7 @@
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7598,7 +7597,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>在中間根管理組建立 Azure Policy 定義，以便可以在繼承的範圍內分配這些定義</t>
+          <t>如果需要，在適當的最高級別管理策略分配，並在底層管理排除項。</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7622,7 +7621,7 @@
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7643,13 +7642,13 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>如果需要，在適當的最高級別管理策略分配，並在底層管理排除項。</t>
+          <t>使用 Azure Policy 控制使用者可以在訂閱/管理組級別預配哪些服務</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7660,14 +7659,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7688,13 +7687,13 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 控制使用者可以在訂閱/管理組級別預配哪些服務</t>
+          <t>盡可能使用內置策略，以最大程度地減少運營開銷。</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7705,14 +7704,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7733,10 +7732,14 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>盡可能使用內置策略，以最大程度地減少運營開銷。</t>
-        </is>
-      </c>
-      <c r="D147" s="21" t="n"/>
+          <t>在特定範圍內分配內置的「資源策略參與者」角色，以啟用應用程式級治理。</t>
+        </is>
+      </c>
+      <c r="D147" s="21" t="inlineStr">
+        <is>
+          <t>通過將「資源策略參與者」角色分配給特定範圍，可以將策略管理委派給相關團隊。例如，中心 IT 團隊可以監督管理組級別的策略，而應用程式團隊則處理其訂閱的策略，從而在遵守組織標準的情況下實現分散式治理。</t>
+        </is>
+      </c>
       <c r="E147" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -7750,14 +7753,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7778,14 +7781,10 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>在特定範圍內分配內置的「資源策略參與者」角色，以啟用應用程式級治理。</t>
-        </is>
-      </c>
-      <c r="D148" s="21" t="inlineStr">
-        <is>
-          <t>通過將「資源策略參與者」角色分配給特定範圍，可以將策略管理委派給相關團隊。例如，中心 IT 團隊可以監督管理組級別的策略，而應用程式團隊則處理其訂閱的策略，從而在遵守組織標準的情況下實現分散式治理。</t>
-        </is>
-      </c>
+          <t>限制在根管理組範圍內進行的 Azure Policy 分配數，以避免在繼承的範圍內通過排除項進行管理。</t>
+        </is>
+      </c>
+      <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -7799,14 +7798,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7827,7 +7826,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>限制在根管理組範圍內進行的 Azure Policy 分配數，以避免在繼承的範圍內通過排除項進行管理。</t>
+          <t>如果存在任何數據主權要求，可以部署 Azure 策略來強制實施這些要求</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7844,14 +7843,19 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7872,7 +7876,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>如果存在任何數據主權要求，可以部署 Azure 策略來強制實施這些要求</t>
+          <t>對於主權登陸區域，主權策略基線的策略計劃在正確的 MG 級別部署和分配。</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7889,19 +7893,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7922,7 +7921,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，主權策略基線的策略計劃在正確的 MG 級別進行部署和分配。</t>
+          <t>對於主權登陸區，記錄了主權控制目標到策略映射。</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7939,14 +7938,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7967,7 +7966,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區，記錄了主權控制目標到策略映射。</t>
+          <t>對於主權登陸區，“主權控制目標到策略映射”的 CRUD 流程已到位。</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7982,16 +7981,12 @@
         </is>
       </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
-        </is>
-      </c>
+      <c r="H152" s="15" t="n"/>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8007,18 +8002,18 @@
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>優化雲投資</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區，“主權控制目標到策略映射”的 CRUD 流程已到位。</t>
+          <t>請考慮使用自動化標記來啟動/停止環境中的 VM，以節省成本。</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8027,12 +8022,16 @@
         </is>
       </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8043,23 +8042,23 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>優化雲投資</t>
+          <t>可擴展性</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>請考慮使用自動化標記來啟動/停止環境中的 VM，以節省成本。</t>
+          <t>利用 Azure 虛擬機規模集根據負載進行橫向擴展和橫向擴展。</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8070,14 +8069,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8088,17 +8087,17 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>可擴展性</t>
+          <t>優化雲投資</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>利用 Azure 虛擬機規模集根據負載進行橫向擴展和橫向擴展。</t>
+          <t>配置“實際”和“預測”預算警報。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8115,14 +8114,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8133,23 +8132,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>優化雲投資</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>配置“實際”和“預測”預算警報。</t>
+          <t>添加診斷設置以保存 Azure Front Door 和 Azure 應用程式閘道等應用程式交付服務中的 WAF 紀錄。定期查看日誌，以檢查攻擊和誤報檢測。</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8160,14 +8159,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8188,13 +8187,13 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>添加診斷設置以保存 Azure Front Door 和 Azure 應用程式閘道等應用程式交付服務中的 WAF 紀錄。定期查看日誌，以檢查攻擊和誤報檢測。</t>
+          <t>將 WAF 日誌從 Azure Front Door 和 Azure 應用程式閘道等應用程式交付服務發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測集成到整個 Azure 環境中。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8205,14 +8204,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8228,12 +8227,12 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>將 WAF 日誌從 Azure Front Door 和 Azure 應用程式閘道等應用程式交付服務發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測集成到整個 Azure 環境中。</t>
+          <t>考慮在 Azure 中對具有配對區域的 BCDR 進行跨區域複製</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8250,14 +8249,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8278,7 +8277,7 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>考慮在 Azure 中對具有配對區域的 BCDR 進行跨區域複製</t>
+          <t>使用 Azure 備份時，請考慮不同的備份類型（GRS、ZRS 和 LRS），因為預設設置為 GRS</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8295,14 +8294,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8318,12 +8317,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 備份時，請考慮不同的備份類型（GRS、ZRS 和 LRS），因為預設設置為 GRS</t>
+          <t>使用單個監視器日誌工作區集中管理平臺，但 Azure 基於角色的訪問控制 （Azure RBAC）、數據主權要求或數據保留策略要求使用單獨的工作區的情況除外。</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8340,14 +8339,19 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8368,7 +8372,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>使用單個監視器日誌工作區集中管理平臺，但 Azure 基於角色的訪問控制 （Azure RBAC）、數據主權要求或數據保留策略要求使用單獨的工作區的情況除外。</t>
+          <t>登陸區域是否已記錄？</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8383,21 +8387,12 @@
         </is>
       </c>
       <c r="G161" s="21" t="n"/>
-      <c r="H161" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+      <c r="H161" s="15" t="n"/>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8418,7 +8413,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>登陸區域是否已記錄？</t>
+          <t>當日志保留要求超過兩年時，請使用 Azure Monitor 日誌。目前，您可以將數據保留長達 7 年的存檔狀態。</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8433,12 +8428,21 @@
         </is>
       </c>
       <c r="G162" s="21" t="n"/>
-      <c r="H162" s="15" t="n"/>
+      <c r="H162" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8459,7 +8463,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>當日志保留要求超過兩年時，請使用 Azure Monitor 日誌。目前，您可以將數據保留長達 7 年的存檔狀態。</t>
+          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供強制實施組織範圍設置的功能，以確保一致的策略遵守和快速的違規檢測。</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8476,19 +8480,19 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8509,7 +8513,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供強制實施組織範圍設置的功能，以確保一致的策略遵守和快速的違規檢測。</t>
+          <t>使用 Azure Policy 監視來賓內虛擬機 （VM） 配置偏移。通過策略啟用來賓配置審核功能有助於應用程式團隊工作負載立即使用功能，而無需付出任何努力。</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8526,19 +8530,19 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8559,7 +8563,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 監視來賓內虛擬機 （VM） 配置偏移。通過策略啟用來賓配置審核功能有助於應用程式團隊工作負載立即使用功能，而無需付出任何努力。</t>
+          <t>使用 Azure 自動化中的更新管理作為 Windows 和 Linux VM 的長期修補機制。</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8576,19 +8580,19 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8609,7 +8613,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 自動化中的更新管理作為 Windows 和 Linux VM 的長期修補機制。</t>
+          <t>使用網路觀察程序主動監視流量</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8626,19 +8630,19 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8659,7 +8663,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>使用網路觀察程序主動監視流量</t>
+          <t>使用資源鎖可防止意外刪除關鍵共享服務。</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8676,19 +8680,19 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8709,13 +8713,13 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>使用資源鎖可防止意外刪除關鍵共享服務。</t>
+          <t>使用拒絕策略來補充 Azure 角色分配。拒絕策略和 Azure 角色分配的組合可確保設置適當的防護機制，以強制實施誰可以部署和配置資源，以及他們可以部署和配置哪些資源。</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8726,19 +8730,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8759,13 +8758,13 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>使用拒絕策略來補充 Azure 角色分配。拒絕策略和 Azure 角色分配的組合可確保設置適當的防護機制，以強制實施誰可以部署和配置資源，以及他們可以部署和配置哪些資源。</t>
+          <t>將服務和資源運行狀況事件作為整體平臺監視解決方案的一部分。從平臺角度跟蹤服務和資源運行狀況是 Azure 中資源管理的重要組成部分。</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8776,14 +8775,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8804,7 +8803,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>將服務和資源運行狀況事件作為整體平臺監視解決方案的一部分。從平臺角度跟蹤服務和資源運行狀況是 Azure 中資源管理的重要組成部分。</t>
+          <t>將警報和操作組作為 Azure 服務運行狀況平臺的一部分，以確保可以對警報或問題執行操作</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8821,14 +8820,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8849,7 +8848,7 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>將警報和操作組作為 Azure 服務運行狀況平臺的一部分，以確保可以對警報或問題執行操作</t>
+          <t>不要將原始日誌條目發送回本地監視系統。相反，應採用在 Azure 中生成的數據保留在 Azure 中的原則。如果需要本地 SIEM 集成，請發送關鍵警報而不是日誌。</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8866,14 +8865,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8894,7 +8893,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>不要將原始日誌條目發送回本地監視系統。相反，應採用在 Azure 中生成的數據保留在 Azure 中的原則。如果需要本地 SIEM 集成，請發送關鍵警報而不是日誌。</t>
+          <t>使用集中式 Azure Monitor Log Analytics 工作區從 IaaS 和 PaaS 應用程式資源收集日誌和指標，並使用 Azure RBAC 控制日誌訪問。</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8911,14 +8910,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8939,7 +8938,7 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>使用集中式 Azure Monitor Log Analytics 工作區從 IaaS 和 PaaS 應用程式資源收集日誌和指標，並使用 Azure RBAC 控制日誌訪問。</t>
+          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8956,14 +8955,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8984,7 +8983,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
+          <t>必要時，在登陸區域中使用共用存儲帳戶進行 Azure 診斷擴展日誌存儲。</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9001,14 +9000,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9029,7 +9028,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>必要時，在登陸區域中使用共用存儲帳戶進行 Azure 診斷擴展日誌存儲。</t>
+          <t>使用 Azure Monitor 警報生成操作警報。</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9046,14 +9045,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9074,7 +9073,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 警報生成操作警報。</t>
+          <t>確保已評估監視要求，並應用了適當的數據收集和警報配置</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9091,14 +9090,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9119,7 +9118,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>確保已評估監視要求，並應用了適當的數據收集和警報配置</t>
+          <t>考慮連結的Log Analytics工作區和自動化帳戶支援的區域</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9136,14 +9135,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9159,12 +9158,12 @@
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>考慮連結的Log Analytics工作區和自動化帳戶支援的區域</t>
+          <t>使用 Azure 策略通過 VM 擴展自動部署軟體配置，並強制實施合規的基線 VM 配置。</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9181,14 +9180,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9209,10 +9208,14 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 策略通過 VM 擴展自動部署軟體配置，並強制實施合規的基線 VM 配置。</t>
-        </is>
-      </c>
-      <c r="D179" s="21" t="n"/>
+          <t>通過 Azure Policy 監視 VM 安全配置偏差。</t>
+        </is>
+      </c>
+      <c r="D179" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy 的來賓配置功能可以審核和修正計算機設置（例如 OS、應用程式、環境），以確保資源與預期配置保持一致，更新管理可以強制實施 VM 的修補程式管理。</t>
+        </is>
+      </c>
       <c r="E179" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -9226,14 +9229,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9249,19 +9252,15 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>保護和恢復</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure Policy 監視 VM 安全配置偏差。</t>
-        </is>
-      </c>
-      <c r="D180" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy 的來賓配置功能可以審核和修正計算機設置（例如 OS、應用程式、環境），以確保資源與預期配置保持一致，更新管理可以強制實施 VM 的修補程式管理。</t>
-        </is>
-      </c>
+          <t>將 Azure Site Recovery 用於 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
+        </is>
+      </c>
+      <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -9275,14 +9274,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9303,7 +9302,7 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>將 Azure Site Recovery 用於 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
+          <t>確保使用和測試原生 PaaS 服務災難恢復功能。</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9320,14 +9319,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9348,7 +9347,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>確保使用和測試原生 PaaS 服務災難恢復功能。</t>
+          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9365,14 +9364,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9388,18 +9387,18 @@
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>保護和恢復</t>
+          <t>容錯</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
+          <t>在支援可用性區域的區域中為 VM 利用可用性區域。</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9410,14 +9409,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9438,7 +9437,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>在支援可用性區域的區域中為 VM 利用可用性區域。</t>
+          <t>避免在單個 VM 上運行生產工作負載。</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9455,14 +9454,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9483,13 +9482,13 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>避免在單個 VM 上運行生產工作負載。</t>
+          <t>Azure 負載均衡器和應用程式閘道在多個資源之間分配傳入的網路流量。</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9500,14 +9499,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9518,17 +9517,17 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>容錯</t>
+          <t>存取控制</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Azure 負載均衡器和應用程式閘道在多個資源之間分配傳入的網路流量。</t>
+          <t>在允許 Azure 服務投入生產之前，確定其事件響應計劃。</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9545,14 +9544,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9573,7 +9572,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>在允許 Azure 服務投入生產之前，確定其事件響應計劃。</t>
+          <t>在適當的情況下，實施零信任方法來訪問 Azure 平臺。</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9590,14 +9589,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9613,18 +9612,18 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>存取控制</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>在適當的情況下，實施零信任方法來訪問 Azure 平臺。</t>
+          <t>使用 Azure Key Vault 儲存機密和憑據</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
       <c r="E188" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9635,14 +9634,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9663,13 +9662,13 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Key Vault 儲存機密和憑據</t>
+          <t>對不同的應用程式和區域使用不同的 Azure Key Vault，以避免事務規模限制並限制對機密的訪問。</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
       <c r="E189" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -9680,14 +9679,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9708,7 +9707,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>對不同的應用程式和區域使用不同的 Azure Key Vault，以避免事務規模限制並限制對機密的訪問。</t>
+          <t>預配啟用軟刪除和清除策略的 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9725,14 +9724,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9753,7 +9752,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>預配 Azure Key Vault 並啟用軟刪除和清除策略，以允許對已刪除物件進行保留保護。</t>
+          <t>遵循最低特權模型，將永久刪除密鑰、機密和證書的授權限制為專用的自定義 Microsoft Entra ID 角色。</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9777,7 +9776,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9798,7 +9797,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>遵循最低特權模型，將永久刪除密鑰、機密和證書的授權限制為專用的自定義 Microsoft Entra ID 角色。</t>
+          <t>使用公共證書頒發機構自動執行證書管理和續訂過程，以簡化管理。</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9822,7 +9821,7 @@
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9843,7 +9842,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>使用公共證書頒發機構自動執行證書管理和續訂流程，以簡化管理。</t>
+          <t>建立金鑰和證書輪換的自動化流程。</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9867,7 +9866,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9888,7 +9887,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>建立金鑰和證書輪換的自動化流程。</t>
+          <t>在保管庫上啟用防火牆和虛擬網路服務終結點或專用終結點，以控制對密鑰保管庫的訪問。</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9912,7 +9911,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9933,7 +9932,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>在保管庫上啟用防火牆和虛擬網路服務終結點或專用終結點，以控制對密鑰保管庫的訪問。</t>
+          <t>使用平臺中心的 Azure Monitor Log Analytics 工作區審核每個 Key Vault 實例中的金鑰、證書和機密使用方式。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9950,14 +9949,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9978,7 +9977,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>使用平臺中心的 Azure Monitor Log Analytics 工作區審核每個 Key Vault 實例中的金鑰、證書和機密使用方式。</t>
+          <t>委託 Key Vault 實例化和特權訪問，並使用 Azure Policy 強制實施一致的合規配置。</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -9995,14 +9994,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10023,7 +10022,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>委託 Key Vault 實例化和特權訪問，並使用 Azure Policy 強制實施一致的合規配置。</t>
+          <t>預設使用 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10040,14 +10039,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10068,7 +10067,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>預設使用 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
+          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10085,14 +10084,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10113,7 +10112,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+          <t>如果要自帶密鑰，則並非所有考慮的服務都支援此功能。實施相關的緩解措施，使不一致不會妨礙預期的結果。選擇適當的區域對和災難恢復區域，以最大程度地減少延遲。</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10137,7 +10136,7 @@
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10158,7 +10157,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>如果要自帶密鑰，則並非所有考慮的服務都支援此功能。實施相關的緩解措施，使不一致不會妨礙預期的結果。選擇適當的區域對和災難恢復區域，以最大程度地減少延遲。</t>
+          <t>對於主權登陸區域，請使用 Azure Key Vault 託管 HSM 來儲存機密和憑據。</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10175,14 +10174,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10198,12 +10197,12 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，請使用 Azure Key Vault 託管 HSM 來儲存機密和憑據。</t>
+          <t>使用 Microsoft Entra ID 報告功能生成訪問控制審核報告。</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10220,14 +10219,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10248,7 +10247,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra ID 報告功能生成訪問控制審核報告。</t>
+          <t>將 Azure 活動日誌匯出到 Azure Monitor 紀錄，以便長期保留數據。如有必要，導出到 Azure 存儲以進行超過兩年的長期存儲。</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10265,14 +10264,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10293,13 +10292,13 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 活動日誌匯出到 Azure Monitor 紀錄，以便長期保留數據。如有必要，導出到 Azure 存儲以進行超過兩年的長期存儲。</t>
+          <t>為所有訂閱啟用Defender雲安全態勢管理。</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10310,14 +10309,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10338,7 +10337,7 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>為所有訂閱啟用Defender雲安全態勢管理。</t>
+          <t>在所有訂閱上為伺服器啟用Defender雲工作負載保護計劃。</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10355,14 +10354,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10383,7 +10382,7 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>在所有訂閱上為伺服器啟用Defender雲工作負載保護計劃。</t>
+          <t>在所有訂閱上為 Azure 資源啟用 Defender 雲工作負載保護計劃。</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10400,14 +10399,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10428,7 +10427,7 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>在所有訂閱上為 Azure 資源啟用 Defender 雲工作負載保護計劃。</t>
+          <t>在 IaaS 伺服器上啟用 Endpoint Protection。</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
@@ -10445,14 +10444,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10473,13 +10472,13 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>在 IaaS 伺服器上啟用 Endpoint Protection。</t>
+          <t>通過 Azure Monitor 紀錄和 Defender for Cloud 監視基本作業系統修補偏差。</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10490,14 +10489,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10518,7 +10517,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure Monitor 紀錄和 Defender for Cloud 監視基本作業系統修補偏差。</t>
+          <t>將預設資源配置連接到集中式 Azure Monitor Log Analytics 工作區。</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10535,14 +10534,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10563,7 +10562,7 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>將預設資源配置連接到集中式 Azure Monitor Log Analytics 工作區。</t>
+          <t>對於主權登陸區域，在 Entra ID 租戶上啟用透明度日誌。</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10580,14 +10579,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10608,7 +10607,7 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，在 Entra ID 租戶上啟用透明度日誌。</t>
+          <t>對於主權登陸區域，在 Entra ID 租戶上啟用客戶密碼箱。</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10625,14 +10624,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10648,18 +10647,18 @@
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>概述</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，在 Entra ID 租戶上啟用客戶密碼箱。</t>
+          <t>應啟用到存儲帳戶的安全傳輸</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10670,14 +10669,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10698,7 +10697,7 @@
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>應啟用到存儲帳戶的安全傳輸</t>
+          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
@@ -10715,14 +10714,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10738,12 +10737,12 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>概述</t>
+          <t>安全特權訪問</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
+          <t>為 Azure 管理任務單獨使用特權管理員帳戶。</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
@@ -10760,14 +10759,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10783,18 +10782,18 @@
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>安全特權訪問</t>
+          <t>服務支援框架</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>為 Azure 管理任務單獨使用特權管理員帳戶。</t>
+          <t>規劃如何實現新的 Azure 服務</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10805,14 +10804,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10833,7 +10832,7 @@
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>規劃如何實現新的 Azure 服務</t>
+          <t>規劃如何滿足 Azure 服務的服務請求</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
@@ -10857,7 +10856,7 @@
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10868,23 +10867,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>平臺自動化和DevOps</t>
         </is>
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>服務支援框架</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>規劃如何滿足 Azure 服務的服務請求</t>
+          <t>確保有一個跨職能的DevOps平臺團隊來構建、管理和維護 Azure 登陸區域體系結構。</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10895,14 +10894,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10923,13 +10922,13 @@
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>確保你有一個跨職能的DevOps平臺團隊來構建、管理和維護 Azure 登陸區域體系結構。</t>
+          <t>旨在為 Azure 登陸區域平台團隊定義功能。</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10940,14 +10939,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10968,7 +10967,7 @@
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>旨在為 Azure 登陸區域平台團隊定義功能。</t>
+          <t>旨在為應用程式工作負載團隊定義功能，使其自給自足，不需要DevOps平臺團隊支援。通過使用自定義 RBAC 角色來實現此目的。</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
@@ -10992,7 +10991,7 @@
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11013,13 +11012,13 @@
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>旨在為應用程式工作負載團隊定義功能，使其自給自足，並且不需要 DevOps 平台團隊的支援。通過使用自定義 RBAC 角色來實現此目的。</t>
+          <t>使用 CI/CD 管道部署 IaC 專案，並確保部署和 Azure 環境的品質。</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11030,14 +11029,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11058,13 +11057,13 @@
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>使用 CI/CD 管道部署 IaC 專案，並確保部署和 Azure 環境的品質。</t>
+          <t>將 IaC 和應用程式代碼的單元測試作為生成過程的一部分。</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
       <c r="E220" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11075,14 +11074,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11103,13 +11102,13 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>將 IaC 和應用程式代碼的單元測試作為生成過程的一部分。</t>
+          <t>使用 Key Vault 機密可避免對敏感資訊（例如憑據（虛擬機器用戶密碼）、證書或密鑰）進行硬編碼。</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
       <c r="E221" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -11127,7 +11126,7 @@
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11148,13 +11147,13 @@
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>使用 Key Vault 機密可避免對敏感資訊（例如憑據（虛擬機器用戶密碼）、證書或密鑰）進行硬編碼。</t>
+          <t>為應用程式和工作負載實現檔&gt;新&gt;登陸區域的自動化。</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11165,14 +11164,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11188,18 +11187,18 @@
       </c>
       <c r="B223" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>開發生命週期</t>
         </is>
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>為應用程式和工作負載實現檔&gt;新&gt;登陸區域的自動化。</t>
+          <t>確保將版本控制系統用於開發的應用程式和 IaC 的原始程式碼。Microsoft 推薦 Git。</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
       <c r="E223" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11210,14 +11209,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11238,13 +11237,13 @@
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>確保將版本控制系統用於開發的應用程式和 IaC 的原始程式碼。Microsoft 推薦 Git。</t>
+          <t>遵循分支策略，使團隊能夠更好地協作，更有效地管理 IaC 和應用程式代碼的版本控制。查看 Github Flow 等選項。</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
       <c r="E224" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11255,14 +11254,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11283,13 +11282,13 @@
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>遵循分支策略，使團隊能夠更好地協作，更有效地管理 IaC 和應用程式代碼的版本控制。查看 Github Flow 等選項。</t>
+          <t>採用拉取請求策略來説明控制合併到分支中的代碼更改。</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11307,7 +11306,7 @@
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11323,18 +11322,18 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>開發生命週期</t>
+          <t>發展戰略</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>採用拉取請求策略來説明控制合併到分支中的代碼更改。</t>
+          <t>利用聲明性基礎結構即代碼工具（如 Azure Bicep、ARM 範本或 Terraform）來構建和維護 Azure 登陸區域體系結構。從平臺和應用程式工作負載的角度來看。</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11345,14 +11344,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11368,12 +11367,12 @@
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>發展戰略</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>利用聲明性基礎結構即代碼工具（如 Azure Bicep、ARM 範本或 Terraform）來構建和維護 Azure 登陸區域體系結構。從平臺和應用程式工作負載的角度來看。</t>
+          <t>將安全性集成到 DevOps 中已經組合的開發和運營流程中，以降低創新過程中的風險。</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
@@ -11390,14 +11389,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11406,45 +11405,15 @@
       <c r="P227" s="25" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="inlineStr">
-        <is>
-          <t>平臺自動化和DevOps</t>
-        </is>
-      </c>
-      <c r="B228" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="C228" s="21" t="inlineStr">
-        <is>
-          <t>將安全性集成到 DevOps 中已經組合的開發和運營流程中，以降低創新過程中的風險。</t>
-        </is>
-      </c>
+      <c r="A228" s="21" t="n"/>
+      <c r="B228" s="21" t="n"/>
+      <c r="C228" s="21" t="n"/>
       <c r="D228" s="21" t="n"/>
-      <c r="E228" s="21" t="inlineStr">
-        <is>
-          <t>高</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>未驗證</t>
-        </is>
-      </c>
+      <c r="E228" s="21" t="n"/>
       <c r="G228" s="21" t="n"/>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
-        </is>
-      </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
-      <c r="L228" s="25" t="inlineStr">
-        <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
-        </is>
-      </c>
+      <c r="L228" s="25" t="n"/>
       <c r="M228" s="25" t="n"/>
       <c r="N228" s="25" t="n"/>
       <c r="O228" s="25" t="n"/>
@@ -12631,7 +12600,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F229" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F228" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
@@ -2446,7 +2446,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>如果正在使用 ADDS，請評估所有工作負載的相容性</t>
+          <t>如果正在使用 Entra 域服務，請評估所有工作負載的相容性</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>使用 VPN 閘道將分支或遠端位置連接到 Azure。為了獲得更高的復原能力，請部署區域冗餘網關（如果可用）。</t>
+          <t>使用區域冗餘 VPN 閘道將分支或遠端位置連接到 Azure（如果可用）。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4870,13 +4870,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>如果使用 ExpressRoute Direct，請考慮使用到本地 Azure 區域的 ExpressRoute 本地線路以節省成本</t>
+          <t>在本地使用冗餘 VPN 設備（主動/主動或主動/被動）。</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4887,19 +4887,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-highlyavailable</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4920,13 +4920,13 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>當需要流量隔離或專用頻寬時，例如用於分離生產環境和非生產環境，請使用不同的 ExpressRoute 線路。它將幫助您確保隔離的路由域並減輕嘈雜的鄰居風險。</t>
+          <t>如果使用 ExpressRoute Direct，請考慮使用到本地 Azure 區域的 ExpressRoute 本地線路以節省成本</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4937,7 +4937,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
@@ -4949,7 +4949,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>使用內置的 Express Route 見解監視 ExpressRoute 可用性和利用率。</t>
+          <t>當需要流量隔離或專用頻寬時，例如用於分離生產環境和非生產環境，請使用不同的 ExpressRoute 線路。它將幫助您確保隔離的路由域並減輕嘈雜的鄰居風險。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4987,7 +4987,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
@@ -4999,7 +4999,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>使用連接監視器監視整個網路的連接，尤其是本地和 Azure 之間的連接。</t>
+          <t>使用內置的 Express Route 見解監視 ExpressRoute 可用性和利用率。</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5037,7 +5037,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
@@ -5049,7 +5049,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>使用來自不同對等互連位置的 ExpressRoute 線路來實現冗餘。</t>
+          <t>使用連接監視器監視整個網路的連接，尤其是本地和 Azure 之間的連接。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5087,7 +5087,7 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
@@ -5099,7 +5099,7 @@
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5120,13 +5120,13 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>如果在 GatewaySubnet 中使用路由表，請確保傳播閘道路由。</t>
+          <t>使用來自不同對等互連位置的 ExpressRoute 線路來實現冗餘。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5137,15 +5137,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5166,13 +5170,13 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>如果使用 ExpressRoute，則本地路由應是動態的：如果連接失敗，它應收斂到線路的剩餘連接。負載應在兩個連接之間共用，理想情況下應作為主動/主動共用，儘管也支持主動/被動。</t>
+          <t>使用網站到網站 VPN 作為 ExpressRoute 的故障轉移，尤其是在僅使用單個 ExpressRoute 線路時。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5183,7 +5187,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -5191,7 +5195,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5207,12 +5211,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>確保 Azure 區域和本地位置之間不使用重疊的 IP 位址空間</t>
+          <t>如果在 GatewaySubnet 中使用路由表，請確保傳播閘道路由。</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5229,19 +5233,15 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5257,18 +5257,18 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>使用專用 Internet 位址分配範圍中的 IP 位址 （RFC 1918）。</t>
+          <t>如果使用 ExpressRoute，則本地路由應是動態的：如果連接失敗，它應收斂到線路的剩餘連接。負載應在兩個連接之間共用，理想情況下應作為主動/主動共用，儘管也支持主動/被動。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5279,19 +5279,15 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I95" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
+        </is>
+      </c>
+      <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5312,7 +5308,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>確保不會浪費 IP 位址空間，不要建立不必要的大型虛擬網路（例如 /16）</t>
+          <t>確保 Azure 區域和本地位置之間不使用重疊的 IP 位址空間</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5341,7 +5337,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5362,13 +5358,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
+          <t>使用專用 Internet 位址分配範圍中的 IP 位址 （RFC 1918）。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5379,19 +5375,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5412,13 +5408,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>對於只需要在 Azure 中進行名稱解析的環境，請使用 Azure 專用 DNS 進行解析，並使用委託區域進行名稱解析（例如“azure.contoso.com”）。</t>
+          <t>確保不會浪費 IP 位址空間，不要建立不必要的大型虛擬網路（例如 /16）</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5429,19 +5425,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5462,13 +5458,13 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>對於需要跨 Azure 和本地進行名稱解析的環境，請考慮使用 Azure DNS 專用解析程式。</t>
+          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5479,19 +5475,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5512,13 +5508,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>需要並部署自己的 DNS（例如 Red Hat OpenShift）的特殊工作負載應使用其首選的 DNS 解決方案。</t>
+          <t>對於只需要在 Azure 中進行名稱解析的環境，請使用 Azure 專用 DNS 進行解析，並使用委託區域進行名稱解析（例如“azure.contoso.com”）。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5532,12 +5528,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I100" s="15" t="n"/>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,13 +5558,13 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>啟用 Azure DNS 的自動註冊，以自動管理虛擬網路中部署的虛擬機的 DNS 記錄的生命週期。</t>
+          <t>對於需要跨 Azure 和本地進行名稱解析的環境，請考慮使用 Azure DNS 專用解析程式。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5575,19 +5575,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5603,18 +5603,18 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>IP計劃</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>請考慮使用 Azure Bastion 安全地連接到網路。</t>
+          <t>需要並部署自己的 DNS（例如 Red Hat OpenShift）的特殊工作負載應使用其首選的 DNS 解決方案。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5625,7 +5625,7 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I102" s="15" t="n"/>
@@ -5633,7 +5633,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5649,18 +5649,18 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>IP計劃</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>在子網 /26 或更大的情況下使用 Azure Bastion。</t>
+          <t>啟用 Azure DNS 的自動註冊，以自動管理虛擬網路中部署的虛擬機的 DNS 記錄的生命週期。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5671,15 +5671,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5700,13 +5704,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 防火牆管理發往 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東/西流量篩選（如果組織需要）</t>
+          <t>請考慮使用 Azure Bastion 安全地連接到網路。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5717,19 +5721,15 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>創建全域 Azure 防火牆策略來管理全球網路環境中的安全狀況，並將其分配給所有 Azure 防火牆實例。通過 Azure 基於角色的訪問控制將增量防火牆策略委派給本地安全團隊，從而允許精細策略來滿足特定區域的要求。</t>
+          <t>在子網 /26 或更大的情況下使用 Azure Bastion。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5767,19 +5767,15 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5800,13 +5796,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>如果組織希望使用此類解決方案來幫助保護出站連接，請在 Firewall Manager 中配置受支援的合作夥伴 SaaS 安全提供者。</t>
+          <t>使用 Azure 防火牆管理發往 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東/西流量篩選（如果組織需要）</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5817,7 +5813,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
@@ -5829,7 +5825,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5850,7 +5846,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為登陸區域的入站 HTTP/S 連接提供全域保護。</t>
+          <t>創建全域 Azure 防火牆策略來管理全球網路環境中的安全狀況，並將其分配給所有 Azure 防火牆實例。通過 Azure 基於角色的訪問控制將增量防火牆策略委派給本地安全團隊，從而允許精細策略來滿足特定區域的要求。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5867,19 +5863,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5900,7 +5896,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 Azure 應用程式閘道幫助保護 HTTP/S 應用時，請在 Azure Front Door 中使用 WAF 策略。鎖定 Azure 應用程式閘道，以便僅接收來自 Azure Front Door 的流量。</t>
+          <t>如果組織希望使用此類解決方案來幫助保護出站連接，請在 Firewall Manager 中配置受支援的合作夥伴 SaaS 安全提供者。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5917,19 +5913,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5950,13 +5946,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>部署 入站 HTTP/S 連接需要部署 WAF 和其他反向代理，將它們部署在登陸區域虛擬網路中，並將它們與它們保護和公開給 Internet 的應用一起部署。</t>
+          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為登陸區域的入站 HTTP/S 連接提供全域保護。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5967,19 +5963,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6000,13 +5996,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure DDoS 網路或 IP 防護計劃來幫助保護虛擬網路中的公共 IP 位址終結點。</t>
+          <t>使用 Azure Front Door 和 Azure 應用程式閘道幫助保護 HTTP/S 應用時，請在 Azure Front Door 中使用 WAF 策略。鎖定 Azure 應用程式閘道，以便僅接收來自 Azure Front Door 的流量。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6017,19 +6013,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6050,7 +6046,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>使用基於 FQDN 的網路規則和具有 DNS 代理的 Azure 防火牆，通過應用程式規則不支援的協定篩選流向 Internet 的出口流量。</t>
+          <t>部署 入站 HTTP/S 連接需要部署 WAF 和其他反向代理，將它們部署在登陸區域虛擬網路中，並將它們與它們保護和公開給 Internet 的應用一起部署。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6067,14 +6063,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6095,7 +6096,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 防火牆高級版獲得額外的安全性和保護。</t>
+          <t>使用 Azure DDoS 網路或 IP 防護計劃來幫助保護虛擬網路中的公共 IP 位址終結點。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6112,15 +6113,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6141,7 +6146,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 防火牆威脅情報模式配置為「警報」和「拒絕」，以獲得額外保護。</t>
+          <t>使用基於 FQDN 的網路規則和具有 DNS 代理的 Azure 防火牆，通過應用程式規則不支援的協定篩選流向 Internet 的出口流量。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6158,7 +6163,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I113" s="15" t="n"/>
@@ -6166,7 +6171,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6187,7 +6192,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 防火牆 IDPS 模式配置為「拒絕」以獲得額外保護。</t>
+          <t>使用 Azure 防火牆高級版獲得額外的安全性和保護。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6204,7 +6209,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6212,7 +6217,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6233,7 +6238,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>對於未連接到虛擬 WAN 的 VNet 中的子網，請附加路由表，以便將 Internet 流量重定向到 Azure 防火牆或網路虛擬設備</t>
+          <t>將 Azure 防火牆威脅情報模式配置為「警報」和「拒絕」，以獲得額外保護。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6250,14 +6255,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6278,7 +6283,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>在即將到來的重大更改之前評估和審查網路出站流量配置和策略。2025 年 9 月 30 日，新部署的預設出站訪問將停用，僅允許顯式訪問配置</t>
+          <t>將 Azure 防火牆 IDPS 模式配置為「拒絕」以獲得額外保護。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6295,14 +6300,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6318,12 +6323,12 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>PaaS的</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>確保注入虛擬網路的 Azure PaaS 服務的控制平面通信不會中斷，例如使用 0.0.0.0/0 路由或阻止控制平面流量的 NSG 規則。</t>
+          <t>對於未連接到虛擬 WAN 的 VNet 中的子網，請附加路由表，以便將 Internet 流量重定向到 Azure 防火牆或網路虛擬設備</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6340,19 +6345,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6368,18 +6368,18 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>PaaS的</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>將專用連結（如果可用）用於共用的 Azure PaaS 服務。</t>
+          <t>在即將到來的重大更改之前評估和審查網路出站流量配置和策略。2025 年 9 月 30 日，新部署的預設出站訪問將停用，僅允許顯式訪問配置</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6390,19 +6390,15 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6423,13 +6419,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>通過專用終結點和 ExpressRoute 專用對等互連從本地訪問 Azure PaaS 服務。此方法可避免通過公共 Internet 傳輸。</t>
+          <t>確保注入虛擬網路的 Azure PaaS 服務的控制平面通信不會中斷，例如使用 0.0.0.0/0 路由或阻止控制平面流量的 NSG 規則。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6440,19 +6436,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6473,7 +6469,7 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>默認情況下，不要在所有子網上啟用虛擬網路服務終結點。</t>
+          <t>將專用連結（如果可用）用於共用的 Azure PaaS 服務。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6495,14 +6491,14 @@
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6523,7 +6519,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>使用 FQDN（而不是 Azure 防火牆或 NVA 中的 IP 位址）篩選發往 Azure PaaS 服務的出口流量，以防止數據外洩。如果使用專用連結，則可以阻止所有 FQDN，否則僅允許所需的 PaaS 服務。</t>
+          <t>通過專用終結點和 ExpressRoute 專用對等互連從本地訪問 Azure PaaS 服務。此方法可避免通過公共 Internet 傳輸。</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6545,14 +6541,14 @@
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6568,18 +6564,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>PaaS的</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>對 Azure 防火牆子網使用 /26 前置綴。</t>
+          <t>默認情況下，不要在所有子網上啟用虛擬網路服務終結點。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6590,15 +6586,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6614,18 +6614,18 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>PaaS的</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>至少對閘道子網使用 /27 前置綴</t>
+          <t>使用 FQDN（而不是 Azure 防火牆或 NVA 中的 IP 位址）篩選發往 Azure PaaS 服務的出口流量，以防止數據外洩。如果使用專用連結，則可以阻止所有 FQDN，否則僅允許所需的 PaaS 服務。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6636,15 +6636,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6665,13 +6669,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>不要依賴使用 VirtualNetwork 服務標記的 NSG 入站預設規則來限制連接。</t>
+          <t>對 Azure 防火牆子網使用 /26 前置綴。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6682,7 +6686,7 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="I124" s="15" t="n"/>
@@ -6690,7 +6694,7 @@
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6711,13 +6715,13 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>將子網創建委託給登陸區域擁有者。</t>
+          <t>至少對閘道子網使用 /27 前置綴</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6728,19 +6732,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>使用 NSG 説明保護跨子網的流量，以及跨平台的東/西流量（登陸區域之間的流量）。</t>
+          <t>不要依賴使用 VirtualNetwork 服務標記的 NSG 入站預設規則來限制連接。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6778,19 +6778,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6811,7 +6806,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>應用程式團隊應在子網級別的NSG上使用應用程式安全組來幫助保護登陸區域中的多層 VM。</t>
+          <t>將子網創建委託給登陸區域擁有者。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6826,17 +6821,21 @@
         </is>
       </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="n"/>
+      <c r="H127" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6857,7 +6856,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>使用 NSG 和應用程式安全組對登陸區域內的流量進行微分段，並避免使用中心 NVA 篩選流量流。</t>
+          <t>使用 NSG 説明保護跨子網的流量，以及跨平台的東/西流量（登陸區域之間的流量）。</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6874,7 +6873,7 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6886,7 +6885,7 @@
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6907,7 +6906,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>啟用 NSG 流日誌並將其饋送到流量分析中，以深入了解內部和外部流量流。</t>
+          <t>應用程式團隊應在子網級別的NSG上使用應用程式安全組來幫助保護登陸區域中的多層 VM。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6922,21 +6921,17 @@
         </is>
       </c>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H129" s="15" t="n"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6952,12 +6947,12 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>請考慮使用虛擬 WAN 來簡化 Azure 網路管理，並確保在虛擬 WAN 路由設計清單中明確描述你的方案</t>
+          <t>使用 NSG 和應用程式安全組對登陸區域內的流量進行微分段，並避免使用中心 NVA 篩選流量流。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -6974,19 +6969,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7002,12 +6997,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>使用每個 Azure 區域的虛擬 WAN 中心，透過通用的全球 Azure 虛擬 WAN 跨 Azure 區域將多個登陸區域連接在一起。</t>
+          <t>啟用 VNet 流日誌並將其饋送到流量分析中，以深入了解內部和外部流量流。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7024,14 +7019,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7052,13 +7052,13 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>遵循“Azure 中的流量保留在 Azure 中”的原則，以便通過 Microsoft 主幹網络跨 Azure 中的資源進行通信</t>
+          <t>請考慮使用虛擬 WAN 來簡化 Azure 網路管理，並確保在虛擬 WAN 路由設計清單中明確描述你的方案</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7069,14 +7069,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7097,7 +7102,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>若要進行出站 Internet 流量保護和篩選，請在安全中心部署 Azure 防火牆</t>
+          <t>使用每個 Azure 區域的虛擬 WAN 中心，透過通用的全球 Azure 虛擬 WAN 跨 Azure 區域將多個登陸區域連接在一起。</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7115,18 +7120,13 @@
       <c r="H133" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7147,13 +7147,13 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>確保網路體系結構在 Azure 虛擬 WAN 限制範圍內。</t>
+          <t>遵循“Azure 中的流量保留在 Azure 中”的原則，以便通過 Microsoft 主幹網络在 Azure 中的資源之間進行通信</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7164,14 +7164,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>使用適用於虛擬 WAN 的 Azure Monitor 見解監視虛擬 WAN 的端到端拓撲、狀態和關鍵指標。</t>
+          <t>若要進行出站 Internet 流量保護和篩選，請在安全中心部署 Azure 防火牆</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7209,14 +7209,19 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7237,7 +7242,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>請確保 IaC 部署不會在虛擬 WAN 中禁用分支到分支流量，除非應顯式阻止這些流。</t>
+          <t>確保網路體系結構在 Azure 虛擬 WAN 限制範圍內。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7254,14 +7259,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7282,7 +7287,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>使用 AS-Path 作為中心路由首選項，因為它比 ExpressRoute 或 VPN 更靈活。</t>
+          <t>使用適用於虛擬 WAN 的 Azure Monitor 見解監視虛擬 WAN 的端到端拓撲、狀態和關鍵指標。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7299,14 +7304,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7327,7 +7332,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>請確保 IaC 部署在虛擬 WAN 中配置基於標籤的傳播，否則虛擬中心之間的連接將受到損害。</t>
+          <t>請確保 IaC 部署不會在虛擬 WAN 中禁用分支到分支流量，除非應顯式阻止這些流。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7344,14 +7349,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7372,13 +7377,13 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>為虛擬中心分配足夠的IP空間，最好是 /23前置綴。</t>
+          <t>使用 AS-Path 作為中心路由首選項，因為它比 ExpressRoute 或 VPN 更靈活。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7389,14 +7394,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7407,23 +7412,23 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬廣域網</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>戰略性地利用 Azure Policy，為環境定義控制，使用策略計劃對相關策略進行分組。</t>
+          <t>請確保 IaC 部署在虛擬 WAN 中配置基於標籤的傳播，否則虛擬中心之間的連接將受到損害。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7434,14 +7439,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7452,23 +7457,23 @@
     <row r="141" ht="16.5" customHeight="1">
       <c r="A141" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬廣域網</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>確定所需的 Azure 標記，並使用「追加」策略模式通過 Azure Policy 強制使用。</t>
+          <t>為虛擬中心分配足夠的IP空間，最好是 /23前置綴。</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7479,14 +7484,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7507,13 +7512,13 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>將法規和合規性要求映射到 Azure Policy 定義和 Azure 角色分配。</t>
+          <t>戰略性地利用 Azure Policy，為環境定義控制，使用策略計劃對相關策略進行分組。</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7531,7 +7536,7 @@
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7552,7 +7557,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>在中間根管理組建立 Azure Policy 定義，以便可以在繼承的範圍內分配這些定義</t>
+          <t>確定所需的 Azure 標記，並使用「追加」策略模式通過 Azure Policy 強制使用。</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7569,14 +7574,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7597,7 +7602,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>如果需要，在適當的最高級別管理策略分配，並在底層管理排除項。</t>
+          <t>將法規和合規性要求映射到 Azure Policy 定義和 Azure 角色分配。</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7621,7 +7626,7 @@
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7642,13 +7647,13 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 控制使用者可以在訂閱/管理組級別預配哪些服務</t>
+          <t>在中間根管理組建立 Azure Policy 定義，以便可以在繼承的範圍內分配這些定義</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7659,14 +7664,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7687,7 +7692,7 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>盡可能使用內置策略，以最大程度地減少運營開銷。</t>
+          <t>如果需要，在適當的最高級別管理策略分配，並在底層管理排除項。</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7711,7 +7716,7 @@
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7732,17 +7737,13 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>在特定範圍內分配內置的「資源策略參與者」角色，以啟用應用程式級治理。</t>
-        </is>
-      </c>
-      <c r="D147" s="21" t="inlineStr">
-        <is>
-          <t>通過將「資源策略參與者」角色分配給特定範圍，可以將策略管理委派給相關團隊。例如，中心 IT 團隊可以監督管理組級別的策略，而應用程式團隊則處理其訂閱的策略，從而在遵守組織標準的情況下實現分散式治理。</t>
-        </is>
-      </c>
+          <t>使用 Azure Policy 控制使用者可以在訂閱/管理組級別預配哪些服務</t>
+        </is>
+      </c>
+      <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7753,14 +7754,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7781,7 +7782,7 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>限制在根管理組範圍內進行的 Azure Policy 分配數，以避免在繼承的範圍內通過排除項進行管理。</t>
+          <t>盡可能使用內置策略，以最大程度地減少運營開銷。</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7805,7 +7806,7 @@
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7826,10 +7827,14 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>如果存在任何數據主權要求，可以部署 Azure 策略來強制實施這些要求</t>
-        </is>
-      </c>
-      <c r="D149" s="21" t="n"/>
+          <t>在特定範圍內分配內置的「資源策略參與者」角色，以啟用應用程式級治理。</t>
+        </is>
+      </c>
+      <c r="D149" s="21" t="inlineStr">
+        <is>
+          <t>通過將「資源策略參與者」角色分配給特定範圍，可以將策略管理委派給相關團隊。例如，中心 IT 團隊可以監督管理組級別的策略，而應用程式團隊則處理其訂閱的策略，從而在遵守組織標準的情況下實現分散式治理。</t>
+        </is>
+      </c>
       <c r="E149" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -7843,19 +7848,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7876,7 +7876,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，主權策略基線的策略計劃在正確的 MG 級別部署和分配。</t>
+          <t>限制在根管理組範圍內進行的 Azure Policy 分配數，以避免在繼承的範圍內通過排除項進行管理。</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7893,14 +7893,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區，記錄了主權控制目標到策略映射。</t>
+          <t>如果存在任何數據主權要求，可以部署 Azure 策略來強制實施這些要求</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7938,14 +7938,19 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7966,7 +7971,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區，“主權控制目標到策略映射”的 CRUD 流程已到位。</t>
+          <t>對於主權登陸區域，主權策略基線的策略計劃在正確的 MG 級別進行部署和分配。</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7981,12 +7986,16 @@
         </is>
       </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8002,18 +8011,18 @@
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>優化雲投資</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>請考慮使用自動化標記來啟動/停止環境中的 VM，以節省成本。</t>
+          <t>對於主權登陸區，記錄了主權控制目標到策略映射。</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8024,14 +8033,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8042,17 +8051,17 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>可擴展性</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>利用 Azure 虛擬機規模集根據負載進行橫向擴展和橫向擴展。</t>
+          <t>對於主權登陸區，“主權控制目標到策略映射”的 CRUD 流程已到位。</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8067,16 +8076,12 @@
         </is>
       </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
-        </is>
-      </c>
+      <c r="H154" s="15" t="n"/>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8097,13 +8102,13 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>配置“實際”和“預測”預算警報。</t>
+          <t>請考慮使用自動化標記來啟動/停止環境中的 VM，以節省成本。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8114,14 +8119,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8137,18 +8142,18 @@
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>可擴展性</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>添加診斷設置以保存 Azure Front Door 和 Azure 應用程式閘道等應用程式交付服務中的 WAF 紀錄。定期查看日誌，以檢查攻擊和誤報檢測。</t>
+          <t>利用 Azure 虛擬機規模集根據負載進行橫向擴展和橫向擴展。</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8159,14 +8164,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8177,17 +8182,17 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>優化雲投資</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>將 WAF 日誌從 Azure Front Door 和 Azure 應用程式閘道等應用程式交付服務發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測集成到整個 Azure 環境中。</t>
+          <t>配置“實際”和“預測”預算警報。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8204,14 +8209,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8227,18 +8232,18 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>考慮在 Azure 中對具有配對區域的 BCDR 進行跨區域複製</t>
+          <t>添加診斷設置以保存 Azure Front Door 和 Azure 應用程式閘道等應用程式交付服務中的 WAF 紀錄。定期查看日誌，以檢查攻擊和誤報檢測。</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8249,14 +8254,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8272,12 +8277,12 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 備份時，請考慮不同的備份類型（GRS、ZRS 和 LRS），因為預設設置為 GRS</t>
+          <t>將 WAF 日誌從 Azure Front Door 和 Azure 應用程式閘道等應用程式交付服務發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測集成到整個 Azure 環境中。</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8294,14 +8299,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8317,12 +8322,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>使用單個監視器日誌工作區集中管理平臺，但 Azure 基於角色的訪問控制 （Azure RBAC）、數據主權要求或數據保留策略要求使用單獨的工作區的情況除外。</t>
+          <t>考慮在 Azure 中對具有配對區域的 BCDR 進行跨區域複製</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8339,19 +8344,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8367,12 +8367,12 @@
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>登陸區域是否已記錄？</t>
+          <t>使用 Azure 備份時，請考慮不同的備份類型（GRS、ZRS 和 LRS），因為預設設置為 GRS</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8387,12 +8387,16 @@
         </is>
       </c>
       <c r="G161" s="21" t="n"/>
-      <c r="H161" s="15" t="n"/>
+      <c r="H161" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+        </is>
+      </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8413,7 +8417,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>當日志保留要求超過兩年時，請使用 Azure Monitor 日誌。目前，您可以將數據保留長達 7 年的存檔狀態。</t>
+          <t>使用單個監視器日誌工作區集中管理平臺，但 Azure 基於角色的訪問控制 （Azure RBAC）、數據主權要求或數據保留策略要求使用單獨的工作區的情況除外。</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8430,19 +8434,19 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8463,7 +8467,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供強制實施組織範圍設置的功能，以確保一致的策略遵守和快速的違規檢測。</t>
+          <t>確保登陸區域已記錄在案。</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8478,21 +8482,12 @@
         </is>
       </c>
       <c r="G163" s="21" t="n"/>
-      <c r="H163" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
-        </is>
-      </c>
+      <c r="H163" s="15" t="n"/>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8513,7 +8508,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 監視來賓內虛擬機 （VM） 配置偏移。通過策略啟用來賓配置審核功能有助於應用程式團隊工作負載立即使用功能，而無需付出任何努力。</t>
+          <t>當日志保留要求超過兩年時，請使用 Azure Monitor 日誌。目前，您可以將數據保留長達 7 年的存檔狀態。</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8530,19 +8525,19 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8563,7 +8558,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 自動化中的更新管理作為 Windows 和 Linux VM 的長期修補機制。</t>
+          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供強制實施組織範圍設置的功能，以確保一致的策略遵守和快速的違規檢測。</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8580,19 +8575,19 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8613,7 +8608,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>使用網路觀察程序主動監視流量</t>
+          <t>使用 Azure Policy 監視來賓內虛擬機 （VM） 配置偏移。通過策略啟用來賓配置審核功能有助於應用程式團隊工作負載立即使用功能，而無需付出任何努力。</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8630,19 +8625,19 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8663,7 +8658,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>使用資源鎖可防止意外刪除關鍵共享服務。</t>
+          <t>使用 Azure 自動化中的更新管理作為 Windows 和 Linux VM 的長期修補機制。</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8680,19 +8675,19 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8713,13 +8708,13 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>使用拒絕策略來補充 Azure 角色分配。拒絕策略和 Azure 角色分配的組合可確保設置適當的防護機制，以強制實施誰可以部署和配置資源，以及他們可以部署和配置哪些資源。</t>
+          <t>使用網路觀察程序主動監視流量</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8730,14 +8725,19 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>將服務和資源運行狀況事件作為整體平臺監視解決方案的一部分。從平臺角度跟蹤服務和資源運行狀況是 Azure 中資源管理的重要組成部分。</t>
+          <t>使用資源鎖可防止意外刪除關鍵共享服務。</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8775,14 +8775,19 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8803,13 +8808,13 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>將警報和操作組作為 Azure 服務運行狀況平臺的一部分，以確保可以對警報或問題執行操作</t>
+          <t>使用拒絕策略來補充 Azure 角色分配。拒絕策略和 Azure 角色分配的組合可確保設置適當的防護機制，以強制實施誰可以部署和配置資源，以及他們可以部署和配置哪些資源。</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
       <c r="E170" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8820,14 +8825,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8848,7 +8853,7 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>不要將原始日誌條目發送回本地監視系統。相反，應採用在 Azure 中生成的數據保留在 Azure 中的原則。如果需要本地 SIEM 集成，請發送關鍵警報而不是日誌。</t>
+          <t>將服務和資源運行狀況事件作為整體平臺監視解決方案的一部分。從平臺角度跟蹤服務和資源運行狀況是 Azure 中資源管理的重要組成部分。</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8865,14 +8870,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8893,7 +8898,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>使用集中式 Azure Monitor Log Analytics 工作區從 IaaS 和 PaaS 應用程式資源收集日誌和指標，並使用 Azure RBAC 控制日誌訪問。</t>
+          <t>將警報和操作組作為 Azure 服務運行狀況平臺的一部分，以確保可以對警報或問題執行操作</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8910,14 +8915,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8938,7 +8943,7 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
+          <t>不要將原始日誌條目發送回本地監視系統。相反，應採用在 Azure 中生成的數據保留在 Azure 中的原則。如果需要本地 SIEM 集成，請發送關鍵警報而不是日誌。</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8955,14 +8960,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8983,7 +8988,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>必要時，在登陸區域中使用共用存儲帳戶進行 Azure 診斷擴展日誌存儲。</t>
+          <t>使用集中式 Azure Monitor Log Analytics 工作區從 IaaS 和 PaaS 應用程式資源收集日誌和指標，並使用 Azure RBAC 控制日誌訪問。</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9000,14 +9005,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9028,7 +9033,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 警報生成操作警報。</t>
+          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9045,14 +9050,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9073,7 +9078,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>確保已評估監視要求，並應用了適當的數據收集和警報配置</t>
+          <t>必要時，在登陸區域中使用共用存儲帳戶進行 Azure 診斷擴展日誌存儲。</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9090,14 +9095,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9118,7 +9123,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>考慮連結的Log Analytics工作區和自動化帳戶支援的區域</t>
+          <t>使用 Azure Monitor 警報生成操作警報。</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9135,14 +9140,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9158,12 +9163,12 @@
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 策略通過 VM 擴展自動部署軟體配置，並強制實施合規的基線 VM 配置。</t>
+          <t>確保已評估監視要求，並應用了適當的數據收集和警報配置</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9180,14 +9185,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9203,19 +9208,15 @@
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure Policy 監視 VM 安全配置偏差。</t>
-        </is>
-      </c>
-      <c r="D179" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy 的來賓配置功能可以審核和修正計算機設置（例如 OS、應用程式、環境），以確保資源與預期配置保持一致，更新管理可以強制實施 VM 的修補程式管理。</t>
-        </is>
-      </c>
+          <t>考慮連結的Log Analytics工作區和自動化帳戶支援的區域</t>
+        </is>
+      </c>
+      <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -9229,14 +9230,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9252,12 +9253,12 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>保護和恢復</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>將 Azure Site Recovery 用於 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
+          <t>使用 Azure 策略通過 VM 擴展自動部署軟體配置，並強制實施合規的基線 VM 配置。</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9274,14 +9275,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9297,15 +9298,19 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>保護和恢復</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>確保使用和測試原生 PaaS 服務災難恢復功能。</t>
-        </is>
-      </c>
-      <c r="D181" s="21" t="n"/>
+          <t>通過 Azure Policy 監視 VM 安全配置偏差。</t>
+        </is>
+      </c>
+      <c r="D181" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy 的來賓配置功能可以審核和修正計算機設置（例如 OS、應用程式、環境），以確保資源與預期配置保持一致，更新管理可以強制實施 VM 的修補程式管理。</t>
+        </is>
+      </c>
       <c r="E181" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -9319,14 +9324,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9347,7 +9352,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
+          <t>將 Azure Site Recovery 用於 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9364,14 +9369,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9387,18 +9392,18 @@
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>容錯</t>
+          <t>保護和恢復</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>在支援可用性區域的區域中為 VM 利用可用性區域。</t>
+          <t>確保使用和測試原生 PaaS 服務災難恢復功能。</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9409,14 +9414,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9432,18 +9437,18 @@
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>容錯</t>
+          <t>保護和恢復</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>避免在單個 VM 上運行生產工作負載。</t>
+          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9454,14 +9459,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9482,13 +9487,13 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Azure 負載均衡器和應用程式閘道在多個資源之間分配傳入的網路流量。</t>
+          <t>在支援可用性區域的區域中為 VM 利用可用性區域。</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9499,14 +9504,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9517,23 +9522,23 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>存取控制</t>
+          <t>容錯</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>在允許 Azure 服務投入生產之前，確定其事件響應計劃。</t>
+          <t>避免在單個 VM 上運行生產工作負載。</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
       <c r="E186" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9544,14 +9549,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9562,17 +9567,17 @@
     <row r="187" ht="16.5" customHeight="1">
       <c r="A187" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>存取控制</t>
+          <t>容錯</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>在適當的情況下，實施零信任方法來訪問 Azure 平臺。</t>
+          <t>Azure 負載均衡器和應用程式閘道在多個資源之間分配傳入的網路流量。</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9589,14 +9594,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9612,18 +9617,18 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>存取控制</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Key Vault 儲存機密和憑據</t>
+          <t>在允許 Azure 服務投入生產之前，確定其事件響應計劃。</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
       <c r="E188" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9634,14 +9639,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9657,12 +9662,12 @@
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>存取控制</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>對不同的應用程式和區域使用不同的 Azure Key Vault，以避免事務規模限制並限制對機密的訪問。</t>
+          <t>在適當的情況下，實施零信任方法來訪問 Azure 平臺。</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9679,14 +9684,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9707,13 +9712,13 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>預配啟用軟刪除和清除策略的 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
+          <t>使用 Azure Key Vault 儲存機密和憑據</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9724,14 +9729,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9752,7 +9757,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>遵循最低特權模型，將永久刪除密鑰、機密和證書的授權限制為專用的自定義 Microsoft Entra ID 角色。</t>
+          <t>對不同的應用程式和區域使用不同的 Azure Key Vault，以避免事務規模限制並限制對機密的訪問。</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9769,14 +9774,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9797,7 +9802,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>使用公共證書頒發機構自動執行證書管理和續訂過程，以簡化管理。</t>
+          <t>預配 Azure Key Vault 並啟用軟刪除和清除策略，以允許對已刪除物件進行保留保護。</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9821,7 +9826,7 @@
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9842,7 +9847,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>建立金鑰和證書輪換的自動化流程。</t>
+          <t>遵循最低特權模型，將永久刪除密鑰、機密和證書的授權限制為專用的自定義 Microsoft Entra ID 角色。</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9866,7 +9871,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9887,7 +9892,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>在保管庫上啟用防火牆和虛擬網路服務終結點或專用終結點，以控制對密鑰保管庫的訪問。</t>
+          <t>使用公共證書頒發機構自動執行證書管理和續訂流程，以簡化管理。</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9911,7 +9916,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9932,7 +9937,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>使用平臺中心的 Azure Monitor Log Analytics 工作區審核每個 Key Vault 實例中的金鑰、證書和機密使用方式。</t>
+          <t>建立金鑰和證書輪換的自動化流程。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9949,14 +9954,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9977,7 +9982,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>委託 Key Vault 實例化和特權訪問，並使用 Azure Policy 強制實施一致的合規配置。</t>
+          <t>在保管庫上啟用防火牆和虛擬網路服務終結點或專用終結點，以控制對密鑰保管庫的訪問。</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10001,7 +10006,7 @@
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10022,7 +10027,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>預設使用 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
+          <t>使用平臺中心的 Azure Monitor Log Analytics 工作區審核每個 Key Vault 實例中的金鑰、證書和機密使用方式。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10039,14 +10044,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10067,7 +10072,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+          <t>委託 Key Vault 實例化和特權訪問，並使用 Azure Policy 強制實施一致的合規配置。</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10091,7 +10096,7 @@
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10112,7 +10117,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>如果要自帶密鑰，則並非所有考慮的服務都支援此功能。實施相關的緩解措施，使不一致不會妨礙預期的結果。選擇適當的區域對和災難恢復區域，以最大程度地減少延遲。</t>
+          <t>預設使用 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10129,14 +10134,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10157,7 +10162,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，請使用 Azure Key Vault 託管 HSM 來儲存機密和憑據。</t>
+          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10174,14 +10179,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10197,12 +10202,12 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra ID 報告功能生成訪問控制審核報告。</t>
+          <t>如果要自帶密鑰，則並非所有考慮的服務都支援此功能。實施相關的緩解措施，使不一致不會妨礙預期的結果。選擇適當的區域對和災難恢復區域，以最大程度地減少延遲。</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10219,14 +10224,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10242,12 +10247,12 @@
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 活動日誌匯出到 Azure Monitor 紀錄，以便長期保留數據。如有必要，導出到 Azure 存儲以進行超過兩年的長期存儲。</t>
+          <t>對於主權登陸區域，請使用 Azure Key Vault 託管 HSM 來儲存機密和憑據。</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10264,14 +10269,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10292,13 +10297,13 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>為所有訂閱啟用Defender雲安全態勢管理。</t>
+          <t>使用 Microsoft Entra ID 報告功能生成訪問控制審核報告。</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10309,14 +10314,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10337,13 +10342,13 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>在所有訂閱上為伺服器啟用Defender雲工作負載保護計劃。</t>
+          <t>將 Azure 活動日誌匯出到 Azure Monitor 紀錄，以便長期保留數據。如有必要，導出到 Azure 存儲以進行超過兩年的長期存儲。</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
       <c r="E204" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10354,14 +10359,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10382,7 +10387,7 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>在所有訂閱上為 Azure 資源啟用 Defender 雲工作負載保護計劃。</t>
+          <t>為所有訂閱啟用Defender雲安全態勢管理。</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10399,14 +10404,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10427,7 +10432,7 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>在 IaaS 伺服器上啟用 Endpoint Protection。</t>
+          <t>在所有訂閱上為伺服器啟用Defender雲工作負載保護計劃。</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
@@ -10444,14 +10449,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10472,13 +10477,13 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure Monitor 紀錄和 Defender for Cloud 監視基本作業系統修補偏差。</t>
+          <t>在所有訂閱上為 Azure 資源啟用 Defender 雲工作負載保護計劃。</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10489,14 +10494,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10517,13 +10522,13 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>將預設資源配置連接到集中式 Azure Monitor Log Analytics 工作區。</t>
+          <t>在 IaaS 伺服器上啟用 Endpoint Protection。</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
       <c r="E208" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -10534,14 +10539,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10562,7 +10567,7 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，在 Entra ID 租戶上啟用透明度日誌。</t>
+          <t>通過 Azure Monitor 紀錄和 Defender for Cloud 監視基本作業系統修補偏差。</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10579,14 +10584,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10607,7 +10612,7 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，在 Entra ID 租戶上啟用客戶密碼箱。</t>
+          <t>將預設資源配置連接到集中式 Azure Monitor Log Analytics 工作區。</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10624,14 +10629,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10647,18 +10652,18 @@
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>概述</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>應啟用到存儲帳戶的安全傳輸</t>
+          <t>對於主權登陸區域，在 Entra ID 租戶上啟用透明度日誌。</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10669,14 +10674,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10692,18 +10697,18 @@
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>概述</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
+          <t>對於主權登陸區域，在 Entra ID 租戶上啟用客戶密碼箱。</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
       <c r="E212" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10714,14 +10719,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10737,12 +10742,12 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>安全特權訪問</t>
+          <t>概述</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>為 Azure 管理任務單獨使用特權管理員帳戶。</t>
+          <t>應啟用到存儲帳戶的安全傳輸</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
@@ -10759,14 +10764,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10782,18 +10787,18 @@
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>服務支援框架</t>
+          <t>概述</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>規劃如何實現新的 Azure 服務</t>
+          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10804,14 +10809,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10827,18 +10832,18 @@
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>服務支援框架</t>
+          <t>安全特權訪問</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>規劃如何滿足 Azure 服務的服務請求</t>
+          <t>為 Azure 管理任務單獨使用特權管理員帳戶。</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10849,14 +10854,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10867,23 +10872,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>服務支援框架</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>確保有一個跨職能的DevOps平臺團隊來構建、管理和維護 Azure 登陸區域體系結構。</t>
+          <t>規劃如何實現新的 Azure 服務</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10894,14 +10899,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10912,23 +10917,23 @@
     <row r="217">
       <c r="A217" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B217" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>服務支援框架</t>
         </is>
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>旨在為 Azure 登陸區域平台團隊定義功能。</t>
+          <t>規劃如何滿足 Azure 服務的服務請求</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10939,14 +10944,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10967,13 +10972,13 @@
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>旨在為應用程式工作負載團隊定義功能，使其自給自足，不需要DevOps平臺團隊支援。通過使用自定義 RBAC 角色來實現此目的。</t>
+          <t>確保你有一個跨職能的DevOps平臺團隊來構建、管理和維護 Azure 登陸區域體系結構。</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -10984,14 +10989,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11012,13 +11017,13 @@
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>使用 CI/CD 管道部署 IaC 專案，並確保部署和 Azure 環境的品質。</t>
+          <t>旨在為 Azure 登陸區域平台團隊定義功能。</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11029,14 +11034,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11057,13 +11062,13 @@
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>將 IaC 和應用程式代碼的單元測試作為生成過程的一部分。</t>
+          <t>旨在為應用程式工作負載團隊定義功能，使其自給自足，並且不需要 DevOps 平台團隊的支援。通過使用自定義 RBAC 角色來實現此目的。</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
       <c r="E220" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11074,14 +11079,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11102,7 +11107,7 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>使用 Key Vault 機密可避免對敏感資訊（例如憑據（虛擬機器用戶密碼）、證書或密鑰）進行硬編碼。</t>
+          <t>使用 CI/CD 管道部署 IaC 專案，並確保部署和 Azure 環境的品質。</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
@@ -11119,14 +11124,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11147,13 +11152,13 @@
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>為應用程式和工作負載實現檔&gt;新&gt;登陸區域的自動化。</t>
+          <t>將 IaC 和應用程式代碼的單元測試作為生成過程的一部分。</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11164,14 +11169,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11187,12 +11192,12 @@
       </c>
       <c r="B223" s="21" t="inlineStr">
         <is>
-          <t>開發生命週期</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>確保將版本控制系統用於開發的應用程式和 IaC 的原始程式碼。Microsoft 推薦 Git。</t>
+          <t>使用 Key Vault 機密可避免對敏感資訊（例如憑據（虛擬機器用戶密碼）、證書或密鑰）進行硬編碼。</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
@@ -11209,14 +11214,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11232,12 +11237,12 @@
       </c>
       <c r="B224" s="21" t="inlineStr">
         <is>
-          <t>開發生命週期</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>遵循分支策略，使團隊能夠更好地協作，更有效地管理 IaC 和應用程式代碼的版本控制。查看 Github Flow 等選項。</t>
+          <t>為應用程式和工作負載實現檔&gt;新&gt;登陸區域的自動化。</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
@@ -11254,14 +11259,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11282,13 +11287,13 @@
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>採用拉取請求策略來説明控制合併到分支中的代碼更改。</t>
+          <t>確保將版本控制系統用於開發的應用程式和 IaC 的原始程式碼。Microsoft 推薦 Git。</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11299,14 +11304,14 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11322,18 +11327,18 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>發展戰略</t>
+          <t>開發生命週期</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>利用聲明性基礎結構即代碼工具（如 Azure Bicep、ARM 範本或 Terraform）來構建和維護 Azure 登陸區域體系結構。從平臺和應用程式工作負載的角度來看。</t>
+          <t>遵循分支策略，使團隊能夠更好地協作，更有效地管理 IaC 和應用程式代碼的版本控制。查看 Github Flow 等選項。</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11344,14 +11349,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11367,18 +11372,18 @@
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>開發生命週期</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>將安全性集成到 DevOps 中已經組合的開發和運營流程中，以降低創新過程中的風險。</t>
+          <t>採用拉取請求策略來説明控制合併到分支中的代碼更改。</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
       <c r="E227" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11389,14 +11394,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11405,30 +11410,90 @@
       <c r="P227" s="25" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="n"/>
-      <c r="B228" s="21" t="n"/>
-      <c r="C228" s="21" t="n"/>
+      <c r="A228" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B228" s="21" t="inlineStr">
+        <is>
+          <t>發展戰略</t>
+        </is>
+      </c>
+      <c r="C228" s="21" t="inlineStr">
+        <is>
+          <t>利用聲明性基礎結構即代碼工具（如 Azure Bicep、ARM 範本或 Terraform）來構建和維護 Azure 登陸區域體系結構。從平臺和應用程式工作負載的角度來看。</t>
+        </is>
+      </c>
       <c r="D228" s="21" t="n"/>
-      <c r="E228" s="21" t="n"/>
+      <c r="E228" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G228" s="21" t="n"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
-      <c r="L228" s="25" t="n"/>
+      <c r="L228" s="25" t="inlineStr">
+        <is>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+        </is>
+      </c>
       <c r="M228" s="25" t="n"/>
       <c r="N228" s="25" t="n"/>
       <c r="O228" s="25" t="n"/>
       <c r="P228" s="25" t="n"/>
     </row>
     <row r="229">
-      <c r="A229" s="21" t="n"/>
-      <c r="B229" s="21" t="n"/>
-      <c r="C229" s="21" t="n"/>
+      <c r="A229" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B229" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C229" s="21" t="inlineStr">
+        <is>
+          <t>將安全性集成到 DevOps 中已經組合的開發和運營流程中，以降低創新過程中的風險。</t>
+        </is>
+      </c>
       <c r="D229" s="21" t="n"/>
-      <c r="E229" s="21" t="n"/>
+      <c r="E229" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G229" s="21" t="n"/>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
-      <c r="L229" s="25" t="n"/>
+      <c r="L229" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M229" s="25" t="n"/>
       <c r="N229" s="25" t="n"/>
       <c r="O229" s="25" t="n"/>
@@ -12600,7 +12665,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F228" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F230" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>部署 AD Connect VM 時，請考慮使用暫存伺服器以實現高可用性/災難恢復</t>
+          <t>部署 Microsoft Entra Connect 時，利用暫存伺服器實現高可用性/災難恢復</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>請考慮將 Azure 自定義角色用於以下關鍵角色：Azure 平臺擁有者、網路管理、安全操作、訂閱擁有者、應用程式擁有者</t>
+          <t>將 Azure 自定義 RBAC 角色用於以下關鍵角色，以提供跨 ALZ 的精細訪問：Azure 平臺擁有者、網路管理、安全操作、訂閱擁有者、應用程式擁有者。使這些角色與企業中的團隊和職責保持一致。</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>請考慮使用 Microsoft Entra ID 應用程式代理作為 VPN 或反向代理替換，以便遠端用戶能夠安全且經過身份驗證地存取內部應用程式（託管在雲中或本地）。</t>
+          <t>如果需要，請使用 Microsoft Entra ID 應用程式代理為遠端使用者提供對內部應用程式（託管在雲中或本地）的安全且經過身份驗證的訪問。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>確保將標籤用於計費和成本管理</t>
+          <t>確保標籤用於計費和成本管理</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>在登陸區域內為面向內部 （公司） 和面向外部的應用 （連線） 執行應用交付。</t>
+          <t>在登陸區域內為面向內部 （corp） 和面向外部的應用 （online） 執行應用交付。</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>對於需要最大靈活性的網路方案，請考慮基於傳統中心輻射型網路拓撲的網路設計。</t>
+          <t>利用基於傳統中心輻射型網路拓撲的網路設計，實現需要最大靈活性的網路方案。</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>如果需要在中心輻射型方案中在 ExpressRoute 和 VPN 閘道之間傳輸，請使用 Azure 路由伺服器。</t>
+          <t>如果需要在中心輻射型方案中的 ExpressRoute 和 VPN 閘道之間傳輸，請使用 Azure 路由伺服器。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4378,7 +4378,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>配置 VNet 對等互連時，請使用「允許流量流向遠端虛擬網路」設置</t>
+          <t>配置 VNet 對等互連時，使用「允許流量流向遠端虛擬網路」設置</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 防火牆管理發往 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東/西流量篩選（如果組織需要）</t>
+          <t>使用 Azure 防火牆管理發往 Internet、非 HTTP/S 入站連接和東西方流量篩選的 Azure 出站流量（如果組織需要）</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>部署 入站 HTTP/S 連接需要部署 WAF 和其他反向代理，將它們部署在登陸區域虛擬網路中，並將它們與它們保護和公開給 Internet 的應用一起部署。</t>
+          <t>入站 HTTP/S 連接需要部署 WAF 和其他反向代理，將它們部署在登陸區域虛擬網路中，並將它們與它們保護和公開給 Internet 的應用一起部署。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>遵循“Azure 中的流量保留在 Azure 中”的原則，以便通過 Microsoft 主幹網络在 Azure 中的資源之間進行通信</t>
+          <t>遵循“Azure 中的流量保留在 Azure 中”的原則，以便通過 Microsoft 主幹網络跨 Azure 中的資源進行通信</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，主權策略基線的策略計劃在正確的 MG 級別進行部署和分配。</t>
+          <t>對於主權登陸區域，主權策略基線的策略計劃在正確的 MG 級別部署和分配。</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8653,12 +8653,12 @@
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 自動化中的更新管理作為 Windows 和 Linux VM 的長期修補機制。</t>
+          <t>使用 Azure Update Manager 作為 Azure 中 Windows 和 Linux VM 的修補機制。</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8675,12 +8675,12 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
@@ -8703,12 +8703,12 @@
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>使用網路觀察程序主動監視流量</t>
+          <t>使用 Azure Arc 將 Azure Update Manager 用作 Azure 外部 Windows 和 Linux VM 的修補機制。</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8725,19 +8725,19 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>使用資源鎖可防止意外刪除關鍵共享服務。</t>
+          <t>使用網路觀察程序主動監視流量</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8775,19 +8775,19 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8808,13 +8808,13 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>使用拒絕策略來補充 Azure 角色分配。拒絕策略和 Azure 角色分配的組合可確保設置適當的防護機制，以強制實施誰可以部署和配置資源，以及他們可以部署和配置哪些資源。</t>
+          <t>使用資源鎖可防止意外刪除關鍵共享服務。</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
       <c r="E170" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8825,14 +8825,19 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8853,13 +8858,13 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>將服務和資源運行狀況事件作為整體平臺監視解決方案的一部分。從平臺角度跟蹤服務和資源運行狀況是 Azure 中資源管理的重要組成部分。</t>
+          <t>使用拒絕策略來補充 Azure 角色分配。拒絕策略和 Azure 角色分配的組合可確保設置適當的防護機制，以強制實施誰可以部署和配置資源，以及他們可以部署和配置哪些資源。</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8870,14 +8875,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8898,7 +8903,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>將警報和操作組作為 Azure 服務運行狀況平臺的一部分，以確保可以對警報或問題執行操作</t>
+          <t>將服務和資源運行狀況事件作為整體平臺監視解決方案的一部分。從平臺角度跟蹤服務和資源運行狀況是 Azure 中資源管理的重要組成部分。</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8915,14 +8920,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8943,7 +8948,7 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>不要將原始日誌條目發送回本地監視系統。相反，應採用在 Azure 中生成的數據保留在 Azure 中的原則。如果需要本地 SIEM 集成，請發送關鍵警報而不是日誌。</t>
+          <t>將警報和操作組作為 Azure 服務運行狀況平臺的一部分，以確保可以對警報或問題執行操作</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8960,14 +8965,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8988,7 +8993,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>使用集中式 Azure Monitor Log Analytics 工作區從 IaaS 和 PaaS 應用程式資源收集日誌和指標，並使用 Azure RBAC 控制日誌訪問。</t>
+          <t>不要將原始日誌條目發送回本地監視系統。相反，應採用在 Azure 中生成的數據保留在 Azure 中的原則。如果需要本地 SIEM 集成，請發送關鍵警報而不是日誌。</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9005,14 +9010,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9033,7 +9038,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
+          <t>使用集中式 Azure Monitor Log Analytics 工作區從 IaaS 和 PaaS 應用程式資源收集日誌和指標，並使用 Azure RBAC 控制日誌訪問。</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9050,14 +9055,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9078,7 +9083,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>必要時，在登陸區域中使用共用存儲帳戶進行 Azure 診斷擴展日誌存儲。</t>
+          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9095,14 +9100,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9123,7 +9128,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 警報生成操作警報。</t>
+          <t>必要時，在登陸區域中使用共用存儲帳戶進行 Azure 診斷擴展日誌存儲。</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9140,14 +9145,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9168,7 +9173,7 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>確保已評估監視要求，並應用了適當的數據收集和警報配置</t>
+          <t>使用 Azure Monitor 警報生成操作警報。</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9185,14 +9190,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9213,7 +9218,7 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>考慮連結的Log Analytics工作區和自動化帳戶支援的區域</t>
+          <t>確保已評估監視要求，並應用了適當的數據收集和警報配置</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9230,14 +9235,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9253,12 +9258,12 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 策略通過 VM 擴展自動部署軟體配置，並強制實施合規的基線 VM 配置。</t>
+          <t>通過 Azure 自動化帳戶使用更改和清單跟蹤時，請確保已選擇支持的區域，以便將 Log Analytics 工作區和自動化帳戶連結在一起。</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9275,14 +9280,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9303,14 +9308,10 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure Policy 監視 VM 安全配置偏差。</t>
-        </is>
-      </c>
-      <c r="D181" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy 的來賓配置功能可以審核和修正計算機設置（例如 OS、應用程式、環境），以確保資源與預期配置保持一致，更新管理可以強制實施 VM 的修補程式管理。</t>
-        </is>
-      </c>
+          <t>使用 Azure 策略通過 VM 擴展自動部署軟體配置，並強制實施合規的基線 VM 配置。</t>
+        </is>
+      </c>
+      <c r="D181" s="21" t="n"/>
       <c r="E181" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -9324,14 +9325,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9347,15 +9348,19 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>保護和恢復</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>將 Azure Site Recovery 用於 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
-        </is>
-      </c>
-      <c r="D182" s="21" t="n"/>
+          <t>通過 Azure Policy 監視 VM 安全配置偏差。</t>
+        </is>
+      </c>
+      <c r="D182" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy 的來賓配置功能可以審核和修正計算機設置（例如 OS、應用程式、環境），以確保資源與預期配置保持一致，更新管理可以強制實施 VM 的修補程式管理。</t>
+        </is>
+      </c>
       <c r="E182" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -9369,14 +9374,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9397,7 +9402,7 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>確保使用和測試原生 PaaS 服務災難恢復功能。</t>
+          <t>將 Azure Site Recovery 用於 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9414,14 +9419,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9442,7 +9447,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
+          <t>確保使用和測試原生 PaaS 服務災難恢復功能。</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9459,14 +9464,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9482,18 +9487,18 @@
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>容錯</t>
+          <t>保護和恢復</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>在支援可用性區域的區域中為 VM 利用可用性區域。</t>
+          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9504,14 +9509,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9532,7 +9537,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>避免在單個 VM 上運行生產工作負載。</t>
+          <t>在支援可用性區域的區域中為 VM 利用可用性區域。</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9549,14 +9554,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9577,13 +9582,13 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Azure 負載均衡器和應用程式閘道在多個資源之間分配傳入的網路流量。</t>
+          <t>避免在單個 VM 上運行生產工作負載。</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
       <c r="E187" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -9594,14 +9599,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9612,17 +9617,17 @@
     <row r="188" ht="16.5" customHeight="1">
       <c r="A188" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>存取控制</t>
+          <t>容錯</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>在允許 Azure 服務投入生產之前，確定其事件響應計劃。</t>
+          <t>Azure 負載均衡器和應用程式閘道在多個資源之間分配傳入的網路流量。</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9639,14 +9644,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9667,7 +9672,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>在適當的情況下，實施零信任方法來訪問 Azure 平臺。</t>
+          <t>在允許 Azure 服務投入生產之前，確定其事件響應計劃。</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9684,14 +9689,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9707,18 +9712,18 @@
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>存取控制</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Key Vault 儲存機密和憑據</t>
+          <t>在適當的情況下，實施零信任方法來訪問 Azure 平臺。</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9729,14 +9734,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9757,13 +9762,13 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>對不同的應用程式和區域使用不同的 Azure Key Vault，以避免事務規模限制並限制對機密的訪問。</t>
+          <t>使用 Azure Key Vault 儲存機密和憑據</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
       <c r="E191" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9774,14 +9779,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9802,7 +9807,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>預配 Azure Key Vault 並啟用軟刪除和清除策略，以允許對已刪除物件進行保留保護。</t>
+          <t>對不同的應用程式和區域使用不同的 Azure Key Vault，以避免事務規模限制並限制對機密的訪問。</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9819,14 +9824,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9847,7 +9852,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>遵循最低特權模型，將永久刪除密鑰、機密和證書的授權限制為專用的自定義 Microsoft Entra ID 角色。</t>
+          <t>預配啟用軟刪除和清除策略的 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9871,7 +9876,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9892,7 +9897,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>使用公共證書頒發機構自動執行證書管理和續訂流程，以簡化管理。</t>
+          <t>遵循最低特權模型，將永久刪除密鑰、機密和證書的授權限制為專用的自定義 Microsoft Entra ID 角色。</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9916,7 +9921,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9937,7 +9942,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>建立金鑰和證書輪換的自動化流程。</t>
+          <t>使用公共證書頒發機構自動執行證書管理和續訂過程，以簡化管理。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9961,7 +9966,7 @@
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9982,7 +9987,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>在保管庫上啟用防火牆和虛擬網路服務終結點或專用終結點，以控制對密鑰保管庫的訪問。</t>
+          <t>建立金鑰和證書輪換的自動化流程。</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10006,7 +10011,7 @@
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10027,7 +10032,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>使用平臺中心的 Azure Monitor Log Analytics 工作區審核每個 Key Vault 實例中的金鑰、證書和機密使用方式。</t>
+          <t>在保管庫上啟用防火牆和虛擬網路服務終結點或專用終結點，以控制對密鑰保管庫的訪問。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10044,14 +10049,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10072,7 +10077,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>委託 Key Vault 實例化和特權訪問，並使用 Azure Policy 強制實施一致的合規配置。</t>
+          <t>使用平臺中心的 Azure Monitor Log Analytics 工作區審核每個 Key Vault 實例中的金鑰、證書和機密使用方式。</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10089,14 +10094,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10117,7 +10122,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>預設使用 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
+          <t>委託 Key Vault 實例化和特權訪問，並使用 Azure Policy 強制實施一致的合規配置。</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10134,14 +10139,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10162,7 +10167,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+          <t>預設使用 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10179,14 +10184,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10207,7 +10212,7 @@
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>如果要自帶密鑰，則並非所有考慮的服務都支援此功能。實施相關的緩解措施，使不一致不會妨礙預期的結果。選擇適當的區域對和災難恢復區域，以最大程度地減少延遲。</t>
+          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10231,7 +10236,7 @@
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10252,7 +10257,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，請使用 Azure Key Vault 託管 HSM 來儲存機密和憑據。</t>
+          <t>如果要自帶密鑰，則並非所有考慮的服務都支援此功能。實施相關的緩解措施，使不一致不會妨礙預期的結果。選擇適當的區域對和災難恢復區域，以最大程度地減少延遲。</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10269,14 +10274,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10292,12 +10297,12 @@
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra ID 報告功能生成訪問控制審核報告。</t>
+          <t>對於主權登陸區域，請使用 Azure Key Vault 託管 HSM 來儲存機密和憑據。</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10314,14 +10319,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10342,7 +10347,7 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 活動日誌匯出到 Azure Monitor 紀錄，以便長期保留數據。如有必要，導出到 Azure 存儲以進行超過兩年的長期存儲。</t>
+          <t>使用 Microsoft Entra ID 報告功能生成訪問控制審核報告。</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10359,14 +10364,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10387,13 +10392,13 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>為所有訂閱啟用Defender雲安全態勢管理。</t>
+          <t>將 Azure 活動日誌匯出到 Azure Monitor 紀錄，以便長期保留數據。如有必要，導出到 Azure 存儲以進行超過兩年的長期存儲。</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
       <c r="E205" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -10404,14 +10409,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10432,7 +10437,7 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>在所有訂閱上為伺服器啟用Defender雲工作負載保護計劃。</t>
+          <t>為所有訂閱啟用Defender雲安全態勢管理。</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
@@ -10449,14 +10454,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10477,7 +10482,7 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>在所有訂閱上為 Azure 資源啟用 Defender 雲工作負載保護計劃。</t>
+          <t>在所有訂閱上為伺服器啟用Defender雲工作負載保護計劃。</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
@@ -10494,14 +10499,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10522,7 +10527,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>在 IaaS 伺服器上啟用 Endpoint Protection。</t>
+          <t>在所有訂閱上為 Azure 資源啟用 Defender 雲工作負載保護計劃。</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10539,14 +10544,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10567,13 +10572,13 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure Monitor 紀錄和 Defender for Cloud 監視基本作業系統修補偏差。</t>
+          <t>在 IaaS 伺服器上啟用 Endpoint Protection。</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
       <c r="E209" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -10584,14 +10589,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10612,7 +10617,7 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>將預設資源配置連接到集中式 Azure Monitor Log Analytics 工作區。</t>
+          <t>通過 Azure Monitor 紀錄和 Defender for Cloud 監視基本作業系統修補偏差。</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10629,14 +10634,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10657,7 +10662,7 @@
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，在 Entra ID 租戶上啟用透明度日誌。</t>
+          <t>將預設資源配置連接到集中式 Azure Monitor Log Analytics 工作區。</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
@@ -10674,14 +10679,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10702,7 +10707,7 @@
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，在 Entra ID 租戶上啟用客戶密碼箱。</t>
+          <t>對於主權登陸區域，在 Entra ID 租戶上啟用透明度日誌。</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
@@ -10719,14 +10724,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10742,18 +10747,18 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>概述</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>應啟用到存儲帳戶的安全傳輸</t>
+          <t>對於主權登陸區域，在 Entra ID 租戶上啟用客戶密碼箱。</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10764,14 +10769,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10792,7 +10797,7 @@
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
+          <t>應啟用到存儲帳戶的安全傳輸</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
@@ -10809,14 +10814,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10832,12 +10837,12 @@
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>安全特權訪問</t>
+          <t>概述</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>為 Azure 管理任務單獨使用特權管理員帳戶。</t>
+          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
@@ -10854,14 +10859,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10877,18 +10882,18 @@
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>服務支援框架</t>
+          <t>安全特權訪問</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>規劃如何實現新的 Azure 服務</t>
+          <t>為 Azure 管理任務單獨使用特權管理員帳戶。</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10899,14 +10904,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10927,7 +10932,7 @@
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>規劃如何滿足 Azure 服務的服務請求</t>
+          <t>規劃如何實現新的 Azure 服務</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
@@ -10951,7 +10956,7 @@
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10962,23 +10967,23 @@
     <row r="218">
       <c r="A218" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B218" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>服務支援框架</t>
         </is>
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>確保你有一個跨職能的DevOps平臺團隊來構建、管理和維護 Azure 登陸區域體系結構。</t>
+          <t>規劃如何滿足 Azure 服務的服務請求</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -10989,14 +10994,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11017,13 +11022,13 @@
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>旨在為 Azure 登陸區域平台團隊定義功能。</t>
+          <t>確保有一個跨職能的DevOps平臺團隊來構建、管理和維護 Azure 登陸區域體系結構。</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11034,14 +11039,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11062,7 +11067,7 @@
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>旨在為應用程式工作負載團隊定義功能，使其自給自足，並且不需要 DevOps 平台團隊的支援。通過使用自定義 RBAC 角色來實現此目的。</t>
+          <t>旨在為 Azure 登陸區域平台團隊定義功能。</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
@@ -11086,7 +11091,7 @@
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11107,13 +11112,13 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>使用 CI/CD 管道部署 IaC 專案，並確保部署和 Azure 環境的品質。</t>
+          <t>旨在為應用程式工作負載團隊定義功能，使其自給自足，不需要DevOps平臺團隊支援。通過使用自定義 RBAC 角色來實現此目的。</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
       <c r="E221" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -11124,14 +11129,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11152,13 +11157,13 @@
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>將 IaC 和應用程式代碼的單元測試作為生成過程的一部分。</t>
+          <t>使用 CI/CD 管道部署 IaC 專案，並確保部署和 Azure 環境的品質。</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11169,14 +11174,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11197,13 +11202,13 @@
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>使用 Key Vault 機密可避免對敏感資訊（例如憑據（虛擬機器用戶密碼）、證書或密鑰）進行硬編碼。</t>
+          <t>將 IaC 和應用程式代碼的單元測試作為生成過程的一部分。</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
       <c r="E223" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11221,7 +11226,7 @@
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11242,13 +11247,13 @@
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>為應用程式和工作負載實現檔&gt;新&gt;登陸區域的自動化。</t>
+          <t>使用 Key Vault 機密可避免對敏感資訊（例如憑據（虛擬機器用戶密碼）、證書或密鑰）進行硬編碼。</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
       <c r="E224" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11259,14 +11264,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11282,18 +11287,18 @@
       </c>
       <c r="B225" s="21" t="inlineStr">
         <is>
-          <t>開發生命週期</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>確保將版本控制系統用於開發的應用程式和 IaC 的原始程式碼。Microsoft 推薦 Git。</t>
+          <t>為應用程式和工作負載實現檔&gt;新&gt;登陸區域的自動化。</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11304,14 +11309,14 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11332,13 +11337,13 @@
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>遵循分支策略，使團隊能夠更好地協作，更有效地管理 IaC 和應用程式代碼的版本控制。查看 Github Flow 等選項。</t>
+          <t>確保將版本控制系統用於開發的應用程式和 IaC 的原始程式碼。Microsoft 推薦 Git。</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11349,14 +11354,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11377,13 +11382,13 @@
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>採用拉取請求策略來説明控制合併到分支中的代碼更改。</t>
+          <t>遵循分支策略，使團隊能夠更好地協作，更有效地管理 IaC 和應用程式代碼的版本控制。查看 Github Flow 等選項。</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
       <c r="E227" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11401,7 +11406,7 @@
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11417,18 +11422,18 @@
       </c>
       <c r="B228" s="21" t="inlineStr">
         <is>
-          <t>發展戰略</t>
+          <t>開發生命週期</t>
         </is>
       </c>
       <c r="C228" s="21" t="inlineStr">
         <is>
-          <t>利用聲明性基礎結構即代碼工具（如 Azure Bicep、ARM 範本或 Terraform）來構建和維護 Azure 登陸區域體系結構。從平臺和應用程式工作負載的角度來看。</t>
+          <t>採用拉取請求策略來説明控制合併到分支中的代碼更改。</t>
         </is>
       </c>
       <c r="D228" s="21" t="n"/>
       <c r="E228" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -11439,14 +11444,14 @@
       <c r="G228" s="21" t="n"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
       <c r="L228" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M228" s="25" t="n"/>
@@ -11462,12 +11467,12 @@
       </c>
       <c r="B229" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>發展戰略</t>
         </is>
       </c>
       <c r="C229" s="21" t="inlineStr">
         <is>
-          <t>將安全性集成到 DevOps 中已經組合的開發和運營流程中，以降低創新過程中的風險。</t>
+          <t>利用聲明性基礎結構即代碼工具（如 Azure Bicep、ARM 範本或 Terraform）來構建和維護 Azure 登陸區域體系結構。從平臺和應用程式工作負載的角度來看。</t>
         </is>
       </c>
       <c r="D229" s="21" t="n"/>
@@ -11484,14 +11489,14 @@
       <c r="G229" s="21" t="n"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
       <c r="L229" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
         </is>
       </c>
       <c r="M229" s="25" t="n"/>
@@ -11500,15 +11505,45 @@
       <c r="P229" s="25" t="n"/>
     </row>
     <row r="230">
-      <c r="A230" s="21" t="n"/>
-      <c r="B230" s="21" t="n"/>
-      <c r="C230" s="21" t="n"/>
+      <c r="A230" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B230" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C230" s="21" t="inlineStr">
+        <is>
+          <t>將安全性集成到 DevOps 中已經組合的開發和運營流程中，以降低創新過程中的風險。</t>
+        </is>
+      </c>
       <c r="D230" s="21" t="n"/>
-      <c r="E230" s="21" t="n"/>
+      <c r="E230" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G230" s="21" t="n"/>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
-      <c r="L230" s="25" t="n"/>
+      <c r="L230" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M230" s="25" t="n"/>
       <c r="N230" s="25" t="n"/>
       <c r="O230" s="25" t="n"/>
@@ -12665,7 +12700,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F230" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F231" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
@@ -7047,12 +7047,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>請考慮使用虛擬 WAN 來簡化 Azure 網路管理，並確保在虛擬 WAN 路由設計清單中明確描述你的方案</t>
+          <t>請考慮每個 NSG 的 NSG 規則限制 （1000）。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7069,19 +7069,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7102,7 +7102,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>使用每個 Azure 區域的虛擬 WAN 中心，透過通用的全球 Azure 虛擬 WAN 跨 Azure 區域將多個登陸區域連接在一起。</t>
+          <t>請考慮使用虛擬 WAN 來簡化 Azure 網路管理，並確保在虛擬 WAN 路由設計清單中明確描述你的方案</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7119,14 +7119,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7147,13 +7152,13 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>遵循“Azure 中的流量保留在 Azure 中”的原則，以便通過 Microsoft 主幹網络跨 Azure 中的資源進行通信</t>
+          <t>使用每個 Azure 區域的虛擬 WAN 中心，透過通用的全球 Azure 虛擬 WAN 跨 Azure 區域將多個登陸區域連接在一起。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7171,7 +7176,7 @@
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7192,13 +7197,13 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>若要進行出站 Internet 流量保護和篩選，請在安全中心部署 Azure 防火牆</t>
+          <t>遵循“Azure 中的流量保留在 Azure 中”的原則，以便通過 Microsoft 主幹網络跨 Azure 中的資源進行通信</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7210,18 +7215,13 @@
       <c r="H135" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>確保網路體系結構在 Azure 虛擬 WAN 限制範圍內。</t>
+          <t>若要進行出站 Internet 流量保護和篩選，請在安全中心部署 Azure 防火牆</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7259,14 +7259,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7287,7 +7292,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>使用適用於虛擬 WAN 的 Azure Monitor 見解監視虛擬 WAN 的端到端拓撲、狀態和關鍵指標。</t>
+          <t>確保網路體系結構在 Azure 虛擬 WAN 限制範圍內。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7304,14 +7309,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7332,7 +7337,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>請確保 IaC 部署不會在虛擬 WAN 中禁用分支到分支流量，除非應顯式阻止這些流。</t>
+          <t>使用適用於虛擬 WAN 的 Azure Monitor 見解監視虛擬 WAN 的端到端拓撲、狀態和關鍵指標。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7349,14 +7354,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7377,7 +7382,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>使用 AS-Path 作為中心路由首選項，因為它比 ExpressRoute 或 VPN 更靈活。</t>
+          <t>請確保 IaC 部署不會在虛擬 WAN 中禁用分支到分支流量，除非應顯式阻止這些流。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7394,14 +7399,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7422,7 +7427,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>請確保 IaC 部署在虛擬 WAN 中配置基於標籤的傳播，否則虛擬中心之間的連接將受到損害。</t>
+          <t>使用 AS-Path 作為中心路由首選項，因為它比 ExpressRoute 或 VPN 更靈活。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7439,14 +7444,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7467,13 +7472,13 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>為虛擬中心分配足夠的IP空間，最好是 /23前置綴。</t>
+          <t>請確保 IaC 部署在虛擬 WAN 中配置基於標籤的傳播，否則虛擬中心之間的連接將受到損害。</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7484,14 +7489,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7502,17 +7507,17 @@
     <row r="142" ht="16.5" customHeight="1">
       <c r="A142" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬廣域網</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>戰略性地利用 Azure Policy，為環境定義控制，使用策略計劃對相關策略進行分組。</t>
+          <t>為虛擬中心分配足夠的IP空間，最好是 /23前置綴。</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7529,14 +7534,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7557,13 +7562,13 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>確定所需的 Azure 標記，並使用「追加」策略模式通過 Azure Policy 強制使用。</t>
+          <t>戰略性地利用 Azure Policy，為環境定義控制，使用策略計劃對相關策略進行分組。</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7574,14 +7579,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7602,7 +7607,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>將法規和合規性要求映射到 Azure Policy 定義和 Azure 角色分配。</t>
+          <t>確定所需的 Azure 標記，並使用「追加」策略模式通過 Azure Policy 強制使用。</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7619,14 +7624,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7647,7 +7652,7 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>在中間根管理組建立 Azure Policy 定義，以便可以在繼承的範圍內分配這些定義</t>
+          <t>將法規和合規性要求映射到 Azure Policy 定義和 Azure 角色分配。</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7671,7 +7676,7 @@
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7692,7 +7697,7 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>如果需要，在適當的最高級別管理策略分配，並在底層管理排除項。</t>
+          <t>在中間根管理組建立 Azure Policy 定義，以便可以在繼承的範圍內分配這些定義</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7716,7 +7721,7 @@
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7737,13 +7742,13 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 控制使用者可以在訂閱/管理組級別預配哪些服務</t>
+          <t>如果需要，在適當的最高級別管理策略分配，並在底層管理排除項。</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7754,14 +7759,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7782,13 +7787,13 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>盡可能使用內置策略，以最大程度地減少運營開銷。</t>
+          <t>使用 Azure Policy 控制使用者可以在訂閱/管理組級別預配哪些服務</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7799,14 +7804,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7827,14 +7832,10 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>在特定範圍內分配內置的「資源策略參與者」角色，以啟用應用程式級治理。</t>
-        </is>
-      </c>
-      <c r="D149" s="21" t="inlineStr">
-        <is>
-          <t>通過將「資源策略參與者」角色分配給特定範圍，可以將策略管理委派給相關團隊。例如，中心 IT 團隊可以監督管理組級別的策略，而應用程式團隊則處理其訂閱的策略，從而在遵守組織標準的情況下實現分散式治理。</t>
-        </is>
-      </c>
+          <t>盡可能使用內置策略，以最大程度地減少運營開銷。</t>
+        </is>
+      </c>
+      <c r="D149" s="21" t="n"/>
       <c r="E149" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -7848,14 +7849,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7876,10 +7877,14 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>限制在根管理組範圍內進行的 Azure Policy 分配數，以避免在繼承的範圍內通過排除項進行管理。</t>
-        </is>
-      </c>
-      <c r="D150" s="21" t="n"/>
+          <t>在特定範圍內分配內置的「資源策略參與者」角色，以啟用應用程式級治理。</t>
+        </is>
+      </c>
+      <c r="D150" s="21" t="inlineStr">
+        <is>
+          <t>通過將「資源策略參與者」角色分配給特定範圍，可以將策略管理委派給相關團隊。例如，中心 IT 團隊可以監督管理組級別的策略，而應用程式團隊則處理其訂閱的策略，從而在遵守組織標準的情況下實現分散式治理。</t>
+        </is>
+      </c>
       <c r="E150" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -7893,14 +7898,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7921,7 +7926,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>如果存在任何數據主權要求，可以部署 Azure 策略來強制實施這些要求</t>
+          <t>限制在根管理組範圍內進行的 Azure Policy 分配數，以避免在繼承的範圍內通過排除項進行管理。</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7938,19 +7943,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，主權策略基線的策略計劃在正確的 MG 級別部署和分配。</t>
+          <t>如果存在任何數據主權要求，可以部署 Azure 策略來強制實施這些要求</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7988,14 +7988,19 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8016,7 +8021,7 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區，記錄了主權控制目標到策略映射。</t>
+          <t>對於主權登陸區域，主權策略基線的策略計劃在正確的 MG 級別部署和分配。</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8033,14 +8038,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8061,7 +8066,7 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區，“主權控制目標到策略映射”的 CRUD 流程已到位。</t>
+          <t>對於主權登陸區，記錄了主權控制目標到策略映射。</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8076,12 +8081,16 @@
         </is>
       </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="n"/>
+      <c r="H154" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8097,18 +8106,18 @@
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>優化雲投資</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>請考慮使用自動化標記來啟動/停止環境中的 VM，以節省成本。</t>
+          <t>對於主權登陸區，“主權控制目標到策略映射”的 CRUD 流程已到位。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8117,16 +8126,12 @@
         </is>
       </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
-        </is>
-      </c>
+      <c r="H155" s="15" t="n"/>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8137,23 +8142,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>可擴展性</t>
+          <t>優化雲投資</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>利用 Azure 虛擬機規模集根據負載進行橫向擴展和橫向擴展。</t>
+          <t>請考慮使用自動化標記來啟動/停止環境中的 VM，以節省成本。</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8164,14 +8169,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8182,17 +8187,17 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>優化雲投資</t>
+          <t>可擴展性</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>配置“實際”和“預測”預算警報。</t>
+          <t>利用 Azure 虛擬機規模集根據負載進行橫向擴展和橫向擴展。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8209,14 +8214,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8227,23 +8232,23 @@
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>優化雲投資</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>添加診斷設置以保存 Azure Front Door 和 Azure 應用程式閘道等應用程式交付服務中的 WAF 紀錄。定期查看日誌，以檢查攻擊和誤報檢測。</t>
+          <t>配置“實際”和“預測”預算警報。</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8254,14 +8259,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8282,13 +8287,13 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>將 WAF 日誌從 Azure Front Door 和 Azure 應用程式閘道等應用程式交付服務發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測集成到整個 Azure 環境中。</t>
+          <t>添加診斷設置以保存 Azure Front Door 和 Azure 應用程式閘道等應用程式交付服務中的 WAF 紀錄。定期查看日誌，以檢查攻擊和誤報檢測。</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8299,14 +8304,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8322,12 +8327,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>考慮在 Azure 中對具有配對區域的 BCDR 進行跨區域複製</t>
+          <t>將 WAF 日誌從 Azure Front Door 和 Azure 應用程式閘道等應用程式交付服務發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測集成到整個 Azure 環境中。</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8344,14 +8349,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8372,7 +8377,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 備份時，請考慮不同的備份類型（GRS、ZRS 和 LRS），因為預設設置為 GRS</t>
+          <t>考慮在 Azure 中對具有配對區域的 BCDR 進行跨區域複製</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8389,14 +8394,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8412,12 +8417,12 @@
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>使用單個監視器日誌工作區集中管理平臺，但 Azure 基於角色的訪問控制 （Azure RBAC）、數據主權要求或數據保留策略要求使用單獨的工作區的情況除外。</t>
+          <t>使用 Azure 備份時，請考慮不同的備份類型（GRS、ZRS 和 LRS），因為預設設置為 GRS</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8434,19 +8439,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>確保登陸區域已記錄在案。</t>
+          <t>使用單個監視器日誌工作區集中管理平臺，但 Azure 基於角色的訪問控制 （Azure RBAC）、數據主權要求或數據保留策略要求使用單獨的工作區的情況除外。</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8482,12 +8482,21 @@
         </is>
       </c>
       <c r="G163" s="21" t="n"/>
-      <c r="H163" s="15" t="n"/>
+      <c r="H163" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8508,7 +8517,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>當日志保留要求超過兩年時，請使用 Azure Monitor 日誌。目前，您可以將數據保留長達 7 年的存檔狀態。</t>
+          <t>確保登陸區域已記錄在案。</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8523,21 +8532,12 @@
         </is>
       </c>
       <c r="G164" s="21" t="n"/>
-      <c r="H164" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H164" s="15" t="n"/>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8558,7 +8558,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供強制實施組織範圍設置的功能，以確保一致的策略遵守和快速的違規檢測。</t>
+          <t>當日志保留要求超過兩年時，請使用 Azure Monitor 日誌。目前，您可以將數據保留長達 7 年的存檔狀態。</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8575,19 +8575,19 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8608,7 +8608,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 監視來賓內虛擬機 （VM） 配置偏移。通過策略啟用來賓配置審核功能有助於應用程式團隊工作負載立即使用功能，而無需付出任何努力。</t>
+          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供強制實施組織範圍設置的功能，以確保一致的策略遵守和快速的違規檢測。</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8625,19 +8625,19 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8653,12 +8653,12 @@
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Update Manager 作為 Azure 中 Windows 和 Linux VM 的修補機制。</t>
+          <t>使用 Azure Policy 監視來賓內虛擬機 （VM） 配置偏移。通過策略啟用來賓配置審核功能有助於應用程式團隊工作負載立即使用功能，而無需付出任何努力。</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8675,19 +8675,19 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Arc 將 Azure Update Manager 用作 Azure 外部 Windows 和 Linux VM 的修補機制。</t>
+          <t>使用 Azure Update Manager 作為 Azure 中 Windows 和 Linux VM 的修補機制。</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8737,7 +8737,7 @@
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8753,12 +8753,12 @@
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>使用網路觀察程序主動監視流量</t>
+          <t>使用 Azure Arc 將 Azure Update Manager 用作 Azure 外部 Windows 和 Linux VM 的修補機制。</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8775,19 +8775,19 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8808,7 +8808,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>使用資源鎖可防止意外刪除關鍵共享服務。</t>
+          <t>使用網路觀察程序主動監視流量</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8825,19 +8825,19 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8858,13 +8858,13 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>使用拒絕策略來補充 Azure 角色分配。拒絕策略和 Azure 角色分配的組合可確保設置適當的防護機制，以強制實施誰可以部署和配置資源，以及他們可以部署和配置哪些資源。</t>
+          <t>使用資源鎖可防止意外刪除關鍵共享服務。</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8875,14 +8875,19 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8903,13 +8908,13 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>將服務和資源運行狀況事件作為整體平臺監視解決方案的一部分。從平臺角度跟蹤服務和資源運行狀況是 Azure 中資源管理的重要組成部分。</t>
+          <t>使用拒絕策略來補充 Azure 角色分配。拒絕策略和 Azure 角色分配的組合可確保設置適當的防護機制，以強制實施誰可以部署和配置資源，以及他們可以部署和配置哪些資源。</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
       <c r="E172" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8920,14 +8925,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8948,7 +8953,7 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>將警報和操作組作為 Azure 服務運行狀況平臺的一部分，以確保可以對警報或問題執行操作</t>
+          <t>將服務和資源運行狀況事件作為整體平臺監視解決方案的一部分。從平臺角度跟蹤服務和資源運行狀況是 Azure 中資源管理的重要組成部分。</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8965,14 +8970,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8993,7 +8998,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>不要將原始日誌條目發送回本地監視系統。相反，應採用在 Azure 中生成的數據保留在 Azure 中的原則。如果需要本地 SIEM 集成，請發送關鍵警報而不是日誌。</t>
+          <t>將警報和操作組作為 Azure 服務運行狀況平臺的一部分，以確保可以對警報或問題執行操作</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9010,14 +9015,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9038,7 +9043,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>使用集中式 Azure Monitor Log Analytics 工作區從 IaaS 和 PaaS 應用程式資源收集日誌和指標，並使用 Azure RBAC 控制日誌訪問。</t>
+          <t>不要將原始日誌條目發送回本地監視系統。相反，應採用在 Azure 中生成的數據保留在 Azure 中的原則。如果需要本地 SIEM 集成，請發送關鍵警報而不是日誌。</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9055,14 +9060,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9083,7 +9088,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
+          <t>使用集中式 Azure Monitor Log Analytics 工作區從 IaaS 和 PaaS 應用程式資源收集日誌和指標，並使用 Azure RBAC 控制日誌訪問。</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9100,14 +9105,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9128,7 +9133,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>必要時，在登陸區域中使用共用存儲帳戶進行 Azure 診斷擴展日誌存儲。</t>
+          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9145,14 +9150,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9173,7 +9178,7 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 警報生成操作警報。</t>
+          <t>必要時，在登陸區域中使用共用存儲帳戶進行 Azure 診斷擴展日誌存儲。</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9190,14 +9195,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9218,7 +9223,7 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>確保已評估監視要求，並應用了適當的數據收集和警報配置</t>
+          <t>使用 Azure Monitor 警報生成操作警報。</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9235,14 +9240,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9263,7 +9268,7 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure 自動化帳戶使用更改和清單跟蹤時，請確保已選擇支持的區域，以便將 Log Analytics 工作區和自動化帳戶連結在一起。</t>
+          <t>確保已評估監視要求，並應用了適當的數據收集和警報配置</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9280,14 +9285,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9303,12 +9308,12 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 策略通過 VM 擴展自動部署軟體配置，並強制實施合規的基線 VM 配置。</t>
+          <t>通過 Azure 自動化帳戶使用更改和清單跟蹤時，請確保已選擇支持的區域，以便將 Log Analytics 工作區和自動化帳戶連結在一起。</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9325,14 +9330,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9348,19 +9353,15 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure Policy 監視 VM 安全配置偏差。</t>
-        </is>
-      </c>
-      <c r="D182" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy 的來賓配置功能可以審核和修正計算機設置（例如 OS、應用程式、環境），以確保資源與預期配置保持一致，更新管理可以強制實施 VM 的修補程式管理。</t>
-        </is>
-      </c>
+          <t>為登陸區域的平臺元件建立監視，AMBA 是一種可用的框架解決方案，它提供了一種使用 Azure Policy 縮放警報的簡單方法</t>
+        </is>
+      </c>
+      <c r="D182" s="21" t="n"/>
       <c r="E182" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -9374,14 +9375,19 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-monitor</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>https://azure.github.io/azure-monitor-baseline-alerts/patterns/alz/</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>aa45be6a-8f2d-4896-b0e3-775e6e94e610</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9397,12 +9403,12 @@
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>保護和恢復</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>將 Azure Site Recovery 用於 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
+          <t>使用 Azure 策略通過 VM 擴展自動部署軟體配置，並強制實施合規的基線 VM 配置。</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9419,14 +9425,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9442,15 +9448,19 @@
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>保護和恢復</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>確保使用和測試原生 PaaS 服務災難恢復功能。</t>
-        </is>
-      </c>
-      <c r="D184" s="21" t="n"/>
+          <t>通過 Azure Policy 監視 VM 安全配置偏差。</t>
+        </is>
+      </c>
+      <c r="D184" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy 的來賓配置功能可以審核和修正計算機設置（例如 OS、應用程式、環境），以確保資源與預期配置保持一致，更新管理可以強制實施 VM 的修補程式管理。</t>
+        </is>
+      </c>
       <c r="E184" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -9464,14 +9474,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9492,7 +9502,7 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
+          <t>將 Azure Site Recovery 用於 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9509,14 +9519,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9532,18 +9542,18 @@
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>容錯</t>
+          <t>保護和恢復</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>在支援可用性區域的區域中為 VM 利用可用性區域。</t>
+          <t>確保使用和測試原生 PaaS 服務災難恢復功能。</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
       <c r="E186" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9554,14 +9564,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9577,18 +9587,18 @@
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>容錯</t>
+          <t>保護和恢復</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>避免在單個 VM 上運行生產工作負載。</t>
+          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
       <c r="E187" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -9599,14 +9609,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9627,13 +9637,13 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Azure 負載均衡器和應用程式閘道在多個資源之間分配傳入的網路流量。</t>
+          <t>在支援可用性區域的區域中為 VM 利用可用性區域。</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
       <c r="E188" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9644,14 +9654,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9662,23 +9672,23 @@
     <row r="189" ht="16.5" customHeight="1">
       <c r="A189" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>存取控制</t>
+          <t>容錯</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>在允許 Azure 服務投入生產之前，確定其事件響應計劃。</t>
+          <t>避免在單個 VM 上運行生產工作負載。</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
       <c r="E189" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -9689,14 +9699,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9707,17 +9717,17 @@
     <row r="190" ht="16.5" customHeight="1">
       <c r="A190" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>存取控制</t>
+          <t>容錯</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>在適當的情況下，實施零信任方法來訪問 Azure 平臺。</t>
+          <t>Azure 負載均衡器和應用程式閘道在多個資源之間分配傳入的網路流量。</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9734,14 +9744,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9757,18 +9767,18 @@
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>存取控制</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Key Vault 儲存機密和憑據</t>
+          <t>在允許 Azure 服務投入生產之前，確定其事件響應計劃。</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
       <c r="E191" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9779,14 +9789,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9802,12 +9812,12 @@
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>存取控制</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>對不同的應用程式和區域使用不同的 Azure Key Vault，以避免事務規模限制並限制對機密的訪問。</t>
+          <t>在適當的情況下，實施零信任方法來訪問 Azure 平臺。</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9824,14 +9834,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9852,13 +9862,13 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>預配啟用軟刪除和清除策略的 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
+          <t>使用 Azure Key Vault 儲存機密和憑據</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
       <c r="E193" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -9869,14 +9879,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9897,7 +9907,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>遵循最低特權模型，將永久刪除密鑰、機密和證書的授權限制為專用的自定義 Microsoft Entra ID 角色。</t>
+          <t>對不同的應用程式和區域使用不同的 Azure Key Vault，以避免事務規模限制並限制對機密的訪問。</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9914,14 +9924,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9942,7 +9952,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>使用公共證書頒發機構自動執行證書管理和續訂過程，以簡化管理。</t>
+          <t>預配啟用軟刪除和清除策略的 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9966,7 +9976,7 @@
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9987,7 +9997,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>建立金鑰和證書輪換的自動化流程。</t>
+          <t>遵循最低特權模型，將永久刪除密鑰、機密和證書的授權限制為專用的自定義 Microsoft Entra ID 角色。</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10011,7 +10021,7 @@
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10032,7 +10042,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>在保管庫上啟用防火牆和虛擬網路服務終結點或專用終結點，以控制對密鑰保管庫的訪問。</t>
+          <t>使用公共證書頒發機構自動執行證書管理和續訂過程，以簡化管理。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10056,7 +10066,7 @@
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10077,7 +10087,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>使用平臺中心的 Azure Monitor Log Analytics 工作區審核每個 Key Vault 實例中的金鑰、證書和機密使用方式。</t>
+          <t>建立金鑰和證書輪換的自動化流程。</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10094,14 +10104,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10122,7 +10132,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>委託 Key Vault 實例化和特權訪問，並使用 Azure Policy 強制實施一致的合規配置。</t>
+          <t>在保管庫上啟用防火牆和虛擬網路服務終結點或專用終結點，以控制對密鑰保管庫的訪問。</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10146,7 +10156,7 @@
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10167,7 +10177,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>預設使用 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
+          <t>使用平臺中心的 Azure Monitor Log Analytics 工作區審核每個 Key Vault 實例中的金鑰、證書和機密使用方式。</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10184,14 +10194,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10212,7 +10222,7 @@
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+          <t>委託 Key Vault 實例化和特權訪問，並使用 Azure Policy 強制實施一致的合規配置。</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10236,7 +10246,7 @@
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10257,7 +10267,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>如果要自帶密鑰，則並非所有考慮的服務都支援此功能。實施相關的緩解措施，使不一致不會妨礙預期的結果。選擇適當的區域對和災難恢復區域，以最大程度地減少延遲。</t>
+          <t>預設使用 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10274,14 +10284,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10302,7 +10312,7 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，請使用 Azure Key Vault 託管 HSM 來儲存機密和憑據。</t>
+          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10319,14 +10329,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10342,12 +10352,12 @@
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra ID 報告功能生成訪問控制審核報告。</t>
+          <t>如果要自帶密鑰，則並非所有考慮的服務都支援此功能。實施相關的緩解措施，使不一致不會妨礙預期的結果。選擇適當的區域對和災難恢復區域，以最大程度地減少延遲。</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10364,14 +10374,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10387,12 +10397,12 @@
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 活動日誌匯出到 Azure Monitor 紀錄，以便長期保留數據。如有必要，導出到 Azure 存儲以進行超過兩年的長期存儲。</t>
+          <t>對於主權登陸區域，請使用 Azure Key Vault 託管 HSM 來儲存機密和憑據。</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10409,14 +10419,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10437,13 +10447,13 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>為所有訂閱啟用Defender雲安全態勢管理。</t>
+          <t>使用 Microsoft Entra ID 報告功能生成訪問控制審核報告。</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10454,14 +10464,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10482,13 +10492,13 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>在所有訂閱上為伺服器啟用Defender雲工作負載保護計劃。</t>
+          <t>將 Azure 活動日誌匯出到 Azure Monitor 紀錄，以便長期保留數據。如有必要，導出到 Azure 存儲以進行超過兩年的長期存儲。</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10499,14 +10509,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10527,7 +10537,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>在所有訂閱上為 Azure 資源啟用 Defender 雲工作負載保護計劃。</t>
+          <t>為所有訂閱啟用Defender雲安全態勢管理。</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10544,14 +10554,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10572,7 +10582,7 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>在 IaaS 伺服器上啟用 Endpoint Protection。</t>
+          <t>在所有訂閱上為伺服器啟用Defender雲工作負載保護計劃。</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10589,14 +10599,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10617,13 +10627,13 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure Monitor 紀錄和 Defender for Cloud 監視基本作業系統修補偏差。</t>
+          <t>在所有訂閱上為 Azure 資源啟用 Defender 雲工作負載保護計劃。</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
       <c r="E210" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10634,14 +10644,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10662,13 +10672,13 @@
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>將預設資源配置連接到集中式 Azure Monitor Log Analytics 工作區。</t>
+          <t>在 IaaS 伺服器上啟用 Endpoint Protection。</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10679,14 +10689,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10707,7 +10717,7 @@
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，在 Entra ID 租戶上啟用透明度日誌。</t>
+          <t>通過 Azure Monitor 紀錄和 Defender for Cloud 監視基本作業系統修補偏差。</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
@@ -10724,14 +10734,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10752,7 +10762,7 @@
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，在 Entra ID 租戶上啟用客戶密碼箱。</t>
+          <t>將預設資源配置連接到集中式 Azure Monitor Log Analytics 工作區。</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
@@ -10769,14 +10779,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10792,18 +10802,18 @@
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>概述</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>應啟用到存儲帳戶的安全傳輸</t>
+          <t>對於主權登陸區域，在 Entra ID 租戶上啟用透明度日誌。</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10814,14 +10824,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10837,18 +10847,18 @@
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>概述</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
+          <t>對於主權登陸區域，在 Entra ID 租戶上啟用客戶密碼箱。</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10859,14 +10869,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10882,12 +10892,12 @@
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>安全特權訪問</t>
+          <t>概述</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>為 Azure 管理任務單獨使用特權管理員帳戶。</t>
+          <t>應啟用到存儲帳戶的安全傳輸</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
@@ -10904,14 +10914,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10927,18 +10937,18 @@
       </c>
       <c r="B217" s="21" t="inlineStr">
         <is>
-          <t>服務支援框架</t>
+          <t>概述</t>
         </is>
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>規劃如何實現新的 Azure 服務</t>
+          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10949,14 +10959,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10972,18 +10982,18 @@
       </c>
       <c r="B218" s="21" t="inlineStr">
         <is>
-          <t>服務支援框架</t>
+          <t>安全特權訪問</t>
         </is>
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>規劃如何滿足 Azure 服務的服務請求</t>
+          <t>為 Azure 管理任務單獨使用特權管理員帳戶。</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -10994,14 +11004,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11012,23 +11022,23 @@
     <row r="219">
       <c r="A219" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B219" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>服務支援框架</t>
         </is>
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>確保有一個跨職能的DevOps平臺團隊來構建、管理和維護 Azure 登陸區域體系結構。</t>
+          <t>規劃如何實現新的 Azure 服務</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11039,14 +11049,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11057,23 +11067,23 @@
     <row r="220">
       <c r="A220" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B220" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>服務支援框架</t>
         </is>
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>旨在為 Azure 登陸區域平台團隊定義功能。</t>
+          <t>規劃如何滿足 Azure 服務的服務請求</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
       <c r="E220" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11084,14 +11094,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11112,13 +11122,13 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>旨在為應用程式工作負載團隊定義功能，使其自給自足，不需要DevOps平臺團隊支援。通過使用自定義 RBAC 角色來實現此目的。</t>
+          <t>確保有一個跨職能的DevOps平臺團隊來構建、管理和維護 Azure 登陸區域體系結構。</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
       <c r="E221" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -11129,14 +11139,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11157,13 +11167,13 @@
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>使用 CI/CD 管道部署 IaC 專案，並確保部署和 Azure 環境的品質。</t>
+          <t>旨在為 Azure 登陸區域平台團隊定義功能。</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11174,14 +11184,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11202,13 +11212,13 @@
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>將 IaC 和應用程式代碼的單元測試作為生成過程的一部分。</t>
+          <t>旨在為應用程式工作負載團隊定義功能，使其自給自足，不需要DevOps平臺團隊支援。通過使用自定義 RBAC 角色來實現此目的。</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
       <c r="E223" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11219,14 +11229,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11247,7 +11257,7 @@
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>使用 Key Vault 機密可避免對敏感資訊（例如憑據（虛擬機器用戶密碼）、證書或密鑰）進行硬編碼。</t>
+          <t>使用 CI/CD 管道部署 IaC 專案，並確保部署和 Azure 環境的品質。</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
@@ -11264,14 +11274,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11292,13 +11302,13 @@
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>為應用程式和工作負載實現檔&gt;新&gt;登陸區域的自動化。</t>
+          <t>將 IaC 和應用程式代碼的單元測試作為生成過程的一部分。</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11309,14 +11319,14 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11332,12 +11342,12 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>開發生命週期</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>確保將版本控制系統用於開發的應用程式和 IaC 的原始程式碼。Microsoft 推薦 Git。</t>
+          <t>使用 Key Vault 機密可避免對敏感資訊（例如憑據（虛擬機器用戶密碼）、證書或密鑰）進行硬編碼。</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
@@ -11354,14 +11364,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11377,12 +11387,12 @@
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>開發生命週期</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>遵循分支策略，使團隊能夠更好地協作，更有效地管理 IaC 和應用程式代碼的版本控制。查看 Github Flow 等選項。</t>
+          <t>為應用程式和工作負載實現檔&gt;新&gt;登陸區域的自動化。</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
@@ -11399,14 +11409,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11427,13 +11437,13 @@
       </c>
       <c r="C228" s="21" t="inlineStr">
         <is>
-          <t>採用拉取請求策略來説明控制合併到分支中的代碼更改。</t>
+          <t>確保將版本控制系統用於開發的應用程式和 IaC 的原始程式碼。Microsoft 推薦 Git。</t>
         </is>
       </c>
       <c r="D228" s="21" t="n"/>
       <c r="E228" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -11444,14 +11454,14 @@
       <c r="G228" s="21" t="n"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
       <c r="L228" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M228" s="25" t="n"/>
@@ -11467,18 +11477,18 @@
       </c>
       <c r="B229" s="21" t="inlineStr">
         <is>
-          <t>發展戰略</t>
+          <t>開發生命週期</t>
         </is>
       </c>
       <c r="C229" s="21" t="inlineStr">
         <is>
-          <t>利用聲明性基礎結構即代碼工具（如 Azure Bicep、ARM 範本或 Terraform）來構建和維護 Azure 登陸區域體系結構。從平臺和應用程式工作負載的角度來看。</t>
+          <t>遵循分支策略，使團隊能夠更好地協作，更有效地管理 IaC 和應用程式代碼的版本控制。查看 Github Flow 等選項。</t>
         </is>
       </c>
       <c r="D229" s="21" t="n"/>
       <c r="E229" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -11489,14 +11499,14 @@
       <c r="G229" s="21" t="n"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
       <c r="L229" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M229" s="25" t="n"/>
@@ -11512,18 +11522,18 @@
       </c>
       <c r="B230" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>開發生命週期</t>
         </is>
       </c>
       <c r="C230" s="21" t="inlineStr">
         <is>
-          <t>將安全性集成到 DevOps 中已經組合的開發和運營流程中，以降低創新過程中的風險。</t>
+          <t>採用拉取請求策略來説明控制合併到分支中的代碼更改。</t>
         </is>
       </c>
       <c r="D230" s="21" t="n"/>
       <c r="E230" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -11534,14 +11544,14 @@
       <c r="G230" s="21" t="n"/>
       <c r="H230" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
       <c r="L230" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M230" s="25" t="n"/>
@@ -11550,30 +11560,90 @@
       <c r="P230" s="25" t="n"/>
     </row>
     <row r="231">
-      <c r="A231" s="21" t="n"/>
-      <c r="B231" s="21" t="n"/>
-      <c r="C231" s="21" t="n"/>
+      <c r="A231" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B231" s="21" t="inlineStr">
+        <is>
+          <t>發展戰略</t>
+        </is>
+      </c>
+      <c r="C231" s="21" t="inlineStr">
+        <is>
+          <t>利用聲明性基礎結構即代碼工具（如 Azure Bicep、ARM 範本或 Terraform）來構建和維護 Azure 登陸區域體系結構。從平臺和應用程式工作負載的角度來看。</t>
+        </is>
+      </c>
       <c r="D231" s="21" t="n"/>
-      <c r="E231" s="21" t="n"/>
+      <c r="E231" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G231" s="21" t="n"/>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J231" s="22" t="n"/>
       <c r="K231" s="22" t="n"/>
-      <c r="L231" s="25" t="n"/>
+      <c r="L231" s="25" t="inlineStr">
+        <is>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+        </is>
+      </c>
       <c r="M231" s="25" t="n"/>
       <c r="N231" s="25" t="n"/>
       <c r="O231" s="25" t="n"/>
       <c r="P231" s="25" t="n"/>
     </row>
     <row r="232">
-      <c r="A232" s="21" t="n"/>
-      <c r="B232" s="21" t="n"/>
-      <c r="C232" s="21" t="n"/>
+      <c r="A232" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B232" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C232" s="21" t="inlineStr">
+        <is>
+          <t>將安全性集成到 DevOps 中已經組合的開發和運營流程中，以降低創新過程中的風險。</t>
+        </is>
+      </c>
       <c r="D232" s="21" t="n"/>
-      <c r="E232" s="21" t="n"/>
+      <c r="E232" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G232" s="21" t="n"/>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J232" s="22" t="n"/>
       <c r="K232" s="22" t="n"/>
-      <c r="L232" s="25" t="n"/>
+      <c r="L232" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M232" s="25" t="n"/>
       <c r="N232" s="25" t="n"/>
       <c r="O232" s="25" t="n"/>
@@ -12700,7 +12770,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F231" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F233" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>使用一個 Entra 租戶來管理 Azure 資源，除非你對多租戶有明確的法規或業務要求。</t>
+          <t>使用一個 Entra 租戶來管理 Azure 資源，除非對多租戶有明確的法規或業務要求。</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>確保 Azure Lighthouse 用於按合作夥伴管理租戶</t>
+          <t>確保合作夥伴使用 Azure Lighthouse 來管理租戶</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>與 CSP 合作夥伴討論支援請求和上報流程</t>
+          <t>與 CSP 合作夥伴討論支援請求和升級過程</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>將通知連絡人配置到組郵箱</t>
+          <t>配置組郵箱的通知聯繫人</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>在EA註冊中同時啟用DA查看費用和AO查看費用，以允許具有正確許可權的使用者查看成本和計費數據。</t>
+          <t>在EA註冊上同時啟用DA View Charges和 AO View Fees，以允許具有正確 perms 的使用者查看成本和計費數據。</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>定期審核角色分配，以查看誰有權訪問企業協議註冊</t>
+          <t>定期審核角色分配，以查看誰有權訪問你的企業協議註冊</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>使用「計費配置檔」和「發票」部分來構建協定計費，以實現有效的成本管理</t>
+          <t>使用「計費配置檔」和「發票」部分構建協定計費，以實現有效的成本管理</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>使用託管標識（而不是服務主體）對 Azure 服務進行身份驗證</t>
+          <t>使用託管標識而不是服務主體對 Azure 服務進行身份驗證。可以通過 Entra ID &gt;登錄日誌&gt;服務主體登錄來檢查現有服務主體。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>實施緊急訪問或打破玻璃帳戶，以防止租戶範圍的帳戶鎖定</t>
+          <t>實施緊急訪問或破屏帳戶，以防止租戶範圍的帳戶鎖定</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>將 Microsoft Entra ID 紀錄與平臺中心的 Azure 監視器整合。Azure Monitor 允許圍繞 Azure 中的日誌和監視數據提供單一事實來源，為組織提供雲原生選項，以滿足日誌收集和保留方面的要求。</t>
+          <t>將 Microsoft Entra ID 紀錄與平臺中心 Azure 監視器整合。Azure Monitor 允許圍繞 Azure 中的日誌和監視數據提供單一事實源，為組織提供雲原生選項，以滿足有關日誌收集和保留的要求。</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>強制實施與雲操作模型一致的 RBAC 模型。跨管理組和訂閱確定範圍和分配範圍。</t>
+          <t>強制實施與雲操作模型一致的 RBAC 模型。跨管理組和訂閱確定範圍和分配。</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>對有權訪問 Azure 環境的任何使用者強制實施多重身份驗證</t>
+          <t>對具有 Azure 環境許可權的任何使用者強制實施多重身份驗證</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>根據角色和安全要求，強制實施集中和委派的職責，以管理部署在登陸區域內的資源</t>
+          <t>根據角色和安全要求強制實施集中和委派的職責，以管理在登陸區域內部署的資源</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>強制實施 Microsoft Entra ID 特權標識管理 （PIM） 以建立零長期訪問許可權和最低特權</t>
+          <t>強制實施 Microsoft Entra ID 特權標識管理 （PIM） 以建立零長期訪問和最低特權</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>避免將本地同步帳戶用於 Microsoft Entra ID 角色分配。</t>
+          <t>避免使用本地同步帳戶進行 Microsoft Entra ID 角色分配。</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>通過使用虛擬網路配置標識網路分段，並對等互連到中心。在應用程式登陸區域內提供身份驗證 （舊版） 。</t>
+          <t>通過使用虛擬網路配置標識網路分段，並返回中心。在應用程式登陸區域（舊版）內提供身份驗證。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>如果可能，請使用 Azure RBAC 管理對資源的數據平面訪問。例如，跨 Key Vault、存儲帳戶和資料庫服務的數據操作。</t>
+          <t>如果可能，請使用 Azure RBAC 管理對資源的數據平面訪問。例如 - 跨 Key Vault、存儲帳戶和資料庫服務的數據操作。</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra ID PIM 訪問評審定期驗證資源授權。</t>
+          <t>使用 Microsoft Entra ID PIM 訪問評審定期驗證資源權利。</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>建議遵循 Microsoft 最佳實踐命名標準</t>
+          <t>建議遵循 Microsoft 最佳做法命名標準</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>強制實施沙箱管理組，以允許使用者立即試驗 Azure</t>
+          <t>強制實施沙箱管理組，以允許使用者立即試用 Azure</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>通過在管理組層次結構設置中啟用 Azure RBAC 授權，強制只有特權使用者才能操作租戶中的管理組</t>
+          <t>通過在管理組層次結構設置中啟用 Azure RBAC 授權，強制只有特權使用者才能在租戶中操作管理組</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>根據根級管理組的安全性、合規性、連接性和功能需求，強制實施根級管理組下的管理組，以表示工作負載的類型。</t>
+          <t>在根級別管理組下強制實施管理組，以根據其安全性、合規性、連接性和功能需求來表示工作負載的類型。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>強制執行流程，使資源擁有者瞭解其角色和職責、訪問評審、預算評審、策略合規性，並在必要時進行修正。</t>
+          <t>強制實施流程，使資源擁有者瞭解其角色和職責、訪問評審、預算評審、策略合規性，並在必要時進行修正。</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>強制執行儀錶板、工作簿或手動過程以監視已用容量級別</t>
+          <t>強制執行儀錶板、工作簿或手動流程來監控已用容量級別</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>如果伺服器將用於標識服務（如域控制器），請在標識管理組中建立專用標識訂閱，以託管這些服務</t>
+          <t>如果伺服器將用於標識服務（如域控制器），請在標識管理組中建立專用標識訂閱來託管這些服務</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>確保標籤用於計費和成本管理</t>
+          <t>確保將標籤用於計費和成本管理</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，在「登陸區域」MG 下直接有一個「機密公司」和「機密在線」管理組。</t>
+          <t>對於主權登陸區，在「登陸區」MG下有一個「機密公司」和「機密在線」管理組。</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>為部署選擇正確的 Azure 區域。Azure 是一個全球規模的雲平臺，可在許多區域和地理位置提供全球覆蓋。不同的 Azure 區域具有不同的特徵、訪問和可用性模型、成本、容量和提供的服務，因此必須考慮所有條件和要求</t>
+          <t>為部署選擇正確的 Azure 區域。Azure 是一個全球規模的雲平臺，可覆蓋多個區域和地理位置的全球範圍。不同的 Azure 區域具有不同的特徵、訪問和可用性模型、成本、容量和提供的服務，因此請務必考慮所有條件和要求</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>請考慮多區域部署。根據客戶規模、位置和用戶狀態，在多個區域運營可能是在離他們更近的地方提供服務和運行應用程式的常見選擇。使用多區域部署對於提供異地災難恢復功能、消除對單個區域容量的依賴關係並降低臨時和當地語系化資源容量限制的風險也很重要</t>
+          <t>考慮多區域部署。根據客戶規模、位置和使用者分佈情況，在多個區域運營可能是提供服務和運行更接近它們的應用程式的常見選擇。使用多區域部署對於提供異地災難恢復功能、消除對單個區域容量的依賴性並降低臨時和當地語系化資源容量限制的風險也很重要</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>確保所需的服務和功能在所選部署區域內可用</t>
+          <t>確保所需的服務和功能在所選部署區域中可用</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>制定計劃，使用應用程式閘道和 Azure Front door 保護工作負載分支中的交付應用程式內容。 您可以使用應用程式交付清單來獲取建議。</t>
+          <t>制定計劃，使用應用程式閘道和 Azure Front Door 保護工作負載分支中的交付應用程式內容。 您可以使用應用程式交付清單來獲取建議。</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>在登陸區域內為面向內部 （corp） 和面向外部的應用 （online） 執行應用交付。</t>
+          <t>在面向內部 （corp） 和面向外部的應用 （online） 的登陸區域內執行應用交付。</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>使用 ExpressRoute Direct 時，請配置 MACsec，以便在組織路由器和 MSEE 之間的第二層級別加密流量。該圖顯示了流中的這種加密。</t>
+          <t>使用 ExpressRoute Direct 時，請配置 MACsec，以便在組織的路由器和 MSEE 之間的第二層級別加密流量。該圖顯示了流中的此加密。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3874,7 +3874,7 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/en-us/azure/expressroute/expressroute-howto-macsec</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>對於無法使用MACsec的方案（例如，不使用ExpressRoute Direct），請使用 VPN 閘道通過 ExpressRoute 專用對等互連建立 IPsec 隧道。</t>
+          <t>對於不使用MACsec的方案（例如，不使用ExpressRoute Direct），請使用 VPN 閘道通過 ExpressRoute 專用對等互連建立 IPsec 隧道。</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>利用基於傳統中心輻射型網路拓撲的網路設計，實現需要最大靈活性的網路方案。</t>
+          <t>利用基於傳統中心輻射型網路拓撲的網路設計，適用於需要最大靈活性的網路方案。</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>確保共用網路服務，包括 ExpressRoute 閘道、VPN 閘道和 Azure 防火牆或中心虛擬網路中的合作夥伴 NVA。如有必要，還可以部署 DNS 伺服器。</t>
+          <t>確保共用網路服務，包括 ExpressRoute 閘道、VPN 閘道和 Azure 防火牆或合作夥伴 NVA 位於中心虛擬網路中。如有必要，還可以部署 DNS 伺服器。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>如果需要在中心輻射型方案中的 ExpressRoute 和 VPN 閘道之間傳輸，請使用 Azure 路由伺服器。</t>
+          <t>如果需要在中心輻射型方案中在 ExpressRoute 和 VPN 閘道之間傳輸，請使用 Azure 路由伺服器。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>將分支虛擬網路連接到中心虛擬網路時，請考慮 VNet 對等互連限制 （500），即可通過 ExpressRoute 播發的最大前綴數 （1000）</t>
+          <t>將分支虛擬網路連接到中央中心虛擬網路時，請考慮 VNet 對等互連限制 （500），即可通過 ExpressRoute 播發的最大前綴數 （1000）</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4378,7 +4378,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>配置 VNet 對等互連時，使用「允許流量流向遠端虛擬網路」設置</t>
+          <t>配置 VNet 對等互連時，使用「允許流向遠端虛擬網路的流量」設置</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>確保已調查使用 ExpressRoute 作為與 Azure 的主要連接的可能性。</t>
+          <t>確保已調查使用 ExpressRoute 作為與 Azure 的主連接的可能性。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4474,12 +4474,12 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>使用多條 ExpressRoute 線路或多個本地位置時，請確保使用 BGP 屬性優化路由（如果首選某些路徑）。</t>
+          <t>使用多個 ExpressRoute 線路或多個本地位置時，請確保使用 BGP 屬性優化路由（如果首選某些路徑）。</t>
         </is>
       </c>
       <c r="D79" s="21" t="inlineStr">
         <is>
-          <t>可以使用 AS 路徑預置和連接權重來影響從 Azure 到本地的流量，並使用自己的路由器中的全部 BGP 屬性來影響從本地到 Azure 的流量。</t>
+          <t>可以使用 AS 路徑前置和連接權重來影響從 Azure 到本地的流量，並使用自己的路由器中的所有 BGP 屬性來影響從本地到 Azure 的流量。</t>
         </is>
       </c>
       <c r="E79" s="21" t="inlineStr">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>確保僅在達到證明其成本合理的頻寬時才使用無限數據 ExpressRoute 線路。</t>
+          <t>確保僅當達到證明其成本合理的頻寬時，才使用無限數據 ExpressRoute 線路。</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4624,7 +4624,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>如果線路的對等互連位置支援本地 SKU 的 Azure 區域，則利用 ExpressRoute 的本地 SKU 來降低線路成本。</t>
+          <t>如果線路的對等互連位置支援本地 SKU 的 Azure 區域，請利用 ExpressRoute 的本地 SKU 來降低線路成本。</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>對於需要頻寬高於 10 Gbps 或專用 10/100 Gbps 埠的方案，請使用 ExpressRoute Direct。</t>
+          <t>對於需要高於 10 Gbps 的頻寬或專用 10/100 Gbps 埠的方案，請使用 ExpressRoute Direct。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>當需要流量隔離或專用頻寬時，例如用於分離生產環境和非生產環境，請使用不同的 ExpressRoute 線路。它將幫助您確保隔離的路由域並減輕嘈雜的鄰居風險。</t>
+          <t>當需要流量隔離或專用頻寬時（例如用於分離生產環境和非生產環境），請使用不同的 ExpressRoute 線路。它將幫助您確保隔離的路由域並減輕干擾鄰居風險。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>使用內置的 Express Route 見解監視 ExpressRoute 可用性和利用率。</t>
+          <t>使用內置的 Express Route Insights 監視 ExpressRoute 可用性和利用率。</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>使用連接監視器監視整個網路的連接，尤其是本地和 Azure 之間的連接。</t>
+          <t>使用連接監視器對整個網路進行連接監視，尤其是在本地和 Azure 之間。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>使用來自不同對等互連位置的 ExpressRoute 線路來實現冗餘。</t>
+          <t>使用來自不同對等互連位置的 ExpressRoute 線路實現冗餘。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>使用網站到網站 VPN 作為 ExpressRoute 的故障轉移，尤其是在僅使用單個 ExpressRoute 線路時。</t>
+          <t>使用網站到網站 VPN 作為 ExpressRoute 的故障轉移，尤其是在僅使用單個 ExpressRoute 線路的情況下。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5262,7 +5262,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>如果使用 ExpressRoute，則本地路由應是動態的：如果連接失敗，它應收斂到線路的剩餘連接。負載應在兩個連接之間共用，理想情況下應作為主動/主動共用，儘管也支持主動/被動。</t>
+          <t>如果使用 ExpressRoute，則本地路由應是動態的：如果連接失敗，它應收斂到線路的剩餘連接。理想情況下，負載應在兩個連接之間共用，最好是主動/主動，儘管也支持主動/被動。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5303,12 +5303,12 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>確保 Azure 區域和本地位置之間不使用重疊的 IP 位址空間</t>
+          <t>確保不使用 Azure 區域和本地位置之間的重疊 IP 位址空間</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5353,12 +5353,12 @@
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>使用專用 Internet 位址分配範圍中的 IP 位址 （RFC 1918）。</t>
+          <t>使用專用 Internet 的位址分配範圍 （RFC 1918） 中的 IP 位址。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5403,12 +5403,12 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>確保不會浪費 IP 位址空間，不要建立不必要的大型虛擬網路（例如 /16）</t>
+          <t>確保不浪費IP位址空間，不要創建不必要的大型虛擬網路（例如/16）</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5453,7 +5453,7 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
@@ -5503,7 +5503,7 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>IP計劃</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>在子網 /26 或更大的情況下使用 Azure Bastion。</t>
+          <t>在子網 /26 或更大版本中使用 Azure Bastion。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 防火牆管理發往 Internet、非 HTTP/S 入站連接和東西方流量篩選的 Azure 出站流量（如果組織需要）</t>
+          <t>使用 Azure 防火牆管理發往 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東西向流量篩選（如果組織需要）</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>創建全域 Azure 防火牆策略來管理全球網路環境中的安全狀況，並將其分配給所有 Azure 防火牆實例。通過 Azure 基於角色的訪問控制將增量防火牆策略委派給本地安全團隊，從而允許精細策略來滿足特定區域的要求。</t>
+          <t>創建全域 Azure 防火牆策略以管理整個全球網路環境中的安全狀況，並將其分配給所有 Azure 防火牆實例。通過 Azure 基於角色的訪問控制將增量防火牆策略委派給本地安全團隊，允許精細策略滿足特定區域的要求。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為登陸區域的入站 HTTP/S 連接提供全域保護。</t>
+          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為到登陸區域的入站 HTTP/S 連接提供全域保護。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 Azure 應用程式閘道幫助保護 HTTP/S 應用時，請在 Azure Front Door 中使用 WAF 策略。鎖定 Azure 應用程式閘道，以便僅接收來自 Azure Front Door 的流量。</t>
+          <t>使用 Azure Front Door 和 Azure 應用程式閘道幫助保護 HTTP/S 應用時，請使用 Azure Front Door 中的 WAF 策略。鎖定 Azure 應用程式閘道以僅接收來自 Azure Front Door 的流量。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>入站 HTTP/S 連接需要部署 WAF 和其他反向代理，將它們部署在登陸區域虛擬網路中，並將它們與它們保護和公開給 Internet 的應用一起部署。</t>
+          <t>部署入站 HTTP/S 連接需要部署 WAF 和其他反向代理，將它們部署在登陸區域虛擬網路中，並與它們要保護並向 Internet 公開的應用一起部署。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6096,7 +6096,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure DDoS 網路或 IP 防護計劃來幫助保護虛擬網路中的公共 IP 位址終結點。</t>
+          <t>使用 Azure DDoS 網路或 IP 保護計劃來幫助保護虛擬網路中的公共 IP 位址終結點。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>使用基於 FQDN 的網路規則和具有 DNS 代理的 Azure 防火牆，通過應用程式規則不支援的協定篩選流向 Internet 的出口流量。</t>
+          <t>使用基於 FQDN 的網路規則和具有 DNS 代理的 Azure 防火牆，通過應用程式規則不支援的協定篩選到 Internet 的出口流量。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>在即將到來的重大更改之前評估和審查網路出站流量配置和策略。2025 年 9 月 30 日，新部署的預設出站訪問將停用，僅允許顯式訪問配置</t>
+          <t>在即將到來的重大變更之前評估和審查網路出站流量配置和策略。2025 年 9 月 30 日，新部署的預設出站訪問將停用，僅允許顯式訪問配置</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6414,12 +6414,12 @@
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>PaaS的</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>確保注入虛擬網路的 Azure PaaS 服務的控制平面通信不會中斷，例如使用 0.0.0.0/0 路由或阻止控制平面流量的 NSG 規則。</t>
+          <t>添加診斷設置以保存所有受保護的公共IP位址（DDoS IP或網路保護）的 DDoS 相關日誌。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6436,19 +6436,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6464,12 +6464,12 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>PaaS的</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>將專用連結（如果可用）用於共用的 Azure PaaS 服務。</t>
+          <t>使用「資源特定目標」表添加診斷設置以保存所有 Azure 防火牆部署的日誌。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6486,19 +6486,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/en-us/azure/firewall/firewall-structured-logs</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6514,18 +6514,18 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>PaaS的</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>通過專用終結點和 ExpressRoute 專用對等互連從本地訪問 Azure PaaS 服務。此方法可避免通過公共 Internet 傳輸。</t>
+          <t>從 Azure 防火牆經典規則（如果存在）遷移到防火牆策略。</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>重要</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6536,19 +6536,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/en-us/azure/firewall-manager/migrate-to-policy</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6564,18 +6564,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>PaaS的</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>默認情況下，不要在所有子網上啟用虛擬網路服務終結點。</t>
+          <t>確保注入虛擬網路的 Azure PaaS 服務的控制平面通信不會中斷，例如使用 0.0.0.0/0 路由或阻止控制平面流量的 NSG 規則。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6586,7 +6586,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I122" s="15" t="inlineStr">
@@ -6598,7 +6598,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6614,12 +6614,12 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>PaaS的</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>使用 FQDN（而不是 Azure 防火牆或 NVA 中的 IP 位址）篩選發往 Azure PaaS 服務的出口流量，以防止數據外洩。如果使用專用連結，則可以阻止所有 FQDN，否則僅允許所需的 PaaS 服務。</t>
+          <t>將專用連結（如果可用）用於共用的 Azure PaaS 服務。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6641,14 +6641,14 @@
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6664,18 +6664,18 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>對 Azure 防火牆子網使用 /26 前置綴。</t>
+          <t>通過專用終結點和 ExpressRoute 專用對等互連從本地訪問 Azure PaaS 服務。此方法可避免通過公共 Internet 傳輸。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6686,15 +6686,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6710,18 +6714,18 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>至少對閘道子網使用 /27 前置綴</t>
+          <t>默認情況下，不要在所有子網上啟用虛擬網路服務終結點。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6732,15 +6736,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6756,12 +6764,12 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>不要依賴使用 VirtualNetwork 服務標記的 NSG 入站預設規則來限制連接。</t>
+          <t>使用 FQDN 而不是 Azure 防火牆或 NVA 中的 IP 位址篩選發往 Azure PaaS 服務的出口流量，以防止數據外洩。如果使用專用連結，則可以阻止所有 FQDN，否則僅允許所需的 PaaS 服務。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6778,14 +6786,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6806,13 +6819,13 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>將子網創建委託給登陸區域擁有者。</t>
+          <t>對 Azure 防火牆子網使用 /26 前置綴。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6823,19 +6836,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6856,13 +6864,13 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>使用 NSG 説明保護跨子網的流量，以及跨平台的東/西流量（登陸區域之間的流量）。</t>
+          <t>至少對閘道子網使用 /27 前置綴</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6873,19 +6881,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6906,7 +6909,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>應用程式團隊應在子網級別的NSG上使用應用程式安全組來幫助保護登陸區域中的多層 VM。</t>
+          <t>不要依賴使用 VirtualNetwork 服務標記的 NSG 入站預設規則來限制連接。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6921,17 +6924,16 @@
         </is>
       </c>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="15" t="n"/>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+      <c r="H129" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6952,7 +6954,7 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>使用 NSG 和應用程式安全組對登陸區域內的流量進行微分段，並避免使用中心 NVA 篩選流量流。</t>
+          <t>將子網創建委託給登陸區域擁有者。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -6969,19 +6971,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7002,7 +7004,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>啟用 VNet 流日誌並將其饋送到流量分析中，以深入了解內部和外部流量流。</t>
+          <t>使用 NSG 説明保護跨子網的流量，以及跨平台的東/西流量（登陸區域之間的流量）。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7019,19 +7021,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7052,7 +7054,7 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>請考慮每個 NSG 的 NSG 規則限制 （1000）。</t>
+          <t>應用程式團隊應使用子網級別 NSG 中的應用程式安全組來幫助保護登陸區域中的多層 VM。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7067,21 +7069,17 @@
         </is>
       </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
-        </is>
-      </c>
+      <c r="H132" s="15" t="n"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7097,12 +7095,12 @@
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>請考慮使用虛擬 WAN 來簡化 Azure 網路管理，並確保在虛擬 WAN 路由設計清單中明確描述你的方案</t>
+          <t>使用 NSG 和應用程式安全組對登陸區域內的流量進行微分段，並避免使用中央 NVA 篩選流量流。</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7119,19 +7117,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7147,12 +7145,12 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>使用每個 Azure 區域的虛擬 WAN 中心，透過通用的全球 Azure 虛擬 WAN 跨 Azure 區域將多個登陸區域連接在一起。</t>
+          <t>啟用 VNet 流日誌並將其饋送到流量分析中，以深入了解內部和外部流量。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7169,14 +7167,19 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7192,18 +7195,18 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>遵循“Azure 中的流量保留在 Azure 中”的原則，以便通過 Microsoft 主幹網络跨 Azure 中的資源進行通信</t>
+          <t>請考慮每個 NSG 的 NSG 規則限制 （1000）。</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7214,14 +7217,19 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7242,7 +7250,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>若要進行出站 Internet 流量保護和篩選，請在安全中心部署 Azure 防火牆</t>
+          <t>請考慮使用虛擬 WAN 來簡化 Azure 網路管理，並確保在虛擬 WAN 路由設計清單中顯式描述你的方案</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7259,19 +7267,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7292,7 +7300,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>確保網路體系結構在 Azure 虛擬 WAN 限制範圍內。</t>
+          <t>使用每個 Azure 區域的虛擬 WAN 中心，通過通用的全域 Azure 虛擬 WAN 跨 Azure 區域將多個登陸區域連接在一起。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7309,14 +7317,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7337,13 +7345,13 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>使用適用於虛擬 WAN 的 Azure Monitor 見解監視虛擬 WAN 的端到端拓撲、狀態和關鍵指標。</t>
+          <t>遵循“Azure 中的流量保留在 Azure 中”的原則，以便通過 Microsoft 主幹網络跨 Azure 中的資源進行通信</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7354,14 +7362,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7382,7 +7390,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>請確保 IaC 部署不會在虛擬 WAN 中禁用分支到分支流量，除非應顯式阻止這些流。</t>
+          <t>對於出站 Internet 流量保護和篩選，請在安全中心部署 Azure 防火牆</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7399,14 +7407,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7427,7 +7440,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>使用 AS-Path 作為中心路由首選項，因為它比 ExpressRoute 或 VPN 更靈活。</t>
+          <t>確保網路體系結構在 Azure 虛擬 WAN 限制範圍內。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7444,14 +7457,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7472,7 +7485,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>請確保 IaC 部署在虛擬 WAN 中配置基於標籤的傳播，否則虛擬中心之間的連接將受到損害。</t>
+          <t>使用適用於虛擬 WAN 的 Azure Monitor 見解監視虛擬 WAN 的端到端拓撲、狀態和關鍵指標。</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7489,14 +7502,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7517,13 +7530,13 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>為虛擬中心分配足夠的IP空間，最好是 /23前置綴。</t>
+          <t>請確保 IaC 部署不會禁用虛擬 WAN 中的分支到分支流量，除非應顯式阻止這些流。</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7534,14 +7547,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7552,23 +7565,23 @@
     <row r="143" ht="16.5" customHeight="1">
       <c r="A143" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬廣域網</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>戰略性地利用 Azure Policy，為環境定義控制，使用策略計劃對相關策略進行分組。</t>
+          <t>使用 AS-Path 作為中心路由首選項，因為它比 ExpressRoute 或 VPN 更靈活。</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7579,14 +7592,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7597,17 +7610,17 @@
     <row r="144" ht="16.5" customHeight="1">
       <c r="A144" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬廣域網</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>確定所需的 Azure 標記，並使用「追加」策略模式通過 Azure Policy 強制使用。</t>
+          <t>請確保 IaC 部署在虛擬 WAN 中配置基於標籤的傳播，否則虛擬中心之間的連接將受損。</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7624,14 +7637,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7642,23 +7655,23 @@
     <row r="145" ht="16.5" customHeight="1">
       <c r="A145" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬廣域網</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>將法規和合規性要求映射到 Azure Policy 定義和 Azure 角色分配。</t>
+          <t>為虛擬中心分配足夠的IP空間，最好是 /23前置綴。</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7669,14 +7682,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7697,13 +7710,13 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>在中間根管理組建立 Azure Policy 定義，以便可以在繼承的範圍內分配這些定義</t>
+          <t>戰略性地利用 Azure Policy，為環境定義控制措施，使用策略計劃對相關策略進行分組。</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7721,7 +7734,7 @@
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7742,7 +7755,7 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>如果需要，在適當的最高級別管理策略分配，並在底層管理排除項。</t>
+          <t>確定所需的 Azure 標記，並使用「追加」策略模式通過 Azure Policy 強制使用。</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7759,14 +7772,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7787,13 +7800,13 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 控制使用者可以在訂閱/管理組級別預配哪些服務</t>
+          <t>將法規和合規性要求映射到 Azure Policy 定義和 Azure 角色分配。</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7804,14 +7817,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7832,7 +7845,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>盡可能使用內置策略，以最大程度地減少運營開銷。</t>
+          <t>在中間根管理組建立 Azure Policy 定義，以便可以在繼承的範圍內分配這些定義</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7856,7 +7869,7 @@
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7877,14 +7890,10 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>在特定範圍內分配內置的「資源策略參與者」角色，以啟用應用程式級治理。</t>
-        </is>
-      </c>
-      <c r="D150" s="21" t="inlineStr">
-        <is>
-          <t>通過將「資源策略參與者」角色分配給特定範圍，可以將策略管理委派給相關團隊。例如，中心 IT 團隊可以監督管理組級別的策略，而應用程式團隊則處理其訂閱的策略，從而在遵守組織標準的情況下實現分散式治理。</t>
-        </is>
-      </c>
+          <t>如果需要，在最高適當級別管理策略分配，並在最低級別進行排除。</t>
+        </is>
+      </c>
+      <c r="D150" s="21" t="n"/>
       <c r="E150" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -7898,14 +7907,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7926,13 +7935,13 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>限制在根管理組範圍內進行的 Azure Policy 分配數，以避免在繼承的範圍內通過排除項進行管理。</t>
+          <t>使用 Azure Policy 控制使用者可以在訂閱/管理組級別預配哪些服務</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7943,14 +7952,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7971,7 +7980,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>如果存在任何數據主權要求，可以部署 Azure 策略來強制實施這些要求</t>
+          <t>盡可能使用內置策略，以最大程度地減少運營開銷。</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7988,19 +7997,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8021,10 +8025,14 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，主權策略基線的策略計劃在正確的 MG 級別部署和分配。</t>
-        </is>
-      </c>
-      <c r="D153" s="21" t="n"/>
+          <t>在特定範圍內分配內置的「資源策略參與者」角色，以啟用應用程式級治理。</t>
+        </is>
+      </c>
+      <c r="D153" s="21" t="inlineStr">
+        <is>
+          <t>通過將資源策略參與者角色分配給特定範圍，可以將策略管理委派給相關團隊。例如，中央IT團隊可以監督管理組級別的策略，而應用程式團隊則處理其訂閱的策略，從而在遵守組織標準的情況下實現分散式治理。</t>
+        </is>
+      </c>
       <c r="E153" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -8038,14 +8046,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8066,7 +8074,7 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區，記錄了主權控制目標到策略映射。</t>
+          <t>限制在根管理組範圍內進行的 Azure Policy 分配數，以避免在繼承的範圍內通過排除項進行管理。</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8083,14 +8091,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8111,7 +8119,7 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區，“主權控制目標到策略映射”的 CRUD 流程已到位。</t>
+          <t>如果存在任何數據主權要求，可以部署 Azure 策略來強制執行這些要求</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8126,12 +8134,21 @@
         </is>
       </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="15" t="n"/>
+      <c r="H155" s="15" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+        </is>
+      </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8147,18 +8164,18 @@
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>優化雲投資</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>請考慮使用自動化標記來啟動/停止環境中的 VM，以節省成本。</t>
+          <t>對於主權著陸區，主權政策基線的策略倡議被部署並在正確的 MG 級別進行分配。</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8169,14 +8186,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8187,17 +8204,17 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>可擴展性</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>利用 Azure 虛擬機規模集根據負載進行橫向擴展和橫向擴展。</t>
+          <t>對於主權著陸區，記錄了策略映射的主權控制目標。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8214,14 +8231,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8237,12 +8254,12 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>優化雲投資</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>配置“實際”和“預測”預算警報。</t>
+          <t>對於主權著陸區，“主權控制目標到政策映射”的 CRUD 流程已經到位。</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8257,16 +8274,12 @@
         </is>
       </c>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
-        </is>
-      </c>
+      <c r="H158" s="15" t="n"/>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8277,23 +8290,23 @@
     <row r="159" ht="16.5" customHeight="1">
       <c r="A159" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>優化您的雲投資</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>添加診斷設置以保存 Azure Front Door 和 Azure 應用程式閘道等應用程式交付服務中的 WAF 紀錄。定期查看日誌，以檢查攻擊和誤報檢測。</t>
+          <t>請考慮使用自動化標記來啟動/停止環境中的 VM，以節省成本。</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8304,14 +8317,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8327,12 +8340,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>可擴展性</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>將 WAF 日誌從 Azure Front Door 和 Azure 應用程式閘道等應用程式交付服務發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測集成到整個 Azure 環境中。</t>
+          <t>利用 Azure 虛擬機規模集根據負載進行橫向擴展和橫向擴展。</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8349,14 +8362,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8367,17 +8380,17 @@
     <row r="161" ht="16.5" customHeight="1">
       <c r="A161" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>優化您的雲投資</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>考慮在 Azure 中對具有配對區域的 BCDR 進行跨區域複製</t>
+          <t>配置“實際”和“預測”預算警報。</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8394,14 +8407,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8417,18 +8430,18 @@
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 備份時，請考慮不同的備份類型（GRS、ZRS 和 LRS），因為預設設置為 GRS</t>
+          <t>添加診斷設置以保存來自應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）的 WAF 日誌。定期查看日誌，以檢查攻擊和誤報檢測。</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8439,14 +8452,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8462,12 +8475,12 @@
       </c>
       <c r="B163" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>使用單個監視器日誌工作區集中管理平臺，但 Azure 基於角色的訪問控制 （Azure RBAC）、數據主權要求或數據保留策略要求使用單獨的工作區的情況除外。</t>
+          <t>將 WAF 日誌從應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測數據集成到整個 Azure 環境中。</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8484,19 +8497,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8512,12 +8520,12 @@
       </c>
       <c r="B164" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>確保登陸區域已記錄在案。</t>
+          <t>考慮在 Azure 中針對具有配對區域的 BCDR 進行跨區域複製</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8532,12 +8540,16 @@
         </is>
       </c>
       <c r="G164" s="21" t="n"/>
-      <c r="H164" s="15" t="n"/>
+      <c r="H164" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+        </is>
+      </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8553,12 +8565,12 @@
       </c>
       <c r="B165" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>當日志保留要求超過兩年時，請使用 Azure Monitor 日誌。目前，您可以將數據保留長達 7 年的存檔狀態。</t>
+          <t>使用 Azure 備份時，請考慮不同的備份類型（GRS、ZRS 和 LRS），因為預設設置為 GRS</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8575,19 +8587,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8608,7 +8615,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供強制實施組織範圍設置的功能，以確保一致的策略遵守和快速的違規檢測。</t>
+          <t>使用單個監視器日誌工作區集中管理平臺，除非 Azure 基於角色的訪問控制 （Azure RBAC）、數據主權要求或數據保留策略要求使用單獨的工作區。</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8625,19 +8632,19 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8658,7 +8665,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 監視來賓內虛擬機 （VM） 配置偏移。通過策略啟用來賓配置審核功能有助於應用程式團隊工作負載立即使用功能，而無需付出任何努力。</t>
+          <t>確保登陸區域已記錄在案。</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8673,21 +8680,12 @@
         </is>
       </c>
       <c r="G167" s="21" t="n"/>
-      <c r="H167" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H167" s="15" t="n"/>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8703,12 +8701,12 @@
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Update Manager 作為 Azure 中 Windows 和 Linux VM 的修補機制。</t>
+          <t>當日志保留要求超過兩年時，請使用 Azure Monitor 日誌。目前，您可以將數據以存檔狀態保存長達 7 年。</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8725,19 +8723,19 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8753,12 +8751,12 @@
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Arc 將 Azure Update Manager 用作 Azure 外部 Windows 和 Linux VM 的修補機制。</t>
+          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供強制實施組織範圍設置的功能，以確保一致的策略遵守和快速違規檢測。</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8775,19 +8773,19 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8808,7 +8806,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>使用網路觀察程序主動監視流量</t>
+          <t>使用 Azure Policy 監視來賓虛擬機 （VM） 配置偏移。通過策略啟用來賓配置審核功能，可説明應用程式團隊工作負載毫不費力地立即使用功能。</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8825,19 +8823,19 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8853,12 +8851,12 @@
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>使用資源鎖可防止意外刪除關鍵共享服務。</t>
+          <t>使用 Azure Update Manager 作為 Azure 中 Windows 和 Linux VM 的修補機制。</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8875,19 +8873,19 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8903,18 +8901,18 @@
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>使用拒絕策略來補充 Azure 角色分配。拒絕策略和 Azure 角色分配的組合可確保設置適當的防護機制，以強制實施誰可以部署和配置資源，以及他們可以部署和配置哪些資源。</t>
+          <t>使用 Azure Arc 將 Azure Update Manager 用作 Azure 外部的 Windows 和 Linux VM 的修補機制。</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
       <c r="E172" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8925,14 +8923,19 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8953,7 +8956,7 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>將服務和資源運行狀況事件作為整體平臺監視解決方案的一部分。從平臺角度跟蹤服務和資源運行狀況是 Azure 中資源管理的重要組成部分。</t>
+          <t>使用網路觀察程序主動監視流量</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8970,14 +8973,19 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8998,7 +9006,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>將警報和操作組作為 Azure 服務運行狀況平臺的一部分，以確保可以對警報或問題執行操作</t>
+          <t>使用資源鎖來防止意外刪除關鍵共享服務。</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9015,14 +9023,19 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9043,13 +9056,13 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>不要將原始日誌條目發送回本地監視系統。相反，應採用在 Azure 中生成的數據保留在 Azure 中的原則。如果需要本地 SIEM 集成，請發送關鍵警報而不是日誌。</t>
+          <t>使用拒絕策略來補充 Azure 角色分配。拒絕策略和 Azure 角色分配的組合可確保適當的防護措施到位，以強制執行誰可以部署和配置資源以及他們可以部署和配置哪些資源。</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
       <c r="E175" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9060,14 +9073,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9088,7 +9101,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>使用集中式 Azure Monitor Log Analytics 工作區從 IaaS 和 PaaS 應用程式資源收集日誌和指標，並使用 Azure RBAC 控制日誌訪問。</t>
+          <t>將服務和資源運行狀況事件作為整體平臺監視解決方案的一部分。從平臺角度跟蹤服務和資源運行狀況是 Azure 中資源管理的重要組成部分。</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9105,14 +9118,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9133,7 +9146,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
+          <t>將警報和操作組作為 Azure 服務運行狀況平臺的一部分，以確保可以對警報或問題進行操作</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9150,14 +9163,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9178,7 +9191,7 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>必要時，在登陸區域中使用共用存儲帳戶進行 Azure 診斷擴展日誌存儲。</t>
+          <t>不要將原始日誌條目發送回本地監視系統。相反，請採用以下原則：Azure 中生成的數據將保留在 Azure 中。如果需要本地 SIEM 集成，請發送關鍵警報而不是日誌。</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9195,14 +9208,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9223,7 +9236,7 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 警報生成操作警報。</t>
+          <t>使用集中式 Azure Monitor Log Analytics 工作區從 IaaS 和 PaaS 應用程式資源收集日誌和指標，並使用 Azure RBAC 控制日誌訪問。</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9240,14 +9253,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9268,7 +9281,7 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>確保已評估監視要求，並應用了適當的數據收集和警報配置</t>
+          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9285,14 +9298,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9313,7 +9326,7 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure 自動化帳戶使用更改和清單跟蹤時，請確保已選擇支持的區域，以便將 Log Analytics 工作區和自動化帳戶連結在一起。</t>
+          <t>必要時，將登陸區域中的共用存儲帳戶用於 Azure 診斷擴展日誌存儲。</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9330,14 +9343,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9358,7 +9371,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>為登陸區域的平臺元件建立監視，AMBA 是一種可用的框架解決方案，它提供了一種使用 Azure Policy 縮放警報的簡單方法</t>
+          <t>使用 Azure Monitor 警報生成操作警報。</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9375,19 +9388,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-monitor</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>https://azure.github.io/azure-monitor-baseline-alerts/patterns/alz/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>aa45be6a-8f2d-4896-b0e3-775e6e94e610</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9403,12 +9411,12 @@
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 策略通過 VM 擴展自動部署軟體配置，並強制實施合規的基線 VM 配置。</t>
+          <t>確保已評估監視要求，並應用了適當的數據收集和警報配置</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9425,14 +9433,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9448,19 +9456,15 @@
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure Policy 監視 VM 安全配置偏差。</t>
-        </is>
-      </c>
-      <c r="D184" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy 的來賓配置功能可以審核和修正計算機設置（例如 OS、應用程式、環境），以確保資源與預期配置保持一致，更新管理可以強制實施 VM 的修補程式管理。</t>
-        </is>
-      </c>
+          <t>通過 Azure 自動化帳戶使用更改和清單跟蹤時，請確保已選擇受支持的區域，以便將 Log Analytics 工作區和自動化帳戶連結在一起。</t>
+        </is>
+      </c>
+      <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -9474,14 +9478,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9497,12 +9501,12 @@
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>保護和恢復</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>將 Azure Site Recovery 用於 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
+          <t>為登陸區域的平臺元件建立監視，AMBA 是一種可用的框架解決方案，它提供了一種使用 Azure Policy 縮放警報的簡單方法</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9519,14 +9523,19 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-monitor</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>https://azure.github.io/azure-monitor-baseline-alerts/patterns/alz/</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>aa45be6a-8f2d-4896-b0e3-775e6e94e610</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9542,12 +9551,12 @@
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>保護和恢復</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>確保使用和測試原生 PaaS 服務災難恢復功能。</t>
+          <t>使用 Azure 策略通過 VM 擴展自動部署軟體配置，並強制實施合規的基線 VM 配置。</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9564,14 +9573,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9587,15 +9596,19 @@
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>保護和恢復</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
-        </is>
-      </c>
-      <c r="D187" s="21" t="n"/>
+          <t>通過 Azure Policy 監視 VM 安全配置偏移。</t>
+        </is>
+      </c>
+      <c r="D187" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy 的來賓配置功能可以審核和修正計算機設置（例如 OS、應用程式、環境），以確保資源與預期配置保持一致，更新管理可以強制實施 VM 的修補程式管理。</t>
+        </is>
+      </c>
       <c r="E187" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -9609,14 +9622,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9632,18 +9645,18 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>容錯</t>
+          <t>保護和恢復</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>在支援可用性區域的區域中為 VM 利用可用性區域。</t>
+          <t>將 Azure Site Recovery 用於 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
       <c r="E188" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9654,14 +9667,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9677,18 +9690,18 @@
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>容錯</t>
+          <t>保護和恢復</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>避免在單個 VM 上運行生產工作負載。</t>
+          <t>確保使用和測試原生 PaaS 服務容災能力。</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
       <c r="E189" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -9699,14 +9712,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9722,12 +9735,12 @@
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>容錯</t>
+          <t>保護和恢復</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Azure 負載均衡器和應用程式閘道在多個資源之間分配傳入的網路流量。</t>
+          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9744,14 +9757,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9762,23 +9775,23 @@
     <row r="191" ht="16.5" customHeight="1">
       <c r="A191" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>存取控制</t>
+          <t>容錯</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>在允許 Azure 服務投入生產之前，確定其事件響應計劃。</t>
+          <t>在支援可用性區域的區域中為虛擬機利用可用性區域。</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
       <c r="E191" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9789,14 +9802,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9807,23 +9820,23 @@
     <row r="192" ht="16.5" customHeight="1">
       <c r="A192" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>存取控制</t>
+          <t>容錯</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>在適當的情況下，實施零信任方法來訪問 Azure 平臺。</t>
+          <t>避免在單個 VM 上運行生產工作負載。</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
       <c r="E192" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9834,14 +9847,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9852,23 +9865,23 @@
     <row r="193" ht="16.5" customHeight="1">
       <c r="A193" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>容錯</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Key Vault 儲存機密和憑據</t>
+          <t>Azure 負載均衡器和應用程式閘道在多個資源之間分配傳入的網路流量。</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
       <c r="E193" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -9879,14 +9892,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9902,12 +9915,12 @@
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>存取控制</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>對不同的應用程式和區域使用不同的 Azure Key Vault，以避免事務規模限制並限制對機密的訪問。</t>
+          <t>在允許 Azure 服務投入生產之前，確定 Azure 服務的事件響應計劃。</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9924,14 +9937,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9947,12 +9960,12 @@
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>存取控制</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>預配啟用軟刪除和清除策略的 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
+          <t>在適當的情況下，實施零信任方法來訪問 Azure 平臺。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9969,14 +9982,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9997,13 +10010,13 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>遵循最低特權模型，將永久刪除密鑰、機密和證書的授權限制為專用的自定義 Microsoft Entra ID 角色。</t>
+          <t>使用 Azure Key Vault 儲存機密和憑據</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
       <c r="E196" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -10014,14 +10027,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10042,7 +10055,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>使用公共證書頒發機構自動執行證書管理和續訂過程，以簡化管理。</t>
+          <t>對不同的應用程式和區域使用不同的 Azure Key Vault，以避免事務規模限制並限制對機密的訪問。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10059,14 +10072,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10087,7 +10100,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>建立金鑰和證書輪換的自動化流程。</t>
+          <t>預配 Azure Key Vault，啟用軟刪除和清除策略，以允許對已刪除的物件提供保留保護。</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10111,7 +10124,7 @@
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10132,7 +10145,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>在保管庫上啟用防火牆和虛擬網路服務終結點或專用終結點，以控制對密鑰保管庫的訪問。</t>
+          <t>遵循最低特權模型，將永久刪除密鑰、機密和證書的授權限制為專用的自定義 Microsoft Entra ID 角色。</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10156,7 +10169,7 @@
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10177,7 +10190,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>使用平臺中心的 Azure Monitor Log Analytics 工作區審核每個 Key Vault 實例中的金鑰、證書和機密使用方式。</t>
+          <t>使用公共證書頒發機構自動執行證書管理和續訂流程，以簡化管理。</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10194,14 +10207,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10222,7 +10235,7 @@
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>委託 Key Vault 實例化和特權訪問，並使用 Azure Policy 強制實施一致的合規配置。</t>
+          <t>建立金鑰和證書輪換的自動化流程。</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10246,7 +10259,7 @@
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10267,7 +10280,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>預設使用 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
+          <t>在保管庫上啟用防火牆和虛擬網路服務終結點或專用終結點，以控制對密鑰保管庫的訪問。</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10284,14 +10297,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10312,7 +10325,7 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+          <t>使用以平臺為中心的 Azure Monitor Log Analytics 工作區審核每個 Key Vault 實例中的密鑰、證書和機密使用方式。</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10329,14 +10342,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10357,7 +10370,7 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>如果要自帶密鑰，則並非所有考慮的服務都支援此功能。實施相關的緩解措施，使不一致不會妨礙預期的結果。選擇適當的區域對和災難恢復區域，以最大程度地減少延遲。</t>
+          <t>委託 Key Vault 實例化和特權訪問，並使用 Azure Policy 強制實施一致的合規配置。</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10381,7 +10394,7 @@
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10402,7 +10415,7 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，請使用 Azure Key Vault 託管 HSM 來儲存機密和憑據。</t>
+          <t>默認為 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10419,14 +10432,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10442,12 +10455,12 @@
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra ID 報告功能生成訪問控制審核報告。</t>
+          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
@@ -10464,14 +10477,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10487,12 +10500,12 @@
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 活動日誌匯出到 Azure Monitor 紀錄，以便長期保留數據。如有必要，導出到 Azure 存儲以進行超過兩年的長期存儲。</t>
+          <t>如果要自帶密鑰，則並非所有考慮的服務都支援此操作。實施相關的緩解措施，以免不一致阻礙預期結果。選擇適當的區域對和災難恢復區域，以最大程度地減少延遲。</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
@@ -10509,14 +10522,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10532,18 +10545,18 @@
       </c>
       <c r="B208" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>為所有訂閱啟用Defender雲安全態勢管理。</t>
+          <t>對於主權登陸區域，請使用 Azure Key Vault 託管 HSM 來儲存機密和憑據。</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
       <c r="E208" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -10554,14 +10567,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10582,13 +10595,13 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>在所有訂閱上為伺服器啟用Defender雲工作負載保護計劃。</t>
+          <t>使用 Microsoft Entra ID 報告功能生成訪問控制審核報告。</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
       <c r="E209" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -10599,14 +10612,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10627,13 +10640,13 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>在所有訂閱上為 Azure 資源啟用 Defender 雲工作負載保護計劃。</t>
+          <t>將 Azure 活動日誌匯出到 Azure Monitor 紀錄，以便長期保留數據。如有必要，導出到 Azure 存儲以長期存儲超過兩年。</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
       <c r="E210" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10644,14 +10657,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10672,7 +10685,7 @@
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>在 IaaS 伺服器上啟用 Endpoint Protection。</t>
+          <t>為所有訂閱啟用Defender雲安全態勢管理。</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
@@ -10689,14 +10702,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10717,13 +10730,13 @@
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure Monitor 紀錄和 Defender for Cloud 監視基本作業系統修補偏差。</t>
+          <t>在所有訂閱上為伺服器啟用Defender雲工作負載保護計劃。</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
       <c r="E212" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10734,14 +10747,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10762,13 +10775,13 @@
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>將預設資源配置連接到集中式 Azure Monitor Log Analytics 工作區。</t>
+          <t>在所有訂閱上為 Azure 資源啟用 Defender 雲工作負載保護計劃。</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10779,14 +10792,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10807,13 +10820,13 @@
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，在 Entra ID 租戶上啟用透明度日誌。</t>
+          <t>在 IaaS 伺服器上啟用 Endpoint Protection。</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10824,14 +10837,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10852,7 +10865,7 @@
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，在 Entra ID 租戶上啟用客戶密碼箱。</t>
+          <t>通過 Azure Monitor 紀錄和 Defender for Cloud 監視基本作業系統修補偏差。</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
@@ -10869,14 +10882,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10892,18 +10905,18 @@
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>概述</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>應啟用到存儲帳戶的安全傳輸</t>
+          <t>將預設資源配置連接到集中式 Azure Monitor Log Analytics 工作區。</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10914,14 +10927,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10937,18 +10950,18 @@
       </c>
       <c r="B217" s="21" t="inlineStr">
         <is>
-          <t>概述</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
+          <t>對於主權登陸區域，在 Entra ID 租戶上啟用透明日誌。</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10959,14 +10972,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10982,18 +10995,18 @@
       </c>
       <c r="B218" s="21" t="inlineStr">
         <is>
-          <t>安全特權訪問</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>為 Azure 管理任務單獨使用特權管理員帳戶。</t>
+          <t>對於主權登陸區域，在 Entra ID 租戶上啟用了客戶密碼箱。</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -11004,14 +11017,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11027,18 +11040,18 @@
       </c>
       <c r="B219" s="21" t="inlineStr">
         <is>
-          <t>服務支援框架</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>規劃如何實現新的 Azure 服務</t>
+          <t>使用基於 Azure 事件網格的解決方案獲取面向日誌的即時警報</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11049,14 +11062,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/security</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>874a748b-662d-46d1-9051-2a66498f6dfe</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11072,18 +11085,18 @@
       </c>
       <c r="B220" s="21" t="inlineStr">
         <is>
-          <t>服務支援框架</t>
+          <t>概述</t>
         </is>
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>規劃如何滿足 Azure 服務的服務請求</t>
+          <t>應啟用安全傳輸到存儲帳戶</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
       <c r="E220" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11094,14 +11107,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11112,17 +11125,17 @@
     <row r="221">
       <c r="A221" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B221" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>概述</t>
         </is>
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>確保有一個跨職能的DevOps平臺團隊來構建、管理和維護 Azure 登陸區域體系結構。</t>
+          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
@@ -11139,14 +11152,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11157,23 +11170,23 @@
     <row r="222">
       <c r="A222" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B222" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>安全特權訪問</t>
         </is>
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>旨在為 Azure 登陸區域平台團隊定義功能。</t>
+          <t>為 Azure 管理任務提供單獨的特權管理員帳戶。</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11184,14 +11197,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11202,23 +11215,23 @@
     <row r="223">
       <c r="A223" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B223" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>服務支援框架</t>
         </is>
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>旨在為應用程式工作負載團隊定義功能，使其自給自足，不需要DevOps平臺團隊支援。通過使用自定義 RBAC 角色來實現此目的。</t>
+          <t>規劃如何實現新的 Azure 服務</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
       <c r="E223" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11229,14 +11242,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11247,23 +11260,23 @@
     <row r="224">
       <c r="A224" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B224" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>服務支援框架</t>
         </is>
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>使用 CI/CD 管道部署 IaC 專案，並確保部署和 Azure 環境的品質。</t>
+          <t>規劃如何滿足 Azure 服務的服務請求</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
       <c r="E224" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11274,14 +11287,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11302,13 +11315,13 @@
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>將 IaC 和應用程式代碼的單元測試作為生成過程的一部分。</t>
+          <t>確保你有一個跨職能的DevOps平臺團隊來構建、管理和維護 Azure 登陸區域體系結構。</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11319,14 +11332,14 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11347,13 +11360,13 @@
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>使用 Key Vault 機密可避免對敏感資訊（例如憑據（虛擬機器用戶密碼）、證書或密鑰）進行硬編碼。</t>
+          <t>旨在為 Azure 登陸區域平台團隊定義函數。</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11364,14 +11377,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11392,7 +11405,7 @@
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>為應用程式和工作負載實現檔&gt;新&gt;登陸區域的自動化。</t>
+          <t>旨在為應用程式工作負載團隊定義自給自足的功能，並且不需要 DevOps 平台團隊支援。通過使用自定義 RBAC 角色來實現此目的。</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
@@ -11409,14 +11422,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11432,12 +11445,12 @@
       </c>
       <c r="B228" s="21" t="inlineStr">
         <is>
-          <t>開發生命週期</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C228" s="21" t="inlineStr">
         <is>
-          <t>確保將版本控制系統用於開發的應用程式和 IaC 的原始程式碼。Microsoft 推薦 Git。</t>
+          <t>使用 CI/CD 管道部署 IaC 專案，並確保部署和 Azure 環境的品質。</t>
         </is>
       </c>
       <c r="D228" s="21" t="n"/>
@@ -11461,7 +11474,7 @@
       <c r="K228" s="22" t="n"/>
       <c r="L228" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M228" s="25" t="n"/>
@@ -11477,18 +11490,18 @@
       </c>
       <c r="B229" s="21" t="inlineStr">
         <is>
-          <t>開發生命週期</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C229" s="21" t="inlineStr">
         <is>
-          <t>遵循分支策略，使團隊能夠更好地協作，更有效地管理 IaC 和應用程式代碼的版本控制。查看 Github Flow 等選項。</t>
+          <t>將 IaC 和應用程式代碼的單元測試作為生成過程的一部分。</t>
         </is>
       </c>
       <c r="D229" s="21" t="n"/>
       <c r="E229" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -11499,14 +11512,14 @@
       <c r="G229" s="21" t="n"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
       <c r="L229" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M229" s="25" t="n"/>
@@ -11522,18 +11535,18 @@
       </c>
       <c r="B230" s="21" t="inlineStr">
         <is>
-          <t>開發生命週期</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C230" s="21" t="inlineStr">
         <is>
-          <t>採用拉取請求策略來説明控制合併到分支中的代碼更改。</t>
+          <t>使用 Key Vault 機密避免對敏感資訊（例如憑據（虛擬機器用戶密碼）、證書或金鑰）進行硬編碼。</t>
         </is>
       </c>
       <c r="D230" s="21" t="n"/>
       <c r="E230" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -11544,14 +11557,14 @@
       <c r="G230" s="21" t="n"/>
       <c r="H230" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
       <c r="L230" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M230" s="25" t="n"/>
@@ -11567,18 +11580,18 @@
       </c>
       <c r="B231" s="21" t="inlineStr">
         <is>
-          <t>發展戰略</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C231" s="21" t="inlineStr">
         <is>
-          <t>利用聲明性基礎結構即代碼工具（如 Azure Bicep、ARM 範本或 Terraform）來構建和維護 Azure 登陸區域體系結構。從平臺和應用程式工作負載的角度來看。</t>
+          <t>通過訂閱自動售貨為應用程式和工作負載的新登陸區域實現自動化</t>
         </is>
       </c>
       <c r="D231" s="21" t="n"/>
       <c r="E231" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -11589,14 +11602,14 @@
       <c r="G231" s="21" t="n"/>
       <c r="H231" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J231" s="22" t="n"/>
       <c r="K231" s="22" t="n"/>
       <c r="L231" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M231" s="25" t="n"/>
@@ -11612,12 +11625,12 @@
       </c>
       <c r="B232" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>開發生命週期</t>
         </is>
       </c>
       <c r="C232" s="21" t="inlineStr">
         <is>
-          <t>將安全性集成到 DevOps 中已經組合的開發和運營流程中，以降低創新過程中的風險。</t>
+          <t>確保版本控制系統用於應用程式和 IaC 開發的原始程式碼。Microsoft 推薦 Git。</t>
         </is>
       </c>
       <c r="D232" s="21" t="n"/>
@@ -11634,14 +11647,14 @@
       <c r="G232" s="21" t="n"/>
       <c r="H232" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J232" s="22" t="n"/>
       <c r="K232" s="22" t="n"/>
       <c r="L232" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M232" s="25" t="n"/>
@@ -11650,75 +11663,225 @@
       <c r="P232" s="25" t="n"/>
     </row>
     <row r="233">
-      <c r="A233" s="21" t="n"/>
-      <c r="B233" s="21" t="n"/>
-      <c r="C233" s="21" t="n"/>
+      <c r="A233" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B233" s="21" t="inlineStr">
+        <is>
+          <t>開發生命週期</t>
+        </is>
+      </c>
+      <c r="C233" s="21" t="inlineStr">
+        <is>
+          <t>遵循分支策略，使團隊能夠更好地協作並有效地管理 IaC 和應用程式代碼的版本控制。查看 Github Flow 等選項。</t>
+        </is>
+      </c>
       <c r="D233" s="21" t="n"/>
-      <c r="E233" s="21" t="n"/>
+      <c r="E233" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G233" s="21" t="n"/>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
       <c r="J233" s="22" t="n"/>
       <c r="K233" s="22" t="n"/>
-      <c r="L233" s="25" t="n"/>
+      <c r="L233" s="25" t="inlineStr">
+        <is>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+        </is>
+      </c>
       <c r="M233" s="25" t="n"/>
       <c r="N233" s="25" t="n"/>
       <c r="O233" s="25" t="n"/>
       <c r="P233" s="25" t="n"/>
     </row>
     <row r="234">
-      <c r="A234" s="21" t="n"/>
-      <c r="B234" s="21" t="n"/>
-      <c r="C234" s="21" t="n"/>
+      <c r="A234" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B234" s="21" t="inlineStr">
+        <is>
+          <t>開發生命週期</t>
+        </is>
+      </c>
+      <c r="C234" s="21" t="inlineStr">
+        <is>
+          <t>採用拉取請求策略，以説明保持對合併到分支中的代碼更改的控制。</t>
+        </is>
+      </c>
       <c r="D234" s="21" t="n"/>
-      <c r="E234" s="21" t="n"/>
+      <c r="E234" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G234" s="21" t="n"/>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
       <c r="J234" s="22" t="n"/>
       <c r="K234" s="22" t="n"/>
-      <c r="L234" s="25" t="n"/>
+      <c r="L234" s="25" t="inlineStr">
+        <is>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+        </is>
+      </c>
       <c r="M234" s="25" t="n"/>
       <c r="N234" s="25" t="n"/>
       <c r="O234" s="25" t="n"/>
       <c r="P234" s="25" t="n"/>
     </row>
     <row r="235">
-      <c r="A235" s="21" t="n"/>
-      <c r="B235" s="21" t="n"/>
-      <c r="C235" s="21" t="n"/>
+      <c r="A235" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B235" s="21" t="inlineStr">
+        <is>
+          <t>開發生命週期</t>
+        </is>
+      </c>
+      <c r="C235" s="21" t="inlineStr">
+        <is>
+          <t>建立使用代碼實現快速修復的過程。始終在團隊的積壓工作 （backlog） 中註冊快速修復，以便以後可以重新設計每個修復程式，並且可以限制技術債務。</t>
+        </is>
+      </c>
       <c r="D235" s="21" t="n"/>
-      <c r="E235" s="21" t="n"/>
+      <c r="E235" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G235" s="21" t="n"/>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-platform</t>
+        </is>
+      </c>
       <c r="J235" s="22" t="n"/>
       <c r="K235" s="22" t="n"/>
-      <c r="L235" s="25" t="n"/>
+      <c r="L235" s="25" t="inlineStr">
+        <is>
+          <t>2676ae46-65ca-444e-8695-fdddeace4cb1</t>
+        </is>
+      </c>
       <c r="M235" s="25" t="n"/>
       <c r="N235" s="25" t="n"/>
       <c r="O235" s="25" t="n"/>
       <c r="P235" s="25" t="n"/>
     </row>
     <row r="236">
-      <c r="A236" s="21" t="n"/>
-      <c r="B236" s="21" t="n"/>
-      <c r="C236" s="21" t="n"/>
+      <c r="A236" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B236" s="21" t="inlineStr">
+        <is>
+          <t>發展戰略</t>
+        </is>
+      </c>
+      <c r="C236" s="21" t="inlineStr">
+        <is>
+          <t>利用聲明性基礎結構即代碼工具（如 Azure Bicep、ARM 範本或 Terraform）來生成和維護 Azure 登陸區域體系結構。從平臺和應用程式工作負載的角度來看。</t>
+        </is>
+      </c>
       <c r="D236" s="21" t="n"/>
-      <c r="E236" s="21" t="n"/>
+      <c r="E236" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G236" s="21" t="n"/>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J236" s="22" t="n"/>
       <c r="K236" s="22" t="n"/>
-      <c r="L236" s="25" t="n"/>
+      <c r="L236" s="25" t="inlineStr">
+        <is>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+        </is>
+      </c>
       <c r="M236" s="25" t="n"/>
       <c r="N236" s="25" t="n"/>
       <c r="O236" s="25" t="n"/>
       <c r="P236" s="25" t="n"/>
     </row>
     <row r="237">
-      <c r="A237" s="21" t="n"/>
-      <c r="B237" s="21" t="n"/>
-      <c r="C237" s="21" t="n"/>
+      <c r="A237" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B237" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C237" s="21" t="inlineStr">
+        <is>
+          <t>將安全性集成到 DevOps 中已經組合的開發和運營流程中，以降低創新過程中的風險。</t>
+        </is>
+      </c>
       <c r="D237" s="21" t="n"/>
-      <c r="E237" s="21" t="n"/>
+      <c r="E237" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G237" s="21" t="n"/>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J237" s="22" t="n"/>
       <c r="K237" s="22" t="n"/>
-      <c r="L237" s="25" t="n"/>
+      <c r="L237" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M237" s="25" t="n"/>
       <c r="N237" s="25" t="n"/>
       <c r="O237" s="25" t="n"/>
@@ -12770,7 +12933,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F233" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F238" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -12903,7 +13066,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>有一個與此檢查關聯的操作項</t>
+          <t>有一個與此檢查關聯的措施項</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -12930,7 +13093,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>此檢查已經過驗證，沒有與之關聯的其他操作項</t>
+          <t>此檢查已通過驗證，並且沒有與之關聯的進一步操作項</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">

--- a/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
@@ -5303,18 +5303,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>確保不使用 Azure 區域和本地位置之間的重疊 IP 位址空間</t>
+          <t>確保 ExpressRoute 線路的兩個物理鏈路連接到網路中的兩個不同的邊緣設備。</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5325,19 +5325,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/en-us/azure/expressroute/designing-for-high-availability-with-expressroute</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5353,18 +5353,18 @@
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>使用專用 Internet 的位址分配範圍 （RFC 1918） 中的 IP 位址。</t>
+          <t>確保在客戶或供應商邊緣路由設備上啟用和配置雙向轉發檢測 （BFD）。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5375,19 +5375,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/en-us/azure/expressroute/expressroute-bfd</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5403,12 +5403,12 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>確保不浪費IP位址空間，不要創建不必要的大型虛擬網路（例如/16）</t>
+          <t>將 ExpressRoute 閘道連接到來自不同對等互連位置的兩條或多條線路，以獲得更高的復原能力。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5425,19 +5425,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/en-us/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5453,18 +5453,18 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
+          <t>為 ExpressRoute 虛擬網路閘道配置診斷日誌和警報。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5475,19 +5475,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-howto-setup-alerts-virtual-network-gateway-log</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5503,12 +5503,12 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>對於只需要在 Azure 中進行名稱解析的環境，請使用 Azure 專用 DNS 進行解析，並使用委託區域進行名稱解析（例如“azure.contoso.com”）。</t>
+          <t>避免使用 ExpressRoute 線路進行 VNet 到 VNet 通信。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5525,19 +5525,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/en-us/azure/expressroute/virtual-network-connectivity-guidance</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,13 +5558,13 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>對於需要跨 Azure 和本地進行名稱解析的環境，請考慮使用 Azure DNS 專用解析程式。</t>
+          <t>確保不使用 Azure 區域和本地位置之間的重疊 IP 位址空間</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5575,19 +5575,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>需要並部署自己的 DNS（例如 Red Hat OpenShift）的特殊工作負載應使用其首選的 DNS 解決方案。</t>
+          <t>使用專用 Internet 的位址分配範圍 （RFC 1918） 中的 IP 位址。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5625,15 +5625,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5654,7 +5658,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>啟用 Azure DNS 的自動註冊，以自動管理虛擬網路中部署的虛擬機的 DNS 記錄的生命週期。</t>
+          <t>確保不浪費IP位址空間，不要創建不必要的大型虛擬網路（例如/16）</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5671,19 +5675,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5699,18 +5703,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>請考慮使用 Azure Bastion 安全地連接到網路。</t>
+          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5721,15 +5725,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5745,12 +5753,12 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>在子網 /26 或更大版本中使用 Azure Bastion。</t>
+          <t>對於只需要在 Azure 中進行名稱解析的環境，請使用 Azure 專用 DNS 進行解析，並使用委託區域進行名稱解析（例如“azure.contoso.com”）。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5767,15 +5775,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5791,18 +5803,18 @@
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 防火牆管理發往 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東西向流量篩選（如果組織需要）</t>
+          <t>對於需要跨 Azure 和本地進行名稱解析的環境，請考慮使用 Azure DNS 專用解析程式。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5813,19 +5825,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5841,18 +5853,18 @@
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>創建全域 Azure 防火牆策略以管理整個全球網路環境中的安全狀況，並將其分配給所有 Azure 防火牆實例。通過 Azure 基於角色的訪問控制將增量防火牆策略委派給本地安全團隊，允許精細策略滿足特定區域的要求。</t>
+          <t>需要並部署自己的 DNS（例如 Red Hat OpenShift）的特殊工作負載應使用其首選的 DNS 解決方案。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5863,19 +5875,15 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I107" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5891,18 +5899,18 @@
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>如果組織希望使用此類解決方案來幫助保護出站連接，請在 Firewall Manager 中配置受支援的合作夥伴 SaaS 安全提供者。</t>
+          <t>啟用 Azure DNS 的自動註冊，以自動管理虛擬網路中部署的虛擬機的 DNS 記錄的生命週期。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5913,19 +5921,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5946,7 +5954,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為到登陸區域的入站 HTTP/S 連接提供全域保護。</t>
+          <t>請考慮使用 Azure Bastion 安全地連接到網路。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5963,19 +5971,15 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
-        </is>
-      </c>
-      <c r="I109" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5996,13 +6000,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 Azure 應用程式閘道幫助保護 HTTP/S 應用時，請使用 Azure Front Door 中的 WAF 策略。鎖定 Azure 應用程式閘道以僅接收來自 Azure Front Door 的流量。</t>
+          <t>在子網 /26 或更大版本中使用 Azure Bastion。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6013,19 +6017,15 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>部署入站 HTTP/S 連接需要部署 WAF 和其他反向代理，將它們部署在登陸區域虛擬網路中，並與它們要保護並向 Internet 公開的應用一起部署。</t>
+          <t>使用 Azure 防火牆管理發往 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東西向流量篩選（如果組織需要）</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6063,19 +6063,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6096,13 +6096,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure DDoS 網路或 IP 保護計劃來幫助保護虛擬網路中的公共 IP 位址終結點。</t>
+          <t>創建全域 Azure 防火牆策略以管理整個全球網路環境中的安全狀況，並將其分配給所有 Azure 防火牆實例。通過 Azure 基於角色的訪問控制將增量防火牆策略委派給本地安全團隊，允許精細策略滿足特定區域的要求。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6113,7 +6113,7 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
@@ -6125,7 +6125,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6146,13 +6146,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>使用基於 FQDN 的網路規則和具有 DNS 代理的 Azure 防火牆，通過應用程式規則不支援的協定篩選到 Internet 的出口流量。</t>
+          <t>如果組織希望使用此類解決方案來幫助保護出站連接，請在 Firewall Manager 中配置受支援的合作夥伴 SaaS 安全提供者。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6163,15 +6163,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
-        </is>
-      </c>
-      <c r="I113" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I113" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6192,13 +6196,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 防火牆高級版獲得額外的安全性和保護。</t>
+          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為到登陸區域的入站 HTTP/S 連接提供全域保護。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6209,15 +6213,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6238,13 +6246,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 防火牆威脅情報模式配置為「警報」和「拒絕」，以獲得額外保護。</t>
+          <t>使用 Azure Front Door 和 Azure 應用程式閘道幫助保護 HTTP/S 應用時，請使用 Azure Front Door 中的 WAF 策略。鎖定 Azure 應用程式閘道以僅接收來自 Azure Front Door 的流量。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6255,14 +6263,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6283,7 +6296,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 防火牆 IDPS 模式配置為「拒絕」以獲得額外保護。</t>
+          <t>部署入站 HTTP/S 連接需要部署 WAF 和其他反向代理，將它們部署在登陸區域虛擬網路中，並與它們要保護並向 Internet 公開的應用一起部署。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6300,14 +6313,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6328,7 +6346,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>對於未連接到虛擬 WAN 的 VNet 中的子網，請附加路由表，以便將 Internet 流量重定向到 Azure 防火牆或網路虛擬設備</t>
+          <t>使用 Azure DDoS 網路或 IP 保護計劃來幫助保護虛擬網路中的公共 IP 位址終結點。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6345,14 +6363,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6373,7 +6396,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>在即將到來的重大變更之前評估和審查網路出站流量配置和策略。2025 年 9 月 30 日，新部署的預設出站訪問將停用，僅允許顯式訪問配置</t>
+          <t>使用基於 FQDN 的網路規則和具有 DNS 代理的 Azure 防火牆，通過應用程式規則不支援的協定篩選到 Internet 的出口流量。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6390,7 +6413,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I118" s="15" t="n"/>
@@ -6398,7 +6421,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6419,7 +6442,7 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>添加診斷設置以保存所有受保護的公共IP位址（DDoS IP或網路保護）的 DDoS 相關日誌。</t>
+          <t>使用 Azure 防火牆高級版獲得額外的安全性和保護。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6436,19 +6459,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6469,13 +6487,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>使用「資源特定目標」表添加診斷設置以保存所有 Azure 防火牆部署的日誌。</t>
+          <t>將 Azure 防火牆威脅情報模式配置為「警報」和「拒絕」，以獲得額外保護。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6486,19 +6504,15 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/firewall/firewall-structured-logs</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6519,13 +6533,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>從 Azure 防火牆經典規則（如果存在）遷移到防火牆策略。</t>
+          <t>將 Azure 防火牆 IDPS 模式配置為「拒絕」以獲得額外保護。</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>重要</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6536,19 +6550,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/firewall-manager/migrate-to-policy</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6564,12 +6574,12 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>確保注入虛擬網路的 Azure PaaS 服務的控制平面通信不會中斷，例如使用 0.0.0.0/0 路由或阻止控制平面流量的 NSG 規則。</t>
+          <t>對於未連接到虛擬 WAN 的 VNet 中的子網，請附加路由表，以便將 Internet 流量重定向到 Azure 防火牆或網路虛擬設備</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
@@ -6586,19 +6596,15 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6614,18 +6620,18 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>將專用連結（如果可用）用於共用的 Azure PaaS 服務。</t>
+          <t>在即將到來的重大變更之前評估和審查網路出站流量配置和策略。2025 年 9 月 30 日，新部署的預設出站訪問將停用，僅允許顯式訪問配置</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6636,19 +6642,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6664,18 +6666,18 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>通過專用終結點和 ExpressRoute 專用對等互連從本地訪問 Azure PaaS 服務。此方法可避免通過公共 Internet 傳輸。</t>
+          <t>添加診斷設置以保存所有受保護的公共IP位址（DDoS IP或網路保護）的 DDoS 相關日誌。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6686,19 +6688,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6714,12 +6716,12 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>默認情況下，不要在所有子網上啟用虛擬網路服務終結點。</t>
+          <t>使用「資源特定目標」表添加診斷設置以保存所有 Azure 防火牆部署的日誌。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6736,19 +6738,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/en-us/azure/firewall/firewall-structured-logs</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6764,18 +6766,18 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>使用 FQDN 而不是 Azure 防火牆或 NVA 中的 IP 位址篩選發往 Azure PaaS 服務的出口流量，以防止數據外洩。如果使用專用連結，則可以阻止所有 FQDN，否則僅允許所需的 PaaS 服務。</t>
+          <t>從 Azure 防火牆經典規則（如果存在）遷移到防火牆策略。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>重要</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6786,19 +6788,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/en-us/azure/firewall-manager/migrate-to-policy</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6814,12 +6816,12 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>對 Azure 防火牆子網使用 /26 前置綴。</t>
+          <t>確保注入虛擬網路的 Azure PaaS 服務的控制平面通信不會中斷，例如使用 0.0.0.0/0 路由或阻止控制平面流量的 NSG 規則。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6836,14 +6838,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6859,18 +6866,18 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>至少對閘道子網使用 /27 前置綴</t>
+          <t>將專用連結（如果可用）用於共用的 Azure PaaS 服務。</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6881,14 +6888,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6904,12 +6916,12 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>不要依賴使用 VirtualNetwork 服務標記的 NSG 入站預設規則來限制連接。</t>
+          <t>通過專用終結點和 ExpressRoute 專用對等互連從本地訪問 Azure PaaS 服務。此方法可避免通過公共 Internet 傳輸。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6926,14 +6938,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6949,12 +6966,12 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>將子網創建委託給登陸區域擁有者。</t>
+          <t>默認情況下，不要在所有子網上啟用虛擬網路服務終結點。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -6971,19 +6988,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -6999,12 +7016,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>使用 NSG 説明保護跨子網的流量，以及跨平台的東/西流量（登陸區域之間的流量）。</t>
+          <t>使用 FQDN 而不是 Azure 防火牆或 NVA 中的 IP 位址篩選發往 Azure PaaS 服務的出口流量，以防止數據外洩。如果使用專用連結，則可以阻止所有 FQDN，否則僅允許所需的 PaaS 服務。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7021,19 +7038,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7054,13 +7071,13 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>應用程式團隊應使用子網級別 NSG 中的應用程式安全組來幫助保護登陸區域中的多層 VM。</t>
+          <t>對 Azure 防火牆子網使用 /26 前置綴。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7069,17 +7086,16 @@
         </is>
       </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="n"/>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+      <c r="H132" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7100,13 +7116,13 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>使用 NSG 和應用程式安全組對登陸區域內的流量進行微分段，並避免使用中央 NVA 篩選流量流。</t>
+          <t>至少對閘道子網使用 /27 前置綴</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
       <c r="E133" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -7117,19 +7133,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7150,7 +7161,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>啟用 VNet 流日誌並將其饋送到流量分析中，以深入了解內部和外部流量。</t>
+          <t>不要依賴使用 VirtualNetwork 服務標記的 NSG 入站預設規則來限制連接。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7167,19 +7178,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7200,7 +7206,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>請考慮每個 NSG 的 NSG 規則限制 （1000）。</t>
+          <t>將子網創建委託給登陸區域擁有者。</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7217,19 +7223,19 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7245,12 +7251,12 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>請考慮使用虛擬 WAN 來簡化 Azure 網路管理，並確保在虛擬 WAN 路由設計清單中顯式描述你的方案</t>
+          <t>使用 NSG 説明保護跨子網的流量，以及跨平台的東/西流量（登陸區域之間的流量）。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7267,19 +7273,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7295,12 +7301,12 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>使用每個 Azure 區域的虛擬 WAN 中心，通過通用的全域 Azure 虛擬 WAN 跨 Azure 區域將多個登陸區域連接在一起。</t>
+          <t>應用程式團隊應使用子網級別 NSG 中的應用程式安全組來幫助保護登陸區域中的多層 VM。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7315,16 +7321,17 @@
         </is>
       </c>
       <c r="G137" s="21" t="n"/>
-      <c r="H137" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+      <c r="H137" s="15" t="n"/>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7340,18 +7347,18 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>遵循“Azure 中的流量保留在 Azure 中”的原則，以便通過 Microsoft 主幹網络跨 Azure 中的資源進行通信</t>
+          <t>使用 NSG 和應用程式安全組對登陸區域內的流量進行微分段，並避免使用中央 NVA 篩選流量流。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7362,14 +7369,19 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7385,12 +7397,12 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>對於出站 Internet 流量保護和篩選，請在安全中心部署 Azure 防火牆</t>
+          <t>啟用 VNet 流日誌並將其饋送到流量分析中，以深入了解內部和外部流量。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7407,19 +7419,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7435,12 +7447,12 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>確保網路體系結構在 Azure 虛擬 WAN 限制範圍內。</t>
+          <t>請考慮每個 NSG 的 NSG 規則限制 （1000）。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7457,14 +7469,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7485,7 +7502,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>使用適用於虛擬 WAN 的 Azure Monitor 見解監視虛擬 WAN 的端到端拓撲、狀態和關鍵指標。</t>
+          <t>請考慮使用虛擬 WAN 來簡化 Azure 網路管理，並確保在虛擬 WAN 路由設計清單中顯式描述你的方案</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7502,14 +7519,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7530,7 +7552,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>請確保 IaC 部署不會禁用虛擬 WAN 中的分支到分支流量，除非應顯式阻止這些流。</t>
+          <t>使用每個 Azure 區域的虛擬 WAN 中心，通過通用的全域 Azure 虛擬 WAN 跨 Azure 區域將多個登陸區域連接在一起。</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7547,14 +7569,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7575,13 +7597,13 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>使用 AS-Path 作為中心路由首選項，因為它比 ExpressRoute 或 VPN 更靈活。</t>
+          <t>遵循“Azure 中的流量保留在 Azure 中”的原則，以便通過 Microsoft 主幹網络跨 Azure 中的資源進行通信</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7592,14 +7614,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7620,7 +7642,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>請確保 IaC 部署在虛擬 WAN 中配置基於標籤的傳播，否則虛擬中心之間的連接將受損。</t>
+          <t>對於出站 Internet 流量保護和篩選，請在安全中心部署 Azure 防火牆</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7637,14 +7659,19 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7665,13 +7692,13 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>為虛擬中心分配足夠的IP空間，最好是 /23前置綴。</t>
+          <t>確保網路體系結構在 Azure 虛擬 WAN 限制範圍內。</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7682,14 +7709,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7700,23 +7727,23 @@
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬廣域網</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>戰略性地利用 Azure Policy，為環境定義控制措施，使用策略計劃對相關策略進行分組。</t>
+          <t>使用適用於虛擬 WAN 的 Azure Monitor 見解監視虛擬 WAN 的端到端拓撲、狀態和關鍵指標。</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7727,14 +7754,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7745,17 +7772,17 @@
     <row r="147" ht="16.5" customHeight="1">
       <c r="A147" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬廣域網</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>確定所需的 Azure 標記，並使用「追加」策略模式通過 Azure Policy 強制使用。</t>
+          <t>請確保 IaC 部署不會禁用虛擬 WAN 中的分支到分支流量，除非應顯式阻止這些流。</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7772,14 +7799,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7790,17 +7817,17 @@
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬廣域網</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>將法規和合規性要求映射到 Azure Policy 定義和 Azure 角色分配。</t>
+          <t>使用 AS-Path 作為中心路由首選項，因為它比 ExpressRoute 或 VPN 更靈活。</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7817,14 +7844,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7835,17 +7862,17 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬廣域網</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>在中間根管理組建立 Azure Policy 定義，以便可以在繼承的範圍內分配這些定義</t>
+          <t>請確保 IaC 部署在虛擬 WAN 中配置基於標籤的傳播，否則虛擬中心之間的連接將受損。</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7862,14 +7889,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7880,23 +7907,23 @@
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬廣域網</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>如果需要，在最高適當級別管理策略分配，並在最低級別進行排除。</t>
+          <t>為虛擬中心分配足夠的IP空間，最好是 /23前置綴。</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
       <c r="E150" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -7907,14 +7934,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7935,13 +7962,13 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 控制使用者可以在訂閱/管理組級別預配哪些服務</t>
+          <t>戰略性地利用 Azure Policy，為環境定義控制措施，使用策略計劃對相關策略進行分組。</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7952,14 +7979,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7980,7 +8007,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>盡可能使用內置策略，以最大程度地減少運營開銷。</t>
+          <t>確定所需的 Azure 標記，並使用「追加」策略模式通過 Azure Policy 強制使用。</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7997,14 +8024,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8025,14 +8052,10 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>在特定範圍內分配內置的「資源策略參與者」角色，以啟用應用程式級治理。</t>
-        </is>
-      </c>
-      <c r="D153" s="21" t="inlineStr">
-        <is>
-          <t>通過將資源策略參與者角色分配給特定範圍，可以將策略管理委派給相關團隊。例如，中央IT團隊可以監督管理組級別的策略，而應用程式團隊則處理其訂閱的策略，從而在遵守組織標準的情況下實現分散式治理。</t>
-        </is>
-      </c>
+          <t>將法規和合規性要求映射到 Azure Policy 定義和 Azure 角色分配。</t>
+        </is>
+      </c>
+      <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -8046,14 +8069,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8074,7 +8097,7 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>限制在根管理組範圍內進行的 Azure Policy 分配數，以避免在繼承的範圍內通過排除項進行管理。</t>
+          <t>在中間根管理組建立 Azure Policy 定義，以便可以在繼承的範圍內分配這些定義</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8098,7 +8121,7 @@
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8119,7 +8142,7 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>如果存在任何數據主權要求，可以部署 Azure 策略來強制執行這些要求</t>
+          <t>如果需要，在最高適當級別管理策略分配，並在最低級別進行排除。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8136,19 +8159,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8169,13 +8187,13 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>對於主權著陸區，主權政策基線的策略倡議被部署並在正確的 MG 級別進行分配。</t>
+          <t>使用 Azure Policy 控制使用者可以在訂閱/管理組級別預配哪些服務</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8186,14 +8204,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8214,7 +8232,7 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>對於主權著陸區，記錄了策略映射的主權控制目標。</t>
+          <t>盡可能使用內置策略，以最大程度地減少運營開銷。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8231,14 +8249,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8259,10 +8277,14 @@
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>對於主權著陸區，“主權控制目標到政策映射”的 CRUD 流程已經到位。</t>
-        </is>
-      </c>
-      <c r="D158" s="21" t="n"/>
+          <t>在特定範圍內分配內置的「資源策略參與者」角色，以啟用應用程式級治理。</t>
+        </is>
+      </c>
+      <c r="D158" s="21" t="inlineStr">
+        <is>
+          <t>通過將資源策略參與者角色分配給特定範圍，可以將策略管理委派給相關團隊。例如，中央IT團隊可以監督管理組級別的策略，而應用程式團隊則處理其訂閱的策略，從而在遵守組織標準的情況下實現分散式治理。</t>
+        </is>
+      </c>
       <c r="E158" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -8274,12 +8296,16 @@
         </is>
       </c>
       <c r="G158" s="21" t="n"/>
-      <c r="H158" s="15" t="n"/>
+      <c r="H158" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+        </is>
+      </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8295,18 +8321,18 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>優化您的雲投資</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>請考慮使用自動化標記來啟動/停止環境中的 VM，以節省成本。</t>
+          <t>限制在根管理組範圍內進行的 Azure Policy 分配數，以避免在繼承的範圍內通過排除項進行管理。</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8317,14 +8343,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8335,17 +8361,17 @@
     <row r="160" ht="16.5" customHeight="1">
       <c r="A160" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>可擴展性</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>利用 Azure 虛擬機規模集根據負載進行橫向擴展和橫向擴展。</t>
+          <t>如果存在任何數據主權要求，可以部署 Azure 策略來強制執行這些要求</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8362,14 +8388,19 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8385,12 +8416,12 @@
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>優化您的雲投資</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>配置“實際”和“預測”預算警報。</t>
+          <t>對於主權著陸區，主權政策基線的策略倡議被部署並在正確的 MG 級別進行分配。</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8407,14 +8438,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8425,23 +8456,23 @@
     <row r="162" ht="16.5" customHeight="1">
       <c r="A162" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>添加診斷設置以保存來自應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）的 WAF 日誌。定期查看日誌，以檢查攻擊和誤報檢測。</t>
+          <t>對於主權著陸區，記錄了策略映射的主權控制目標。</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8452,14 +8483,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8470,17 +8501,17 @@
     <row r="163" ht="16.5" customHeight="1">
       <c r="A163" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B163" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>將 WAF 日誌從應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測數據集成到整個 Azure 環境中。</t>
+          <t>對於主權著陸區，“主權控制目標到政策映射”的 CRUD 流程已經到位。</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8495,16 +8526,12 @@
         </is>
       </c>
       <c r="G163" s="21" t="n"/>
-      <c r="H163" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
-        </is>
-      </c>
+      <c r="H163" s="15" t="n"/>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8515,23 +8542,23 @@
     <row r="164" ht="16.5" customHeight="1">
       <c r="A164" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B164" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>優化您的雲投資</t>
         </is>
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>考慮在 Azure 中針對具有配對區域的 BCDR 進行跨區域複製</t>
+          <t>請考慮使用自動化標記來啟動/停止環境中的 VM，以節省成本。</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
       <c r="E164" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8542,14 +8569,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8565,12 +8592,12 @@
       </c>
       <c r="B165" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>可擴展性</t>
         </is>
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 備份時，請考慮不同的備份類型（GRS、ZRS 和 LRS），因為預設設置為 GRS</t>
+          <t>利用 Azure 虛擬機規模集根據負載進行橫向擴展和橫向擴展。</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8587,14 +8614,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8605,17 +8632,17 @@
     <row r="166" ht="16.5" customHeight="1">
       <c r="A166" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B166" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>優化您的雲投資</t>
         </is>
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>使用單個監視器日誌工作區集中管理平臺，除非 Azure 基於角色的訪問控制 （Azure RBAC）、數據主權要求或數據保留策略要求使用單獨的工作區。</t>
+          <t>配置“實際”和“預測”預算警報。</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8632,19 +8659,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8660,18 +8682,18 @@
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>確保登陸區域已記錄在案。</t>
+          <t>添加診斷設置以保存來自應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）的 WAF 日誌。定期查看日誌，以檢查攻擊和誤報檢測。</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
       <c r="E167" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8680,12 +8702,16 @@
         </is>
       </c>
       <c r="G167" s="21" t="n"/>
-      <c r="H167" s="15" t="n"/>
+      <c r="H167" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8701,12 +8727,12 @@
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>當日志保留要求超過兩年時，請使用 Azure Monitor 日誌。目前，您可以將數據以存檔狀態保存長達 7 年。</t>
+          <t>將 WAF 日誌從應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測數據集成到整個 Azure 環境中。</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8723,19 +8749,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8751,12 +8772,12 @@
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供強制實施組織範圍設置的功能，以確保一致的策略遵守和快速違規檢測。</t>
+          <t>考慮在 Azure 中針對具有配對區域的 BCDR 進行跨區域複製</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8773,19 +8794,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8801,12 +8817,12 @@
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 監視來賓虛擬機 （VM） 配置偏移。通過策略啟用來賓配置審核功能，可説明應用程式團隊工作負載毫不費力地立即使用功能。</t>
+          <t>使用 Azure 備份時，請考慮不同的備份類型（GRS、ZRS 和 LRS），因為預設設置為 GRS</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8823,19 +8839,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8851,12 +8862,12 @@
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Update Manager 作為 Azure 中 Windows 和 Linux VM 的修補機制。</t>
+          <t>使用單個監視器日誌工作區集中管理平臺，除非 Azure 基於角色的訪問控制 （Azure RBAC）、數據主權要求或數據保留策略要求使用單獨的工作區。</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8873,19 +8884,19 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8901,12 +8912,12 @@
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Arc 將 Azure Update Manager 用作 Azure 外部的 Windows 和 Linux VM 的修補機制。</t>
+          <t>確保登陸區域已記錄在案。</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8921,21 +8932,11 @@
         </is>
       </c>
       <c r="G172" s="21" t="n"/>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
-        </is>
-      </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8956,7 +8957,7 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>使用網路觀察程序主動監視流量</t>
+          <t>當日志保留要求超過兩年時，請使用 Azure Monitor 日誌。目前，您可以將數據以存檔狀態保存長達 7 年。</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8973,19 +8974,19 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -9006,7 +9007,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>使用資源鎖來防止意外刪除關鍵共享服務。</t>
+          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供強制實施組織範圍設置的功能，以確保一致的策略遵守和快速違規檢測。</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9023,19 +9024,19 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9056,13 +9057,13 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>使用拒絕策略來補充 Azure 角色分配。拒絕策略和 Azure 角色分配的組合可確保適當的防護措施到位，以強制執行誰可以部署和配置資源以及他們可以部署和配置哪些資源。</t>
+          <t>使用 Azure Policy 監視來賓虛擬機 （VM） 配置偏移。通過策略啟用來賓配置審核功能，可説明應用程式團隊工作負載毫不費力地立即使用功能。</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
       <c r="E175" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9073,14 +9074,19 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9096,12 +9102,12 @@
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>將服務和資源運行狀況事件作為整體平臺監視解決方案的一部分。從平臺角度跟蹤服務和資源運行狀況是 Azure 中資源管理的重要組成部分。</t>
+          <t>使用 Azure Update Manager 作為 Azure 中 Windows 和 Linux VM 的修補機制。</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9118,14 +9124,19 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9141,12 +9152,12 @@
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>將警報和操作組作為 Azure 服務運行狀況平臺的一部分，以確保可以對警報或問題進行操作</t>
+          <t>使用 Azure Arc 將 Azure Update Manager 用作 Azure 外部的 Windows 和 Linux VM 的修補機制。</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9163,14 +9174,19 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9191,7 +9207,7 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>不要將原始日誌條目發送回本地監視系統。相反，請採用以下原則：Azure 中生成的數據將保留在 Azure 中。如果需要本地 SIEM 集成，請發送關鍵警報而不是日誌。</t>
+          <t>使用網路觀察程序主動監視流量</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9208,14 +9224,19 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9236,7 +9257,7 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>使用集中式 Azure Monitor Log Analytics 工作區從 IaaS 和 PaaS 應用程式資源收集日誌和指標，並使用 Azure RBAC 控制日誌訪問。</t>
+          <t>使用資源鎖來防止意外刪除關鍵共享服務。</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9253,14 +9274,19 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9281,13 +9307,13 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
+          <t>使用拒絕策略來補充 Azure 角色分配。拒絕策略和 Azure 角色分配的組合可確保適當的防護措施到位，以強制執行誰可以部署和配置資源以及他們可以部署和配置哪些資源。</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9298,14 +9324,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9326,7 +9352,7 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>必要時，將登陸區域中的共用存儲帳戶用於 Azure 診斷擴展日誌存儲。</t>
+          <t>將服務和資源運行狀況事件作為整體平臺監視解決方案的一部分。從平臺角度跟蹤服務和資源運行狀況是 Azure 中資源管理的重要組成部分。</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9343,14 +9369,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9371,7 +9397,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 警報生成操作警報。</t>
+          <t>將警報和操作組作為 Azure 服務運行狀況平臺的一部分，以確保可以對警報或問題進行操作</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9388,14 +9414,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9416,7 +9442,7 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>確保已評估監視要求，並應用了適當的數據收集和警報配置</t>
+          <t>不要將原始日誌條目發送回本地監視系統。相反，請採用以下原則：Azure 中生成的數據將保留在 Azure 中。如果需要本地 SIEM 集成，請發送關鍵警報而不是日誌。</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9433,14 +9459,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9461,7 +9487,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure 自動化帳戶使用更改和清單跟蹤時，請確保已選擇受支持的區域，以便將 Log Analytics 工作區和自動化帳戶連結在一起。</t>
+          <t>使用集中式 Azure Monitor Log Analytics 工作區從 IaaS 和 PaaS 應用程式資源收集日誌和指標，並使用 Azure RBAC 控制日誌訪問。</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9478,14 +9504,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9506,7 +9532,7 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>為登陸區域的平臺元件建立監視，AMBA 是一種可用的框架解決方案，它提供了一種使用 Azure Policy 縮放警報的簡單方法</t>
+          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9523,19 +9549,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-monitor</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>https://azure.github.io/azure-monitor-baseline-alerts/patterns/alz/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>aa45be6a-8f2d-4896-b0e3-775e6e94e610</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9551,12 +9572,12 @@
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 策略通過 VM 擴展自動部署軟體配置，並強制實施合規的基線 VM 配置。</t>
+          <t>必要時，將登陸區域中的共用存儲帳戶用於 Azure 診斷擴展日誌存儲。</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9573,14 +9594,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9596,19 +9617,15 @@
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure Policy 監視 VM 安全配置偏移。</t>
-        </is>
-      </c>
-      <c r="D187" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy 的來賓配置功能可以審核和修正計算機設置（例如 OS、應用程式、環境），以確保資源與預期配置保持一致，更新管理可以強制實施 VM 的修補程式管理。</t>
-        </is>
-      </c>
+          <t>使用 Azure Monitor 警報生成操作警報。</t>
+        </is>
+      </c>
+      <c r="D187" s="21" t="n"/>
       <c r="E187" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -9622,14 +9639,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9645,12 +9662,12 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>保護和恢復</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>將 Azure Site Recovery 用於 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
+          <t>確保已評估監視要求，並應用了適當的數據收集和警報配置</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9667,14 +9684,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9690,12 +9707,12 @@
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>保護和恢復</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>確保使用和測試原生 PaaS 服務容災能力。</t>
+          <t>通過 Azure 自動化帳戶使用更改和清單跟蹤時，請確保已選擇受支持的區域，以便將 Log Analytics 工作區和自動化帳戶連結在一起。</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9712,14 +9729,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9735,12 +9752,12 @@
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>保護和恢復</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
+          <t>為登陸區域的平臺元件建立監視，AMBA 是一種可用的框架解決方案，它提供了一種使用 Azure Policy 縮放警報的簡單方法</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9757,14 +9774,19 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-monitor</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>https://azure.github.io/azure-monitor-baseline-alerts/patterns/alz/</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>aa45be6a-8f2d-4896-b0e3-775e6e94e610</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9780,18 +9802,18 @@
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>容錯</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>在支援可用性區域的區域中為虛擬機利用可用性區域。</t>
+          <t>使用 Azure 策略通過 VM 擴展自動部署軟體配置，並強制實施合規的基線 VM 配置。</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
       <c r="E191" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9802,14 +9824,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9825,18 +9847,22 @@
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>容錯</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>避免在單個 VM 上運行生產工作負載。</t>
-        </is>
-      </c>
-      <c r="D192" s="21" t="n"/>
+          <t>通過 Azure Policy 監視 VM 安全配置偏移。</t>
+        </is>
+      </c>
+      <c r="D192" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy 的來賓配置功能可以審核和修正計算機設置（例如 OS、應用程式、環境），以確保資源與預期配置保持一致，更新管理可以強制實施 VM 的修補程式管理。</t>
+        </is>
+      </c>
       <c r="E192" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9847,14 +9873,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9870,12 +9896,12 @@
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>容錯</t>
+          <t>保護和恢復</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Azure 負載均衡器和應用程式閘道在多個資源之間分配傳入的網路流量。</t>
+          <t>將 Azure Site Recovery 用於 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9892,14 +9918,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9910,17 +9936,17 @@
     <row r="194" ht="16.5" customHeight="1">
       <c r="A194" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>存取控制</t>
+          <t>保護和恢復</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>在允許 Azure 服務投入生產之前，確定 Azure 服務的事件響應計劃。</t>
+          <t>確保使用和測試原生 PaaS 服務容災能力。</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9937,14 +9963,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9955,17 +9981,17 @@
     <row r="195" ht="16.5" customHeight="1">
       <c r="A195" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>存取控制</t>
+          <t>保護和恢復</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>在適當的情況下，實施零信任方法來訪問 Azure 平臺。</t>
+          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9982,14 +10008,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -10000,17 +10026,17 @@
     <row r="196" ht="16.5" customHeight="1">
       <c r="A196" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>容錯</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Key Vault 儲存機密和憑據</t>
+          <t>在支援可用性區域的區域中為虛擬機利用可用性區域。</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10027,14 +10053,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10045,23 +10071,23 @@
     <row r="197" ht="16.5" customHeight="1">
       <c r="A197" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>容錯</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>對不同的應用程式和區域使用不同的 Azure Key Vault，以避免事務規模限制並限制對機密的訪問。</t>
+          <t>避免在單個 VM 上運行生產工作負載。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
       <c r="E197" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10072,14 +10098,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10090,17 +10116,17 @@
     <row r="198" ht="16.5" customHeight="1">
       <c r="A198" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B198" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>容錯</t>
         </is>
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>預配 Azure Key Vault，啟用軟刪除和清除策略，以允許對已刪除的物件提供保留保護。</t>
+          <t>Azure 負載均衡器和應用程式閘道在多個資源之間分配傳入的網路流量。</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10117,14 +10143,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10140,12 +10166,12 @@
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>存取控制</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>遵循最低特權模型，將永久刪除密鑰、機密和證書的授權限制為專用的自定義 Microsoft Entra ID 角色。</t>
+          <t>在允許 Azure 服務投入生產之前，確定 Azure 服務的事件響應計劃。</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10162,14 +10188,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10185,12 +10211,12 @@
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>存取控制</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>使用公共證書頒發機構自動執行證書管理和續訂流程，以簡化管理。</t>
+          <t>在適當的情況下，實施零信任方法來訪問 Azure 平臺。</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10207,14 +10233,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10235,13 +10261,13 @@
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>建立金鑰和證書輪換的自動化流程。</t>
+          <t>使用 Azure Key Vault 儲存機密和憑據</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
       <c r="E201" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10252,14 +10278,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10280,7 +10306,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>在保管庫上啟用防火牆和虛擬網路服務終結點或專用終結點，以控制對密鑰保管庫的訪問。</t>
+          <t>對不同的應用程式和區域使用不同的 Azure Key Vault，以避免事務規模限制並限制對機密的訪問。</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10297,14 +10323,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10325,7 +10351,7 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>使用以平臺為中心的 Azure Monitor Log Analytics 工作區審核每個 Key Vault 實例中的密鑰、證書和機密使用方式。</t>
+          <t>預配 Azure Key Vault，啟用軟刪除和清除策略，以允許對已刪除的物件提供保留保護。</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10342,14 +10368,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10370,7 +10396,7 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>委託 Key Vault 實例化和特權訪問，並使用 Azure Policy 強制實施一致的合規配置。</t>
+          <t>遵循最低特權模型，將永久刪除密鑰、機密和證書的授權限制為專用的自定義 Microsoft Entra ID 角色。</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10394,7 +10420,7 @@
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10415,7 +10441,7 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>默認為 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
+          <t>使用公共證書頒發機構自動執行證書管理和續訂流程，以簡化管理。</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10432,14 +10458,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10460,7 +10486,7 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+          <t>建立金鑰和證書輪換的自動化流程。</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
@@ -10484,7 +10510,7 @@
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10505,7 +10531,7 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>如果要自帶密鑰，則並非所有考慮的服務都支援此操作。實施相關的緩解措施，以免不一致阻礙預期結果。選擇適當的區域對和災難恢復區域，以最大程度地減少延遲。</t>
+          <t>在保管庫上啟用防火牆和虛擬網路服務終結點或專用終結點，以控制對密鑰保管庫的訪問。</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
@@ -10529,7 +10555,7 @@
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10550,7 +10576,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，請使用 Azure Key Vault 託管 HSM 來儲存機密和憑據。</t>
+          <t>使用以平臺為中心的 Azure Monitor Log Analytics 工作區審核每個 Key Vault 實例中的密鑰、證書和機密使用方式。</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10567,14 +10593,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10590,12 +10616,12 @@
       </c>
       <c r="B209" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra ID 報告功能生成訪問控制審核報告。</t>
+          <t>委託 Key Vault 實例化和特權訪問，並使用 Azure Policy 強制實施一致的合規配置。</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10612,14 +10638,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10635,12 +10661,12 @@
       </c>
       <c r="B210" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 活動日誌匯出到 Azure Monitor 紀錄，以便長期保留數據。如有必要，導出到 Azure 存儲以長期存儲超過兩年。</t>
+          <t>默認為 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10657,14 +10683,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10680,18 +10706,18 @@
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>為所有訂閱啟用Defender雲安全態勢管理。</t>
+          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10702,14 +10728,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10725,18 +10751,18 @@
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>在所有訂閱上為伺服器啟用Defender雲工作負載保護計劃。</t>
+          <t>如果要自帶密鑰，則並非所有考慮的服務都支援此操作。實施相關的緩解措施，以免不一致阻礙預期結果。選擇適當的區域對和災難恢復區域，以最大程度地減少延遲。</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
       <c r="E212" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10747,14 +10773,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10770,18 +10796,18 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>在所有訂閱上為 Azure 資源啟用 Defender 雲工作負載保護計劃。</t>
+          <t>對於主權登陸區域，請使用 Azure Key Vault 託管 HSM 來儲存機密和憑據。</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10792,14 +10818,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10820,13 +10846,13 @@
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>在 IaaS 伺服器上啟用 Endpoint Protection。</t>
+          <t>使用 Microsoft Entra ID 報告功能生成訪問控制審核報告。</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10837,14 +10863,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10865,7 +10891,7 @@
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure Monitor 紀錄和 Defender for Cloud 監視基本作業系統修補偏差。</t>
+          <t>將 Azure 活動日誌匯出到 Azure Monitor 紀錄，以便長期保留數據。如有必要，導出到 Azure 存儲以長期存儲超過兩年。</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
@@ -10882,14 +10908,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10910,13 +10936,13 @@
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>將預設資源配置連接到集中式 Azure Monitor Log Analytics 工作區。</t>
+          <t>為所有訂閱啟用Defender雲安全態勢管理。</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10927,14 +10953,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10955,13 +10981,13 @@
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，在 Entra ID 租戶上啟用透明日誌。</t>
+          <t>在所有訂閱上為伺服器啟用Defender雲工作負載保護計劃。</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10972,14 +10998,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -11000,13 +11026,13 @@
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，在 Entra ID 租戶上啟用了客戶密碼箱。</t>
+          <t>在所有訂閱上為 Azure 資源啟用 Defender 雲工作負載保護計劃。</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -11017,14 +11043,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11045,13 +11071,13 @@
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>使用基於 Azure 事件網格的解決方案獲取面向日誌的即時警報</t>
+          <t>在 IaaS 伺服器上啟用 Endpoint Protection。</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11062,14 +11088,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/security</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>874a748b-662d-46d1-9051-2a66498f6dfe</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11085,18 +11111,18 @@
       </c>
       <c r="B220" s="21" t="inlineStr">
         <is>
-          <t>概述</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>應啟用安全傳輸到存儲帳戶</t>
+          <t>通過 Azure Monitor 紀錄和 Defender for Cloud 監視基本作業系統修補偏差。</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
       <c r="E220" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11107,14 +11133,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11130,18 +11156,18 @@
       </c>
       <c r="B221" s="21" t="inlineStr">
         <is>
-          <t>概述</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
+          <t>將預設資源配置連接到集中式 Azure Monitor Log Analytics 工作區。</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
       <c r="E221" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -11152,14 +11178,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11175,18 +11201,18 @@
       </c>
       <c r="B222" s="21" t="inlineStr">
         <is>
-          <t>安全特權訪問</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>為 Azure 管理任務提供單獨的特權管理員帳戶。</t>
+          <t>對於主權登陸區域，在 Entra ID 租戶上啟用透明日誌。</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11197,14 +11223,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11220,12 +11246,12 @@
       </c>
       <c r="B223" s="21" t="inlineStr">
         <is>
-          <t>服務支援框架</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>規劃如何實現新的 Azure 服務</t>
+          <t>對於主權登陸區域，在 Entra ID 租戶上啟用了客戶密碼箱。</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
@@ -11242,14 +11268,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11265,18 +11291,18 @@
       </c>
       <c r="B224" s="21" t="inlineStr">
         <is>
-          <t>服務支援框架</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>規劃如何滿足 Azure 服務的服務請求</t>
+          <t>使用基於 Azure 事件網格的解決方案獲取面向日誌的即時警報</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
       <c r="E224" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11287,14 +11313,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/security</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>874a748b-662d-46d1-9051-2a66498f6dfe</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11305,17 +11331,17 @@
     <row r="225">
       <c r="A225" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B225" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>概述</t>
         </is>
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>確保你有一個跨職能的DevOps平臺團隊來構建、管理和維護 Azure 登陸區域體系結構。</t>
+          <t>應啟用安全傳輸到存儲帳戶</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
@@ -11332,14 +11358,14 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11350,23 +11376,23 @@
     <row r="226">
       <c r="A226" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>概述</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>旨在為 Azure 登陸區域平台團隊定義函數。</t>
+          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11377,14 +11403,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11395,23 +11421,23 @@
     <row r="227">
       <c r="A227" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>安全特權訪問</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>旨在為應用程式工作負載團隊定義自給自足的功能，並且不需要 DevOps 平台團隊支援。通過使用自定義 RBAC 角色來實現此目的。</t>
+          <t>為 Azure 管理任務提供單獨的特權管理員帳戶。</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
       <c r="E227" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11422,14 +11448,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11440,23 +11466,23 @@
     <row r="228">
       <c r="A228" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B228" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>服務支援框架</t>
         </is>
       </c>
       <c r="C228" s="21" t="inlineStr">
         <is>
-          <t>使用 CI/CD 管道部署 IaC 專案，並確保部署和 Azure 環境的品質。</t>
+          <t>規劃如何實現新的 Azure 服務</t>
         </is>
       </c>
       <c r="D228" s="21" t="n"/>
       <c r="E228" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -11467,14 +11493,14 @@
       <c r="G228" s="21" t="n"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
       <c r="L228" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M228" s="25" t="n"/>
@@ -11485,17 +11511,17 @@
     <row r="229">
       <c r="A229" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B229" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>服務支援框架</t>
         </is>
       </c>
       <c r="C229" s="21" t="inlineStr">
         <is>
-          <t>將 IaC 和應用程式代碼的單元測試作為生成過程的一部分。</t>
+          <t>規劃如何滿足 Azure 服務的服務請求</t>
         </is>
       </c>
       <c r="D229" s="21" t="n"/>
@@ -11512,14 +11538,14 @@
       <c r="G229" s="21" t="n"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
       <c r="L229" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M229" s="25" t="n"/>
@@ -11540,7 +11566,7 @@
       </c>
       <c r="C230" s="21" t="inlineStr">
         <is>
-          <t>使用 Key Vault 機密避免對敏感資訊（例如憑據（虛擬機器用戶密碼）、證書或金鑰）進行硬編碼。</t>
+          <t>確保你有一個跨職能的DevOps平臺團隊來構建、管理和維護 Azure 登陸區域體系結構。</t>
         </is>
       </c>
       <c r="D230" s="21" t="n"/>
@@ -11557,14 +11583,14 @@
       <c r="G230" s="21" t="n"/>
       <c r="H230" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
       <c r="L230" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M230" s="25" t="n"/>
@@ -11585,7 +11611,7 @@
       </c>
       <c r="C231" s="21" t="inlineStr">
         <is>
-          <t>通過訂閱自動售貨為應用程式和工作負載的新登陸區域實現自動化</t>
+          <t>旨在為 Azure 登陸區域平台團隊定義函數。</t>
         </is>
       </c>
       <c r="D231" s="21" t="n"/>
@@ -11602,14 +11628,14 @@
       <c r="G231" s="21" t="n"/>
       <c r="H231" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J231" s="22" t="n"/>
       <c r="K231" s="22" t="n"/>
       <c r="L231" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M231" s="25" t="n"/>
@@ -11625,18 +11651,18 @@
       </c>
       <c r="B232" s="21" t="inlineStr">
         <is>
-          <t>開發生命週期</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C232" s="21" t="inlineStr">
         <is>
-          <t>確保版本控制系統用於應用程式和 IaC 開發的原始程式碼。Microsoft 推薦 Git。</t>
+          <t>旨在為應用程式工作負載團隊定義自給自足的功能，並且不需要 DevOps 平台團隊支援。通過使用自定義 RBAC 角色來實現此目的。</t>
         </is>
       </c>
       <c r="D232" s="21" t="n"/>
       <c r="E232" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -11647,14 +11673,14 @@
       <c r="G232" s="21" t="n"/>
       <c r="H232" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J232" s="22" t="n"/>
       <c r="K232" s="22" t="n"/>
       <c r="L232" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M232" s="25" t="n"/>
@@ -11670,18 +11696,18 @@
       </c>
       <c r="B233" s="21" t="inlineStr">
         <is>
-          <t>開發生命週期</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C233" s="21" t="inlineStr">
         <is>
-          <t>遵循分支策略，使團隊能夠更好地協作並有效地管理 IaC 和應用程式代碼的版本控制。查看 Github Flow 等選項。</t>
+          <t>使用 CI/CD 管道部署 IaC 專案，並確保部署和 Azure 環境的品質。</t>
         </is>
       </c>
       <c r="D233" s="21" t="n"/>
       <c r="E233" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -11692,14 +11718,14 @@
       <c r="G233" s="21" t="n"/>
       <c r="H233" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J233" s="22" t="n"/>
       <c r="K233" s="22" t="n"/>
       <c r="L233" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M233" s="25" t="n"/>
@@ -11715,12 +11741,12 @@
       </c>
       <c r="B234" s="21" t="inlineStr">
         <is>
-          <t>開發生命週期</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C234" s="21" t="inlineStr">
         <is>
-          <t>採用拉取請求策略，以説明保持對合併到分支中的代碼更改的控制。</t>
+          <t>將 IaC 和應用程式代碼的單元測試作為生成過程的一部分。</t>
         </is>
       </c>
       <c r="D234" s="21" t="n"/>
@@ -11737,14 +11763,14 @@
       <c r="G234" s="21" t="n"/>
       <c r="H234" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J234" s="22" t="n"/>
       <c r="K234" s="22" t="n"/>
       <c r="L234" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M234" s="25" t="n"/>
@@ -11760,18 +11786,18 @@
       </c>
       <c r="B235" s="21" t="inlineStr">
         <is>
-          <t>開發生命週期</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C235" s="21" t="inlineStr">
         <is>
-          <t>建立使用代碼實現快速修復的過程。始終在團隊的積壓工作 （backlog） 中註冊快速修復，以便以後可以重新設計每個修復程式，並且可以限制技術債務。</t>
+          <t>使用 Key Vault 機密避免對敏感資訊（例如憑據（虛擬機器用戶密碼）、證書或金鑰）進行硬編碼。</t>
         </is>
       </c>
       <c r="D235" s="21" t="n"/>
       <c r="E235" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -11782,14 +11808,14 @@
       <c r="G235" s="21" t="n"/>
       <c r="H235" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-platform</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J235" s="22" t="n"/>
       <c r="K235" s="22" t="n"/>
       <c r="L235" s="25" t="inlineStr">
         <is>
-          <t>2676ae46-65ca-444e-8695-fdddeace4cb1</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M235" s="25" t="n"/>
@@ -11805,18 +11831,18 @@
       </c>
       <c r="B236" s="21" t="inlineStr">
         <is>
-          <t>發展戰略</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C236" s="21" t="inlineStr">
         <is>
-          <t>利用聲明性基礎結構即代碼工具（如 Azure Bicep、ARM 範本或 Terraform）來生成和維護 Azure 登陸區域體系結構。從平臺和應用程式工作負載的角度來看。</t>
+          <t>通過訂閱自動售貨為應用程式和工作負載的新登陸區域實現自動化</t>
         </is>
       </c>
       <c r="D236" s="21" t="n"/>
       <c r="E236" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -11827,14 +11853,14 @@
       <c r="G236" s="21" t="n"/>
       <c r="H236" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J236" s="22" t="n"/>
       <c r="K236" s="22" t="n"/>
       <c r="L236" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M236" s="25" t="n"/>
@@ -11850,12 +11876,12 @@
       </c>
       <c r="B237" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>開發生命週期</t>
         </is>
       </c>
       <c r="C237" s="21" t="inlineStr">
         <is>
-          <t>將安全性集成到 DevOps 中已經組合的開發和運營流程中，以降低創新過程中的風險。</t>
+          <t>確保版本控制系統用於應用程式和 IaC 開發的原始程式碼。Microsoft 推薦 Git。</t>
         </is>
       </c>
       <c r="D237" s="21" t="n"/>
@@ -11872,14 +11898,14 @@
       <c r="G237" s="21" t="n"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J237" s="22" t="n"/>
       <c r="K237" s="22" t="n"/>
       <c r="L237" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M237" s="25" t="n"/>
@@ -11888,75 +11914,225 @@
       <c r="P237" s="25" t="n"/>
     </row>
     <row r="238">
-      <c r="A238" s="21" t="n"/>
-      <c r="B238" s="21" t="n"/>
-      <c r="C238" s="21" t="n"/>
+      <c r="A238" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B238" s="21" t="inlineStr">
+        <is>
+          <t>開發生命週期</t>
+        </is>
+      </c>
+      <c r="C238" s="21" t="inlineStr">
+        <is>
+          <t>遵循分支策略，使團隊能夠更好地協作並有效地管理 IaC 和應用程式代碼的版本控制。查看 Github Flow 等選項。</t>
+        </is>
+      </c>
       <c r="D238" s="21" t="n"/>
-      <c r="E238" s="21" t="n"/>
+      <c r="E238" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G238" s="21" t="n"/>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
       <c r="J238" s="22" t="n"/>
       <c r="K238" s="22" t="n"/>
-      <c r="L238" s="25" t="n"/>
+      <c r="L238" s="25" t="inlineStr">
+        <is>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+        </is>
+      </c>
       <c r="M238" s="25" t="n"/>
       <c r="N238" s="25" t="n"/>
       <c r="O238" s="25" t="n"/>
       <c r="P238" s="25" t="n"/>
     </row>
     <row r="239">
-      <c r="A239" s="21" t="n"/>
-      <c r="B239" s="21" t="n"/>
-      <c r="C239" s="21" t="n"/>
+      <c r="A239" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B239" s="21" t="inlineStr">
+        <is>
+          <t>開發生命週期</t>
+        </is>
+      </c>
+      <c r="C239" s="21" t="inlineStr">
+        <is>
+          <t>採用拉取請求策略，以説明保持對合併到分支中的代碼更改的控制。</t>
+        </is>
+      </c>
       <c r="D239" s="21" t="n"/>
-      <c r="E239" s="21" t="n"/>
+      <c r="E239" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G239" s="21" t="n"/>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
       <c r="J239" s="22" t="n"/>
       <c r="K239" s="22" t="n"/>
-      <c r="L239" s="25" t="n"/>
+      <c r="L239" s="25" t="inlineStr">
+        <is>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+        </is>
+      </c>
       <c r="M239" s="25" t="n"/>
       <c r="N239" s="25" t="n"/>
       <c r="O239" s="25" t="n"/>
       <c r="P239" s="25" t="n"/>
     </row>
     <row r="240">
-      <c r="A240" s="21" t="n"/>
-      <c r="B240" s="21" t="n"/>
-      <c r="C240" s="21" t="n"/>
+      <c r="A240" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B240" s="21" t="inlineStr">
+        <is>
+          <t>開發生命週期</t>
+        </is>
+      </c>
+      <c r="C240" s="21" t="inlineStr">
+        <is>
+          <t>建立使用代碼實現快速修復的過程。始終在團隊的積壓工作 （backlog） 中註冊快速修復，以便以後可以重新設計每個修復程式，並且可以限制技術債務。</t>
+        </is>
+      </c>
       <c r="D240" s="21" t="n"/>
-      <c r="E240" s="21" t="n"/>
+      <c r="E240" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G240" s="21" t="n"/>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-platform</t>
+        </is>
+      </c>
       <c r="J240" s="22" t="n"/>
       <c r="K240" s="22" t="n"/>
-      <c r="L240" s="25" t="n"/>
+      <c r="L240" s="25" t="inlineStr">
+        <is>
+          <t>2676ae46-65ca-444e-8695-fdddeace4cb1</t>
+        </is>
+      </c>
       <c r="M240" s="25" t="n"/>
       <c r="N240" s="25" t="n"/>
       <c r="O240" s="25" t="n"/>
       <c r="P240" s="25" t="n"/>
     </row>
     <row r="241">
-      <c r="A241" s="21" t="n"/>
-      <c r="B241" s="21" t="n"/>
-      <c r="C241" s="21" t="n"/>
+      <c r="A241" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B241" s="21" t="inlineStr">
+        <is>
+          <t>發展戰略</t>
+        </is>
+      </c>
+      <c r="C241" s="21" t="inlineStr">
+        <is>
+          <t>利用聲明性基礎結構即代碼工具（如 Azure Bicep、ARM 範本或 Terraform）來生成和維護 Azure 登陸區域體系結構。從平臺和應用程式工作負載的角度來看。</t>
+        </is>
+      </c>
       <c r="D241" s="21" t="n"/>
-      <c r="E241" s="21" t="n"/>
+      <c r="E241" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G241" s="21" t="n"/>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J241" s="22" t="n"/>
       <c r="K241" s="22" t="n"/>
-      <c r="L241" s="25" t="n"/>
+      <c r="L241" s="25" t="inlineStr">
+        <is>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+        </is>
+      </c>
       <c r="M241" s="25" t="n"/>
       <c r="N241" s="25" t="n"/>
       <c r="O241" s="25" t="n"/>
       <c r="P241" s="25" t="n"/>
     </row>
     <row r="242">
-      <c r="A242" s="21" t="n"/>
-      <c r="B242" s="21" t="n"/>
-      <c r="C242" s="21" t="n"/>
+      <c r="A242" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B242" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C242" s="21" t="inlineStr">
+        <is>
+          <t>將安全性集成到 DevOps 中已經組合的開發和運營流程中，以降低創新過程中的風險。</t>
+        </is>
+      </c>
       <c r="D242" s="21" t="n"/>
-      <c r="E242" s="21" t="n"/>
+      <c r="E242" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G242" s="21" t="n"/>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J242" s="22" t="n"/>
       <c r="K242" s="22" t="n"/>
-      <c r="L242" s="25" t="n"/>
+      <c r="L242" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M242" s="25" t="n"/>
       <c r="N242" s="25" t="n"/>
       <c r="O242" s="25" t="n"/>
@@ -12933,7 +13109,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F238" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F243" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>使用一個 Entra 租戶來管理 Azure 資源，除非對多租戶有明確的法規或業務要求。</t>
+          <t>使用一個 Entra 租戶來管理 Azure 資源，除非你對多租戶有明確的法規或業務要求。</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>確保合作夥伴使用 Azure Lighthouse 來管理租戶</t>
+          <t>確保合作夥伴使用 Azure Lighthouse 管理租戶</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>配置組郵箱的通知聯繫人</t>
+          <t>將通知連絡人配置到組郵箱</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1437,13 +1437,13 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>確保將帳戶配置為「工作或學校帳戶」類型</t>
+          <t>在EA註冊上啟用DA查看費用和AO查看費用，以允許具有正確許可權的使用者查看成本和計費數據。</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1462,7 +1462,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>29213165-f066-46c4-81fc-4214cc19f3d0</t>
+          <t>ca0fe401-12ad-46fc-8a7e-86293866a9f6</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1483,13 +1483,13 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>在EA註冊上同時啟用DA View Charges和 AO View Fees，以允許具有正確 perms 的使用者查看成本和計費數據。</t>
+          <t>利用企業開發/測試訂閱來降低非生產工作負載的成本</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1508,7 +1508,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>ca0fe401-12ad-46fc-8a7e-86293866a9f6</t>
+          <t>5cf9f485-2784-49b3-9824-75d9b8bdb57b</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1524,12 +1524,12 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>企業協定</t>
+          <t>Microsoft 客戶協定</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>利用企業開發/測試訂閱來降低非生產工作負載的成本</t>
+          <t>配置協定計費帳戶通知聯繫人電子郵件</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1546,7 +1546,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1554,7 +1554,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>5cf9f485-2784-49b3-9824-75d9b8bdb57b</t>
+          <t>6ad5c3dd-e5ea-4ff1-81a4-7886ff87845c</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1570,18 +1570,18 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>企業協定</t>
+          <t>Microsoft 客戶協定</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>定期審核角色分配，以查看誰有權訪問你的企業協議註冊</t>
+          <t>使用「計費配置檔」和「發票」部分構建協定計費，以實現有效的成本管理</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1592,7 +1592,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/mca-section-invoice</t>
         </is>
       </c>
       <c r="I19" s="15" t="n"/>
@@ -1600,7 +1600,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>2cf08656-13ea-4f7e-a53a-e2c956b1ff6c</t>
+          <t>90e87802-602f-4dfb-acea-67c60689f1d7</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>配置協定計費帳戶通知聯繫人電子郵件</t>
+          <t>利用 Microsoft Azure 開發/測試計劃產品/服務來降低非生產工作負載的成本</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1646,7 +1646,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>6ad5c3dd-e5ea-4ff1-81a4-7886ff87845c</t>
+          <t>e81a73f0-84c4-4641-b406-14db3b4d1f50</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1667,13 +1667,13 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>使用「計費配置檔」和「發票」部分構建協定計費，以實現有效的成本管理</t>
+          <t>定期審核協定計費 RBAC 角色分配，以查看誰有權訪問你的 MCA 計費帳戶</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1684,7 +1684,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/mca-section-invoice</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I21" s="15" t="n"/>
@@ -1692,7 +1692,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>90e87802-602f-4dfb-acea-67c60689f1d7</t>
+          <t>ae757485-92a4-482a-8bc9-eefe6f5b5ec3</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1703,23 +1703,23 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>Azure 計費和 Microsoft Entra ID 租戶</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Microsoft 客戶協定</t>
+          <t>Microsoft Entra ID 和混合標識</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>利用 Azure 計劃降低非生產工作負載的成本</t>
+          <t>使用託管標識而不是服務主體對 Azure 服務進行身份驗證。可以通過 Entra ID &gt;登錄日誌&gt;服務主體登錄來檢查現有服務主體。</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1730,15 +1730,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
-        </is>
-      </c>
-      <c r="I22" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I22" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+        </is>
+      </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>e81a73f0-84c4-4641-b406-14db3b4d1f50</t>
+          <t>4348bf81-7573-4512-8f46-9061cc198fea</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1749,17 +1753,17 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>Azure 計費和 Microsoft Entra ID 租戶</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Microsoft 客戶協定</t>
+          <t>Microsoft Entra ID</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>定期審核協定計費 RBAC 角色分配，以查看誰有權訪問你的 MCA 計費帳戶</t>
+          <t>部署 Microsoft Entra Connect 時，利用暫存伺服器實現高可用性/災難恢復</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1776,7 +1780,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1784,7 +1788,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>ae757485-92a4-482a-8bc9-eefe6f5b5ec3</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1800,12 +1804,12 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 和混合標識</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>使用託管標識而不是服務主體對 Azure 服務進行身份驗證。可以通過 Entra ID &gt;登錄日誌&gt;服務主體登錄來檢查現有服務主體。</t>
+          <t>實施緊急訪問或打破玻璃帳戶，以防止租戶範圍的帳戶鎖定</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1822,19 +1826,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>4348bf81-7573-4512-8f46-9061cc198fea</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1850,12 +1854,12 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>部署 Microsoft Entra Connect 時，利用暫存伺服器實現高可用性/災難恢復</t>
+          <t>將 Microsoft Entra ID 日誌與平臺中心 Azure Monitor 集成。Azure Monitor 允許圍繞 Azure 中的日誌和監視數據提供單一事實源，從而為組織提供雲原生選項，以滿足有關日誌收集和保留的要求。</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1872,7 +1876,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1880,7 +1884,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1901,7 +1905,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>實施緊急訪問或破屏帳戶，以防止租戶範圍的帳戶鎖定</t>
+          <t>強制實施與雲運營模型一致的 RBAC 模型。跨管理組和訂閱的範圍和分配。</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1918,19 +1922,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1951,13 +1955,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>將 Microsoft Entra ID 紀錄與平臺中心 Azure 監視器整合。Azure Monitor 允許圍繞 Azure 中的日誌和監視數據提供單一事實源，為組織提供雲原生選項，以滿足有關日誌收集和保留的要求。</t>
+          <t>對任何有權訪問 Azure 環境的用戶強制實施 Microsoft Entra ID 條件訪問策略</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1968,14 +1972,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1996,7 +2005,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>強制實施與雲操作模型一致的 RBAC 模型。跨管理組和訂閱確定範圍和分配。</t>
+          <t>對有權訪問 Azure 環境的任何使用者強制實施多重身份驗證</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2013,19 +2022,19 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2046,13 +2055,13 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>對具有 Azure 環境許可權的任何使用者強制實施 Microsoft Entra ID 條件訪問策略</t>
+          <t>根據角色和安全要求，強制實施集中式和委派的職責，以管理登陸區域內部署的資源</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2063,19 +2072,19 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2096,13 +2105,13 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>對具有 Azure 環境許可權的任何使用者強制實施多重身份驗證</t>
+          <t>強制實施 Microsoft Entra ID 特權身份管理 （PIM） 以建立零長期訪問許可權和最低許可權</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2113,19 +2122,19 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2146,13 +2155,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>根據角色和安全要求強制實施集中和委派的職責，以管理在登陸區域內部署的資源</t>
+          <t>僅對所有帳戶類型使用身份驗證類型「工作或學校帳戶」。避免使用 Microsoft 帳戶</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2163,19 +2172,19 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2196,7 +2205,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>強制實施 Microsoft Entra ID 特權標識管理 （PIM） 以建立零長期訪問和最低特權</t>
+          <t>僅使用組來分配許可權。如果組管理系統已到位，則將本地組添加到僅 Entra ID 組。</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2213,19 +2222,19 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2246,13 +2255,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>僅對所有帳戶類型使用身份驗證類型「工作或學校帳戶」。避免使用 Microsoft 帳戶</t>
+          <t>將 Azure 自定義 RBAC 角色用於以下關鍵角色，以跨 ALZ 提供精細訪問：Azure 平臺擁有者、網路管理、安全操作、訂閱擁有者、應用程式擁有者。使這些角色與企業中的團隊和職責保持一致。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2263,19 +2272,19 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2296,7 +2305,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>僅使用組來分配許可權。如果組管理系統已到位，請將本地組添加到僅限 Azure-AD 的組。</t>
+          <t>在 Windows Server 上部署 Active Directory 時，請使用具有可用性區域的位置，並在這些區域中部署至少兩個 VM。如果不可用，請在可用性集中部署</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2313,19 +2322,19 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
         </is>
       </c>
       <c r="I34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2334,19 +2343,15 @@
       <c r="P34" s="25" t="n"/>
     </row>
     <row r="35" ht="16.5" customHeight="1">
-      <c r="A35" s="21" t="inlineStr">
+      <c r="A35" s="21" t="n"/>
+      <c r="B35" s="21" t="inlineStr">
         <is>
           <t>身份和訪問管理</t>
         </is>
       </c>
-      <c r="B35" s="21" t="inlineStr">
-        <is>
-          <t>身份</t>
-        </is>
-      </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 自定義 RBAC 角色用於以下關鍵角色，以提供跨 ALZ 的精細訪問：Azure 平臺擁有者、網路管理、安全操作、訂閱擁有者、應用程式擁有者。使這些角色與企業中的團隊和職責保持一致。</t>
+          <t>如果計劃從 Active Directory 域服務切換到 Entra 域服務，請評估所有工作負載的相容性</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2363,19 +2368,19 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2396,7 +2401,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>在 Windows Server 上部署 Active Directory 時，請使用具有可用性區域的位置，並在這些區域中部署至少兩個 VM。如果不可用，請在可用性集中部署</t>
+          <t>如果需要，請使用 Microsoft Entra ID 應用程式代理為遠端使用者提供對內部應用程式（託管在雲中或本地）的安全和經過身份驗證的訪問。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2413,19 +2418,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2446,7 +2451,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>如果正在使用 Entra 域服務，請評估所有工作負載的相容性</t>
+          <t>避免將本地同步帳戶用於 Microsoft Entra ID 角色分配。</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2463,19 +2468,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2491,12 +2496,12 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>登陸區域</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>如果正在使用域控制器，請確保將資源設置為使用正確的域控制器。</t>
+          <t>通過使用虛擬網路配置標識網路分段，並對等回中心。在應用程式登陸區域（舊版）內提供身份驗證。</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2513,19 +2518,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
         </is>
       </c>
       <c r="I38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>9cf5418b-1520-4b7b-add7-88eb28f833e8</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2541,12 +2546,12 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>登陸區域</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>如果需要，請使用 Microsoft Entra ID 應用程式代理為遠端使用者提供對內部應用程式（託管在雲中或本地）的安全且經過身份驗證的訪問。</t>
+          <t>如果可能，請使用 Azure RBAC 管理對資源的數據平面訪問。例如，跨 Key Vault、存儲帳戶和資料庫服務的數據操作。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2563,19 +2568,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>d4d1ad54-1abc-4919-b267-3f342d3b49e4</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2591,12 +2596,12 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>登陸區域</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>避免使用本地同步帳戶進行 Microsoft Entra ID 角色分配。</t>
+          <t>使用 Microsoft Entra ID PIM 訪問評審定期驗證資源權利。</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2613,19 +2618,15 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
-        </is>
-      </c>
-      <c r="I40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>d505ebcb-79b1-4274-9c0d-a27c8bea489c</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2636,23 +2637,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>資源組織</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>登陸區域</t>
+          <t>命名和標記</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>通過使用虛擬網路配置標識網路分段，並返回中心。在應用程式登陸區域（舊版）內提供身份驗證。</t>
+          <t>建議遵循 Microsoft 最佳實踐命名標準</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2663,19 +2664,15 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>9cf5418b-1520-4b7b-add7-88eb28f833e8</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2686,17 +2683,17 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>資源組織</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>登陸區域</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>如果可能，請使用 Azure RBAC 管理對資源的數據平面訪問。例如 - 跨 Key Vault、存儲帳戶和資料庫服務的數據操作。</t>
+          <t>強制實施不超過四個級別的合理扁平化管理組層次結構。</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2713,19 +2710,19 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>d4d1ad54-1abc-4919-b267-3f342d3b49e4</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2736,17 +2733,17 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>資源組織</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>登陸區域</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra ID PIM 訪問評審定期驗證資源權利。</t>
+          <t>強制實施沙箱管理組，允許使用者立即試驗 Azure</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2763,15 +2760,19 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+        </is>
+      </c>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>d505ebcb-79b1-4274-9c0d-a27c8bea489c</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2787,18 +2788,18 @@
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>命名和標記</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>建議遵循 Microsoft 最佳做法命名標準</t>
+          <t>在根管理組下強制實施平臺管理組，以支援通用平臺策略和 Azure 角色分配</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2809,15 +2810,19 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+        </is>
+      </c>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2838,7 +2843,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>強制實施不超過四個級別的合理扁平管理組層次結構。</t>
+          <t>在連接管理組中強制實施專用連接訂閱，以託管 Azure 虛擬 WAN 中心、專用域名系統 （DNS）、ExpressRoute 線路和其他網路資源。</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2855,19 +2860,19 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2888,7 +2893,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>強制實施沙箱管理組，以允許使用者立即試用 Azure</t>
+          <t>強制在根管理組下放置任何訂閱</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2905,19 +2910,15 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+        </is>
+      </c>
+      <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2938,7 +2939,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>在根管理組下強制實施平臺管理組，以支援通用平臺策略和 Azure 角色分配</t>
+          <t>通過在管理組層次結構設置中啟用 Azure RBAC 授權，強制只有特權使用者才能在租戶中操作管理組</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2955,19 +2956,15 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I47" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+        </is>
+      </c>
+      <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2988,7 +2985,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>在連接管理組中強制實施專用連接訂閱，以託管 Azure 虛擬 WAN 中心、專用域名系統 （DNS）、ExpressRoute 線路和其他網路資源。</t>
+          <t>在根級管理組下強制實施管理組，以根據工作負載的安全性、合規性、連接性和功能需求來表示工作負載的類型。</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3005,19 +3002,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3038,13 +3030,13 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>強制在根管理組下放置任何訂閱</t>
+          <t>強制執行流程，使資源擁有者瞭解其角色和職責、訪問審查、預算審查、策略合規性，並在必要時進行修正。</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3055,14 +3047,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3083,7 +3075,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>通過在管理組層次結構設置中啟用 Azure RBAC 授權，強制只有特權使用者才能在租戶中操作管理組</t>
+          <t>確保所有訂閱擁有者和IT核心團隊都瞭解訂閱配額及其對給定訂閱預配資源的影響。</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3100,7 +3092,7 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I50" s="15" t="n"/>
@@ -3108,7 +3100,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3129,13 +3121,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>在根級別管理組下強制實施管理組，以根據其安全性、合規性、連接性和功能需求來表示工作負載的類型。</t>
+          <t>在適當的情況下使用預留實例來優化成本並確保目標區域的可用容量。通過 Azure Policy 強制使用已購買的預留實例 VM SKU。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3146,15 +3138,19 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+        </is>
+      </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3175,7 +3171,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>強制實施流程，使資源擁有者瞭解其角色和職責、訪問評審、預算評審、策略合規性，並在必要時進行修正。</t>
+          <t>強制實施儀錶板、工作簿或手動過程以監控已用容量級別</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3192,15 +3188,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+        </is>
+      </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3221,13 +3221,13 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>確保所有訂閱擁有者和IT核心團隊都瞭解訂閱配額及其對給定訂閱的預配資源的影響。</t>
+          <t>強制執行成本管理流程</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3238,14 +3238,19 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3266,13 +3271,13 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>在適當的情況下使用預留實例來優化成本並確保目標區域中的可用容量。通過 Azure Policy 強制使用購買的預留實例 VM SKU。</t>
+          <t>如果伺服器將用於標識服務（如域控制器），請在標識管理組中建立專用標識訂閱，以託管這些服務。請確保將資源設置為使用其區域中可用的域控制器。</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3283,19 +3288,19 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3316,13 +3321,13 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>強制執行儀錶板、工作簿或手動流程來監控已用容量級別</t>
+          <t>確保標籤用於計費和成本管理</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
       <c r="E55" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3333,19 +3338,19 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3366,13 +3371,13 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>強制實施成本管理流程</t>
+          <t>對於主權登陸區，在「登陸區」MG下有一個「機密公司」和「機密在線」管理組。</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3383,19 +3388,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/02-Architecture.md</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>6cc0ea22-42bb-441e-a345-804ab0a09666</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3411,18 +3411,18 @@
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>地區</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>如果伺服器將用於標識服務（如域控制器），請在標識管理組中建立專用標識訂閱來託管這些服務</t>
+          <t>為部署選擇正確的 Azure 區域。Azure 是一個全球規模的雲平臺，可通過許多區域和地理位置提供全球覆蓋。不同的 Azure 區域具有不同的特徵、訪問和可用性模型、成本、容量和提供的服務，因此必須考慮所有條件和要求</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
       <c r="E57" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3433,19 +3433,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>250d81ce-8bbe-4f85-9051-6a18a8221e50</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3461,12 +3461,12 @@
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>地區</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>確保將標籤用於計費和成本管理</t>
+          <t>請考慮多區域部署。根據客戶規模、位置和用戶狀態，在多個區域運營可能是交付服務和運行更靠近這些區域的應用程式的常見選擇。使用多區域部署對於提供異地災難恢復功能、消除單個區域容量的依賴關係以及降低臨時和當地語系化資源容量限制的風險也很重要</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3483,19 +3483,19 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>19ca3f89-397d-44b1-b5b6-5e18661372ac</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3511,12 +3511,12 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>地區</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區，在「登陸區」MG下有一個「機密公司」和「機密在線」管理組。</t>
+          <t>確保所需的服務和功能在所選部署區域中可用</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3533,14 +3533,19 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/02-Architecture.md</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>6cc0ea22-42bb-441e-a345-804ab0a09666</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3551,23 +3556,23 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>資源組織</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>地區</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>為部署選擇正確的 Azure 區域。Azure 是一個全球規模的雲平臺，可覆蓋多個區域和地理位置的全球範圍。不同的 Azure 區域具有不同的特徵、訪問和可用性模型、成本、容量和提供的服務，因此請務必考慮所有條件和要求</t>
+          <t>制定計劃，使用應用程式閘道和 Azure Front door 保護工作負載分支中的交付應用程式內容。 您可以使用應用程式交付清單來獲取建議。</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
       <c r="E60" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3578,19 +3583,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>250d81ce-8bbe-4f85-9051-6a18a8221e50</t>
+          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3601,17 +3601,17 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>資源組織</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>地區</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>考慮多區域部署。根據客戶規模、位置和使用者分佈情況，在多個區域運營可能是提供服務和運行更接近它們的應用程式的常見選擇。使用多區域部署對於提供異地災難恢復功能、消除對單個區域容量的依賴性並降低臨時和當地語系化資源容量限制的風險也很重要</t>
+          <t>在面向內部 （corp） 和面向外部的應用 （online） 的登陸區域內執行應用交付。</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3628,19 +3628,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>19ca3f89-397d-44b1-b5b6-5e18661372ac</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3651,17 +3651,17 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>資源組織</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>地區</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>確保所需的服務和功能在所選部署區域中可用</t>
+          <t>對應用程式登陸區域中的所有公共IP位址使用 DDoS 網路或IP防護計畫。</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3678,19 +3678,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>加密</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>制定計劃，使用應用程式閘道和 Azure Front Door 保護工作負載分支中的交付應用程式內容。 您可以使用應用程式交付清單來獲取建議。</t>
+          <t>使用 ExpressRoute Direct 時，請配置 MACsec，以便加密組織路由器和 MSEE 之間的第二層級別的流量。該圖顯示了流中的此加密。</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3728,7 +3728,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
+          <t>https://learn.microsoft.com/en-us/azure/expressroute/expressroute-howto-macsec</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3736,7 +3736,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3752,18 +3752,18 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>加密</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>在面向內部 （corp） 和面向外部的應用 （online） 的登陸區域內執行應用交付。</t>
+          <t>對於無法使用MACsec的方案（例如，不使用ExpressRoute Direct），請使用 VPN 閘道通過 ExpressRoute 專用對等互連建立 IPsec 隧道。</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3774,19 +3774,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3802,12 +3802,12 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>輪輻式</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>對應用程式登陸區域中的所有公共IP位址使用 DDoS 網路或IP保護計畫。</t>
+          <t>利用基於傳統中心輻射型網路拓撲的網路設計，滿足需要最大靈活性的網路方案。</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3824,19 +3824,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3852,18 +3852,18 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>加密</t>
+          <t>輪輻式</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>使用 ExpressRoute Direct 時，請配置 MACsec，以便在組織的路由器和 MSEE 之間的第二層級別加密流量。該圖顯示了流中的此加密。</t>
+          <t>確保共用網路服務（包括 ExpressRoute 閘道、VPN 閘道和 Azure 防火牆或合作夥伴 NVA）位於中心虛擬網路中。如有必要，還可以部署 DNS 伺服器。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3874,14 +3874,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/expressroute-howto-macsec</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3897,18 +3897,18 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>加密</t>
+          <t>輪輻式</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>對於不使用MACsec的方案（例如，不使用ExpressRoute Direct），請使用 VPN 閘道通過 ExpressRoute 專用對等互連建立 IPsec 隧道。</t>
+          <t>部署合作夥伴網路技術或 NVA 時，請遵循合作夥伴供應商的指導</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3919,19 +3919,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3947,18 +3943,18 @@
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>中心輻射型</t>
+          <t>輪輻式</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>利用基於傳統中心輻射型網路拓撲的網路設計，適用於需要最大靈活性的網路方案。</t>
+          <t>如果需要在中心輻射型方案中的 ExpressRoute 和 VPN 閘道之間傳輸，請使用 Azure 路由伺服器。</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3969,19 +3965,15 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I68" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3997,18 +3989,18 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>中心輻射型</t>
+          <t>輪輻式</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>確保共用網路服務，包括 ExpressRoute 閘道、VPN 閘道和 Azure 防火牆或合作夥伴 NVA 位於中心虛擬網路中。如有必要，還可以部署 DNS 伺服器。</t>
+          <t>如果使用 Route Server，請對 Route Server 子網使用 /27 前置綴。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4019,7 +4011,7 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
         </is>
       </c>
       <c r="I69" s="15" t="n"/>
@@ -4027,7 +4019,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4043,12 +4035,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>中心輻射型</t>
+          <t>輪輻式</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>部署合作夥伴網路技術或 NVA 時，請遵循合作夥伴供應商的指導</t>
+          <t>對於跨 Azure 區域具有多個中心輻射型拓撲的網路體系結構，請使用中心 VNet 之間的全域虛擬網路對等互連將區域相互連接。</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4065,15 +4057,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4089,18 +4085,18 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>中心輻射型</t>
+          <t>輪輻式</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>如果需要在中心輻射型方案中在 ExpressRoute 和 VPN 閘道之間傳輸，請使用 Azure 路由伺服器。</t>
+          <t>使用用於網路的 Azure Monitor 監視 Azure 上網路的端到端狀態。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4111,15 +4107,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4135,18 +4135,18 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>中心輻射型</t>
+          <t>輪輻式</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>如果使用路由伺服器，請對路由伺服器子網使用 /27 前置綴。</t>
+          <t>將分支虛擬網路連接到中央中心虛擬網路時，請考慮 VNet 對等互連限制 （500），即可通過 ExpressRoute 播發的最大前綴數 （1000）</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4157,7 +4157,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4165,7 +4165,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4181,12 +4181,12 @@
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>中心輻射型</t>
+          <t>輪輻式</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>對於跨 Azure 區域具有多個中心輻射型拓撲的網路體系結構，請在中心 VNet 之間使用全域虛擬網路對等互連將區域相互連接。</t>
+          <t>考慮每個路由表的路由限制 （400）。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4203,19 +4203,15 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="n"/>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4231,18 +4227,18 @@
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>中心輻射型</t>
+          <t>輪輻式</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>使用用於網路的 Azure Monitor 監視 Azure 上網路的端到端狀態。</t>
+          <t>配置 VNet 對等互連時，使用「允許流量流向遠端虛擬網路」設置</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4253,19 +4249,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4281,12 +4273,12 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>中心輻射型</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>將分支虛擬網路連接到中央中心虛擬網路時，請考慮 VNet 對等互連限制 （500），即可通過 ExpressRoute 播發的最大前綴數 （1000）</t>
+          <t>確保已調查使用 ExpressRoute 作為與 Azure 的主要連接的可能性。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4303,15 +4295,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4327,15 +4323,19 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>中心輻射型</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>考慮每個路由表的路由限制 （400）。</t>
-        </is>
-      </c>
-      <c r="D76" s="21" t="n"/>
+          <t>使用多條 ExpressRoute 線路或多個本地位置時，請確保使用 BGP 屬性優化路由（如果首選某些路徑）。</t>
+        </is>
+      </c>
+      <c r="D76" s="21" t="inlineStr">
+        <is>
+          <t>可以使用 AS 路徑前置和連接權重來影響從 Azure 到本地的流量，並使用自己的路由器中的全部 BGP 屬性來影響從本地到 Azure 的流量。</t>
+        </is>
+      </c>
       <c r="E76" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -4349,15 +4349,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I76" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I76" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4373,18 +4377,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>中心輻射型</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>配置 VNet 對等互連時，使用「允許流向遠端虛擬網路的流量」設置</t>
+          <t>確保根據頻寬和性能要求為 ExpressRoute/VPN 閘道使用正確的 SKU。</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4395,15 +4399,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
-        </is>
-      </c>
-      <c r="I77" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I77" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4424,13 +4432,13 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>確保已調查使用 ExpressRoute 作為與 Azure 的主連接的可能性。</t>
+          <t>確保僅當達到證明其成本合理的頻寬時，才使用無限數據的ExpressRoute線路。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4441,19 +4449,15 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I78" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+        </is>
+      </c>
+      <c r="I78" s="15" t="n"/>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4474,17 +4478,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>使用多個 ExpressRoute 線路或多個本地位置時，請確保使用 BGP 屬性優化路由（如果首選某些路徑）。</t>
-        </is>
-      </c>
-      <c r="D79" s="21" t="inlineStr">
-        <is>
-          <t>可以使用 AS 路徑前置和連接權重來影響從 Azure 到本地的流量，並使用自己的路由器中的所有 BGP 屬性來影響從本地到 Azure 的流量。</t>
-        </is>
-      </c>
+          <t>如果線路的對等互連位置支援本地 SKU 的 Azure 區域，則利用 ExpressRoute 的本地 SKU 來降低線路的成本。</t>
+        </is>
+      </c>
+      <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4495,19 +4495,15 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I79" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I79" s="15" t="n"/>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4528,7 +4524,7 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>確保根據頻寬和性能要求為 ExpressRoute/VPN 閘道使用正確的 SKU。</t>
+          <t>在受支援的 Azure 區域中部署區域冗餘 ExpressRoute 閘道。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4545,7 +4541,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
@@ -4557,7 +4553,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4578,13 +4574,13 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>確保僅當達到證明其成本合理的頻寬時，才使用無限數據 ExpressRoute 線路。</t>
+          <t>對於需要高於 10 Gbps 的頻寬或專用 10/100 Gbps 埠的方案，請使用 ExpressRoute Direct。</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4595,15 +4591,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/networking/</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4624,13 +4624,13 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>如果線路的對等互連位置支援本地 SKU 的 Azure 區域，請利用 ExpressRoute 的本地 SKU 來降低線路成本。</t>
+          <t>如果需要低延遲，或者從本地到 Azure 的輸送量必須大於 10 Gbps，請啟用 FastPath 以繞過數據路徑的 ExpressRoute 閘道。</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4641,15 +4641,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4670,7 +4674,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>在受支援的 Azure 區域中部署區域冗餘 ExpressRoute 閘道。</t>
+          <t>使用區域冗餘 VPN 閘道將分支或遠端位置連接到 Azure（如果可用）。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4687,19 +4691,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4720,7 +4724,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>對於需要高於 10 Gbps 的頻寬或專用 10/100 Gbps 埠的方案，請使用 ExpressRoute Direct。</t>
+          <t>在本地使用冗餘 VPN 設備（主動/主動或主動/被動）。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4737,19 +4741,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-highlyavailable</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4770,13 +4774,13 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>如果需要低延遲，或者從本地到 Azure 的輸送量必須大於 10 Gbps，請啟用 FastPath 以從數據路徑繞過 ExpressRoute 閘道。</t>
+          <t>如果使用 ExpressRoute Direct，請考慮使用本地 Azure 區域的 ExpressRoute 本地線路來節省成本</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4787,7 +4791,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
@@ -4799,7 +4803,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4820,7 +4824,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>使用區域冗餘 VPN 閘道將分支或遠端位置連接到 Azure（如果可用）。</t>
+          <t>當需要流量隔離或專用頻寬時（例如，用於分離生產環境和非生產環境），請使用不同的 ExpressRoute 線路。它將幫助您確保隔離的路由域並減輕干擾鄰居風險。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4837,19 +4841,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4870,7 +4874,7 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>在本地使用冗餘 VPN 設備（主動/主動或主動/被動）。</t>
+          <t>使用內置的 Express Route Insights 監視 ExpressRoute 的可用性和利用率。</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4887,19 +4891,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-highlyavailable</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4920,13 +4924,13 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>如果使用 ExpressRoute Direct，請考慮使用到本地 Azure 區域的 ExpressRoute 本地線路以節省成本</t>
+          <t>使用連接監視器進行跨網路的連接監視，尤其是在本地和 Azure 之間。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4937,7 +4941,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
@@ -4949,7 +4953,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4970,7 +4974,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>當需要流量隔離或專用頻寬時（例如用於分離生產環境和非生產環境），請使用不同的 ExpressRoute 線路。它將幫助您確保隔離的路由域並減輕干擾鄰居風險。</t>
+          <t>使用來自不同對等互連位置的 ExpressRoute 線路實現冗餘。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4987,7 +4991,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
@@ -4999,7 +5003,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5020,7 +5024,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>使用內置的 Express Route Insights 監視 ExpressRoute 可用性和利用率。</t>
+          <t>使用網站到網站 VPN 作為 ExpressRoute 的故障轉移，尤其是在僅使用單個 ExpressRoute 線路時。</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5037,19 +5041,15 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5070,13 +5070,13 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>使用連接監視器對整個網路進行連接監視，尤其是在本地和 Azure 之間。</t>
+          <t>如果在 GatewaySubnet 中使用路由表，請確保傳播閘道路由。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5087,19 +5087,15 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5120,13 +5116,13 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>使用來自不同對等互連位置的 ExpressRoute 線路實現冗餘。</t>
+          <t>如果使用 ExpressRoute，則本地路由應是動態的：如果連接失敗，它應收斂到線路的剩餘連接。理想情況下，負載應在兩個連接之間共用為主動/主動，但也支持主動/被動。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5137,19 +5133,15 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5170,7 +5162,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>使用網站到網站 VPN 作為 ExpressRoute 的故障轉移，尤其是在僅使用單個 ExpressRoute 線路的情況下。</t>
+          <t>確保 ExpressRoute 線路的兩個物理連結連接到網路中的兩個不同的邊緣設備。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5187,15 +5179,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager</t>
-        </is>
-      </c>
-      <c r="I93" s="15" t="n"/>
+          <t>https://learn.microsoft.com/en-us/azure/expressroute/designing-for-high-availability-with-expressroute</t>
+        </is>
+      </c>
+      <c r="I93" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
+          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5216,13 +5212,13 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>如果在 GatewaySubnet 中使用路由表，請確保傳播閘道路由。</t>
+          <t>確保在客戶或供應商邊緣路由設備上啟用並配置雙向轉發檢測 （BFD）。</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5233,15 +5229,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="n"/>
+          <t>https://learn.microsoft.com/en-us/azure/expressroute/expressroute-bfd</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5262,7 +5262,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>如果使用 ExpressRoute，則本地路由應是動態的：如果連接失敗，它應收斂到線路的剩餘連接。理想情況下，負載應在兩個連接之間共用，最好是主動/主動，儘管也支持主動/被動。</t>
+          <t>將 ExpressRoute 閘道連接到來自不同對等互連位置的兩條或多條線路，以提高復原能力。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5279,15 +5279,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
-        </is>
-      </c>
-      <c r="I95" s="15" t="n"/>
+          <t>https://learn.microsoft.com/en-us/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+        </is>
+      </c>
+      <c r="I95" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5308,7 +5312,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>確保 ExpressRoute 線路的兩個物理鏈路連接到網路中的兩個不同的邊緣設備。</t>
+          <t>為 ExpressRoute 虛擬網路閘道配置診斷日誌和警報。</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5325,7 +5329,7 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/designing-for-high-availability-with-expressroute</t>
+          <t>https://learn.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-howto-setup-alerts-virtual-network-gateway-log</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
@@ -5337,7 +5341,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
+          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5358,7 +5362,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>確保在客戶或供應商邊緣路由設備上啟用和配置雙向轉發檢測 （BFD）。</t>
+          <t>避免使用 ExpressRoute 線路進行 VNet 到 VNet 通信。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5375,7 +5379,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/expressroute-bfd</t>
+          <t>https://learn.microsoft.com/en-us/azure/expressroute/virtual-network-connectivity-guidance</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
@@ -5387,7 +5391,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
+          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5403,12 +5407,12 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>將 ExpressRoute 閘道連接到來自不同對等互連位置的兩條或多條線路，以獲得更高的復原能力。</t>
+          <t>確保在 Azure 區域和本地位置之間不使用重疊的 IP 位址空間</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5425,19 +5429,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5453,18 +5457,18 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>為 ExpressRoute 虛擬網路閘道配置診斷日誌和警報。</t>
+          <t>使用專用 Internet 位址分配範圍 （RFC 1918） 中的 IP 位址。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5475,19 +5479,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-howto-setup-alerts-virtual-network-gateway-log</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5503,18 +5507,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>避免使用 ExpressRoute 線路進行 VNet 到 VNet 通信。</t>
+          <t>確保IP位址空間不被浪費，不要創建不必要的大型虛擬網路（例如 /16）Ensure that that IP address space is not disdised， don't create un不必要的大型虛擬網路（例如 /16）Ensure that that IP address space is not waste， don't create un不必要的大型虛擬網络（例如 /16）Ensure that that IP address space is</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5525,19 +5529,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/virtual-network-connectivity-guidance</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,7 +5562,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>確保不使用 Azure 區域和本地位置之間的重疊 IP 位址空間</t>
+          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5575,19 +5579,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5608,13 +5612,13 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>使用專用 Internet 的位址分配範圍 （RFC 1918） 中的 IP 位址。</t>
+          <t>對於只需要在 Azure 中進行名稱解析的環境，請使用 Azure 專用 DNS 進行解析，並使用委派區域進行名稱解析（例如“azure.contoso.com”）。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5625,19 +5629,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5658,13 +5662,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>確保不浪費IP位址空間，不要創建不必要的大型虛擬網路（例如/16）</t>
+          <t>對於需要跨 Azure 和本地進行名稱解析的環境，請考慮使用 Azure DNS 專用解析程式。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5675,19 +5679,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5708,13 +5712,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
+          <t>需要並部署自己的 DNS（例如 Red Hat OpenShift）的特殊工作負載應使用其首選的 DNS 解決方案。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5725,19 +5729,15 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5758,13 +5758,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>對於只需要在 Azure 中進行名稱解析的環境，請使用 Azure 專用 DNS 進行解析，並使用委託區域進行名稱解析（例如“azure.contoso.com”）。</t>
+          <t>啟用 Azure DNS 的自動註冊，以自動管理虛擬網路中部署的虛擬機的 DNS 記錄的生命週期。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5775,7 +5775,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
@@ -5787,7 +5787,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5803,12 +5803,12 @@
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>對於需要跨 Azure 和本地進行名稱解析的環境，請考慮使用 Azure DNS 專用解析程式。</t>
+          <t>請考慮使用 Azure Bastion 安全地連接到網路。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5825,19 +5825,15 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5853,18 +5849,18 @@
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>需要並部署自己的 DNS（例如 Red Hat OpenShift）的特殊工作負載應使用其首選的 DNS 解決方案。</t>
+          <t>在子網 /26 或更大範圍內使用 Azure Bastion。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5875,7 +5871,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="I107" s="15" t="n"/>
@@ -5883,7 +5879,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5899,18 +5895,18 @@
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>啟用 Azure DNS 的自動註冊，以自動管理虛擬網路中部署的虛擬機的 DNS 記錄的生命週期。</t>
+          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為與登陸區域的入站 HTTP/S 連接提供全域保護。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5921,19 +5917,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5954,13 +5950,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>請考慮使用 Azure Bastion 安全地連接到網路。</t>
+          <t>使用 Azure Front Door 和 Azure 應用程式閘道幫助保護 HTTP/S 應用時，請使用 Azure Front Door 中的 WAF 策略。鎖定 Azure 應用程式閘道，以便僅接收來自 Azure Front Door 的流量。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5971,15 +5967,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
-        </is>
-      </c>
-      <c r="I109" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I109" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6000,13 +6000,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>在子網 /26 或更大版本中使用 Azure Bastion。</t>
+          <t>部署 WAF 和其他反向代理是入站 HTTP/S 連接所必需的，將它們部署在登陸區域虛擬網路中，並與它們保護並公開給 Internet 的應用一起部署。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6017,15 +6017,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6046,7 +6050,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 防火牆管理發往 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東西向流量篩選（如果組織需要）</t>
+          <t>使用 Azure DDoS 網路或 IP 保護計劃來幫助保護虛擬網路中的公共 IP 位址終結點。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6063,7 +6067,7 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6075,7 +6079,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6096,13 +6100,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>創建全域 Azure 防火牆策略以管理整個全球網路環境中的安全狀況，並將其分配給所有 Azure 防火牆實例。通過 Azure 基於角色的訪問控制將增量防火牆策略委派給本地安全團隊，允許精細策略滿足特定區域的要求。</t>
+          <t>在即將到來的重大更改之前，評估和審查網路出站流量配置和策略。2025 年 9 月 30 日，新部署的預設出站訪問將停用，僅允許顯式訪問配置</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6113,19 +6117,15 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="n"/>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6146,13 +6146,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>如果組織希望使用此類解決方案來幫助保護出站連接，請在 Firewall Manager 中配置受支援的合作夥伴 SaaS 安全提供者。</t>
+          <t>添加診斷設置以保存所有受保護的公共IP位址（DDoS IP或網路保護）的 DDoS 相關日誌。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6163,7 +6163,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
@@ -6175,7 +6175,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6191,18 +6191,18 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為到登陸區域的入站 HTTP/S 連接提供全域保護。</t>
+          <t>使用 Azure 防火牆管理發往 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東西向流量篩選（如果組織需要）</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6213,19 +6213,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6241,18 +6241,18 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 Azure 應用程式閘道幫助保護 HTTP/S 應用時，請使用 Azure Front Door 中的 WAF 策略。鎖定 Azure 應用程式閘道以僅接收來自 Azure Front Door 的流量。</t>
+          <t>創建全域 Azure 防火牆策略以管理全球網路環境中的安全狀況，並將其分配給所有 Azure 防火牆實例。通過 Azure 基於角色的訪問控制將增量防火牆策略委託給本地安全團隊，允許精細策略滿足特定區域的要求。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6263,19 +6263,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6291,18 +6291,18 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>部署入站 HTTP/S 連接需要部署 WAF 和其他反向代理，將它們部署在登陸區域虛擬網路中，並與它們要保護並向 Internet 公開的應用一起部署。</t>
+          <t>如果組織希望使用此類解決方案來幫助保護出站連接，請在 Firewall Manager 中配置受支援的合作夥伴 SaaS 安全提供者。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6313,19 +6313,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6341,12 +6341,12 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure DDoS 網路或 IP 保護計劃來幫助保護虛擬網路中的公共 IP 位址終結點。</t>
+          <t>使用基於 FQDN 的網路規則和具有 DNS 代理的 Azure 防火牆，通過應用程式規則不支援的協定篩選到 Internet 的出口流量。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6363,19 +6363,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6391,12 +6386,12 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>使用基於 FQDN 的網路規則和具有 DNS 代理的 Azure 防火牆，通過應用程式規則不支援的協定篩選到 Internet 的出口流量。</t>
+          <t>使用 Azure 防火牆高級版提供額外的安全性和保護。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6413,7 +6408,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I118" s="15" t="n"/>
@@ -6421,7 +6416,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6437,12 +6432,12 @@
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 防火牆高級版獲得額外的安全性和保護。</t>
+          <t>將 Azure 防火牆威脅情報模式配置為「警報」和「拒絕」，以獲得額外保護。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6466,7 +6461,7 @@
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6482,12 +6477,12 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 防火牆威脅情報模式配置為「警報」和「拒絕」，以獲得額外保護。</t>
+          <t>將 Azure 防火牆 IDPS 模式配置為「拒絕」 ，以獲得額外的保護。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6504,7 +6499,7 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="I120" s="15" t="n"/>
@@ -6512,7 +6507,7 @@
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6528,12 +6523,12 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 防火牆 IDPS 模式配置為「拒絕」以獲得額外保護。</t>
+          <t>對於未連接到虛擬 WAN 的 VNet 中的子網，請附加路由表，以便將 Internet 流量重定向到 Azure 防火牆或網路虛擬設備</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6550,7 +6545,7 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I121" s="15" t="n"/>
@@ -6558,7 +6553,7 @@
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6574,18 +6569,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>對於未連接到虛擬 WAN 的 VNet 中的子網，請附加路由表，以便將 Internet 流量重定向到 Azure 防火牆或網路虛擬設備</t>
+          <t>添加診斷設置，以使用「特定於資源」的目標表保存所有 Azure 防火牆部署的日誌。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6596,15 +6591,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="n"/>
+          <t>https://learn.microsoft.com/en-us/azure/firewall/firewall-structured-logs</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6620,18 +6619,18 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>在即將到來的重大變更之前評估和審查網路出站流量配置和策略。2025 年 9 月 30 日，新部署的預設出站訪問將停用，僅允許顯式訪問配置</t>
+          <t>從 Azure 防火牆經典規則（如果存在）遷移到防火牆策略。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>重要</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6642,15 +6641,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="n"/>
+          <t>https://learn.microsoft.com/en-us/azure/firewall-manager/migrate-to-policy</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6666,12 +6669,12 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>添加診斷設置以保存所有受保護的公共IP位址（DDoS IP或網路保護）的 DDoS 相關日誌。</t>
+          <t>對 Azure 防火牆子網使用 /26 前置綴。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6688,19 +6691,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6716,12 +6715,12 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>使用「資源特定目標」表添加診斷設置以保存所有 Azure 防火牆部署的日誌。</t>
+          <t>將防火牆策略中的規則排列到規則集合組和規則集合中，並根據它們的使用頻率</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6738,19 +6737,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/firewall/firewall-structured-logs</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/firewall-manager/rule-hierarchy</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
+          <t>828cec2e-af6c-40c2-8fa2-1b681ee63eb7</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6766,18 +6761,18 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>從 Azure 防火牆經典規則（如果存在）遷移到防火牆策略。</t>
+          <t>使用IP組或IP前置綴來減少IP表規則的數量</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>重要</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6788,19 +6783,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/firewall-manager/migrate-to-policy</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/en-us/azure/firewall/ip-groups</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
+          <t>0da83bb1-2f39-49af-b5c9-835fc455e3d1</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6816,18 +6806,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>確保注入虛擬網路的 Azure PaaS 服務的控制平面通信不會中斷，例如使用 0.0.0.0/0 路由或阻止控制平面流量的 NSG 規則。</t>
+          <t>避免將通配符作為DNATS的源IP，例如*或任何通配符，您應該為傳入的DNAT指定源IP</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6838,19 +6828,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/en-us/azure/firewall/tutorial-firewall-dnat</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>c44c6f0e-1642-4a61-a17b-0922f835c93a</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6866,12 +6851,12 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>將專用連結（如果可用）用於共用的 Azure PaaS 服務。</t>
+          <t>通過監控 SNAT 埠使用方式、評估 NAT 閘道設置和確保無縫故障轉移來防止 SNAT 埠耗盡。如果埠計數接近限制，則表明 SNAT 耗盡可能迫在眉睫。</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6888,19 +6873,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/en-us/azure/nat-gateway/tutorial-hub-spoke-nat-firewall</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>7371dc21-251a-47a3-af14-6e01b9da4757</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6916,18 +6896,18 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>通過專用終結點和 ExpressRoute 專用對等互連從本地訪問 Azure PaaS 服務。此方法可避免通過公共 Internet 傳輸。</t>
+          <t>啟用 TLS 檢查</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6938,19 +6918,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/en-us/azure/firewall/premium-features#tls-inspection</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>346840b8-1064-496e-8396-4b1340172d52</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6966,18 +6941,18 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>默認情況下，不要在所有子網上啟用虛擬網路服務終結點。</t>
+          <t>使用 Web 類別允許或拒絕對特定主題的出站訪問。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6988,19 +6963,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/en-us/azure/firewall/premium-features#web-categories</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>39990a13-915c-45f9-a2d3-562d7d6c4b7c</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7016,12 +6986,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>使用 FQDN 而不是 Azure 防火牆或 NVA 中的 IP 位址篩選發往 Azure PaaS 服務的出口流量，以防止數據外洩。如果使用專用連結，則可以阻止所有 FQDN，否則僅允許所需的 PaaS 服務。</t>
+          <t>作為 TLS 檢查的一部分，請計劃從 Azure 應用閘道接收流量以進行檢查。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7038,19 +7008,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/en-us/azure/architecture/example-scenario/gateway/application-gateway-before-azure-firewall</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>6eff7e6c-6c4a-43d7-be3f-6641c2cb3d4a</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7066,18 +7031,18 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>對 Azure 防火牆子網使用 /26 前置綴。</t>
+          <t>啟用 Azure 防火牆 DNS 代理配置</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7088,14 +7053,14 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/en-us/azure/firewall/dns-details</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>94f3eede-9aa3-4088-92a3-bb9a56509fad</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7111,18 +7076,18 @@
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>至少對閘道子網使用 /27 前置綴</t>
+          <t>確保有策略分配來拒絕直接綁定到虛擬機的公共IP位址</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
       <c r="E133" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -7133,14 +7098,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://github.com/Azure/Enterprise-Scale/wiki/ALZ-Policies#corp</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>3c5a808d-c695-4c14-a63c-c7ab7a510e41</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7156,18 +7121,18 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>不要依賴使用 VirtualNetwork 服務標記的 NSG 入站預設規則來限制連接。</t>
+          <t>將 Azure 防火牆與 Azure Monitor 集成，並啟用診斷日誌記錄來存儲和分析防火牆日誌。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7178,14 +7143,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/en-us/azure/firewall/firewall-diagnostics</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>1dc04554-dece-4ffb-a49e-5c683e09f8da</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7201,18 +7166,18 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>將子網創建委託給登陸區域擁有者。</t>
+          <t>為防火牆規則實施備份</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7223,19 +7188,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security-blog/runbook-to-manage-azure-firewall-back-ups/ba-p/3066035</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>64e7000e-3c06-485e-b455-ced7f454cba3</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7251,18 +7211,18 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>PaaS 的</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>使用 NSG 説明保護跨子網的流量，以及跨平台的東/西流量（登陸區域之間的流量）。</t>
+          <t>確保注入虛擬網路的 Azure PaaS 服務的控制平面通信不會中斷，例如，使用 0.0.0.0/0 路由或阻止控制平面流量的 NSG 規則。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7273,19 +7233,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7301,12 +7261,12 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>PaaS 的</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>應用程式團隊應使用子網級別 NSG 中的應用程式安全組來幫助保護登陸區域中的多層 VM。</t>
+          <t>將專用連結（如果可用）用於共用的 Azure PaaS 服務。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7321,17 +7281,21 @@
         </is>
       </c>
       <c r="G137" s="21" t="n"/>
-      <c r="H137" s="15" t="n"/>
+      <c r="H137" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7347,12 +7311,12 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>PaaS 的</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>使用 NSG 和應用程式安全組對登陸區域內的流量進行微分段，並避免使用中央 NVA 篩選流量流。</t>
+          <t>通過專用終結點和 ExpressRoute 專用對等互連從本地訪問 Azure PaaS 服務。此方法可避免通過公共 Internet 進行傳輸。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7369,19 +7333,19 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7397,12 +7361,12 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>PaaS 的</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>啟用 VNet 流日誌並將其饋送到流量分析中，以深入了解內部和外部流量。</t>
+          <t>默認情況下，不要在所有子網上啟用虛擬網路服務終結點。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7419,19 +7383,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7447,12 +7411,12 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>PaaS 的</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>請考慮每個 NSG 的 NSG 規則限制 （1000）。</t>
+          <t>使用 FQDN 而不是 Azure 防火牆或 NVA 中的 IP 位址篩選到 Azure PaaS 服務的出口流量，以防止數據外洩。如果使用專用連結，則可以阻止所有 FQDN，否則僅允許所需的 PaaS 服務。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7469,19 +7433,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7497,18 +7461,18 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>請考慮使用虛擬 WAN 來簡化 Azure 網路管理，並確保在虛擬 WAN 路由設計清單中顯式描述你的方案</t>
+          <t>至少對閘道子網使用 /27 前置綴</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7519,19 +7483,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7547,12 +7506,12 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>使用每個 Azure 區域的虛擬 WAN 中心，通過通用的全域 Azure 虛擬 WAN 跨 Azure 區域將多個登陸區域連接在一起。</t>
+          <t>不要依賴使用 VirtualNetwork 服務標記的 NSG 入站預設規則來限制連接。</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7569,14 +7528,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7592,18 +7551,18 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>遵循“Azure 中的流量保留在 Azure 中”的原則，以便通過 Microsoft 主幹網络跨 Azure 中的資源進行通信</t>
+          <t>將子網創建委託給登陸區域擁有者。</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7614,14 +7573,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7637,12 +7601,12 @@
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>對於出站 Internet 流量保護和篩選，請在安全中心部署 Azure 防火牆</t>
+          <t>使用 NSG 説明保護跨子網的流量，以及跨平台的東/西流量（登陸區域之間的流量）。</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7659,19 +7623,19 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7687,12 +7651,12 @@
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>確保網路體系結構在 Azure 虛擬 WAN 限制範圍內。</t>
+          <t>應用程式團隊應使用子網級別 NSG 的應用程式安全組來幫助保護登陸區域內的多層 VM。</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7707,16 +7671,17 @@
         </is>
       </c>
       <c r="G145" s="21" t="n"/>
-      <c r="H145" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+      <c r="H145" s="15" t="n"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7732,12 +7697,12 @@
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>使用適用於虛擬 WAN 的 Azure Monitor 見解監視虛擬 WAN 的端到端拓撲、狀態和關鍵指標。</t>
+          <t>使用 NSG 和應用程式安全組對登陸區域內的流量進行微分段，並避免使用中央 NVA 篩選流量。</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7754,14 +7719,19 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7777,12 +7747,12 @@
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>請確保 IaC 部署不會禁用虛擬 WAN 中的分支到分支流量，除非應顯式阻止這些流。</t>
+          <t>啟用 VNet 流日誌並將其饋送到流量分析中，以深入了解內部和外部流量流。</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7799,14 +7769,19 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7822,12 +7797,12 @@
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>使用 AS-Path 作為中心路由首選項，因為它比 ExpressRoute 或 VPN 更靈活。</t>
+          <t>考慮每個 NSG 的 NSG 規則限制 （1000）。</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7844,14 +7819,19 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7872,7 +7852,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>請確保 IaC 部署在虛擬 WAN 中配置基於標籤的傳播，否則虛擬中心之間的連接將受損。</t>
+          <t>請考慮使用虛擬 WAN 簡化 Azure 網路管理，並確保在虛擬 WAN 路由設計清單中明確描述你的方案</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7889,14 +7869,19 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7917,13 +7902,13 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>為虛擬中心分配足夠的IP空間，最好是 /23前置綴。</t>
+          <t>使用每個 Azure 區域的虛擬 WAN 中心，通過通用的全域 Azure 虛擬 WAN 跨 Azure 區域將多個登陸區域連接在一起。</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
       <c r="E150" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -7934,14 +7919,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7952,23 +7937,23 @@
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬廣域網</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>戰略性地利用 Azure Policy，為環境定義控制措施，使用策略計劃對相關策略進行分組。</t>
+          <t>遵循“Azure 中的流量保留在 Azure 中”原則，以便通過 Microsoft 主幹網络在 Azure 中跨資源進行通信</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7979,14 +7964,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7997,17 +7982,17 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬廣域網</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>確定所需的 Azure 標記，並使用「追加」策略模式通過 Azure Policy 強制使用。</t>
+          <t>對於出站 Internet 流量保護和篩選，請在安全中心部署 Azure 防火牆</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8024,14 +8009,19 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8042,17 +8032,17 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬廣域網</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>將法規和合規性要求映射到 Azure Policy 定義和 Azure 角色分配。</t>
+          <t>確保網路體系結構在 Azure 虛擬 WAN 限制範圍內。</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8069,14 +8059,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8087,17 +8077,17 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬廣域網</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>在中間根管理組建立 Azure Policy 定義，以便可以在繼承的範圍內分配這些定義</t>
+          <t>使用適用於虛擬 WAN 的 Azure Monitor 見解監視虛擬 WAN 的端到端拓撲、狀態和關鍵指標。</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8114,14 +8104,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8132,17 +8122,17 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬廣域網</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>如果需要，在最高適當級別管理策略分配，並在最低級別進行排除。</t>
+          <t>請確保 IaC 部署不會在虛擬 WAN 中禁用分支到分支通信，除非應顯式阻止這些流。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8159,14 +8149,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8177,23 +8167,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬廣域網</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 控制使用者可以在訂閱/管理組級別預配哪些服務</t>
+          <t>使用 AS-Path 作為中心路由首選項，因為它比 ExpressRoute 或 VPN 更靈活。</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8204,14 +8194,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8222,17 +8212,17 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬廣域網</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>盡可能使用內置策略，以最大程度地減少運營開銷。</t>
+          <t>請確保 IaC 部署在虛擬 WAN 中配置基於標籤的傳播，否則虛擬中心之間的連接將受到損害。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8249,14 +8239,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8267,27 +8257,23 @@
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬廣域網</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>在特定範圍內分配內置的「資源策略參與者」角色，以啟用應用程式級治理。</t>
-        </is>
-      </c>
-      <c r="D158" s="21" t="inlineStr">
-        <is>
-          <t>通過將資源策略參與者角色分配給特定範圍，可以將策略管理委派給相關團隊。例如，中央IT團隊可以監督管理組級別的策略，而應用程式團隊則處理其訂閱的策略，從而在遵守組織標準的情況下實現分散式治理。</t>
-        </is>
-      </c>
+          <t>為虛擬中心分配足夠的IP空間，最好是 /23前置綴。</t>
+        </is>
+      </c>
+      <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8298,14 +8284,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8326,13 +8312,13 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>限制在根管理組範圍內進行的 Azure Policy 分配數，以避免在繼承的範圍內通過排除項進行管理。</t>
+          <t>戰略性地利用 Azure Policy，為環境定義控制，使用策略計劃對相關策略進行分組。</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8350,7 +8336,7 @@
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8371,7 +8357,7 @@
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>如果存在任何數據主權要求，可以部署 Azure 策略來強制執行這些要求</t>
+          <t>將法規和合規性要求映射到 Azure Policy 定義和 Azure 角色分配。</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8388,19 +8374,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8421,7 +8402,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>對於主權著陸區，主權政策基線的策略倡議被部署並在正確的 MG 級別進行分配。</t>
+          <t>在中間根管理組建立 Azure Policy 定義，以便可以在繼承的範圍內分配這些定義</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8438,14 +8419,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8466,7 +8447,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>對於主權著陸區，記錄了策略映射的主權控制目標。</t>
+          <t>如果需要，在最高適當級別管理策略分配，在最低級別管理排除項。</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8483,14 +8464,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8511,13 +8492,13 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>對於主權著陸區，“主權控制目標到政策映射”的 CRUD 流程已經到位。</t>
+          <t>使用 Azure Policy 控制使用者可以在訂閱/管理組級別預配哪些服務</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8526,12 +8507,16 @@
         </is>
       </c>
       <c r="G163" s="21" t="n"/>
-      <c r="H163" s="15" t="n"/>
+      <c r="H163" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+        </is>
+      </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8547,18 +8532,18 @@
       </c>
       <c r="B164" s="21" t="inlineStr">
         <is>
-          <t>優化您的雲投資</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>請考慮使用自動化標記來啟動/停止環境中的 VM，以節省成本。</t>
+          <t>盡可能使用內置策略，以最大程度地減少操作開銷。</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
       <c r="E164" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8569,14 +8554,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8587,20 +8572,24 @@
     <row r="165" ht="16.5" customHeight="1">
       <c r="A165" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B165" s="21" t="inlineStr">
         <is>
-          <t>可擴展性</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>利用 Azure 虛擬機規模集根據負載進行橫向擴展和橫向擴展。</t>
-        </is>
-      </c>
-      <c r="D165" s="21" t="n"/>
+          <t>在特定範圍內分配內置的「資源策略參與者」角色，以啟用應用程式級治理。</t>
+        </is>
+      </c>
+      <c r="D165" s="21" t="inlineStr">
+        <is>
+          <t>通過將「資源策略參與者」角色分配給特定範圍，可以將策略管理委派給相關團隊。例如，中央IT團隊可以監督管理組級別的策略，而應用程式團隊則處理其訂閱的策略，從而在遵守組織標準的情況下實現分散式治理。</t>
+        </is>
+      </c>
       <c r="E165" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -8614,14 +8603,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8637,12 +8626,12 @@
       </c>
       <c r="B166" s="21" t="inlineStr">
         <is>
-          <t>優化您的雲投資</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>配置“實際”和“預測”預算警報。</t>
+          <t>限制在根管理組範圍內進行的 Azure Policy 分配數，以避免在繼承範圍內通過排除項進行管理。</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8659,14 +8648,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8677,23 +8666,23 @@
     <row r="167" ht="16.5" customHeight="1">
       <c r="A167" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>添加診斷設置以保存來自應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）的 WAF 日誌。定期查看日誌，以檢查攻擊和誤報檢測。</t>
+          <t>如果存在任何數據主權要求，可以部署 Azure 策略來強制實施這些要求</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
       <c r="E167" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8704,14 +8693,19 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8722,17 +8716,17 @@
     <row r="168" ht="16.5" customHeight="1">
       <c r="A168" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>將 WAF 日誌從應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測數據集成到整個 Azure 環境中。</t>
+          <t>對於主權登陸區，主權政策基線的政策計劃將在正確的 MG 級別部署和分配。</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8749,14 +8743,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8767,17 +8761,17 @@
     <row r="169" ht="16.5" customHeight="1">
       <c r="A169" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>考慮在 Azure 中針對具有配對區域的 BCDR 進行跨區域複製</t>
+          <t>對於主權登陸區，記錄了“主權控制目標”到策略映射“。</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8794,14 +8788,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8812,17 +8806,17 @@
     <row r="170" ht="16.5" customHeight="1">
       <c r="A170" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 備份時，請考慮不同的備份類型（GRS、ZRS 和 LRS），因為預設設置為 GRS</t>
+          <t>對於主權登陸區，CRUD的“主權控制目標到政策映射”的流程已經到位。</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8837,16 +8831,11 @@
         </is>
       </c>
       <c r="G170" s="21" t="n"/>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
-        </is>
-      </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8857,17 +8846,17 @@
     <row r="171" ht="16.5" customHeight="1">
       <c r="A171" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>優化雲投資</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>使用單個監視器日誌工作區集中管理平臺，除非 Azure 基於角色的訪問控制 （Azure RBAC）、數據主權要求或數據保留策略要求使用單獨的工作區。</t>
+          <t>配置“實際”和“預測”預算警報。</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8884,19 +8873,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8912,18 +8896,18 @@
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>確保登陸區域已記錄在案。</t>
+          <t>添加診斷設置以保存來自 Azure Front Door 和 Azure 應用程式閘道等應用程式交付服務的 WAF 紀錄。定期查看日誌，以檢查攻擊和誤報檢測。</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
       <c r="E172" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8932,11 +8916,16 @@
         </is>
       </c>
       <c r="G172" s="21" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8952,12 +8941,12 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>當日志保留要求超過兩年時，請使用 Azure Monitor 日誌。目前，您可以將數據以存檔狀態保存長達 7 年。</t>
+          <t>將 WAF 日誌從應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測集成到整個 Azure 環境中。</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8974,19 +8963,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -9002,12 +8986,12 @@
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 進行訪問控制和合規性報告。Azure Policy 提供強制實施組織範圍設置的功能，以確保一致的策略遵守和快速違規檢測。</t>
+          <t>考慮在 Azure 中為具有配對區域的 BCDR 進行跨區域複製</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9024,19 +9008,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9052,12 +9031,12 @@
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 監視來賓虛擬機 （VM） 配置偏移。通過策略啟用來賓配置審核功能，可説明應用程式團隊工作負載毫不費力地立即使用功能。</t>
+          <t>使用 Azure 備份時，請考慮不同的備份類型（GRS、ZRS 和 LRS），因為預設設置為 GRS</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9074,19 +9053,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9102,12 +9076,12 @@
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Update Manager 作為 Azure 中 Windows 和 Linux VM 的修補機制。</t>
+          <t>使用單個監視器日誌工作區集中管理平臺，但 Azure 基於角色的訪問控制 （Azure RBAC）、數據主權要求或數據保留策略要求使用單獨的工作區的情況除外。</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9124,19 +9098,19 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9152,12 +9126,12 @@
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Arc 將 Azure Update Manager 用作 Azure 外部的 Windows 和 Linux VM 的修補機制。</t>
+          <t>如果日誌保留要求超過 12 年，請將日誌匯出到 Azure 存儲。將不可變存儲與一次寫入、多次讀取策略結合使用，使數據在使用者指定的時間間隔內不可擦除和不可修改。</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9174,19 +9148,19 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9207,7 +9181,7 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>使用網路觀察程序主動監視流量</t>
+          <t>使用 Azure Policy 監視 OS 等級的虛擬機 （VM） 配置偏移。通過策略啟用 Azure Automanage 計算機配置審核功能可幫助應用程式團隊工作負載輕鬆立即使用功能。</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9224,19 +9198,19 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/machine-configuration/overview</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9252,12 +9226,12 @@
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>使用資源鎖來防止意外刪除關鍵共享服務。</t>
+          <t>使用 Azure 更新管理員作為 Azure 中 Windows 和 Linux VM 的修補機制。</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9274,19 +9248,19 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9302,18 +9276,18 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>使用拒絕策略來補充 Azure 角色分配。拒絕策略和 Azure 角色分配的組合可確保適當的防護措施到位，以強制執行誰可以部署和配置資源以及他們可以部署和配置哪些資源。</t>
+          <t>使用 Azure Arc 將 Azure Update Manager 用作 Azure 外部 Windows 和 Linux VM 的修補機制。</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9324,14 +9298,19 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9352,7 +9331,7 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>將服務和資源運行狀況事件作為整體平臺監視解決方案的一部分。從平臺角度跟蹤服務和資源運行狀況是 Azure 中資源管理的重要組成部分。</t>
+          <t>使用網路觀察程序主動監視流量</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9369,14 +9348,19 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9397,7 +9381,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>將警報和操作組作為 Azure 服務運行狀況平臺的一部分，以確保可以對警報或問題進行操作</t>
+          <t>使用資源鎖防止意外刪除關鍵共享服務。</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9414,14 +9398,19 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9442,13 +9431,13 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>不要將原始日誌條目發送回本地監視系統。相反，請採用以下原則：Azure 中生成的數據將保留在 Azure 中。如果需要本地 SIEM 集成，請發送關鍵警報而不是日誌。</t>
+          <t>使用拒絕策略來補充 Azure 角色分配。拒絕策略和 Azure 角色分配的組合可確保適當的防護措施到位，以強制實施誰可以部署和配置資源以及他們可以部署和配置哪些資源。</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9459,14 +9448,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9487,7 +9476,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>使用集中式 Azure Monitor Log Analytics 工作區從 IaaS 和 PaaS 應用程式資源收集日誌和指標，並使用 Azure RBAC 控制日誌訪問。</t>
+          <t>將服務和資源運行狀況事件作為整體平臺監視解決方案的一部分。從平臺角度跟蹤服務和資源運行狀況是 Azure 中資源管理的重要組成部分。</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9504,14 +9493,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9532,7 +9521,7 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
+          <t>將警報和操作組作為 Azure 服務運行狀況平臺的一部分，以確保可以對警報或問題進行操作</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9549,14 +9538,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9577,7 +9566,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>必要時，將登陸區域中的共用存儲帳戶用於 Azure 診斷擴展日誌存儲。</t>
+          <t>不要將原始日誌條目發送回本地監視系統。相反，請採用在 Azure 中生成的數據保留在 Azure 中的原則。如果需要本地 SIEM 集成，請發送關鍵警報而不是日誌。</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9594,14 +9583,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9622,7 +9611,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 警報生成操作警報。</t>
+          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9639,14 +9628,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9667,7 +9656,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>確保已評估監視要求，並應用了適當的數據收集和警報配置</t>
+          <t>必要時，請使用登陸區域內的共用存儲帳戶進行 Azure 診斷擴展日誌存儲。</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9684,14 +9673,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9712,7 +9701,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure 自動化帳戶使用更改和清單跟蹤時，請確保已選擇受支持的區域，以便將 Log Analytics 工作區和自動化帳戶連結在一起。</t>
+          <t>使用 Azure Monitor 警報生成操作警報。</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9729,14 +9718,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9757,7 +9746,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>為登陸區域的平臺元件建立監視，AMBA 是一種可用的框架解決方案，它提供了一種使用 Azure Policy 縮放警報的簡單方法</t>
+          <t>確保已評估監視要求，並應用適當的數據收集和警報配置</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9774,19 +9763,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-monitor</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>https://azure.github.io/azure-monitor-baseline-alerts/patterns/alz/</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>aa45be6a-8f2d-4896-b0e3-775e6e94e610</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9802,12 +9786,12 @@
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 策略通過 VM 擴展自動部署軟體配置，並強制實施合規的基線 VM 配置。</t>
+          <t>通過 Azure 自動化帳戶使用更改和清單跟蹤時，請確保已選擇支援的區域來將 Log Analytics 工作區和自動化帳戶連結在一起。</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9824,14 +9808,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9847,19 +9831,15 @@
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure Policy 監視 VM 安全配置偏移。</t>
-        </is>
-      </c>
-      <c r="D192" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy 的來賓配置功能可以審核和修正計算機設置（例如 OS、應用程式、環境），以確保資源與預期配置保持一致，更新管理可以強制實施 VM 的修補程式管理。</t>
-        </is>
-      </c>
+          <t>為登陸區域的平臺元件建立監視，AMBA 是一種可用的框架解決方案，它提供了一種使用 Azure Policy 縮放警報的簡單方法</t>
+        </is>
+      </c>
+      <c r="D192" s="21" t="n"/>
       <c r="E192" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -9873,14 +9853,19 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-monitor</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>https://azure.github.io/azure-monitor-baseline-alerts/patterns/alz/</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>aa45be6a-8f2d-4896-b0e3-775e6e94e610</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9896,12 +9881,12 @@
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>保護和恢復</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>將 Azure Site Recovery 用於 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
+          <t>使用 Azure 策略通過 VM 擴展自動部署軟體配置，並強制實施符合標準的基線 VM 配置。</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9918,14 +9903,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9941,15 +9926,19 @@
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>保護和恢復</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>確保使用和測試原生 PaaS 服務容災能力。</t>
-        </is>
-      </c>
-      <c r="D194" s="21" t="n"/>
+          <t>通過 Azure Policy 監視 VM 安全配置偏移。</t>
+        </is>
+      </c>
+      <c r="D194" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy 的來賓配置功能可以審核和修正計算機設置（例如，操作系統、應用程式、環境），以確保資源與預期配置一致，更新管理可以對 VM 強制實施修補程式管理。</t>
+        </is>
+      </c>
       <c r="E194" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -9963,14 +9952,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9991,7 +9980,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
+          <t>將 Azure Site Recovery 用於 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -10008,14 +9997,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -10031,18 +10020,18 @@
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>容錯</t>
+          <t>保護和恢復</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>在支援可用性區域的區域中為虛擬機利用可用性區域。</t>
+          <t>確保使用和測試本機 PaaS 服務容災功能。</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
       <c r="E196" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -10053,14 +10042,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10076,18 +10065,18 @@
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>容錯</t>
+          <t>保護和恢復</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>避免在單個 VM 上運行生產工作負載。</t>
+          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
       <c r="E197" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10098,14 +10087,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10126,13 +10115,13 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Azure 負載均衡器和應用程式閘道在多個資源之間分配傳入的網路流量。</t>
+          <t>在支援可用性區域的區域中對 VM 利用可用性區域。</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
       <c r="E198" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10143,14 +10132,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10161,23 +10150,23 @@
     <row r="199" ht="16.5" customHeight="1">
       <c r="A199" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>存取控制</t>
+          <t>容錯</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>在允許 Azure 服務投入生產之前，確定 Azure 服務的事件響應計劃。</t>
+          <t>避免在單個 VM 上運行生產工作負載。</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10188,14 +10177,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10206,17 +10195,17 @@
     <row r="200" ht="16.5" customHeight="1">
       <c r="A200" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>存取控制</t>
+          <t>容錯</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>在適當的情況下，實施零信任方法來訪問 Azure 平臺。</t>
+          <t>Azure 負載均衡器和應用程式閘道在多個資源之間分配傳入的網路流量。</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10233,14 +10222,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10256,18 +10245,18 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>存取控制</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Key Vault 儲存機密和憑據</t>
+          <t>在允許 Azure 服務投入生產之前，確定 Azure 服務的事件響應計劃。</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
       <c r="E201" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10278,14 +10267,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10301,12 +10290,12 @@
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>存取控制</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>對不同的應用程式和區域使用不同的 Azure Key Vault，以避免事務規模限制並限制對機密的訪問。</t>
+          <t>在適當的情況下，實施零信任方法來訪問 Azure 平臺。</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10323,14 +10312,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10351,13 +10340,13 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>預配 Azure Key Vault，啟用軟刪除和清除策略，以允許對已刪除的物件提供保留保護。</t>
+          <t>使用 Azure Key Vault 儲存機密和憑據</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10368,14 +10357,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10396,7 +10385,7 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>遵循最低特權模型，將永久刪除密鑰、機密和證書的授權限制為專用的自定義 Microsoft Entra ID 角色。</t>
+          <t>對不同的應用程式和區域使用不同的 Azure Key Vault，以避免事務規模限制並限制對機密的訪問。</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10413,14 +10402,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10441,7 +10430,7 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>使用公共證書頒發機構自動執行證書管理和續訂流程，以簡化管理。</t>
+          <t>預配啟用軟刪除和清除策略的 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10465,7 +10454,7 @@
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10486,7 +10475,7 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>建立金鑰和證書輪換的自動化流程。</t>
+          <t>通過將永久刪除密鑰、機密和證書的授權限制為專用的自定義 Microsoft Entra ID 角色，遵循最低特權模型。</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
@@ -10510,7 +10499,7 @@
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10531,7 +10520,7 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>在保管庫上啟用防火牆和虛擬網路服務終結點或專用終結點，以控制對密鑰保管庫的訪問。</t>
+          <t>使用公共證書頒發機構自動執行證書管理和續訂過程，以簡化管理。</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
@@ -10555,7 +10544,7 @@
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10576,7 +10565,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>使用以平臺為中心的 Azure Monitor Log Analytics 工作區審核每個 Key Vault 實例中的密鑰、證書和機密使用方式。</t>
+          <t>建立金鑰和證書輪換的自動化流程。</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10593,14 +10582,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10621,7 +10610,7 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>委託 Key Vault 實例化和特權訪問，並使用 Azure Policy 強制實施一致的合規配置。</t>
+          <t>在保管庫上啟用防火牆和虛擬網路服務終結點或專用終結點，以控制對密鑰保管庫的訪問。</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10645,7 +10634,7 @@
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10666,7 +10655,7 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>默認為 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
+          <t>使用平臺中心 Azure Monitor Log Analytics 工作區審核每個 Key Vault 實例中的金鑰、證書和機密使用方式。</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10683,14 +10672,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10711,7 +10700,7 @@
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+          <t>委託 Key Vault 實例化和特權訪問，並使用 Azure Policy 強制實施一致的合規配置。</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
@@ -10735,7 +10724,7 @@
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10756,7 +10745,7 @@
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>如果要自帶密鑰，則並非所有考慮的服務都支援此操作。實施相關的緩解措施，以免不一致阻礙預期結果。選擇適當的區域對和災難恢復區域，以最大程度地減少延遲。</t>
+          <t>對於主體加密功能，預設使用 Microsoft 管理的金鑰，並在需要時使用客戶管理的密鑰。</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
@@ -10773,14 +10762,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10801,7 +10790,7 @@
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，請使用 Azure Key Vault 託管 HSM 來儲存機密和憑據。</t>
+          <t>對每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
@@ -10818,14 +10807,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10841,12 +10830,12 @@
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra ID 報告功能生成訪問控制審核報告。</t>
+          <t>如果要自帶密鑰，則並非所有考慮的服務都支援此功能。實施相關的緩解措施，以免不一致阻礙預期結果。選擇適當的區域對和災難恢復區域，以最大程度地減少延遲。</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
@@ -10863,14 +10852,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10886,12 +10875,12 @@
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 活動日誌匯出到 Azure Monitor 紀錄，以便長期保留數據。如有必要，導出到 Azure 存儲以長期存儲超過兩年。</t>
+          <t>對於主權登陸區域，請使用 Azure Key Vault 託管的 HSM 來儲存機密和憑據。</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
@@ -10908,14 +10897,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10936,13 +10925,13 @@
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>為所有訂閱啟用Defender雲安全態勢管理。</t>
+          <t>使用 Microsoft Entra ID 報告功能生成訪問控制審核報告。</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10953,14 +10942,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10981,13 +10970,13 @@
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>在所有訂閱上為伺服器啟用Defender雲工作負載保護計劃。</t>
+          <t>將 Azure 活動日誌匯出到 Azure Monitor 紀錄，以便長期保留數據。如有必要，導出到 Azure 存儲，以獲得超過兩年的長期存儲。</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10998,14 +10987,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -11026,7 +11015,7 @@
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>在所有訂閱上為 Azure 資源啟用 Defender 雲工作負載保護計劃。</t>
+          <t>為所有訂閱啟用Defender雲安全態勢管理。</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
@@ -11043,14 +11032,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11071,7 +11060,7 @@
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>在 IaaS 伺服器上啟用 Endpoint Protection。</t>
+          <t>在所有訂閱上為伺服器啟用Defender雲工作負載保護計劃。</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
@@ -11088,14 +11077,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11116,13 +11105,13 @@
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure Monitor 紀錄和 Defender for Cloud 監視基本作業系統修補偏差。</t>
+          <t>在所有訂閱上為 Azure 資源啟用 Defender 雲工作負載保護計劃。</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
       <c r="E220" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11133,14 +11122,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11161,13 +11150,13 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>將預設資源配置連接到集中式 Azure Monitor Log Analytics 工作區。</t>
+          <t>在 IaaS 伺服器上啟用 Endpoint Protection。</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
       <c r="E221" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -11178,14 +11167,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11206,7 +11195,7 @@
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，在 Entra ID 租戶上啟用透明日誌。</t>
+          <t>通過 Azure Monitor 紀錄和 Defender for Cloud 監視基本作業系統修補偏移。</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
@@ -11223,14 +11212,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11251,7 +11240,7 @@
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，在 Entra ID 租戶上啟用了客戶密碼箱。</t>
+          <t>將預設資源配置連接到集中式 Azure Monitor Log Analytics 工作區。</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
@@ -11268,14 +11257,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11296,13 +11285,13 @@
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>使用基於 Azure 事件網格的解決方案獲取面向日誌的即時警報</t>
+          <t>對於主權登陸區域，在 Entra ID 租戶上啟用透明日誌。</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
       <c r="E224" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11313,14 +11302,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/security</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>874a748b-662d-46d1-9051-2a66498f6dfe</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11336,18 +11325,18 @@
       </c>
       <c r="B225" s="21" t="inlineStr">
         <is>
-          <t>概述</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>應啟用安全傳輸到存儲帳戶</t>
+          <t>對於 Sovereign Landing Zone，在 Entra ID 租戶上啟用了客戶密碼箱。</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11358,14 +11347,14 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11381,18 +11370,18 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>概述</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
+          <t>使用基於 Azure 事件網格的解決方案獲取面向日誌的即時警報</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11403,14 +11392,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/security</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>874a748b-662d-46d1-9051-2a66498f6dfe</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11426,12 +11415,12 @@
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>安全特權訪問</t>
+          <t>概述</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>為 Azure 管理任務提供單獨的特權管理員帳戶。</t>
+          <t>應啟用安全傳輸到存儲帳戶</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
@@ -11448,14 +11437,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11471,18 +11460,18 @@
       </c>
       <c r="B228" s="21" t="inlineStr">
         <is>
-          <t>服務支援框架</t>
+          <t>概述</t>
         </is>
       </c>
       <c r="C228" s="21" t="inlineStr">
         <is>
-          <t>規劃如何實現新的 Azure 服務</t>
+          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
         </is>
       </c>
       <c r="D228" s="21" t="n"/>
       <c r="E228" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -11493,14 +11482,14 @@
       <c r="G228" s="21" t="n"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
       <c r="L228" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M228" s="25" t="n"/>
@@ -11516,18 +11505,18 @@
       </c>
       <c r="B229" s="21" t="inlineStr">
         <is>
-          <t>服務支援框架</t>
+          <t>安全特權訪問</t>
         </is>
       </c>
       <c r="C229" s="21" t="inlineStr">
         <is>
-          <t>規劃如何滿足 Azure 服務的服務請求</t>
+          <t>為 Azure 管理任務單獨設置特權管理員帳戶。</t>
         </is>
       </c>
       <c r="D229" s="21" t="n"/>
       <c r="E229" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -11538,14 +11527,14 @@
       <c r="G229" s="21" t="n"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
       <c r="L229" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M229" s="25" t="n"/>
@@ -11556,23 +11545,23 @@
     <row r="230">
       <c r="A230" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B230" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>服務支援框架</t>
         </is>
       </c>
       <c r="C230" s="21" t="inlineStr">
         <is>
-          <t>確保你有一個跨職能的DevOps平臺團隊來構建、管理和維護 Azure 登陸區域體系結構。</t>
+          <t>規劃如何實現新的 Azure 服務</t>
         </is>
       </c>
       <c r="D230" s="21" t="n"/>
       <c r="E230" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -11583,14 +11572,14 @@
       <c r="G230" s="21" t="n"/>
       <c r="H230" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
       <c r="L230" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M230" s="25" t="n"/>
@@ -11601,23 +11590,23 @@
     <row r="231">
       <c r="A231" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B231" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>服務支援框架</t>
         </is>
       </c>
       <c r="C231" s="21" t="inlineStr">
         <is>
-          <t>旨在為 Azure 登陸區域平台團隊定義函數。</t>
+          <t>規劃如何滿足 Azure 服務的服務請求</t>
         </is>
       </c>
       <c r="D231" s="21" t="n"/>
       <c r="E231" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -11628,14 +11617,14 @@
       <c r="G231" s="21" t="n"/>
       <c r="H231" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J231" s="22" t="n"/>
       <c r="K231" s="22" t="n"/>
       <c r="L231" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M231" s="25" t="n"/>
@@ -11656,13 +11645,13 @@
       </c>
       <c r="C232" s="21" t="inlineStr">
         <is>
-          <t>旨在為應用程式工作負載團隊定義自給自足的功能，並且不需要 DevOps 平台團隊支援。通過使用自定義 RBAC 角色來實現此目的。</t>
+          <t>確保你有一個跨職能的DevOps平臺團隊來構建、管理和維護 Azure 登陸區域體系結構。</t>
         </is>
       </c>
       <c r="D232" s="21" t="n"/>
       <c r="E232" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -11673,14 +11662,14 @@
       <c r="G232" s="21" t="n"/>
       <c r="H232" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J232" s="22" t="n"/>
       <c r="K232" s="22" t="n"/>
       <c r="L232" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M232" s="25" t="n"/>
@@ -11701,13 +11690,13 @@
       </c>
       <c r="C233" s="21" t="inlineStr">
         <is>
-          <t>使用 CI/CD 管道部署 IaC 專案，並確保部署和 Azure 環境的品質。</t>
+          <t>旨在為 Azure 登陸區域平台團隊定義函數。</t>
         </is>
       </c>
       <c r="D233" s="21" t="n"/>
       <c r="E233" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -11718,14 +11707,14 @@
       <c r="G233" s="21" t="n"/>
       <c r="H233" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J233" s="22" t="n"/>
       <c r="K233" s="22" t="n"/>
       <c r="L233" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M233" s="25" t="n"/>
@@ -11746,13 +11735,13 @@
       </c>
       <c r="C234" s="21" t="inlineStr">
         <is>
-          <t>將 IaC 和應用程式代碼的單元測試作為生成過程的一部分。</t>
+          <t>旨在為應用程式工作負載團隊定義功能，使其自給自足，並且不需要 DevOps 平台團隊支援。通過使用自定義 RBAC 角色來實現此目的。</t>
         </is>
       </c>
       <c r="D234" s="21" t="n"/>
       <c r="E234" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -11763,14 +11752,14 @@
       <c r="G234" s="21" t="n"/>
       <c r="H234" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J234" s="22" t="n"/>
       <c r="K234" s="22" t="n"/>
       <c r="L234" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M234" s="25" t="n"/>
@@ -11791,7 +11780,7 @@
       </c>
       <c r="C235" s="21" t="inlineStr">
         <is>
-          <t>使用 Key Vault 機密避免對敏感資訊（例如憑據（虛擬機器用戶密碼）、證書或金鑰）進行硬編碼。</t>
+          <t>使用 CI/CD 管道部署 IaC 專案，並確保部署和 Azure 環境的品質。</t>
         </is>
       </c>
       <c r="D235" s="21" t="n"/>
@@ -11808,14 +11797,14 @@
       <c r="G235" s="21" t="n"/>
       <c r="H235" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J235" s="22" t="n"/>
       <c r="K235" s="22" t="n"/>
       <c r="L235" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M235" s="25" t="n"/>
@@ -11836,13 +11825,13 @@
       </c>
       <c r="C236" s="21" t="inlineStr">
         <is>
-          <t>通過訂閱自動售貨為應用程式和工作負載的新登陸區域實現自動化</t>
+          <t>在生成過程中包括 IaC 和應用程式代碼的單元測試。</t>
         </is>
       </c>
       <c r="D236" s="21" t="n"/>
       <c r="E236" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -11853,14 +11842,14 @@
       <c r="G236" s="21" t="n"/>
       <c r="H236" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J236" s="22" t="n"/>
       <c r="K236" s="22" t="n"/>
       <c r="L236" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M236" s="25" t="n"/>
@@ -11876,12 +11865,12 @@
       </c>
       <c r="B237" s="21" t="inlineStr">
         <is>
-          <t>開發生命週期</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C237" s="21" t="inlineStr">
         <is>
-          <t>確保版本控制系統用於應用程式和 IaC 開發的原始程式碼。Microsoft 推薦 Git。</t>
+          <t>使用 Key Vault 機密可避免對敏感資訊（如憑據（虛擬機器用戶密碼）、證書或密鑰）進行硬編碼。</t>
         </is>
       </c>
       <c r="D237" s="21" t="n"/>
@@ -11898,14 +11887,14 @@
       <c r="G237" s="21" t="n"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J237" s="22" t="n"/>
       <c r="K237" s="22" t="n"/>
       <c r="L237" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M237" s="25" t="n"/>
@@ -11921,12 +11910,12 @@
       </c>
       <c r="B238" s="21" t="inlineStr">
         <is>
-          <t>開發生命週期</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C238" s="21" t="inlineStr">
         <is>
-          <t>遵循分支策略，使團隊能夠更好地協作並有效地管理 IaC 和應用程式代碼的版本控制。查看 Github Flow 等選項。</t>
+          <t>通過訂閱自動售貨為應用程式和工作負載的新登陸區域實現自動化</t>
         </is>
       </c>
       <c r="D238" s="21" t="n"/>
@@ -11943,14 +11932,14 @@
       <c r="G238" s="21" t="n"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J238" s="22" t="n"/>
       <c r="K238" s="22" t="n"/>
       <c r="L238" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M238" s="25" t="n"/>
@@ -11971,13 +11960,13 @@
       </c>
       <c r="C239" s="21" t="inlineStr">
         <is>
-          <t>採用拉取請求策略，以説明保持對合併到分支中的代碼更改的控制。</t>
+          <t>確保版本控制系統用於應用程式的原始程式碼和開發的 IaC。Microsoft 推薦 Git。</t>
         </is>
       </c>
       <c r="D239" s="21" t="n"/>
       <c r="E239" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -11988,14 +11977,14 @@
       <c r="G239" s="21" t="n"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J239" s="22" t="n"/>
       <c r="K239" s="22" t="n"/>
       <c r="L239" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M239" s="25" t="n"/>
@@ -12016,13 +12005,13 @@
       </c>
       <c r="C240" s="21" t="inlineStr">
         <is>
-          <t>建立使用代碼實現快速修復的過程。始終在團隊的積壓工作 （backlog） 中註冊快速修復，以便以後可以重新設計每個修復程式，並且可以限制技術債務。</t>
+          <t>遵循分支策略，使團隊能夠更好地協作，並有效地管理 IaC 和應用程式代碼的版本控制。查看 Github Flow 等選項。</t>
         </is>
       </c>
       <c r="D240" s="21" t="n"/>
       <c r="E240" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -12033,14 +12022,14 @@
       <c r="G240" s="21" t="n"/>
       <c r="H240" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-platform</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J240" s="22" t="n"/>
       <c r="K240" s="22" t="n"/>
       <c r="L240" s="25" t="inlineStr">
         <is>
-          <t>2676ae46-65ca-444e-8695-fdddeace4cb1</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M240" s="25" t="n"/>
@@ -12056,18 +12045,18 @@
       </c>
       <c r="B241" s="21" t="inlineStr">
         <is>
-          <t>發展戰略</t>
+          <t>開發生命週期</t>
         </is>
       </c>
       <c r="C241" s="21" t="inlineStr">
         <is>
-          <t>利用聲明性基礎結構即代碼工具（如 Azure Bicep、ARM 範本或 Terraform）來生成和維護 Azure 登陸區域體系結構。從平臺和應用程式工作負載的角度來看。</t>
+          <t>採用拉取請求策略來説明控制合併到分支中的代碼更改。</t>
         </is>
       </c>
       <c r="D241" s="21" t="n"/>
       <c r="E241" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -12078,14 +12067,14 @@
       <c r="G241" s="21" t="n"/>
       <c r="H241" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J241" s="22" t="n"/>
       <c r="K241" s="22" t="n"/>
       <c r="L241" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M241" s="25" t="n"/>
@@ -12101,18 +12090,18 @@
       </c>
       <c r="B242" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>開發生命週期</t>
         </is>
       </c>
       <c r="C242" s="21" t="inlineStr">
         <is>
-          <t>將安全性集成到 DevOps 中已經組合的開發和運營流程中，以降低創新過程中的風險。</t>
+          <t>建立使用代碼實現快速修復的流程。始終在團隊的待辦事項中註冊快速修復，以便以後可以重新設計每個修復程式，並且可以限制技術債務。</t>
         </is>
       </c>
       <c r="D242" s="21" t="n"/>
       <c r="E242" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -12123,14 +12112,14 @@
       <c r="G242" s="21" t="n"/>
       <c r="H242" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-platform</t>
         </is>
       </c>
       <c r="J242" s="22" t="n"/>
       <c r="K242" s="22" t="n"/>
       <c r="L242" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>2676ae46-65ca-444e-8695-fdddeace4cb1</t>
         </is>
       </c>
       <c r="M242" s="25" t="n"/>
@@ -12139,30 +12128,90 @@
       <c r="P242" s="25" t="n"/>
     </row>
     <row r="243">
-      <c r="A243" s="21" t="n"/>
-      <c r="B243" s="21" t="n"/>
-      <c r="C243" s="21" t="n"/>
+      <c r="A243" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B243" s="21" t="inlineStr">
+        <is>
+          <t>發展戰略</t>
+        </is>
+      </c>
+      <c r="C243" s="21" t="inlineStr">
+        <is>
+          <t>利用聲明性基礎結構即代碼工具（如 Azure Bicep、ARM 範本或 Terraform）來構建和維護 Azure 登陸區域體系結構。從平臺和應用程式工作負載的角度來看。</t>
+        </is>
+      </c>
       <c r="D243" s="21" t="n"/>
-      <c r="E243" s="21" t="n"/>
+      <c r="E243" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G243" s="21" t="n"/>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J243" s="22" t="n"/>
       <c r="K243" s="22" t="n"/>
-      <c r="L243" s="25" t="n"/>
+      <c r="L243" s="25" t="inlineStr">
+        <is>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+        </is>
+      </c>
       <c r="M243" s="25" t="n"/>
       <c r="N243" s="25" t="n"/>
       <c r="O243" s="25" t="n"/>
       <c r="P243" s="25" t="n"/>
     </row>
     <row r="244">
-      <c r="A244" s="21" t="n"/>
-      <c r="B244" s="21" t="n"/>
-      <c r="C244" s="21" t="n"/>
+      <c r="A244" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B244" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C244" s="21" t="inlineStr">
+        <is>
+          <t>將安全性集成到 DevOps 中已經合併的開發和運營流程中，以降低創新流程中的風險。</t>
+        </is>
+      </c>
       <c r="D244" s="21" t="n"/>
-      <c r="E244" s="21" t="n"/>
+      <c r="E244" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G244" s="21" t="n"/>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J244" s="22" t="n"/>
       <c r="K244" s="22" t="n"/>
-      <c r="L244" s="25" t="n"/>
+      <c r="L244" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M244" s="25" t="n"/>
       <c r="N244" s="25" t="n"/>
       <c r="O244" s="25" t="n"/>
@@ -13109,7 +13158,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F243" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F245" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -13242,7 +13291,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>有一個與此檢查關聯的措施項</t>
+          <t>有一個與此檢查關聯的操作項</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -13291,7 +13340,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>建議已理解，但當前要求不需要</t>
+          <t>建議已理解，但當前需求不需要</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">

--- a/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
@@ -2650,7 +2650,11 @@
           <t>建議遵循 Microsoft 最佳實踐命名標準</t>
         </is>
       </c>
-      <c r="D41" s="21" t="n"/>
+      <c r="D41" s="21" t="inlineStr">
+        <is>
+          <t>請考慮使用 https://aka.ms/azurenamingtool 上提供的 Azure 命名工具</t>
+        </is>
+      </c>
       <c r="E41" s="21" t="inlineStr">
         <is>
           <t>高</t>
@@ -3483,7 +3487,7 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3728,7 +3732,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/expressroute-howto-macsec</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-macsec</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -5179,7 +5183,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/designing-for-high-availability-with-expressroute</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
@@ -5229,7 +5233,7 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/expressroute-bfd</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-bfd</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
@@ -5279,7 +5283,7 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
@@ -5329,7 +5333,7 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-howto-setup-alerts-virtual-network-gateway-log</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-howto-setup-alerts-virtual-network-gateway-log</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
@@ -5379,7 +5383,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/virtual-network-connectivity-guidance</t>
+          <t>https://learn.microsoft.com/azure/expressroute/virtual-network-connectivity-guidance</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
@@ -6117,7 +6121,7 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="I112" s="15" t="n"/>
@@ -6591,7 +6595,7 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/firewall/firewall-structured-logs</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-structured-logs</t>
         </is>
       </c>
       <c r="I122" s="15" t="inlineStr">
@@ -6641,7 +6645,7 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/firewall-manager/migrate-to-policy</t>
+          <t>https://learn.microsoft.com/azure/firewall-manager/migrate-to-policy</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
@@ -6737,7 +6741,7 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/firewall-manager/rule-hierarchy</t>
+          <t>https://learn.microsoft.com/azure/firewall-manager/rule-hierarchy</t>
         </is>
       </c>
       <c r="I125" s="15" t="n"/>
@@ -6783,7 +6787,7 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/firewall/ip-groups</t>
+          <t>https://learn.microsoft.com/azure/firewall/ip-groups</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
@@ -6828,7 +6832,7 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/firewall/tutorial-firewall-dnat</t>
+          <t>https://learn.microsoft.com/azure/firewall/tutorial-firewall-dnat</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
@@ -6873,7 +6877,7 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/nat-gateway/tutorial-hub-spoke-nat-firewall</t>
+          <t>https://learn.microsoft.com/azure/nat-gateway/tutorial-hub-spoke-nat-firewall</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
@@ -6918,7 +6922,7 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/firewall/premium-features#tls-inspection</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#tls-inspection</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
@@ -6963,7 +6967,7 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/firewall/premium-features#web-categories</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#web-categories</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
@@ -7008,7 +7012,7 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/example-scenario/gateway/application-gateway-before-azure-firewall</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/gateway/application-gateway-before-azure-firewall</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
@@ -7053,7 +7057,7 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/firewall/dns-details</t>
+          <t>https://learn.microsoft.com/azure/firewall/dns-details</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
@@ -7143,7 +7147,7 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/firewall/firewall-diagnostics</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-diagnostics</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
@@ -7819,12 +7823,12 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
@@ -8788,7 +8792,7 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
+          <t>https://learn.microsoft.com/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
@@ -9198,7 +9202,7 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/machine-configuration/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/machine-configuration/overview</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -9853,7 +9857,7 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-monitor</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-monitor</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -10897,7 +10901,7 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
@@ -11302,7 +11306,7 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
@@ -11347,7 +11351,7 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>

--- a/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
@@ -1270,7 +1270,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-cloud-solution-provider#design-recommendations</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -3682,7 +3682,7 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4595,7 +4595,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
         </is>
       </c>
       <c r="I81" s="15" t="inlineStr">
@@ -6267,7 +6267,7 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/well-architected/service-guides/azure-firewall</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6317,7 +6317,7 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/firewall-manager/deploy-trusted-security-partner</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -7192,7 +7192,7 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security-blog/runbook-to-manage-azure-firewall-back-ups/ba-p/3066035</t>
+          <t>https://learn.microsoft.com/azure/well-architected/service-guides/azure-firewall</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
@@ -8697,7 +8697,7 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/industry/release-plan/2023wave2/cloud-sovereignty/enable-data-sovereignty-policy-baseline</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -8747,7 +8747,7 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/sovereign-landing-zone</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
@@ -10316,7 +10316,7 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/security-zero-trust</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
@@ -11126,7 +11126,7 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/connect-azure-subscription</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>

--- a/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
@@ -1708,12 +1708,12 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 和混合標識</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>使用託管標識而不是服務主體對 Azure 服務進行身份驗證。可以通過 Entra ID &gt;登錄日誌&gt;服務主體登錄來檢查現有服務主體。</t>
+          <t>強制實施與雲運營模型一致的 RBAC 模型。跨管理組和訂閱的範圍和分配。</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1730,19 +1730,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>4348bf81-7573-4512-8f46-9061cc198fea</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1758,18 +1758,18 @@
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID</t>
+          <t>Microsoft Entra ID 和混合標識</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>部署 Microsoft Entra Connect 時，利用暫存伺服器實現高可用性/災難恢復</t>
+          <t>使用託管標識而不是服務主體對 Azure 服務進行身份驗證。可以通過 Entra ID &gt;登錄日誌&gt;服務主體登錄來檢查現有服務主體。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1780,15 +1780,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I23" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I23" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+        </is>
+      </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>4348bf81-7573-4512-8f46-9061cc198fea</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1809,7 +1813,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>實施緊急訪問或打破玻璃帳戶，以防止租戶範圍的帳戶鎖定</t>
+          <t>僅對所有帳戶類型使用身份驗證類型「工作或學校帳戶」。避免使用 Microsoft 帳戶</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1826,19 +1830,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1859,7 +1863,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>將 Microsoft Entra ID 日誌與平臺中心 Azure Monitor 集成。Azure Monitor 允許圍繞 Azure 中的日誌和監視數據提供單一事實源，從而為組織提供雲原生選項，以滿足有關日誌收集和保留的要求。</t>
+          <t>僅使用組來分配許可權。如果組管理系統已到位，則將本地組添加到僅 Entra ID 組。</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1876,15 +1880,19 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
-        </is>
-      </c>
-      <c r="I25" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+        </is>
+      </c>
+      <c r="I25" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+        </is>
+      </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1905,13 +1913,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>強制實施與雲運營模型一致的 RBAC 模型。跨管理組和訂閱的範圍和分配。</t>
+          <t>對任何有權訪問 Azure 環境的用戶強制實施 Microsoft Entra ID 條件訪問策略</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1922,19 +1930,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1955,13 +1963,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>對任何有權訪問 Azure 環境的用戶強制實施 Microsoft Entra ID 條件訪問策略</t>
+          <t>對有權訪問 Azure 環境的任何使用者強制實施多重身份驗證</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1972,19 +1980,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2005,13 +2013,13 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>對有權訪問 Azure 環境的任何使用者強制實施多重身份驗證</t>
+          <t>根據角色和安全要求，強制實施集中式和委派的職責，以管理登陸區域內部署的資源</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2022,19 +2030,19 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2055,7 +2063,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>根據角色和安全要求，強制實施集中式和委派的職責，以管理登陸區域內部署的資源</t>
+          <t>強制實施 Microsoft Entra ID 特權身份管理 （PIM） 以建立零長期訪問許可權和最低許可權</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2072,19 +2080,19 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2105,7 +2113,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>強制實施 Microsoft Entra ID 特權身份管理 （PIM） 以建立零長期訪問許可權和最低許可權</t>
+          <t>在 Windows Server 上部署 Active Directory 時，請使用具有可用性區域的位置，並在這些區域中部署至少兩個 VM。如果不可用，請在可用性集中部署</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2122,19 +2130,19 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2155,13 +2163,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>僅對所有帳戶類型使用身份驗證類型「工作或學校帳戶」。避免使用 Microsoft 帳戶</t>
+          <t>將 Azure 自定義 RBAC 角色用於以下關鍵角色，以跨 ALZ 提供精細訪問：Azure 平臺擁有者、網路管理、安全操作、訂閱擁有者、應用程式擁有者。使這些角色與企業中的團隊和職責保持一致。</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2172,19 +2180,19 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2193,19 +2201,15 @@
       <c r="P31" s="25" t="n"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="21" t="inlineStr">
+      <c r="A32" s="21" t="n"/>
+      <c r="B32" s="21" t="inlineStr">
         <is>
           <t>身份和訪問管理</t>
         </is>
       </c>
-      <c r="B32" s="21" t="inlineStr">
-        <is>
-          <t>身份</t>
-        </is>
-      </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>僅使用組來分配許可權。如果組管理系統已到位，則將本地組添加到僅 Entra ID 組。</t>
+          <t>如果計劃從 Active Directory 域服務切換到 Entra 域服務，請評估所有工作負載的相容性</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2222,19 +2226,19 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2255,7 +2259,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 自定義 RBAC 角色用於以下關鍵角色，以跨 ALZ 提供精細訪問：Azure 平臺擁有者、網路管理、安全操作、訂閱擁有者、應用程式擁有者。使這些角色與企業中的團隊和職責保持一致。</t>
+          <t>將 Microsoft Entra ID 日誌與平臺中心 Azure Monitor 集成。Azure Monitor 允許圍繞 Azure 中的日誌和監視數據提供單一事實源，從而為組織提供雲原生選項，以滿足有關日誌收集和保留的要求。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2272,19 +2276,15 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
-        </is>
-      </c>
-      <c r="I33" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
+        </is>
+      </c>
+      <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2305,13 +2305,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>在 Windows Server 上部署 Active Directory 時，請使用具有可用性區域的位置，並在這些區域中部署至少兩個 VM。如果不可用，請在可用性集中部署</t>
+          <t>實施緊急訪問或打破玻璃帳戶，以防止租戶範圍的帳戶鎖定</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2322,19 +2322,19 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2343,15 +2343,19 @@
       <c r="P34" s="25" t="n"/>
     </row>
     <row r="35" ht="16.5" customHeight="1">
-      <c r="A35" s="21" t="n"/>
+      <c r="A35" s="21" t="inlineStr">
+        <is>
+          <t>身份和訪問管理</t>
+        </is>
+      </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>Microsoft Entra ID</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>如果計劃從 Active Directory 域服務切換到 Entra 域服務，請評估所有工作負載的相容性</t>
+          <t>部署 Microsoft Entra Connect 時，利用暫存伺服器實現高可用性/災難恢復</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2368,19 +2372,15 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
-        </is>
-      </c>
-      <c r="I35" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
+        </is>
+      </c>
+      <c r="I35" s="15" t="n"/>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>如果需要，請使用 Microsoft Entra ID 應用程式代理為遠端使用者提供對內部應用程式（託管在雲中或本地）的安全和經過身份驗證的訪問。</t>
+          <t>避免將本地同步帳戶用於 Microsoft Entra ID 角色分配。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2418,19 +2418,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>避免將本地同步帳戶用於 Microsoft Entra ID 角色分配。</t>
+          <t>如果需要，請使用 Microsoft Entra ID 應用程式代理為遠端使用者提供對內部應用程式（託管在雲中或本地）的安全和經過身份驗證的訪問。</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2468,19 +2468,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -3610,12 +3610,12 @@
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>輪輻式</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>在面向內部 （corp） 和面向外部的應用 （online） 的登陸區域內執行應用交付。</t>
+          <t>利用基於傳統中心輻射型網路拓撲的網路設計，滿足需要最大靈活性的網路方案。</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3632,19 +3632,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3665,7 +3665,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>對應用程式登陸區域中的所有公共IP位址使用 DDoS 網路或IP防護計畫。</t>
+          <t>在面向內部 （corp） 和面向外部的應用 （online） 的登陸區域內執行應用交付。</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3682,19 +3682,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3710,18 +3710,18 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>加密</t>
+          <t>輪輻式</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>使用 ExpressRoute Direct 時，請配置 MACsec，以便加密組織路由器和 MSEE 之間的第二層級別的流量。該圖顯示了流中的此加密。</t>
+          <t>確保共用網路服務（包括 ExpressRoute 閘道、VPN 閘道和 Azure 防火牆或合作夥伴 NVA）位於中心虛擬網路中。如有必要，還可以部署 DNS 伺服器。</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3732,7 +3732,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-macsec</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3740,7 +3740,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3756,18 +3756,18 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>加密</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>對於無法使用MACsec的方案（例如，不使用ExpressRoute Direct），請使用 VPN 閘道通過 ExpressRoute 專用對等互連建立 IPsec 隧道。</t>
+          <t>對應用程式登陸區域中的所有公共IP位址使用 DDoS 網路或IP防護計畫。</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3778,19 +3778,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>利用基於傳統中心輻射型網路拓撲的網路設計，滿足需要最大靈活性的網路方案。</t>
+          <t>部署合作夥伴網路技術或 NVA 時，請遵循合作夥伴供應商的指導</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3828,19 +3828,15 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3861,13 +3857,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>確保共用網路服務（包括 ExpressRoute 閘道、VPN 閘道和 Azure 防火牆或合作夥伴 NVA）位於中心虛擬網路中。如有必要，還可以部署 DNS 伺服器。</t>
+          <t>如果需要在中心輻射型方案中的 ExpressRoute 和 VPN 閘道之間傳輸，請使用 Azure 路由伺服器。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3878,14 +3874,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3906,13 +3902,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>部署合作夥伴網路技術或 NVA 時，請遵循合作夥伴供應商的指導</t>
+          <t>如果使用 Route Server，請對 Route Server 子網使用 /27 前置綴。</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3923,7 +3919,7 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
         </is>
       </c>
       <c r="I67" s="15" t="n"/>
@@ -3931,7 +3927,7 @@
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3952,13 +3948,13 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>如果需要在中心輻射型方案中的 ExpressRoute 和 VPN 閘道之間傳輸，請使用 Azure 路由伺服器。</t>
+          <t>對於跨 Azure 區域具有多個中心輻射型拓撲的網路體系結構，請使用中心 VNet 之間的全域虛擬網路對等互連將區域相互連接。</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3969,15 +3965,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I68" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+        </is>
+      </c>
+      <c r="I68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3998,13 +3998,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>如果使用 Route Server，請對 Route Server 子網使用 /27 前置綴。</t>
+          <t>使用用於網路的 Azure Monitor 監視 Azure 上網路的端到端狀態。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4015,15 +4015,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4044,7 +4048,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>對於跨 Azure 區域具有多個中心輻射型拓撲的網路體系結構，請使用中心 VNet 之間的全域虛擬網路對等互連將區域相互連接。</t>
+          <t>將分支虛擬網路連接到中央中心虛擬網路時，請考慮 VNet 對等互連限制 （500），即可通過 ExpressRoute 播發的最大前綴數 （1000）</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4061,19 +4065,15 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>使用用於網路的 Azure Monitor 監視 Azure 上網路的端到端狀態。</t>
+          <t>考慮每個路由表的路由限制 （400）。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4111,19 +4111,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4144,13 +4140,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>將分支虛擬網路連接到中央中心虛擬網路時，請考慮 VNet 對等互連限制 （500），即可通過 ExpressRoute 播發的最大前綴數 （1000）</t>
+          <t>配置 VNet 對等互連時，使用「允許流量流向遠端虛擬網路」設置</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4161,7 +4157,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4169,7 +4165,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4185,12 +4181,12 @@
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>輪輻式</t>
+          <t>加密</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>考慮每個路由表的路由限制 （400）。</t>
+          <t>使用 ExpressRoute Direct 時，請配置 MACsec，以便加密組織路由器和 MSEE 之間的第二層級別的流量。該圖顯示了流中的此加密。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4207,7 +4203,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-macsec</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4215,7 +4211,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4231,18 +4227,18 @@
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>輪輻式</t>
+          <t>加密</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>配置 VNet 對等互連時，使用「允許流量流向遠端虛擬網路」設置</t>
+          <t>對於無法使用MACsec的方案（例如，不使用ExpressRoute Direct），請使用 VPN 閘道通過 ExpressRoute 專用對等互連建立 IPsec 隧道。</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4253,15 +4249,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4277,18 +4277,18 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>確保已調查使用 ExpressRoute 作為與 Azure 的主要連接的可能性。</t>
+          <t>確保在 Azure 區域和本地位置之間不使用重疊的 IP 位址空間</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4299,19 +4299,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4327,22 +4327,18 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>使用多條 ExpressRoute 線路或多個本地位置時，請確保使用 BGP 屬性優化路由（如果首選某些路徑）。</t>
-        </is>
-      </c>
-      <c r="D76" s="21" t="inlineStr">
-        <is>
-          <t>可以使用 AS 路徑前置和連接權重來影響從 Azure 到本地的流量，並使用自己的路由器中的全部 BGP 屬性來影響從本地到 Azure 的流量。</t>
-        </is>
-      </c>
+          <t>使用專用 Internet 位址分配範圍 （RFC 1918） 中的 IP 位址。</t>
+        </is>
+      </c>
+      <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4353,19 +4349,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4381,18 +4377,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>確保根據頻寬和性能要求為 ExpressRoute/VPN 閘道使用正確的 SKU。</t>
+          <t>確保IP位址空間不被浪費，不要創建不必要的大型虛擬網路（例如 /16）Ensure that that IP address space is not disdised， don't create un不必要的大型虛擬網路（例如 /16）Ensure that that IP address space is not waste， don't create un不必要的大型虛擬網络（例如 /16）Ensure that that IP address space is</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4403,19 +4399,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4431,12 +4427,12 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>確保僅當達到證明其成本合理的頻寬時，才使用無限數據的ExpressRoute線路。</t>
+          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4453,15 +4449,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I78" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+        </is>
+      </c>
+      <c r="I78" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4477,18 +4477,18 @@
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>如果線路的對等互連位置支援本地 SKU 的 Azure 區域，則利用 ExpressRoute 的本地 SKU 來降低線路的成本。</t>
+          <t>對於只需要在 Azure 中進行名稱解析的環境，請使用 Azure 專用 DNS 進行解析，並使用委派區域進行名稱解析（例如“azure.contoso.com”）。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4499,15 +4499,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
-        </is>
-      </c>
-      <c r="I79" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I79" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4523,12 +4527,12 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>在受支援的 Azure 區域中部署區域冗餘 ExpressRoute 閘道。</t>
+          <t>對於需要跨 Azure 和本地進行名稱解析的環境，請考慮使用 Azure DNS 專用解析程式。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4545,19 +4549,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4573,18 +4577,18 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>對於需要高於 10 Gbps 的頻寬或專用 10/100 Gbps 埠的方案，請使用 ExpressRoute Direct。</t>
+          <t>需要並部署自己的 DNS（例如 Red Hat OpenShift）的特殊工作負載應使用其首選的 DNS 解決方案。</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4595,19 +4599,15 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4623,18 +4623,18 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>如果需要低延遲，或者從本地到 Azure 的輸送量必須大於 10 Gbps，請啟用 FastPath 以繞過數據路徑的 ExpressRoute 閘道。</t>
+          <t>啟用 Azure DNS 的自動註冊，以自動管理虛擬網路中部署的虛擬機的 DNS 記錄的生命週期。</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4645,19 +4645,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4673,12 +4673,12 @@
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>使用區域冗餘 VPN 閘道將分支或遠端位置連接到 Azure（如果可用）。</t>
+          <t>請考慮使用 Azure Bastion 安全地連接到網路。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4695,19 +4695,15 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4723,12 +4719,12 @@
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>在本地使用冗餘 VPN 設備（主動/主動或主動/被動）。</t>
+          <t>在子網 /26 或更大範圍內使用 Azure Bastion。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4745,19 +4741,15 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-highlyavailable</t>
-        </is>
-      </c>
-      <c r="I84" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I84" s="15" t="n"/>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4773,18 +4765,18 @@
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>如果使用 ExpressRoute Direct，請考慮使用本地 Azure 區域的 ExpressRoute 本地線路來節省成本</t>
+          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為與登陸區域的入站 HTTP/S 連接提供全域保護。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4795,19 +4787,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4823,18 +4815,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>當需要流量隔離或專用頻寬時（例如，用於分離生產環境和非生產環境），請使用不同的 ExpressRoute 線路。它將幫助您確保隔離的路由域並減輕干擾鄰居風險。</t>
+          <t>使用 Azure Front Door 和 Azure 應用程式閘道幫助保護 HTTP/S 應用時，請使用 Azure Front Door 中的 WAF 策略。鎖定 Azure 應用程式閘道，以便僅接收來自 Azure Front Door 的流量。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4845,19 +4837,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4873,18 +4865,18 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>使用內置的 Express Route Insights 監視 ExpressRoute 的可用性和利用率。</t>
+          <t>部署 WAF 和其他反向代理是入站 HTTP/S 連接所必需的，將它們部署在登陸區域虛擬網路中，並與它們保護並公開給 Internet 的應用一起部署。</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4895,19 +4887,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4923,18 +4915,18 @@
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>使用連接監視器進行跨網路的連接監視，尤其是在本地和 Azure 之間。</t>
+          <t>使用 Azure DDoS 網路或 IP 保護計劃來幫助保護虛擬網路中的公共 IP 位址終結點。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4945,19 +4937,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4973,18 +4965,18 @@
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>使用來自不同對等互連位置的 ExpressRoute 線路實現冗餘。</t>
+          <t>在即將到來的重大更改之前，評估和審查網路出站流量配置和策略。2025 年 9 月 30 日，新部署的預設出站訪問將停用，僅允許顯式訪問配置</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4995,19 +4987,15 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5023,18 +5011,18 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>使用網站到網站 VPN 作為 ExpressRoute 的故障轉移，尤其是在僅使用單個 ExpressRoute 線路時。</t>
+          <t>添加診斷設置以保存所有受保護的公共IP位址（DDoS IP或網路保護）的 DDoS 相關日誌。</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5045,15 +5033,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
+          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5074,13 +5066,13 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>如果在 GatewaySubnet 中使用路由表，請確保傳播閘道路由。</t>
+          <t>確保已調查使用 ExpressRoute 作為與 Azure 的主要連接的可能性。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5091,15 +5083,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5120,13 +5116,17 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>如果使用 ExpressRoute，則本地路由應是動態的：如果連接失敗，它應收斂到線路的剩餘連接。理想情況下，負載應在兩個連接之間共用為主動/主動，但也支持主動/被動。</t>
-        </is>
-      </c>
-      <c r="D92" s="21" t="n"/>
+          <t>使用多條 ExpressRoute 線路或多個本地位置時，請確保使用 BGP 屬性優化路由（如果首選某些路徑）。</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="inlineStr">
+        <is>
+          <t>可以使用 AS 路徑前置和連接權重來影響從 Azure 到本地的流量，並使用自己的路由器中的全部 BGP 屬性來影響從本地到 Azure 的流量。</t>
+        </is>
+      </c>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5137,15 +5137,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5166,7 +5170,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>確保 ExpressRoute 線路的兩個物理連結連接到網路中的兩個不同的邊緣設備。</t>
+          <t>確保根據頻寬和性能要求為 ExpressRoute/VPN 閘道使用正確的 SKU。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5183,7 +5187,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
@@ -5195,7 +5199,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5216,13 +5220,13 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>確保在客戶或供應商邊緣路由設備上啟用並配置雙向轉發檢測 （BFD）。</t>
+          <t>確保僅當達到證明其成本合理的頻寬時，才使用無限數據的ExpressRoute線路。</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5233,19 +5237,15 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-bfd</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>將 ExpressRoute 閘道連接到來自不同對等互連位置的兩條或多條線路，以提高復原能力。</t>
+          <t>如果線路的對等互連位置支援本地 SKU 的 Azure 區域，則利用 ExpressRoute 的本地 SKU 來降低線路的成本。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5283,19 +5283,15 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
-        </is>
-      </c>
-      <c r="I95" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5316,7 +5312,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>為 ExpressRoute 虛擬網路閘道配置診斷日誌和警報。</t>
+          <t>在受支援的 Azure 區域中部署區域冗餘 ExpressRoute 閘道。</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5333,7 +5329,7 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-howto-setup-alerts-virtual-network-gateway-log</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
@@ -5345,7 +5341,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5366,7 +5362,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>避免使用 ExpressRoute 線路進行 VNet 到 VNet 通信。</t>
+          <t>對於需要高於 10 Gbps 的頻寬或專用 10/100 Gbps 埠的方案，請使用 ExpressRoute Direct。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5383,7 +5379,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/virtual-network-connectivity-guidance</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
@@ -5395,7 +5391,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5411,18 +5407,18 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>確保在 Azure 區域和本地位置之間不使用重疊的 IP 位址空間</t>
+          <t>如果需要低延遲，或者從本地到 Azure 的輸送量必須大於 10 Gbps，請啟用 FastPath 以繞過數據路徑的 ExpressRoute 閘道。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5433,19 +5429,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5461,18 +5457,18 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>使用專用 Internet 位址分配範圍 （RFC 1918） 中的 IP 位址。</t>
+          <t>使用區域冗餘 VPN 閘道將分支或遠端位置連接到 Azure（如果可用）。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5483,19 +5479,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5511,18 +5507,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>確保IP位址空間不被浪費，不要創建不必要的大型虛擬網路（例如 /16）Ensure that that IP address space is not disdised， don't create un不必要的大型虛擬網路（例如 /16）Ensure that that IP address space is not waste， don't create un不必要的大型虛擬網络（例如 /16）Ensure that that IP address space is</t>
+          <t>在本地使用冗餘 VPN 設備（主動/主動或主動/被動）。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5533,19 +5529,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-highlyavailable</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5561,12 +5557,12 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
+          <t>如果使用 ExpressRoute Direct，請考慮使用本地 Azure 區域的 ExpressRoute 本地線路來節省成本</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5583,19 +5579,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5611,12 +5607,12 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>對於只需要在 Azure 中進行名稱解析的環境，請使用 Azure 專用 DNS 進行解析，並使用委派區域進行名稱解析（例如“azure.contoso.com”）。</t>
+          <t>當需要流量隔離或專用頻寬時（例如，用於分離生產環境和非生產環境），請使用不同的 ExpressRoute 線路。它將幫助您確保隔離的路由域並減輕干擾鄰居風險。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5633,19 +5629,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5661,12 +5657,12 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>對於需要跨 Azure 和本地進行名稱解析的環境，請考慮使用 Azure DNS 專用解析程式。</t>
+          <t>使用內置的 Express Route Insights 監視 ExpressRoute 的可用性和利用率。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5683,19 +5679,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5711,18 +5707,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>需要並部署自己的 DNS（例如 Red Hat OpenShift）的特殊工作負載應使用其首選的 DNS 解決方案。</t>
+          <t>使用連接監視器進行跨網路的連接監視，尤其是在本地和 Azure 之間。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5733,15 +5729,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5757,18 +5757,18 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>啟用 Azure DNS 的自動註冊，以自動管理虛擬網路中部署的虛擬機的 DNS 記錄的生命週期。</t>
+          <t>使用來自不同對等互連位置的 ExpressRoute 線路實現冗餘。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5779,19 +5779,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5807,12 +5807,12 @@
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>請考慮使用 Azure Bastion 安全地連接到網路。</t>
+          <t>使用網站到網站 VPN 作為 ExpressRoute 的故障轉移，尤其是在僅使用單個 ExpressRoute 線路時。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5829,7 +5829,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager</t>
         </is>
       </c>
       <c r="I106" s="15" t="n"/>
@@ -5837,7 +5837,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5853,18 +5853,18 @@
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>在子網 /26 或更大範圍內使用 Azure Bastion。</t>
+          <t>如果在 GatewaySubnet 中使用路由表，請確保傳播閘道路由。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5875,7 +5875,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
         </is>
       </c>
       <c r="I107" s="15" t="n"/>
@@ -5883,7 +5883,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5899,18 +5899,18 @@
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為與登陸區域的入站 HTTP/S 連接提供全域保護。</t>
+          <t>如果使用 ExpressRoute，則本地路由應是動態的：如果連接失敗，它應收斂到線路的剩餘連接。理想情況下，負載應在兩個連接之間共用為主動/主動，但也支持主動/被動。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5921,19 +5921,15 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5949,18 +5945,18 @@
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 Azure 應用程式閘道幫助保護 HTTP/S 應用時，請使用 Azure Front Door 中的 WAF 策略。鎖定 Azure 應用程式閘道，以便僅接收來自 Azure Front Door 的流量。</t>
+          <t>確保 ExpressRoute 線路的兩個物理連結連接到網路中的兩個不同的邊緣設備。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5971,19 +5967,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5999,18 +5995,18 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>部署 WAF 和其他反向代理是入站 HTTP/S 連接所必需的，將它們部署在登陸區域虛擬網路中，並與它們保護並公開給 Internet 的應用一起部署。</t>
+          <t>確保在客戶或供應商邊緣路由設備上啟用並配置雙向轉發檢測 （BFD）。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6021,19 +6017,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-bfd</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6049,12 +6045,12 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure DDoS 網路或 IP 保護計劃來幫助保護虛擬網路中的公共 IP 位址終結點。</t>
+          <t>將 ExpressRoute 閘道連接到來自不同對等互連位置的兩條或多條線路，以提高復原能力。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6071,19 +6067,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6099,18 +6095,18 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>在即將到來的重大更改之前，評估和審查網路出站流量配置和策略。2025 年 9 月 30 日，新部署的預設出站訪問將停用，僅允許顯式訪問配置</t>
+          <t>為 ExpressRoute 虛擬網路閘道配置診斷日誌和警報。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6121,15 +6117,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-howto-setup-alerts-virtual-network-gateway-log</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6145,18 +6145,18 @@
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>添加診斷設置以保存所有受保護的公共IP位址（DDoS IP或網路保護）的 DDoS 相關日誌。</t>
+          <t>避免使用 ExpressRoute 線路進行 VNet 到 VNet 通信。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6167,19 +6167,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/expressroute/virtual-network-connectivity-guidance</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
+          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -8900,18 +8900,18 @@
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>添加診斷設置以保存來自 Azure Front Door 和 Azure 應用程式閘道等應用程式交付服務的 WAF 紀錄。定期查看日誌，以檢查攻擊和誤報檢測。</t>
+          <t>使用單個監視器日誌工作區集中管理平臺，但 Azure 基於角色的訪問控制 （Azure RBAC）、數據主權要求或數據保留策略要求使用單獨的工作區的情況除外。</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
       <c r="E172" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8922,14 +8922,19 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8945,12 +8950,12 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>將 WAF 日誌從應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測集成到整個 Azure 環境中。</t>
+          <t>如果日誌保留要求超過 12 年，請將日誌匯出到 Azure 存儲。將不可變存儲與一次寫入、多次讀取策略結合使用，使數據在使用者指定的時間間隔內不可擦除和不可修改。</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8967,14 +8972,19 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8990,12 +9000,12 @@
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>考慮在 Azure 中為具有配對區域的 BCDR 進行跨區域複製</t>
+          <t>使用 Azure Policy 監視 OS 等級的虛擬機 （VM） 配置偏移。通過策略啟用 Azure Automanage 計算機配置審核功能可幫助應用程式團隊工作負載輕鬆立即使用功能。</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9012,14 +9022,19 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/governance/machine-configuration/overview</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9035,12 +9050,12 @@
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 備份時，請考慮不同的備份類型（GRS、ZRS 和 LRS），因為預設設置為 GRS</t>
+          <t>使用 Azure 更新管理員作為 Azure 中 Windows 和 Linux VM 的修補機制。</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9057,14 +9072,19 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9080,12 +9100,12 @@
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>使用單個監視器日誌工作區集中管理平臺，但 Azure 基於角色的訪問控制 （Azure RBAC）、數據主權要求或數據保留策略要求使用單獨的工作區的情況除外。</t>
+          <t>使用 Azure Arc 將 Azure Update Manager 用作 Azure 外部 Windows 和 Linux VM 的修補機制。</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9102,19 +9122,19 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9135,7 +9155,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>如果日誌保留要求超過 12 年，請將日誌匯出到 Azure 存儲。將不可變存儲與一次寫入、多次讀取策略結合使用，使數據在使用者指定的時間間隔內不可擦除和不可修改。</t>
+          <t>使用網路觀察程序主動監視流量</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9152,19 +9172,19 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9185,7 +9205,7 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 監視 OS 等級的虛擬機 （VM） 配置偏移。通過策略啟用 Azure Automanage 計算機配置審核功能可幫助應用程式團隊工作負載輕鬆立即使用功能。</t>
+          <t>使用資源鎖防止意外刪除關鍵共享服務。</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9202,7 +9222,7 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/machine-configuration/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -9214,7 +9234,7 @@
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9230,18 +9250,18 @@
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 更新管理員作為 Azure 中 Windows 和 Linux VM 的修補機制。</t>
+          <t>使用拒絕策略來補充 Azure 角色分配。拒絕策略和 Azure 角色分配的組合可確保適當的防護措施到位，以強制實施誰可以部署和配置資源以及他們可以部署和配置哪些資源。</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9252,19 +9272,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9280,12 +9295,12 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Arc 將 Azure Update Manager 用作 Azure 外部 Windows 和 Linux VM 的修補機制。</t>
+          <t>將服務和資源運行狀況事件作為整體平臺監視解決方案的一部分。從平臺角度跟蹤服務和資源運行狀況是 Azure 中資源管理的重要組成部分。</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9302,19 +9317,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9335,7 +9345,7 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>使用網路觀察程序主動監視流量</t>
+          <t>將警報和操作組作為 Azure 服務運行狀況平臺的一部分，以確保可以對警報或問題進行操作</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9352,19 +9362,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9385,7 +9390,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>使用資源鎖防止意外刪除關鍵共享服務。</t>
+          <t>不要將原始日誌條目發送回本地監視系統。相反，請採用在 Azure 中生成的數據保留在 Azure 中的原則。如果需要本地 SIEM 集成，請發送關鍵警報而不是日誌。</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9402,19 +9407,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9435,13 +9435,13 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>使用拒絕策略來補充 Azure 角色分配。拒絕策略和 Azure 角色分配的組合可確保適當的防護措施到位，以強制實施誰可以部署和配置資源以及他們可以部署和配置哪些資源。</t>
+          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9452,14 +9452,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>將服務和資源運行狀況事件作為整體平臺監視解決方案的一部分。從平臺角度跟蹤服務和資源運行狀況是 Azure 中資源管理的重要組成部分。</t>
+          <t>必要時，請使用登陸區域內的共用存儲帳戶進行 Azure 診斷擴展日誌存儲。</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9497,14 +9497,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9525,7 +9525,7 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>將警報和操作組作為 Azure 服務運行狀況平臺的一部分，以確保可以對警報或問題進行操作</t>
+          <t>使用 Azure Monitor 警報生成操作警報。</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9542,14 +9542,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9570,7 +9570,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>不要將原始日誌條目發送回本地監視系統。相反，請採用在 Azure 中生成的數據保留在 Azure 中的原則。如果需要本地 SIEM 集成，請發送關鍵警報而不是日誌。</t>
+          <t>確保已評估監視要求，並應用適當的數據收集和警報配置</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9587,14 +9587,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9615,7 +9615,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
+          <t>通過 Azure 自動化帳戶使用更改和清單跟蹤時，請確保已選擇支援的區域來將 Log Analytics 工作區和自動化帳戶連結在一起。</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9632,14 +9632,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9660,7 +9660,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>必要時，請使用登陸區域內的共用存儲帳戶進行 Azure 診斷擴展日誌存儲。</t>
+          <t>為登陸區域的平臺元件建立監視，AMBA 是一種可用的框架解決方案，它提供了一種使用 Azure Policy 縮放警報的簡單方法</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9677,14 +9677,19 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-monitor</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>https://azure.github.io/azure-monitor-baseline-alerts/patterns/alz/</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>aa45be6a-8f2d-4896-b0e3-775e6e94e610</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9700,12 +9705,12 @@
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 警報生成操作警報。</t>
+          <t>考慮在 Azure 中為具有配對區域的 BCDR 進行跨區域複製</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9722,14 +9727,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9745,12 +9750,12 @@
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>確保已評估監視要求，並應用適當的數據收集和警報配置</t>
+          <t>使用 Azure 備份時，請考慮不同的備份類型（GRS、ZRS 和 LRS），因為預設設置為 GRS</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9767,14 +9772,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9790,12 +9795,12 @@
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure 自動化帳戶使用更改和清單跟蹤時，請確保已選擇支援的區域來將 Log Analytics 工作區和自動化帳戶連結在一起。</t>
+          <t>使用 Azure 策略通過 VM 擴展自動部署軟體配置，並強制實施符合標準的基線 VM 配置。</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9812,14 +9817,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9835,15 +9840,19 @@
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>為登陸區域的平臺元件建立監視，AMBA 是一種可用的框架解決方案，它提供了一種使用 Azure Policy 縮放警報的簡單方法</t>
-        </is>
-      </c>
-      <c r="D192" s="21" t="n"/>
+          <t>通過 Azure Policy 監視 VM 安全配置偏移。</t>
+        </is>
+      </c>
+      <c r="D192" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy 的來賓配置功能可以審核和修正計算機設置（例如，操作系統、應用程式、環境），以確保資源與預期配置一致，更新管理可以對 VM 強制實施修補程式管理。</t>
+        </is>
+      </c>
       <c r="E192" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -9857,19 +9866,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-monitor</t>
-        </is>
-      </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>https://azure.github.io/azure-monitor-baseline-alerts/patterns/alz/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>aa45be6a-8f2d-4896-b0e3-775e6e94e610</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9885,12 +9889,12 @@
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>保護和恢復</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 策略通過 VM 擴展自動部署軟體配置，並強制實施符合標準的基線 VM 配置。</t>
+          <t>將 Azure Site Recovery 用於 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9907,14 +9911,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9930,19 +9934,15 @@
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>保護和恢復</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure Policy 監視 VM 安全配置偏移。</t>
-        </is>
-      </c>
-      <c r="D194" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy 的來賓配置功能可以審核和修正計算機設置（例如，操作系統、應用程式、環境），以確保資源與預期配置一致，更新管理可以對 VM 強制實施修補程式管理。</t>
-        </is>
-      </c>
+          <t>確保使用和測試本機 PaaS 服務容災功能。</t>
+        </is>
+      </c>
+      <c r="D194" s="21" t="n"/>
       <c r="E194" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -9956,14 +9956,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9984,7 +9984,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>將 Azure Site Recovery 用於 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
+          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -10001,14 +10001,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -10024,18 +10024,18 @@
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>保護和恢復</t>
+          <t>容錯</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>確保使用和測試本機 PaaS 服務容災功能。</t>
+          <t>在支援可用性區域的區域中對 VM 利用可用性區域。</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
       <c r="E196" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -10046,14 +10046,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10069,18 +10069,18 @@
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>保護和恢復</t>
+          <t>容錯</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
+          <t>避免在單個 VM 上運行生產工作負載。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
       <c r="E197" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10091,14 +10091,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10119,13 +10119,13 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>在支援可用性區域的區域中對 VM 利用可用性區域。</t>
+          <t>Azure 負載均衡器和應用程式閘道在多個資源之間分配傳入的網路流量。</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
       <c r="E198" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10136,14 +10136,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10159,12 +10159,12 @@
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>容錯</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>避免在單個 VM 上運行生產工作負載。</t>
+          <t>添加診斷設置以保存來自 Azure Front Door 和 Azure 應用程式閘道等應用程式交付服務的 WAF 紀錄。定期查看日誌，以檢查攻擊和誤報檢測。</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10181,14 +10181,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10204,12 +10204,12 @@
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>容錯</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Azure 負載均衡器和應用程式閘道在多個資源之間分配傳入的網路流量。</t>
+          <t>將 WAF 日誌從應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測集成到整個 Azure 環境中。</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10226,14 +10226,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>

--- a/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
@@ -7627,7 +7627,7 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">

--- a/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>確保採用多租戶自動化方法來管理 Microsoft Entra ID 租戶</t>
+          <t>使用多租戶自動化方法管理 Microsoft Entra ID 租戶。</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1161,13 +1161,13 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>利用 Azure Lighthouse 進行多租戶管理</t>
+          <t>使用具有相同 ID 的 Azure Lighthouse 進行多租戶管理。</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1181,7 +1181,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/lighthouse</t>
         </is>
       </c>
-      <c r="I10" s="15" t="n"/>
+      <c r="I10" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/lighthouse/concepts/cross-tenant-management-experience</t>
+        </is>
+      </c>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
@@ -1207,13 +1211,13 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>確保合作夥伴使用 Azure Lighthouse 管理租戶</t>
+          <t>如果向合作夥伴授予管理租戶的訪問許可權，請使用 Azure Lighthouse。</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1253,7 +1257,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>與 CSP 合作夥伴討論支援請求和升級過程</t>
+          <t>如果你有 CSP 合作夥伴，請定義並記錄支援請求和上報過程。</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1299,7 +1303,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 成本管理設置成本報告和檢視</t>
+          <t>使用 Azure 成本管理設置成本報告和檢視。</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1345,7 +1349,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>將通知連絡人配置到組郵箱</t>
+          <t>將通知連絡人配置到組郵箱。</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1454,10 +1458,14 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
-        </is>
-      </c>
-      <c r="I16" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-recommendations</t>
+        </is>
+      </c>
+      <c r="I16" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/assign-access-acm-data#enable-access-to-costs-in-the-azure-portal</t>
+        </is>
+      </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
@@ -1483,7 +1491,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>利用企業開發/測試訂閱來降低非生產工作負載的成本</t>
+          <t>使用企業開發/測試訂閱來降低非生產工作負載的成本。</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1529,7 +1537,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>配置協定計費帳戶通知聯繫人電子郵件</t>
+          <t>配置協定計費帳戶通知聯繫電子郵件。</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1575,7 +1583,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>使用「計費配置檔」和「發票」部分構建協定計費，以實現有效的成本管理</t>
+          <t>使用「計費配置檔」和「發票」部分來構建協定計費，以實現有效的成本管理。</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1621,7 +1629,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>利用 Microsoft Azure 開發/測試計劃產品/服務來降低非生產工作負載的成本</t>
+          <t>利用 Microsoft Azure 開發/測試產品/服務計劃來降低非生產工作負載的成本。</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1667,7 +1675,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>定期審核協定計費 RBAC 角色分配，以查看誰有權訪問你的 MCA 計費帳戶</t>
+          <t>定義並記錄一個流程，以定期審核協定計費 RBAC 角色分配，以審查誰有權訪問您的 MCA 計費帳戶。</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1713,7 +1721,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>強制實施與雲運營模型一致的 RBAC 模型。跨管理組和訂閱的範圍和分配。</t>
+          <t>強制實施與雲操作模型相符的 RBAC 模型。跨管理組和訂閱確定範圍和分配。</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1763,7 +1771,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>使用託管標識而不是服務主體對 Azure 服務進行身份驗證。可以通過 Entra ID &gt;登錄日誌&gt;服務主體登錄來檢查現有服務主體。</t>
+          <t>使用託管標識（而不是服務主體）對 Azure 服務進行身份驗證。可以通過 Entra ID &gt;登錄日誌&gt;服務主體登錄來檢查現有服務主體。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1863,7 +1871,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>僅使用組來分配許可權。如果組管理系統已到位，則將本地組添加到僅 Entra ID 組。</t>
+          <t>僅使用組來分配許可權。如果已建立組管理系統，則將本地組添加到僅 Entra ID 組。</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1913,13 +1921,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>對任何有權訪問 Azure 環境的用戶強制實施 Microsoft Entra ID 條件訪問策略</t>
+          <t>對有權訪問 Azure 環境的任何用戶強制實施 Microsoft Entra ID 條件訪問策略。</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1963,7 +1971,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>對有權訪問 Azure 環境的任何使用者強制實施多重身份驗證</t>
+          <t>對有權訪問 Azure 環境的任何使用者強制實施多重身份驗證。</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2013,13 +2021,13 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>根據角色和安全要求，強制實施集中式和委派的職責，以管理登陸區域內部署的資源</t>
+          <t>根據角色和安全要求，強制實施集中和委派的職責，以管理部署在登陸區域內的資源。</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2063,7 +2071,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>強制實施 Microsoft Entra ID 特權身份管理 （PIM） 以建立零長期訪問許可權和最低許可權</t>
+          <t>強制實施 Microsoft Entra ID 特權標識管理 （PIM） 以建立零長期訪問許可權和最低特權。</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2113,13 +2121,13 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>在 Windows Server 上部署 Active Directory 時，請使用具有可用性區域的位置，並在這些區域中部署至少兩個 VM。如果不可用，請在可用性集中部署</t>
+          <t>部署 Active Directory 域控制器時，請使用具有可用性區域的位置，並在這些區域中至少部署兩個 VM。如果不可用，請在可用性集中進行部署。</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2163,7 +2171,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 自定義 RBAC 角色用於以下關鍵角色，以跨 ALZ 提供精細訪問：Azure 平臺擁有者、網路管理、安全操作、訂閱擁有者、應用程式擁有者。使這些角色與企業中的團隊和職責保持一致。</t>
+          <t>將 Azure 自定義 RBAC 角色用於以下關鍵角色，以提供跨 ALZ 的精細訪問：Azure 平臺擁有者、網路管理、安全操作、訂閱擁有者、應用程式擁有者。使這些角色與企業中的團隊和職責保持一致。</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2201,15 +2209,19 @@
       <c r="P31" s="25" t="n"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="21" t="n"/>
+      <c r="A32" s="21" t="inlineStr">
+        <is>
+          <t>身份和訪問管理</t>
+        </is>
+      </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>如果計劃從 Active Directory 域服務切換到 Entra 域服務，請評估所有工作負載的相容性</t>
+          <t>如果計劃從 Active Directory 域服務切換到 Entra 域服務，請評估所有工作負載的相容性。</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2226,7 +2238,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/en-us/entra/identity/domain-services/overview</t>
         </is>
       </c>
       <c r="I32" s="15" t="inlineStr">
@@ -2259,7 +2271,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>將 Microsoft Entra ID 日誌與平臺中心 Azure Monitor 集成。Azure Monitor 允許圍繞 Azure 中的日誌和監視數據提供單一事實源，從而為組織提供雲原生選項，以滿足有關日誌收集和保留的要求。</t>
+          <t>將 Microsoft Entra ID 日誌與平臺為中心的 Azure Monitor 集成。Azure Monitor 允許圍繞 Azure 中的日誌和監視數據提供單一事實來源，為組織提供雲原生選項，以滿足日誌收集和保留方面的要求。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2305,7 +2317,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>實施緊急訪問或打破玻璃帳戶，以防止租戶範圍的帳戶鎖定</t>
+          <t>實施緊急訪問或打破玻璃帳戶，以防止租戶範圍的帳戶鎖定。</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2355,7 +2367,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>部署 Microsoft Entra Connect 時，利用暫存伺服器實現高可用性/災難恢復</t>
+          <t>部署 Microsoft Entra Connect 時，請使用暫存伺服器實現高可用性/災難恢復。</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2401,7 +2413,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>避免將本地同步帳戶用於 Microsoft Entra ID 角色分配。</t>
+          <t>請勿使用本地同步帳戶進行 Microsoft Entra ID 角色分配，除非你有特別需要它的方案。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2451,7 +2463,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>如果需要，請使用 Microsoft Entra ID 應用程式代理為遠端使用者提供對內部應用程式（託管在雲中或本地）的安全和經過身份驗證的訪問。</t>
+          <t>使用 Microsoft Entra ID 應用程式代理為遠端使用者提供對應用程式的訪問許可權時，請將其作為平臺資源進行管理，因為每個租戶只能有一個實例。</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2501,13 +2513,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>通過使用虛擬網路配置標識網路分段，並對等回中心。在應用程式登陸區域（舊版）內提供身份驗證。</t>
+          <t>通過使用虛擬網路配置標識網路分段，並對等互連到中心。在應用程式登陸區域 （舊版） 內提供身份驗證。</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2518,7 +2530,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I38" s="15" t="inlineStr">
@@ -2647,7 +2659,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>建議遵循 Microsoft 最佳實踐命名標準</t>
+          <t>對資源使用明確定義的命名方案，例如 Microsoft 最佳實踐命名標準。</t>
         </is>
       </c>
       <c r="D41" s="21" t="inlineStr">
@@ -2697,7 +2709,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>強制實施不超過四個級別的合理扁平化管理組層次結構。</t>
+          <t>強制實施合理扁平的管理組層次結構，不超過四個級別。</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2747,7 +2759,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>強制實施沙箱管理組，允許使用者立即試驗 Azure</t>
+          <t>強制實施沙箱管理組，允許使用者立即試驗 Azure。</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2797,7 +2809,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>在根管理組下強制實施平臺管理組，以支援通用平臺策略和 Azure 角色分配</t>
+          <t>在根管理組下強制實施平臺管理組，以支持常見的平臺策略和 Azure 角色分配。</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2847,7 +2859,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>在連接管理組中強制實施專用連接訂閱，以託管 Azure 虛擬 WAN 中心、專用域名系統 （DNS）、ExpressRoute 線路和其他網路資源。</t>
+          <t>在連接管理組中強制實施專用連接訂閱，以託管 Azure 虛擬 WAN 中心、專用非 AD 功能變數名稱系統 （DNS）、ExpressRoute 線路和其他網路資源。</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2897,7 +2909,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>強制在根管理組下放置任何訂閱</t>
+          <t>強制在根管理組下不放置任何訂閱。</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2943,7 +2955,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>通過在管理組層次結構設置中啟用 Azure RBAC 授權，強制只有特權使用者才能在租戶中操作管理組</t>
+          <t>通過在管理組層次結構設置中啟用 Azure RBAC 授權，強制只有特權使用者才能操作租戶中的管理組。</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2989,7 +3001,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>在根級管理組下強制實施管理組，以根據工作負載的安全性、合規性、連接性和功能需求來表示工作負載的類型。</t>
+          <t>在根級別管理組下強制實施管理組，以根據其安全性、合規性、連接性和功能需求來表示工作負載的類型。</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3034,7 +3046,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>強制執行流程，使資源擁有者瞭解其角色和職責、訪問審查、預算審查、策略合規性，並在必要時進行修正。</t>
+          <t>強制執行流程，使資源擁有者瞭解其角色和職責、訪問評審、預算評審、策略合規性，並在必要時進行修正。</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3079,7 +3091,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>確保所有訂閱擁有者和IT核心團隊都瞭解訂閱配額及其對給定訂閱預配資源的影響。</t>
+          <t>確保所有訂閱擁有者和IT核心團隊都瞭解訂閱配額及其對給定訂閱的預配資源的影響。</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3125,7 +3137,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>在適當的情況下使用預留實例來優化成本並確保目標區域的可用容量。通過 Azure Policy 強制使用已購買的預留實例 VM SKU。</t>
+          <t>在適當的情況下使用預留實例來優化成本並確保目標區域的可用容量。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3175,13 +3187,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>強制實施儀錶板、工作簿或手動過程以監控已用容量級別</t>
+          <t>建立儀錶板和/或可視化效果，以監控計算和存儲容量指標。（即 CPU、記憶體、磁碟空間）</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3192,12 +3204,12 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-portal/azure-portal-dashboards</t>
         </is>
       </c>
       <c r="I52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/en-gb/training/modules/visualize-data-workbooks/</t>
         </is>
       </c>
       <c r="J52" s="22" t="n"/>
@@ -3225,7 +3237,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>強制執行成本管理流程</t>
+          <t>作為雲採用的一部分，請使用“託管雲成本”過程實施詳細的成本管理計劃。</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3242,7 +3254,7 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/get-started/manage-costs</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3275,7 +3287,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>如果伺服器將用於標識服務（如域控制器），請在標識管理組中建立專用標識訂閱，以託管這些服務。請確保將資源設置為使用其區域中可用的域控制器。</t>
+          <t>如果伺服器將用於身份服務（如域控制器），請在身份管理組中建立專用身份訂閱，以託管這些服務。確保將資源設置為使用其區域中可用的域控制器。</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3325,7 +3337,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>確保標籤用於計費和成本管理</t>
+          <t>確保將標籤用於計費和成本管理。</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3375,7 +3387,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區，在「登陸區」MG下有一個「機密公司」和「機密在線」管理組。</t>
+          <t>對於 Sovereign Landing Zone，在「登陸區」MG 下直接擁有“機密公司”和“機密在線”管理組。</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3420,7 +3432,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>為部署選擇正確的 Azure 區域。Azure 是一個全球規模的雲平臺，可通過許多區域和地理位置提供全球覆蓋。不同的 Azure 區域具有不同的特徵、訪問和可用性模型、成本、容量和提供的服務，因此必須考慮所有條件和要求</t>
+          <t>為部署選擇正確的 Azure 區域。Azure 是一個全球規模的雲平臺，可在許多區域和地理位置提供全球覆蓋。不同的 Azure 區域具有不同的特徵、訪問和可用性模型、成本、容量和提供的服務，因此必須考慮所有條件和要求。</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3470,7 +3482,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>請考慮多區域部署。根據客戶規模、位置和用戶狀態，在多個區域運營可能是交付服務和運行更靠近這些區域的應用程式的常見選擇。使用多區域部署對於提供異地災難恢復功能、消除單個區域容量的依賴關係以及降低臨時和當地語系化資源容量限制的風險也很重要</t>
+          <t>在多區域部署中部署 Azure 登陸區域。根據客戶規模、位置和用戶狀態，在多個區域運營可能是提供服務和在離他們更近的地方運行應用程式的常見選擇。使用多區域部署對於提供異地災難恢復功能、消除對單個區域容量的依賴性以及降低臨時和局部資源容量限制的風險也很重要。</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3520,7 +3532,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>確保所需的服務和功能在所選部署區域中可用</t>
+          <t>確保所需的服務和功能在選定的部署區域內可用。</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3570,7 +3582,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>制定計劃，使用應用程式閘道和 Azure Front door 保護工作負載分支中的交付應用程式內容。 您可以使用應用程式交付清單來獲取建議。</t>
+          <t>記錄一個標準，用於使用應用程式閘道和 Azure Front Door 從工作負載分支保護交付應用程式內容。 您可以使用應用程式交付清單來獲取建議。</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3610,12 +3622,12 @@
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>輪輻式</t>
+          <t>中心輻射型</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>利用基於傳統中心輻射型網路拓撲的網路設計，滿足需要最大靈活性的網路方案。</t>
+          <t>對於需要最大靈活性的網路方案，請使用中心輻射型網路拓撲。</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3660,18 +3672,18 @@
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>中心輻射型</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>在面向內部 （corp） 和面向外部的應用 （online） 的登陸區域內執行應用交付。</t>
+          <t>在中心虛擬網路中部署共用網路服務，包括 ExpressRoute 閘道、VPN 閘道和 Azure 防火牆或合作夥伴 NVA。如有必要，還可以部署 DNS 服務。</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3682,19 +3694,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/traditional-azure-networking-topology</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3710,12 +3717,12 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>輪輻式</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>確保共用網路服務（包括 ExpressRoute 閘道、VPN 閘道和 Azure 防火牆或合作夥伴 NVA）位於中心虛擬網路中。如有必要，還可以部署 DNS 伺服器。</t>
+          <t>對應用程式登陸區域中的所有公共IP位址使用 DDoS 網路或IP保護計畫。</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3732,15 +3739,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3756,12 +3767,12 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>中心輻射型</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>對應用程式登陸區域中的所有公共IP位址使用 DDoS 網路或IP防護計畫。</t>
+          <t>部署合作夥伴網路技術或 NVA 時，請遵循合作夥伴供應商的指導。</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3778,19 +3789,15 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3806,18 +3813,18 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>輪輻式</t>
+          <t>中心輻射型</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>部署合作夥伴網路技術或 NVA 時，請遵循合作夥伴供應商的指導</t>
+          <t>如果需要在中心輻射型方案中在 ExpressRoute 和 VPN 閘道之間傳輸，請使用 Azure 路由伺服器。</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3828,7 +3835,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I65" s="15" t="n"/>
@@ -3836,7 +3843,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3852,12 +3859,12 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>輪輻式</t>
+          <t>中心輻射型</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>如果需要在中心輻射型方案中的 ExpressRoute 和 VPN 閘道之間傳輸，請使用 Azure 路由伺服器。</t>
+          <t>如果使用路由伺服器，請對路由伺服器子網使用 /27 前置綴。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3874,14 +3881,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3897,18 +3904,18 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>輪輻式</t>
+          <t>中心輻射型</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>如果使用 Route Server，請對 Route Server 子網使用 /27 前置綴。</t>
+          <t>對於跨 Azure 區域具有多個中心輻射型拓撲的網路體系結構，請在中心 VNet 之間使用全域虛擬網路對等互連將區域相互連接。</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3919,15 +3926,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3943,12 +3954,12 @@
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>輪輻式</t>
+          <t>中心輻射型</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>對於跨 Azure 區域具有多個中心輻射型拓撲的網路體系結構，請使用中心 VNet 之間的全域虛擬網路對等互連將區域相互連接。</t>
+          <t>使用用於網路的 Azure Monitor 監視 Azure 上網路的端到端狀態。</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3965,19 +3976,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3993,12 +4004,12 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>輪輻式</t>
+          <t>中心輻射型</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>使用用於網路的 Azure Monitor 監視 Azure 上網路的端到端狀態。</t>
+          <t>如果一個區域中有超過 400 個分支網路，請部署一個額外的中心，以繞過 VNet 對等互連限制 （500） 和可通過 ExpressRoute 播發的最大前綴數 （1000）。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4015,19 +4026,15 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4043,12 +4050,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>輪輻式</t>
+          <t>中心輻射型</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>將分支虛擬網路連接到中央中心虛擬網路時，請考慮 VNet 對等互連限制 （500），即可通過 ExpressRoute 播發的最大前綴數 （1000）</t>
+          <t>將每個路由表的路由數限制為 400 個。</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4073,7 +4080,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4089,18 +4096,18 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>輪輻式</t>
+          <t>中心輻射型</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>考慮每個路由表的路由限制 （400）。</t>
+          <t>配置 VNet 對等互連時，請使用「允許流量流向遠端虛擬網路」設置。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4111,7 +4118,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -4119,7 +4126,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4135,18 +4142,18 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>輪輻式</t>
+          <t>加密</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>配置 VNet 對等互連時，使用「允許流量流向遠端虛擬網路」設置</t>
+          <t>使用 ExpressRoute Direct 時，請配置 MACsec，以便加密組織路由器和 MSEE 之間的第二層級別的流量。該圖顯示了流中的此加密。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4157,7 +4164,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-macsec</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4165,7 +4172,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4186,7 +4193,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>使用 ExpressRoute Direct 時，請配置 MACsec，以便加密組織路由器和 MSEE 之間的第二層級別的流量。該圖顯示了流中的此加密。</t>
+          <t>對於無法使用MACsec的情況（例如，不使用ExpressRoute Direct），請使用 VPN 閘道通過 ExpressRoute 專用對等互連建立 IPsec 隧道。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4203,15 +4210,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-macsec</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/site-to-site-vpn-private-peering</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4227,18 +4238,18 @@
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>加密</t>
+          <t>知識產權計劃</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>對於無法使用MACsec的方案（例如，不使用ExpressRoute Direct），請使用 VPN 閘道通過 ExpressRoute 專用對等互連建立 IPsec 隧道。</t>
+          <t>確保在 Azure 區域和本地位置之間不使用重疊的 IP 位址空間。</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4249,19 +4260,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4282,13 +4293,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>確保在 Azure 區域和本地位置之間不使用重疊的 IP 位址空間</t>
+          <t>使用專用 Internet 的位址分配範圍中的 IP 位址 （RFC 1918）。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4311,7 +4322,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4332,13 +4343,13 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>使用專用 Internet 位址分配範圍 （RFC 1918） 中的 IP 位址。</t>
+          <t>確保不會浪費IP位址空間，不要創建不必要的大型虛擬網路（例如/16）。</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4361,7 +4372,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4382,7 +4393,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>確保IP位址空間不被浪費，不要創建不必要的大型虛擬網路（例如 /16）Ensure that that IP address space is not disdised， don't create un不必要的大型虛擬網路（例如 /16）Ensure that that IP address space is not waste， don't create un不必要的大型虛擬網络（例如 /16）Ensure that that IP address space is</t>
+          <t>請勿對生產網站和災難恢復網站使用重疊的IP位址範圍。</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4399,19 +4410,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4432,13 +4443,13 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>避免對生產網站和DR網站使用重疊的IP位址範圍。</t>
+          <t>對於只需要在 Azure 中進行名稱解析的環境，請使用 Azure 專用 DNS 進行解析，並使用委託區域進行名稱解析（例如“azure.contoso.com”）。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4449,7 +4460,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-getstarted-portal</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
@@ -4461,7 +4472,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4482,7 +4493,7 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>對於只需要在 Azure 中進行名稱解析的環境，請使用 Azure 專用 DNS 進行解析，並使用委派區域進行名稱解析（例如“azure.contoso.com”）。</t>
+          <t>對於需要跨 Azure 和本地進行名稱解析且沒有現有企業 DNS 服務（如 Active Directory）的環境，請使用 Azure DNS 專用解析程式將 DNS 請求路由到 Azure 或本地 DNS 伺服器。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4499,19 +4510,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4532,13 +4543,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>對於需要跨 Azure 和本地進行名稱解析的環境，請考慮使用 Azure DNS 專用解析程式。</t>
+          <t>需要並部署自己的 DNS（例如 Red Hat OpenShift）的特殊工作負載應使用其首選的 DNS 解決方案。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4549,19 +4560,15 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
-        </is>
-      </c>
-      <c r="I80" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I80" s="15" t="n"/>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4582,13 +4589,13 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>需要並部署自己的 DNS（例如 Red Hat OpenShift）的特殊工作負載應使用其首選的 DNS 解決方案。</t>
+          <t>啟用 Azure DNS 的自動註冊，以自動管理虛擬網路中部署的虛擬機的 DNS 記錄的生命週期。</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4599,15 +4606,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4623,18 +4634,18 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>啟用 Azure DNS 的自動註冊，以自動管理虛擬網路中部署的虛擬機的 DNS 記錄的生命週期。</t>
+          <t>使用 Azure Bastion 安全地連接到網路。</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4645,19 +4656,15 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4678,7 +4685,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>請考慮使用 Azure Bastion 安全地連接到網路。</t>
+          <t>在子網 /26 或更大的情況下使用 Azure Bastion。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4695,7 +4702,7 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="I83" s="15" t="n"/>
@@ -4703,7 +4710,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4724,7 +4731,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>在子網 /26 或更大範圍內使用 Azure Bastion。</t>
+          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為登陸區域的入站 HTTP/S 連接提供全域保護。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4741,15 +4748,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
-        </is>
-      </c>
-      <c r="I84" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+        </is>
+      </c>
+      <c r="I84" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4770,13 +4781,13 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為與登陸區域的入站 HTTP/S 連接提供全域保護。</t>
+          <t>使用 Azure Front Door 和 Azure 應用程式閘道幫助保護 HTTP/S 應用時，請在 Azure Front Door 中使用 WAF 策略。鎖定 Azure 應用程式閘道，以便僅接收來自 Azure Front Door 的流量。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4787,7 +4798,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
@@ -4799,7 +4810,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4820,13 +4831,13 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 Azure 應用程式閘道幫助保護 HTTP/S 應用時，請使用 Azure Front Door 中的 WAF 策略。鎖定 Azure 應用程式閘道，以便僅接收來自 Azure Front Door 的流量。</t>
+          <t>當入站 HTTP/S 連接需要 WAF 和其他反向代理時，請將它們部署在登陸區域虛擬網路中，並將它們與它們要保護和向 Internet 公開的應用一起部署。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4842,14 +4853,14 @@
       </c>
       <c r="I86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4870,7 +4881,7 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>部署 WAF 和其他反向代理是入站 HTTP/S 連接所必需的，將它們部署在登陸區域虛擬網路中，並與它們保護並公開給 Internet 的應用一起部署。</t>
+          <t>使用 Azure DDoS 網路或 IP 保護計劃來幫助保護虛擬網路中的公共 IP 位址終結點。</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4887,19 +4898,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4920,7 +4931,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure DDoS 網路或 IP 保護計劃來幫助保護虛擬網路中的公共 IP 位址終結點。</t>
+          <t>在即將到來的重大更改之前，規劃如何管理網路出站流量配置和策略。2025 年 9 月 30 日，新部署的預設出站訪問將停用，僅允許顯式訪問配置。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4937,19 +4948,15 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
-        </is>
-      </c>
-      <c r="I88" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
+        </is>
+      </c>
+      <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4970,7 +4977,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>在即將到來的重大更改之前，評估和審查網路出站流量配置和策略。2025 年 9 月 30 日，新部署的預設出站訪問將停用，僅允許顯式訪問配置</t>
+          <t>添加診斷設置以保存所有受保護的公共IP位址（DDoS IP或網路保護）的 DDoS 相關日誌。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4987,15 +4994,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5016,7 +5027,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>添加診斷設置以保存所有受保護的公共IP位址（DDoS IP或網路保護）的 DDoS 相關日誌。</t>
+          <t>確保存在策略分配，以拒絕直接綁定到虛擬機的公共IP位址。 如果特定 VM 上需要公共 IP，請使用排除項。</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5033,19 +5044,15 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://github.com/Azure/Enterprise-Scale/wiki/ALZ-Policies#corp</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
+          <t>3c5a808d-c695-4c14-a63c-c7ab7a510e41</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5066,7 +5073,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>確保已調查使用 ExpressRoute 作為與 Azure 的主要連接的可能性。</t>
+          <t>使用 ExpressRoute 作為到 Azure 的主要連接。 使用 VPN 作為備用連接源。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5083,7 +5090,7 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
@@ -5116,12 +5123,12 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>使用多條 ExpressRoute 線路或多個本地位置時，請確保使用 BGP 屬性優化路由（如果首選某些路徑）。</t>
+          <t>使用多個 ExpressRoute 線路或多個本地位置時，請使用 BGP 屬性來優化路由。</t>
         </is>
       </c>
       <c r="D92" s="21" t="inlineStr">
         <is>
-          <t>可以使用 AS 路徑前置和連接權重來影響從 Azure 到本地的流量，並使用自己的路由器中的全部 BGP 屬性來影響從本地到 Azure 的流量。</t>
+          <t>可以使用 AS 路徑預置和連接權重來影響從 Azure 到本地的流量，並使用自己的路由器中的所有 BGP 屬性來影響從本地到 Azure 的流量。</t>
         </is>
       </c>
       <c r="E92" s="21" t="inlineStr">
@@ -5170,7 +5177,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>確保根據頻寬和性能要求為 ExpressRoute/VPN 閘道使用正確的 SKU。</t>
+          <t>根據頻寬和性能要求為 ExpressRoute/VPN 閘道選擇正確的 SKU。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5187,7 +5194,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways?source=recommendations#gwsku</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
@@ -5220,7 +5227,7 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>確保僅當達到證明其成本合理的頻寬時，才使用無限數據的ExpressRoute線路。</t>
+          <t>確保僅在達到與其成本相符的頻寬時才使用無限數據的 ExpressRoute 線路。</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5266,7 +5273,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>如果線路的對等互連位置支援本地 SKU 的 Azure 區域，則利用 ExpressRoute 的本地 SKU 來降低線路的成本。</t>
+          <t>如果線路對等互連位置支援本地 SKU 的 Azure 區域，則利用 ExpressRoute 的本地 SKU 來降低線路成本。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5362,7 +5369,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>對於需要高於 10 Gbps 的頻寬或專用 10/100 Gbps 埠的方案，請使用 ExpressRoute Direct。</t>
+          <t>對於需要頻寬高於 10 Gbps 或專用 10/100 Gbps 埠的方案，請使用 ExpressRoute Direct。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5412,7 +5419,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>如果需要低延遲，或者從本地到 Azure 的輸送量必須大於 10 Gbps，請啟用 FastPath 以繞過數據路徑的 ExpressRoute 閘道。</t>
+          <t>如果需要低延遲，或者從本地到 Azure 的輸送量必須大於 10 Gbps，請啟用 FastPath 以從數據路徑繞過 ExpressRoute 閘道。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5562,7 +5569,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>如果使用 ExpressRoute Direct，請考慮使用本地 Azure 區域的 ExpressRoute 本地線路來節省成本</t>
+          <t>如果使用 ExpressRoute Direct，請考慮使用到本地 Azure 區域的 ExpressRoute 本地線路來節省成本。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5612,7 +5619,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>當需要流量隔離或專用頻寬時（例如，用於分離生產環境和非生產環境），請使用不同的 ExpressRoute 線路。它將幫助您確保隔離的路由域並減輕干擾鄰居風險。</t>
+          <t>當需要流量隔離或專用頻寬時，例如用於分離生產環境和非生產環境，請使用不同的 ExpressRoute 線路。它將幫助您確保隔離的路由域並減輕嘈雜的鄰居風險。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5712,7 +5719,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>使用連接監視器進行跨網路的連接監視，尤其是在本地和 Azure 之間。</t>
+          <t>使用連接監視器監視整個網路的連接監視，尤其是本地和 Azure 之間的連接監視。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5779,7 +5786,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#need-for-redundant-connectivity-solution</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
@@ -5812,7 +5819,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>使用網站到網站 VPN 作為 ExpressRoute 的故障轉移，尤其是在僅使用單個 ExpressRoute 線路時。</t>
+          <t>如果僅使用單個 ExpressRoute 線路，則使用網站到網站 VPN 作為 ExpressRoute 的故障轉移。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5904,7 +5911,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>如果使用 ExpressRoute，則本地路由應是動態的：如果連接失敗，它應收斂到線路的剩餘連接。理想情況下，負載應在兩個連接之間共用為主動/主動，但也支持主動/被動。</t>
+          <t>如果使用 ExpressRoute，則本地路由應是動態的：如果連接失敗，它應收斂到線路的其餘連接。負載應在兩個連接之間共用，理想情況下為主動/主動，儘管也支持主動/被動。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5950,7 +5957,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>確保 ExpressRoute 線路的兩個物理連結連接到網路中的兩個不同的邊緣設備。</t>
+          <t>確保 ExpressRoute 線路的兩個物理鏈路連接到網路中的兩個不同的邊緣設備。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -6050,7 +6057,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>將 ExpressRoute 閘道連接到來自不同對等互連位置的兩條或多條線路，以提高復原能力。</t>
+          <t>將 ExpressRoute 閘道連接到來自不同對等互連位置的兩條或多條線路，以實現更高的復原能力。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6100,7 +6107,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>為 ExpressRoute 虛擬網路閘道配置診斷日誌和警報。</t>
+          <t>配置 ExpressRoute 虛擬網路閘道的診斷日誌和警報。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6150,7 +6157,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>避免使用 ExpressRoute 線路進行 VNet 到 VNet 通信。</t>
+          <t>請勿使用 ExpressRoute 線路進行 VNet 到 VNet 通信。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6195,18 +6202,18 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>防火牆</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 防火牆管理發往 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東西向流量篩選（如果組織需要）</t>
+          <t>請勿將 Azure 流量發送到混合位置進行檢查。 相反，請遵循“Azure 中的流量保留在 Azure 中”的原則，以便 Azure 中的資源之間的通信通過 Microsoft 主幹網络進行。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6217,19 +6224,15 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="n"/>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6250,13 +6253,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>創建全域 Azure 防火牆策略以管理全球網路環境中的安全狀況，並將其分配給所有 Azure 防火牆實例。通過 Azure 基於角色的訪問控制將增量防火牆策略委託給本地安全團隊，允許精細策略滿足特定區域的要求。</t>
+          <t>使用 Azure 防火牆來管理到 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東西流量篩選（如果組織需要）。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6267,7 +6270,7 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/service-guides/azure-firewall</t>
+          <t>https://learn.microsoft.com/azure/firewall/overview</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6279,7 +6282,7 @@
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6300,13 +6303,13 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>如果組織希望使用此類解決方案來幫助保護出站連接，請在 Firewall Manager 中配置受支援的合作夥伴 SaaS 安全提供者。</t>
+          <t>創建全域 Azure 防火牆策略以管理全球網路環境中的安全狀況，並將其分配給所有 Azure 防火牆實例。通過 Azure 基於角色的訪問控制將增量防火牆策略委派給本地安全團隊，從而允許使用精細策略來滿足特定區域的要求。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6317,7 +6320,7 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall-manager/deploy-trusted-security-partner</t>
+          <t>https://learn.microsoft.com/azure/firewall-manager/policy-overview</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6329,7 +6332,7 @@
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6350,13 +6353,13 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>使用基於 FQDN 的網路規則和具有 DNS 代理的 Azure 防火牆，通過應用程式規則不支援的協定篩選到 Internet 的出口流量。</t>
+          <t>如果組織想要使用此類解決方案來幫助保護出站連接，請在 Firewall Manager 中配置受支援的合作夥伴 SaaS 安全提供者。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6367,14 +6370,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/firewall-manager/deploy-trusted-security-partner</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6395,7 +6403,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 防火牆高級版提供額外的安全性和保護。</t>
+          <t>使用應用程式規則篩選目標主機名上的出站流量，以查找受支持的協定。 使用基於 FQDN 的網路規則和具有 DNS 代理的 Azure 防火牆來篩選通過其他協定流向 Internet 的傳出流量。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6412,7 +6420,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I118" s="15" t="n"/>
@@ -6420,7 +6428,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6441,7 +6449,7 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 防火牆威脅情報模式配置為「警報」和「拒絕」，以獲得額外保護。</t>
+          <t>使用 Azure 防火牆高級版啟用其他安全功能。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6465,7 +6473,7 @@
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6486,7 +6494,7 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 防火牆 IDPS 模式配置為「拒絕」 ，以獲得額外的保護。</t>
+          <t>將 Azure 防火牆威脅情報模式配置為「警報」和「拒絕」以獲得額外保護。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6503,7 +6511,7 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps-signature-rules</t>
         </is>
       </c>
       <c r="I120" s="15" t="n"/>
@@ -6511,7 +6519,7 @@
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6532,7 +6540,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>對於未連接到虛擬 WAN 的 VNet 中的子網，請附加路由表，以便將 Internet 流量重定向到 Azure 防火牆或網路虛擬設備</t>
+          <t>將 Azure 防火牆 IDPS 模式配置為「拒絕」以獲得額外保護。</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6549,7 +6557,7 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="I121" s="15" t="n"/>
@@ -6557,7 +6565,7 @@
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6578,13 +6586,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>添加診斷設置，以使用「特定於資源」的目標表保存所有 Azure 防火牆部署的日誌。</t>
+          <t>對於未連接到虛擬 WAN 的 VNet 中的子網，請附加路由表，以便將 Internet 流量重定向到 Azure 防火牆或網路虛擬設備。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6595,19 +6603,15 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-structured-logs</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6628,13 +6632,13 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>從 Azure 防火牆經典規則（如果存在）遷移到防火牆策略。</t>
+          <t>添加診斷設置，使用「特定於資源」的目標表保存所有 Azure 防火牆部署的日誌。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>重要</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6645,7 +6649,7 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall-manager/migrate-to-policy</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-structured-logs</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
@@ -6657,7 +6661,7 @@
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
+          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6673,18 +6677,18 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>對 Azure 防火牆子網使用 /26 前置綴。</t>
+          <t>從 Azure 防火牆經典規則（如果存在）遷移到防火牆策略。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>重要</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6695,15 +6699,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/firewall-manager/migrate-to-policy</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6719,18 +6727,18 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>防火牆</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>將防火牆策略中的規則排列到規則集合組和規則集合中，並根據它們的使用頻率</t>
+          <t>對 Azure 防火牆子網使用 /26 前置綴。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6741,7 +6749,7 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall-manager/rule-hierarchy</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="I125" s="15" t="n"/>
@@ -6749,7 +6757,7 @@
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>828cec2e-af6c-40c2-8fa2-1b681ee63eb7</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6770,7 +6778,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>使用IP組或IP前置綴來減少IP表規則的數量</t>
+          <t>根據防火牆策略中的規則的使用頻率，將規則排列到規則集合組和規則集合中。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6787,14 +6795,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/ip-groups</t>
+          <t>https://learn.microsoft.com/azure/firewall-manager/rule-hierarchy</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>0da83bb1-2f39-49af-b5c9-835fc455e3d1</t>
+          <t>828cec2e-af6c-40c2-8fa2-1b681ee63eb7</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6815,7 +6823,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>避免將通配符作為DNATS的源IP，例如*或任何通配符，您應該為傳入的DNAT指定源IP</t>
+          <t>使用IP組或IP前置綴來減少IP表規則的數量。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6832,14 +6840,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/tutorial-firewall-dnat</t>
+          <t>https://learn.microsoft.com/azure/firewall/ip-groups</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>c44c6f0e-1642-4a61-a17b-0922f835c93a</t>
+          <t>0da83bb1-2f39-49af-b5c9-835fc455e3d1</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6860,7 +6868,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>通過監控 SNAT 埠使用方式、評估 NAT 閘道設置和確保無縫故障轉移來防止 SNAT 埠耗盡。如果埠計數接近限制，則表明 SNAT 耗盡可能迫在眉睫。</t>
+          <t>不要使用通配符作為DNAT的源IP，例如 *或 any，您應該為傳入的DNAT指定源IP。</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6877,14 +6885,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/tutorial-hub-spoke-nat-firewall</t>
+          <t>https://learn.microsoft.com/azure/firewall/tutorial-firewall-dnat</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>7371dc21-251a-47a3-af14-6e01b9da4757</t>
+          <t>c44c6f0e-1642-4a61-a17b-0922f835c93a</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6905,13 +6913,13 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>啟用 TLS 檢查</t>
+          <t>通過監控 SNAT 埠使用方式、評估 NAT 閘道設置並確保無縫故障轉移，防止 SNAT 埠耗盡。如果埠計數接近限制，則表明 SNAT 耗盡可能迫在眉睫。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6922,14 +6930,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#tls-inspection</t>
+          <t>https://learn.microsoft.com/azure/firewall/integrate-with-nat-gateway</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>346840b8-1064-496e-8396-4b1340172d52</t>
+          <t>7371dc21-251a-47a3-af14-6e01b9da4757</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6950,13 +6958,13 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>使用 Web 類別允許或拒絕對特定主題的出站訪問。</t>
+          <t>如果使用的是 Azure 防火牆高級版，請啟用 TLS 檢查。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6967,14 +6975,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#web-categories</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#tls-inspection</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>39990a13-915c-45f9-a2d3-562d7d6c4b7c</t>
+          <t>346840b8-1064-496e-8396-4b1340172d52</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -6995,13 +7003,13 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>作為 TLS 檢查的一部分，請計劃從 Azure 應用閘道接收流量以進行檢查。</t>
+          <t>使用 Web 類別允許或拒絕對特定主題的出站訪問。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7012,14 +7020,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/gateway/application-gateway-before-azure-firewall</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#web-categories</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>6eff7e6c-6c4a-43d7-be3f-6641c2cb3d4a</t>
+          <t>39990a13-915c-45f9-a2d3-562d7d6c4b7c</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7040,7 +7048,7 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>啟用 Azure 防火牆 DNS 代理配置</t>
+          <t>作為 TLS 檢查的一部分，請計劃從 Azure 應用閘道接收流量以進行檢查。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7057,14 +7065,14 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/dns-details</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/gateway/application-gateway-before-azure-firewall</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>94f3eede-9aa3-4088-92a3-bb9a56509fad</t>
+          <t>6eff7e6c-6c4a-43d7-be3f-6641c2cb3d4a</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7085,7 +7093,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>確保有策略分配來拒絕直接綁定到虛擬機的公共IP位址</t>
+          <t>啟用 Azure 防火牆 DNS 代理配置。</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7102,14 +7110,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/Enterprise-Scale/wiki/ALZ-Policies#corp</t>
+          <t>https://learn.microsoft.com/azure/firewall/dns-details</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>3c5a808d-c695-4c14-a63c-c7ab7a510e41</t>
+          <t>94f3eede-9aa3-4088-92a3-bb9a56509fad</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7130,13 +7138,13 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 防火牆與 Azure Monitor 集成，並啟用診斷日誌記錄來存儲和分析防火牆日誌。</t>
+          <t>將 Azure 防火牆與 Azure Monitor 集成，並啟用診斷日誌記錄以存儲和分析防火牆日誌。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7175,7 +7183,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>為防火牆規則實施備份</t>
+          <t>實施防火牆規則的備份</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7215,12 +7223,12 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>PaaS 的</t>
+          <t>PaaS 開發</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>確保注入虛擬網路的 Azure PaaS 服務的控制平面通信不會中斷，例如，使用 0.0.0.0/0 路由或阻止控制平面流量的 NSG 規則。</t>
+          <t>不要中斷注入虛擬網路的 Azure PaaS 服務的控制平面通信，例如使用 0.0.0.0/0 路由或阻止控制平面流量的 NSG 規則。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7265,12 +7273,12 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>PaaS 的</t>
+          <t>PaaS 開發</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>將專用連結（如果可用）用於共用的 Azure PaaS 服務。</t>
+          <t>使用專用連結（如果可用）獲取共用 Azure PaaS 服務。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7287,7 +7295,7 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/private-link/private-link-overview</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7315,12 +7323,12 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>PaaS 的</t>
+          <t>PaaS 開發</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>通過專用終結點和 ExpressRoute 專用對等互連從本地訪問 Azure PaaS 服務。此方法可避免通過公共 Internet 進行傳輸。</t>
+          <t>通過專用終結點和 ExpressRoute 專用對等互連從本地訪問 Azure PaaS 服務。此方法可避免在公共 Internet 上傳輸。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7337,7 +7345,7 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/private-link/private-endpoint-overview</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -7365,7 +7373,7 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>PaaS 的</t>
+          <t>PaaS 開發</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
@@ -7376,7 +7384,7 @@
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7387,7 +7395,7 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -7415,12 +7423,12 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>PaaS 的</t>
+          <t>PaaS 開發</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>使用 FQDN 而不是 Azure 防火牆或 NVA 中的 IP 位址篩選到 Azure PaaS 服務的出口流量，以防止數據外洩。如果使用專用連結，則可以阻止所有 FQDN，否則僅允許所需的 PaaS 服務。</t>
+          <t>使用 FQDN 而不是 Azure 防火牆或 NVA 中的 IP 位址篩選流向 Azure PaaS 服務的出口流量，以防止數據外洩。如果使用專用連結，則可以阻止所有 FQDN，否則僅允許所需的 PaaS 服務。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7437,7 +7445,7 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>azure/private-link/inspect-traffic-with-azure-firewall</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7470,7 +7478,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>至少對閘道子網使用 /27 前置綴</t>
+          <t>至少對閘道子網使用 /27 前置綴。</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7521,7 +7529,7 @@
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7610,7 +7618,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>使用 NSG 説明保護跨子網的流量，以及跨平台的東/西流量（登陸區域之間的流量）。</t>
+          <t>使用 NSG 説明保護子網之間的流量，以及平台中的東西向流量（登陸區域之間的流量）。</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7660,7 +7668,7 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>應用程式團隊應使用子網級別 NSG 的應用程式安全組來幫助保護登陸區域內的多層 VM。</t>
+          <t>使用 NSG 和應用程式安全組對登陸區域內的流量進行微分段，並避免使用中心 NVA 篩選流量流。</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7675,7 +7683,11 @@
         </is>
       </c>
       <c r="G145" s="21" t="n"/>
-      <c r="H145" s="15" t="n"/>
+      <c r="H145" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
       <c r="I145" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7685,7 +7697,7 @@
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7706,7 +7718,7 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>使用 NSG 和應用程式安全組對登陸區域內的流量進行微分段，並避免使用中央 NVA 篩選流量。</t>
+          <t>啟用 VNet 流日誌並將其饋送到流量分析中，以深入了解內部和外部流量流。</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7723,19 +7735,19 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/vnet-flow-logs-overview</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7756,7 +7768,7 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>啟用 VNet 流日誌並將其饋送到流量分析中，以深入了解內部和外部流量流。</t>
+          <t>由於規則限制為 1000 條，因此每個 NSG 實施的 NSG 規則不要超過 900 個。</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7773,19 +7785,19 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
           <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7801,12 +7813,12 @@
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>虛擬廣域網</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>考慮每個 NSG 的 NSG 規則限制 （1000）。</t>
+          <t>如果在虛擬 WAN 路由設計清單中明確描述了你的方案，請使用虛擬 WAN。</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7823,19 +7835,19 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7856,7 +7868,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>請考慮使用虛擬 WAN 簡化 Azure 網路管理，並確保在虛擬 WAN 路由設計清單中明確描述你的方案</t>
+          <t>使用每個 Azure 區域的虛擬 WAN 中心，透過通用的全球 Azure 虛擬 WAN 跨 Azure 區域將多個登陸區域連接在一起。</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7873,19 +7885,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/virtual-wan-network-topology#virtual-wan-network-design-recommendationst</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7906,7 +7913,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>使用每個 Azure 區域的虛擬 WAN 中心，通過通用的全域 Azure 虛擬 WAN 跨 Azure 區域將多個登陸區域連接在一起。</t>
+          <t>對於出站 Internet 流量保護和篩選，請在安全中心部署 Azure 防火牆。</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7923,14 +7930,19 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/howto-firewall</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7951,13 +7963,13 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>遵循“Azure 中的流量保留在 Azure 中”原則，以便通過 Microsoft 主幹網络在 Azure 中跨資源進行通信</t>
+          <t>確保虛擬 WAN 網路體系結構與已確定的體系結構方案保持一致。</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7968,14 +7980,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/migrate-from-hub-spoke-topology</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7996,7 +8008,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>對於出站 Internet 流量保護和篩選，請在安全中心部署 Azure 防火牆</t>
+          <t>使用適用於虛擬 WAN 的 Azure Monitor 見解來監視虛擬 WAN 的端到端拓撲、狀態和關鍵指標。</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8013,19 +8025,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8046,7 +8053,7 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>確保網路體系結構在 Azure 虛擬 WAN 限制範圍內。</t>
+          <t>不要在虛擬 WAN 中禁用分支到分支流量，除非應明確阻止這些流。</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8063,14 +8070,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8091,7 +8098,7 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>使用適用於虛擬 WAN 的 Azure Monitor 見解監視虛擬 WAN 的端到端拓撲、狀態和關鍵指標。</t>
+          <t>使用 AS-Path 作為中心路由首選項，因為它比 ExpressRoute 或 VPN 更靈活。</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8108,14 +8115,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8136,7 +8143,7 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>請確保 IaC 部署不會在虛擬 WAN 中禁用分支到分支通信，除非應顯式阻止這些流。</t>
+          <t>在虛擬 WAN 中配置基於標籤的傳播，否則虛擬中心之間的連接將受到損害。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8153,14 +8160,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8181,13 +8188,13 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>使用 AS-Path 作為中心路由首選項，因為它比 ExpressRoute 或 VPN 更靈活。</t>
+          <t>至少為虛擬中心分配一個 /23 前置綴，以確保有足夠的IP空間可用。</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8198,14 +8205,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8216,23 +8223,23 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>請確保 IaC 部署在虛擬 WAN 中配置基於標籤的傳播，否則虛擬中心之間的連接將受到損害。</t>
+          <t>戰略性地利用 Azure Policy，為環境定義控制，使用策略計劃對相關策略進行分組。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8243,14 +8250,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8261,23 +8268,23 @@
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>為虛擬中心分配足夠的IP空間，最好是 /23前置綴。</t>
+          <t>將法規和合規性要求映射到 Azure Policy 定義和 Azure 角色分配。</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8288,14 +8295,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8316,13 +8323,13 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>戰略性地利用 Azure Policy，為環境定義控制，使用策略計劃對相關策略進行分組。</t>
+          <t>在中間根管理組建立 Azure Policy 定義，以便可以在繼承的範圍內分配它們。</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8340,7 +8347,7 @@
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8361,13 +8368,13 @@
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>將法規和合規性要求映射到 Azure Policy 定義和 Azure 角色分配。</t>
+          <t>如果需要，在最高適當級別管理策略分配，並在底層管理排除項。</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
       <c r="E160" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8385,7 +8392,7 @@
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8406,13 +8413,13 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>在中間根管理組建立 Azure Policy 定義，以便可以在繼承的範圍內分配這些定義</t>
+          <t>使用 Azure Policy 控制使用者可以在訂閱/管理組級別預配哪些服務。</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
       <c r="E161" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8423,14 +8430,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8451,13 +8458,13 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>如果需要，在最高適當級別管理策略分配，在最低級別管理排除項。</t>
+          <t>盡可能使用內置策略，以最大程度地減少運營開銷。</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8475,7 +8482,7 @@
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8496,13 +8503,17 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 控制使用者可以在訂閱/管理組級別預配哪些服務</t>
-        </is>
-      </c>
-      <c r="D163" s="21" t="n"/>
+          <t>在特定範圍內分配內置的「資源策略參與者」角色，以啟用應用程式級治理。</t>
+        </is>
+      </c>
+      <c r="D163" s="21" t="inlineStr">
+        <is>
+          <t>通過將「資源策略參與者」角色分配給特定範圍，可以將策略管理委派給相關團隊。例如，中心 IT 團隊可以監督管理組級別的策略，而應用程式團隊則處理其訂閱的策略，從而在遵守組織標準的情況下實現分散式治理。</t>
+        </is>
+      </c>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8513,14 +8524,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8541,7 +8552,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>盡可能使用內置策略，以最大程度地減少操作開銷。</t>
+          <t>限制在根管理組範圍內執行的 Azure Policy 分配數，以避免在繼承的範圍內通過排除項進行管理。</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8565,7 +8576,7 @@
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8586,14 +8597,10 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>在特定範圍內分配內置的「資源策略參與者」角色，以啟用應用程式級治理。</t>
-        </is>
-      </c>
-      <c r="D165" s="21" t="inlineStr">
-        <is>
-          <t>通過將「資源策略參與者」角色分配給特定範圍，可以將策略管理委派給相關團隊。例如，中央IT團隊可以監督管理組級別的策略，而應用程式團隊則處理其訂閱的策略，從而在遵守組織標準的情況下實現分散式治理。</t>
-        </is>
-      </c>
+          <t>如果存在任何數據主權要求，則應部署 Azure 策略來強制實施這些要求。</t>
+        </is>
+      </c>
+      <c r="D165" s="21" t="n"/>
       <c r="E165" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -8607,14 +8614,19 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/industry/release-plan/2023wave2/cloud-sovereignty/enable-data-sovereignty-policy-baseline</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8635,7 +8647,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>限制在根管理組範圍內進行的 Azure Policy 分配數，以避免在繼承範圍內通過排除項進行管理。</t>
+          <t>對於主權登陸區域，部署主權策略基線，並在正確的管理組級別進行分配。</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8652,14 +8664,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/sovereign-landing-zone</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8680,7 +8692,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>如果存在任何數據主權要求，可以部署 Azure 策略來強制實施這些要求</t>
+          <t>對於主權登陸區域，將主權控制目標記錄到策略映射。</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8697,19 +8709,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/industry/release-plan/2023wave2/cloud-sovereignty/enable-data-sovereignty-policy-baseline</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8730,7 +8737,7 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區，主權政策基線的政策計劃將在正確的 MG 級別部署和分配。</t>
+          <t>對於主權登陸區，請確保已制定“主權控制目標到策略映射”的管理流程。</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8747,14 +8754,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/sovereign-landing-zone</t>
+          <t>https://learn.microsoft.com/industry/sovereignty/policy-portfolio-baseline#sovereignty-baseline-policy-initiatives</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8770,12 +8777,12 @@
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>優化您的雲投資</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區，記錄了“主權控制目標”到策略映射“。</t>
+          <t>配置“實際”和“預測”預算警報。</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8792,14 +8799,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/industry/sovereignty/policy-portfolio-baseline</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8810,17 +8817,17 @@
     <row r="170" ht="16.5" customHeight="1">
       <c r="A170" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區，CRUD的“主權控制目標到政策映射”的流程已經到位。</t>
+          <t>使用單個監視器日誌工作區集中管理平臺，但 Azure 基於角色的訪問控制 （Azure RBAC）、數據主權要求或數據保留策略要求使用單獨工作區的情況除外。</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8835,11 +8842,21 @@
         </is>
       </c>
       <c r="G170" s="21" t="n"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8850,23 +8867,23 @@
     <row r="171" ht="16.5" customHeight="1">
       <c r="A171" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>優化雲投資</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>配置“實際”和“預測”預算警報。</t>
+          <t>如果日誌保留要求超過 12 年，請將日誌匯出到 Azure 存儲。使用具有一次寫入、多次讀取策略的不可變存儲，使數據在使用者指定的時間間隔內不可擦除且不可修改。</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8877,14 +8894,19 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8905,7 +8927,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>使用單個監視器日誌工作區集中管理平臺，但 Azure 基於角色的訪問控制 （Azure RBAC）、數據主權要求或數據保留策略要求使用單獨的工作區的情況除外。</t>
+          <t>使用 Azure Policy 監視 OS 等級虛擬機 （VM） 配置偏移。通過策略啟用 Azure Automanage 計算機配置審核功能可説明應用程式團隊工作負載立即使用功能，而無需付出任何努力。</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8922,19 +8944,19 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/governance/machine-configuration/overview</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8950,12 +8972,12 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>如果日誌保留要求超過 12 年，請將日誌匯出到 Azure 存儲。將不可變存儲與一次寫入、多次讀取策略結合使用，使數據在使用者指定的時間間隔內不可擦除和不可修改。</t>
+          <t>使用 Azure Update Manager 作為 Azure 中 Windows 和 Linux VM 的修補機制。</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8972,19 +8994,19 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -9000,12 +9022,12 @@
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 監視 OS 等級的虛擬機 （VM） 配置偏移。通過策略啟用 Azure Automanage 計算機配置審核功能可幫助應用程式團隊工作負載輕鬆立即使用功能。</t>
+          <t>使用 Azure Arc 將 Azure Update Manager 用作 Azure 外部的 Windows 和 Linux VM 的修補機制。</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9022,19 +9044,19 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/machine-configuration/overview</t>
+          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9050,12 +9072,12 @@
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 更新管理員作為 Azure 中 Windows 和 Linux VM 的修補機制。</t>
+          <t>使用網路觀察程序主動監視流量流。</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9072,19 +9094,19 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9100,12 +9122,12 @@
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Arc 將 Azure Update Manager 用作 Azure 外部 Windows 和 Linux VM 的修補機制。</t>
+          <t>使用資源鎖可防止意外刪除關鍵共享服務。</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9122,19 +9144,19 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9155,13 +9177,13 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>使用網路觀察程序主動監視流量</t>
+          <t>使用拒絕策略來補充 Azure 角色分配。拒絕策略和 Azure 角色分配的組合可確保設置適當的防護機制，以強制執行誰可以部署和配置資源以及他們可以部署和配置哪些資源。</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
       <c r="E177" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -9172,19 +9194,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9205,7 +9222,7 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>使用資源鎖防止意外刪除關鍵共享服務。</t>
+          <t>將服務和資源運行狀況事件作為整體平臺監視解決方案的一部分包含在內。從平臺角度跟蹤服務和資源運行狀況是 Azure 中資源管理的一個重要組成部分。</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9222,19 +9239,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9255,13 +9267,13 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>使用拒絕策略來補充 Azure 角色分配。拒絕策略和 Azure 角色分配的組合可確保適當的防護措施到位，以強制實施誰可以部署和配置資源以及他們可以部署和配置哪些資源。</t>
+          <t>將警報和操作組作為 Azure 服務運行狀況平臺的一部分包含在內，以確保可以處理警報或問題。</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9272,14 +9284,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9300,7 +9312,7 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>將服務和資源運行狀況事件作為整體平臺監視解決方案的一部分。從平臺角度跟蹤服務和資源運行狀況是 Azure 中資源管理的重要組成部分。</t>
+          <t>不要將原始日誌條目發送回本地監視系統。相反，應採用在 Azure 中生成的數據保留在 Azure 中的原則。如果需要本地 SIEM 集成，請發送嚴重警報而不是日誌。</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9317,14 +9329,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9345,7 +9357,7 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>將警報和操作組作為 Azure 服務運行狀況平臺的一部分，以確保可以對警報或問題進行操作</t>
+          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9362,14 +9374,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9390,7 +9402,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>不要將原始日誌條目發送回本地監視系統。相反，請採用在 Azure 中生成的數據保留在 Azure 中的原則。如果需要本地 SIEM 集成，請發送關鍵警報而不是日誌。</t>
+          <t>如有必要，請在登陸區域中使用共用存儲帳戶進行 Azure 診斷擴展日誌存儲。</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9407,14 +9419,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9435,7 +9447,7 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
+          <t>使用 Azure Monitor 警報生成操作警報。</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9452,14 +9464,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9480,7 +9492,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>必要時，請使用登陸區域內的共用存儲帳戶進行 Azure 診斷擴展日誌存儲。</t>
+          <t>確保已評估監視要求，並應用了適當的數據收集和警報配置。</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9497,14 +9509,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9525,7 +9537,7 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 警報生成操作警報。</t>
+          <t>通過 Azure 自動化帳戶使用更改和清單跟蹤時，請確保已選擇受支持的區域，以便將 Log Analytics 工作區和自動化帳戶連結在一起。</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9542,14 +9554,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9570,7 +9582,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>確保已評估監視要求，並應用適當的數據收集和警報配置</t>
+          <t>部署AMBA以建立對登陸區域的平臺元件的監視 - AMBA 是一種可用的框架解決方案，它提供了一種使用 Azure Policy 縮放警報的簡單方法。</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9587,14 +9599,19 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-monitor</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>https://azure.github.io/azure-monitor-baseline-alerts/patterns/alz/</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>aa45be6a-8f2d-4896-b0e3-775e6e94e610</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9610,12 +9627,12 @@
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure 自動化帳戶使用更改和清單跟蹤時，請確保已選擇支援的區域來將 Log Analytics 工作區和自動化帳戶連結在一起。</t>
+          <t>在 Azure 中為具有配對區域的 BCDR 啟用跨區域複製。</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9632,14 +9649,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9655,18 +9672,18 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>為登陸區域的平臺元件建立監視，AMBA 是一種可用的框架解決方案，它提供了一種使用 Azure Policy 縮放警報的簡單方法</t>
+          <t>使用 Azure 備份時，請使用正確的備份類型（GRS、ZRS 和 LRS）進行備份，因為預設設置為 GRS。</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
       <c r="E188" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9677,19 +9694,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-monitor</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>https://azure.github.io/azure-monitor-baseline-alerts/patterns/alz/</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>aa45be6a-8f2d-4896-b0e3-775e6e94e610</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9705,12 +9717,12 @@
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>考慮在 Azure 中為具有配對區域的 BCDR 進行跨區域複製</t>
+          <t>使用 Azure 來賓策略通過 VM 擴展自動部署軟體配置，並強制實施合規的基線 VM 配置。</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9727,14 +9739,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9750,15 +9762,19 @@
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 備份時，請考慮不同的備份類型（GRS、ZRS 和 LRS），因為預設設置為 GRS</t>
-        </is>
-      </c>
-      <c r="D190" s="21" t="n"/>
+          <t>通過 Azure Policy 監視 VM 安全配置偏移。</t>
+        </is>
+      </c>
+      <c r="D190" s="21" t="inlineStr">
+        <is>
+          <t>使用 Azure Policy 的來賓配置功能來審核和修正電腦設置（例如 OS、應用程式、環境），以確保資源與預期配置保持一致，並且更新管理可以強制實施 VM 的修補程式管理。</t>
+        </is>
+      </c>
       <c r="E190" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -9772,14 +9788,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9795,12 +9811,12 @@
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>保護和恢復</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 策略通過 VM 擴展自動部署軟體配置，並強制實施符合標準的基線 VM 配置。</t>
+          <t>使用 Azure Site Recovery 實現 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9817,14 +9833,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9840,19 +9856,15 @@
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>保護和恢復</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure Policy 監視 VM 安全配置偏移。</t>
-        </is>
-      </c>
-      <c r="D192" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy 的來賓配置功能可以審核和修正計算機設置（例如，操作系統、應用程式、環境），以確保資源與預期配置一致，更新管理可以對 VM 強制實施修補程式管理。</t>
-        </is>
-      </c>
+          <t>使用本機 PaaS 服務災難恢復功能。 使用這些功能執行故障轉移測試。</t>
+        </is>
+      </c>
+      <c r="D192" s="21" t="n"/>
       <c r="E192" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -9866,14 +9878,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9894,7 +9906,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>將 Azure Site Recovery 用於 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
+          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9911,14 +9923,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9934,18 +9946,18 @@
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>保護和恢復</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>確保使用和測試本機 PaaS 服務容災功能。</t>
+          <t>添加診斷設置以保存來自應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）的 WAF 日誌。定期查看日誌，以檢查攻擊和誤報檢測。</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
       <c r="E194" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9956,14 +9968,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9979,12 +9991,12 @@
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>保護和恢復</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
+          <t>將 WAF 日誌從應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測集成到整個 Azure 環境中。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -10001,14 +10013,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -10019,23 +10031,23 @@
     <row r="196" ht="16.5" customHeight="1">
       <c r="A196" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>容錯</t>
+          <t>存取控制</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>在支援可用性區域的區域中對 VM 利用可用性區域。</t>
+          <t>在允許 Azure 服務投入生產之前，確定其事件響應計劃。</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
       <c r="E196" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -10046,14 +10058,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10064,23 +10076,23 @@
     <row r="197" ht="16.5" customHeight="1">
       <c r="A197" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>容錯</t>
+          <t>存取控制</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>避免在單個 VM 上運行生產工作負載。</t>
+          <t>應用零信任方法訪問 Azure 平臺。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
       <c r="E197" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10091,14 +10103,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/security-zero-trust</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10109,23 +10121,23 @@
     <row r="198" ht="16.5" customHeight="1">
       <c r="A198" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B198" s="21" t="inlineStr">
         <is>
-          <t>容錯</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Azure 負載均衡器和應用程式閘道在多個資源之間分配傳入的網路流量。</t>
+          <t>使用 Azure Key Vault 儲存機密和憑據。</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
       <c r="E198" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10136,14 +10148,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10154,23 +10166,23 @@
     <row r="199" ht="16.5" customHeight="1">
       <c r="A199" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>添加診斷設置以保存來自 Azure Front Door 和 Azure 應用程式閘道等應用程式交付服務的 WAF 紀錄。定期查看日誌，以檢查攻擊和誤報檢測。</t>
+          <t>對不同的應用程式和區域使用不同的 Azure Key Vault，以避免事務規模限制並限制對機密的訪問。</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10181,14 +10193,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10199,17 +10211,17 @@
     <row r="200" ht="16.5" customHeight="1">
       <c r="A200" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>將 WAF 日誌從應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測集成到整個 Azure 環境中。</t>
+          <t>在啟用軟刪除和清除策略的情況下預配 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10226,14 +10238,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10249,12 +10261,12 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>存取控制</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>在允許 Azure 服務投入生產之前，確定 Azure 服務的事件響應計劃。</t>
+          <t>遵循最低特權模型，將永久刪除密鑰、機密和證書的授權限制為專用的自定義 Microsoft Entra ID 角色。</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10271,14 +10283,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10294,12 +10306,12 @@
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>存取控制</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>在適當的情況下，實施零信任方法來訪問 Azure 平臺。</t>
+          <t>使用公共證書頒發機構自動執行證書管理和續訂過程，以簡化管理。</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10316,14 +10328,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/security-zero-trust</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10344,13 +10356,13 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Key Vault 儲存機密和憑據</t>
+          <t>建立金鑰和證書輪換的自動化流程。</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10361,14 +10373,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10389,7 +10401,7 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>對不同的應用程式和區域使用不同的 Azure Key Vault，以避免事務規模限制並限制對機密的訪問。</t>
+          <t>在保管庫上啟用防火牆和虛擬網路服務終結點或專用終結點，以控制對密鑰保管庫的訪問。</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10406,14 +10418,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10434,7 +10446,7 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>預配啟用軟刪除和清除策略的 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
+          <t>使用以平臺為中心的 Azure Monitor Log Analytics 工作區來審核 Key Vault 的每個實例中的密鑰、證書和機密使用方式。</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10451,14 +10463,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10479,7 +10491,7 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>通過將永久刪除密鑰、機密和證書的授權限制為專用的自定義 Microsoft Entra ID 角色，遵循最低特權模型。</t>
+          <t>委託 Key Vault 實例化和特權訪問，並使用 Azure Policy 強制實施一致的合規配置。</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
@@ -10503,7 +10515,7 @@
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10524,7 +10536,7 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>使用公共證書頒發機構自動執行證書管理和續訂過程，以簡化管理。</t>
+          <t>預設使用 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
@@ -10541,14 +10553,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10569,7 +10581,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>建立金鑰和證書輪換的自動化流程。</t>
+          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10593,7 +10605,7 @@
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10614,7 +10626,7 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>在保管庫上啟用防火牆和虛擬網路服務終結點或專用終結點，以控制對密鑰保管庫的訪問。</t>
+          <t>如果要自帶密鑰，則並非所有考慮的服務都支援此功能。實施相關的緩解措施，使不一致之處不會妨礙預期的結果。選擇適當的區域對和災難恢復區域，以最大程度地減少延遲。</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10638,7 +10650,7 @@
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10659,7 +10671,7 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>使用平臺中心 Azure Monitor Log Analytics 工作區審核每個 Key Vault 實例中的金鑰、證書和機密使用方式。</t>
+          <t>對於 Sovereign Landing Zone，請使用 Azure Key Vault 託管 HSM 來儲存機密和憑據。</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10676,14 +10688,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10699,12 +10711,12 @@
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>委託 Key Vault 實例化和特權訪問，並使用 Azure Policy 強制實施一致的合規配置。</t>
+          <t>使用 Microsoft Entra ID 報告功能生成訪問控制審核報告。</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
@@ -10721,14 +10733,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10744,12 +10756,12 @@
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>對於主體加密功能，預設使用 Microsoft 管理的金鑰，並在需要時使用客戶管理的密鑰。</t>
+          <t>將 Azure 活動日誌匯出到 Azure Monitor 紀錄，以實現長期數據保留。如有必要，可導出到 Azure 存儲以進行兩年以上的長期存儲。</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
@@ -10766,14 +10778,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10789,18 +10801,18 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>對每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+          <t>為所有訂閱啟用Defender雲安全態勢管理。</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10811,14 +10823,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10834,18 +10846,18 @@
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>如果要自帶密鑰，則並非所有考慮的服務都支援此功能。實施相關的緩解措施，以免不一致阻礙預期結果。選擇適當的區域對和災難恢復區域，以最大程度地減少延遲。</t>
+          <t>在所有訂閱上為伺服器啟用Defender雲工作負載保護計劃。</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10856,14 +10868,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10879,18 +10891,18 @@
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，請使用 Azure Key Vault 託管的 HSM 來儲存機密和憑據。</t>
+          <t>在所有訂閱上為 Azure 資源啟用 Defender 雲工作負載保護計劃。</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10901,14 +10913,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/connect-azure-subscription</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10929,13 +10941,13 @@
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra ID 報告功能生成訪問控制審核報告。</t>
+          <t>在 IaaS 伺服器上啟用端點保護。</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10946,14 +10958,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10974,7 +10986,7 @@
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 活動日誌匯出到 Azure Monitor 紀錄，以便長期保留數據。如有必要，導出到 Azure 存儲，以獲得超過兩年的長期存儲。</t>
+          <t>通過 Azure Monitor 紀錄和 Defender for Cloud 監視基本作業系統修補偏移。</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
@@ -10991,14 +11003,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -11019,13 +11031,13 @@
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>為所有訂閱啟用Defender雲安全態勢管理。</t>
+          <t>將預設資源配置連接到集中式 Azure Monitor Log Analytics 工作區。</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -11036,14 +11048,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11064,13 +11076,13 @@
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>在所有訂閱上為伺服器啟用Defender雲工作負載保護計劃。</t>
+          <t>對於 Sovereign Landing Zone，請在 Entra ID 租戶上啟用透明度日誌。</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11081,14 +11093,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11109,13 +11121,13 @@
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>在所有訂閱上為 Azure 資源啟用 Defender 雲工作負載保護計劃。</t>
+          <t>對於 Sovereign Landing Zone，請在 Entra ID 租戶上啟用客戶密碼箱。</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
       <c r="E220" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11126,14 +11138,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/connect-azure-subscription</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11154,13 +11166,13 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>在 IaaS 伺服器上啟用 Endpoint Protection。</t>
+          <t>使用基於 Azure 事件網格的解決方案獲取面向日誌的即時警報。</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
       <c r="E221" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -11171,14 +11183,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/event-grid/set-alerts</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>874a748b-662d-46d1-9051-2a66498f6dfe</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11194,18 +11206,18 @@
       </c>
       <c r="B222" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>概述</t>
         </is>
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure Monitor 紀錄和 Defender for Cloud 監視基本作業系統修補偏移。</t>
+          <t>啟用到存儲帳戶的安全傳輸。</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11216,14 +11228,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11239,18 +11251,18 @@
       </c>
       <c r="B223" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>概述</t>
         </is>
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>將預設資源配置連接到集中式 Azure Monitor Log Analytics 工作區。</t>
+          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
       <c r="E223" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11261,14 +11273,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11284,18 +11296,18 @@
       </c>
       <c r="B224" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>保護特權訪問</t>
         </is>
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，在 Entra ID 租戶上啟用透明日誌。</t>
+          <t>為 Azure 管理任務單獨使用特權管理員帳戶。</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
       <c r="E224" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11306,14 +11318,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11329,12 +11341,12 @@
       </c>
       <c r="B225" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>服務支援框架</t>
         </is>
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>對於 Sovereign Landing Zone，在 Entra ID 租戶上啟用了客戶密碼箱。</t>
+          <t>規劃如何實現新的 Azure 服務。</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
@@ -11351,14 +11363,14 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11374,18 +11386,18 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>服務支援框架</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>使用基於 Azure 事件網格的解決方案獲取面向日誌的即時警報</t>
+          <t>規劃如何滿足 Azure 服務的服務請求。</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11396,14 +11408,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/security</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>874a748b-662d-46d1-9051-2a66498f6dfe</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11414,17 +11426,17 @@
     <row r="227">
       <c r="A227" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>平臺自動化和DevOps</t>
         </is>
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>概述</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>應啟用安全傳輸到存儲帳戶</t>
+          <t>確保擁有跨職能 DevOps 平台團隊來構建、管理和維護 Azure 登陸區域體系結構。</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
@@ -11441,14 +11453,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11459,23 +11471,23 @@
     <row r="228">
       <c r="A228" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>平臺自動化和DevOps</t>
         </is>
       </c>
       <c r="B228" s="21" t="inlineStr">
         <is>
-          <t>概述</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C228" s="21" t="inlineStr">
         <is>
-          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
+          <t>旨在為 Azure 登陸區域平台團隊定義功能。</t>
         </is>
       </c>
       <c r="D228" s="21" t="n"/>
       <c r="E228" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -11486,14 +11498,14 @@
       <c r="G228" s="21" t="n"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
       <c r="L228" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M228" s="25" t="n"/>
@@ -11504,23 +11516,23 @@
     <row r="229">
       <c r="A229" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>平臺自動化和DevOps</t>
         </is>
       </c>
       <c r="B229" s="21" t="inlineStr">
         <is>
-          <t>安全特權訪問</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C229" s="21" t="inlineStr">
         <is>
-          <t>為 Azure 管理任務單獨設置特權管理員帳戶。</t>
+          <t>旨在為應用程式工作負載團隊定義功能，使其自給自足，並且不需要 DevOps 平台團隊的支援。通過使用自定義 RBAC 角色來實現此目的。</t>
         </is>
       </c>
       <c r="D229" s="21" t="n"/>
       <c r="E229" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -11531,14 +11543,14 @@
       <c r="G229" s="21" t="n"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
       <c r="L229" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M229" s="25" t="n"/>
@@ -11549,17 +11561,17 @@
     <row r="230">
       <c r="A230" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>平臺自動化和DevOps</t>
         </is>
       </c>
       <c r="B230" s="21" t="inlineStr">
         <is>
-          <t>服務支援框架</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C230" s="21" t="inlineStr">
         <is>
-          <t>規劃如何實現新的 Azure 服務</t>
+          <t>使用 CI/CD 管道部署 IaC 專案，並確保部署和 Azure 環境的品質。</t>
         </is>
       </c>
       <c r="D230" s="21" t="n"/>
@@ -11576,14 +11588,14 @@
       <c r="G230" s="21" t="n"/>
       <c r="H230" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
       <c r="L230" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M230" s="25" t="n"/>
@@ -11594,17 +11606,17 @@
     <row r="231">
       <c r="A231" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>平臺自動化和DevOps</t>
         </is>
       </c>
       <c r="B231" s="21" t="inlineStr">
         <is>
-          <t>服務支援框架</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C231" s="21" t="inlineStr">
         <is>
-          <t>規劃如何滿足 Azure 服務的服務請求</t>
+          <t>在生成過程中包含 IaC 和應用程式代碼的單元測試。</t>
         </is>
       </c>
       <c r="D231" s="21" t="n"/>
@@ -11621,14 +11633,14 @@
       <c r="G231" s="21" t="n"/>
       <c r="H231" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J231" s="22" t="n"/>
       <c r="K231" s="22" t="n"/>
       <c r="L231" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M231" s="25" t="n"/>
@@ -11649,7 +11661,7 @@
       </c>
       <c r="C232" s="21" t="inlineStr">
         <is>
-          <t>確保你有一個跨職能的DevOps平臺團隊來構建、管理和維護 Azure 登陸區域體系結構。</t>
+          <t>使用 Key Vault 機密可避免對敏感資訊（如憑據、虛擬機、用戶密碼）、證書或密鑰進行硬編碼。</t>
         </is>
       </c>
       <c r="D232" s="21" t="n"/>
@@ -11666,14 +11678,14 @@
       <c r="G232" s="21" t="n"/>
       <c r="H232" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J232" s="22" t="n"/>
       <c r="K232" s="22" t="n"/>
       <c r="L232" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M232" s="25" t="n"/>
@@ -11694,7 +11706,7 @@
       </c>
       <c r="C233" s="21" t="inlineStr">
         <is>
-          <t>旨在為 Azure 登陸區域平台團隊定義函數。</t>
+          <t>通過訂閱自動售貨服務為應用程式和工作負載的新登陸區域實施自動化。</t>
         </is>
       </c>
       <c r="D233" s="21" t="n"/>
@@ -11711,14 +11723,14 @@
       <c r="G233" s="21" t="n"/>
       <c r="H233" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J233" s="22" t="n"/>
       <c r="K233" s="22" t="n"/>
       <c r="L233" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M233" s="25" t="n"/>
@@ -11734,18 +11746,18 @@
       </c>
       <c r="B234" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>開發生命週期</t>
         </is>
       </c>
       <c r="C234" s="21" t="inlineStr">
         <is>
-          <t>旨在為應用程式工作負載團隊定義功能，使其自給自足，並且不需要 DevOps 平台團隊支援。通過使用自定義 RBAC 角色來實現此目的。</t>
+          <t>確保對應用程式的原始程式碼和開發的 IaC 使用版本控制系統。Microsoft 推薦使用 Git。</t>
         </is>
       </c>
       <c r="D234" s="21" t="n"/>
       <c r="E234" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -11756,14 +11768,14 @@
       <c r="G234" s="21" t="n"/>
       <c r="H234" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J234" s="22" t="n"/>
       <c r="K234" s="22" t="n"/>
       <c r="L234" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M234" s="25" t="n"/>
@@ -11779,18 +11791,18 @@
       </c>
       <c r="B235" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>開發生命週期</t>
         </is>
       </c>
       <c r="C235" s="21" t="inlineStr">
         <is>
-          <t>使用 CI/CD 管道部署 IaC 專案，並確保部署和 Azure 環境的品質。</t>
+          <t>遵循分支策略，使團隊能夠更好地協作，並有效地管理 IaC 和應用程式代碼的版本控制。查看 Github Flow 等選項。</t>
         </is>
       </c>
       <c r="D235" s="21" t="n"/>
       <c r="E235" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -11801,14 +11813,14 @@
       <c r="G235" s="21" t="n"/>
       <c r="H235" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J235" s="22" t="n"/>
       <c r="K235" s="22" t="n"/>
       <c r="L235" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M235" s="25" t="n"/>
@@ -11824,12 +11836,12 @@
       </c>
       <c r="B236" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>開發生命週期</t>
         </is>
       </c>
       <c r="C236" s="21" t="inlineStr">
         <is>
-          <t>在生成過程中包括 IaC 和應用程式代碼的單元測試。</t>
+          <t>採用拉取請求策略來説明保持對合併到分支中的代碼更改的控制。</t>
         </is>
       </c>
       <c r="D236" s="21" t="n"/>
@@ -11846,14 +11858,14 @@
       <c r="G236" s="21" t="n"/>
       <c r="H236" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J236" s="22" t="n"/>
       <c r="K236" s="22" t="n"/>
       <c r="L236" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M236" s="25" t="n"/>
@@ -11869,18 +11881,18 @@
       </c>
       <c r="B237" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>開發生命週期</t>
         </is>
       </c>
       <c r="C237" s="21" t="inlineStr">
         <is>
-          <t>使用 Key Vault 機密可避免對敏感資訊（如憑據（虛擬機器用戶密碼）、證書或密鑰）進行硬編碼。</t>
+          <t>建立使用代碼實現快速修復的流程。始終在團隊的積壓工作中註冊快速修復，以便每個修復都可以在以後進行返工，並且可以限制技術債務。</t>
         </is>
       </c>
       <c r="D237" s="21" t="n"/>
       <c r="E237" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -11891,14 +11903,14 @@
       <c r="G237" s="21" t="n"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-platform</t>
         </is>
       </c>
       <c r="J237" s="22" t="n"/>
       <c r="K237" s="22" t="n"/>
       <c r="L237" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>2676ae46-65ca-444e-8695-fdddeace4cb1</t>
         </is>
       </c>
       <c r="M237" s="25" t="n"/>
@@ -11914,18 +11926,18 @@
       </c>
       <c r="B238" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>發展戰略</t>
         </is>
       </c>
       <c r="C238" s="21" t="inlineStr">
         <is>
-          <t>通過訂閱自動售貨為應用程式和工作負載的新登陸區域實現自動化</t>
+          <t>利用聲明性基礎結構即代碼工具（如 Azure Bicep、ARM 範本或 Terraform）來構建和維護 Azure 登陸區域體系結構。從平臺和應用程式工作負載的角度來看。</t>
         </is>
       </c>
       <c r="D238" s="21" t="n"/>
       <c r="E238" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -11936,14 +11948,14 @@
       <c r="G238" s="21" t="n"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J238" s="22" t="n"/>
       <c r="K238" s="22" t="n"/>
       <c r="L238" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
         </is>
       </c>
       <c r="M238" s="25" t="n"/>
@@ -11959,12 +11971,12 @@
       </c>
       <c r="B239" s="21" t="inlineStr">
         <is>
-          <t>開發生命週期</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C239" s="21" t="inlineStr">
         <is>
-          <t>確保版本控制系統用於應用程式的原始程式碼和開發的 IaC。Microsoft 推薦 Git。</t>
+          <t>將安全性集成到 DevOps 中已經合併的開發和運營流程中，以降低創新過程中的風險。</t>
         </is>
       </c>
       <c r="D239" s="21" t="n"/>
@@ -11981,14 +11993,14 @@
       <c r="G239" s="21" t="n"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
         </is>
       </c>
       <c r="J239" s="22" t="n"/>
       <c r="K239" s="22" t="n"/>
       <c r="L239" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
         </is>
       </c>
       <c r="M239" s="25" t="n"/>
@@ -11997,225 +12009,75 @@
       <c r="P239" s="25" t="n"/>
     </row>
     <row r="240">
-      <c r="A240" s="21" t="inlineStr">
-        <is>
-          <t>平臺自動化和DevOps</t>
-        </is>
-      </c>
-      <c r="B240" s="21" t="inlineStr">
-        <is>
-          <t>開發生命週期</t>
-        </is>
-      </c>
-      <c r="C240" s="21" t="inlineStr">
-        <is>
-          <t>遵循分支策略，使團隊能夠更好地協作，並有效地管理 IaC 和應用程式代碼的版本控制。查看 Github Flow 等選項。</t>
-        </is>
-      </c>
+      <c r="A240" s="21" t="n"/>
+      <c r="B240" s="21" t="n"/>
+      <c r="C240" s="21" t="n"/>
       <c r="D240" s="21" t="n"/>
-      <c r="E240" s="21" t="inlineStr">
-        <is>
-          <t>低</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>未驗證</t>
-        </is>
-      </c>
+      <c r="E240" s="21" t="n"/>
       <c r="G240" s="21" t="n"/>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
-        </is>
-      </c>
       <c r="J240" s="22" t="n"/>
       <c r="K240" s="22" t="n"/>
-      <c r="L240" s="25" t="inlineStr">
-        <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
-        </is>
-      </c>
+      <c r="L240" s="25" t="n"/>
       <c r="M240" s="25" t="n"/>
       <c r="N240" s="25" t="n"/>
       <c r="O240" s="25" t="n"/>
       <c r="P240" s="25" t="n"/>
     </row>
     <row r="241">
-      <c r="A241" s="21" t="inlineStr">
-        <is>
-          <t>平臺自動化和DevOps</t>
-        </is>
-      </c>
-      <c r="B241" s="21" t="inlineStr">
-        <is>
-          <t>開發生命週期</t>
-        </is>
-      </c>
-      <c r="C241" s="21" t="inlineStr">
-        <is>
-          <t>採用拉取請求策略來説明控制合併到分支中的代碼更改。</t>
-        </is>
-      </c>
+      <c r="A241" s="21" t="n"/>
+      <c r="B241" s="21" t="n"/>
+      <c r="C241" s="21" t="n"/>
       <c r="D241" s="21" t="n"/>
-      <c r="E241" s="21" t="inlineStr">
-        <is>
-          <t>中等</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>未驗證</t>
-        </is>
-      </c>
+      <c r="E241" s="21" t="n"/>
       <c r="G241" s="21" t="n"/>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
-        </is>
-      </c>
       <c r="J241" s="22" t="n"/>
       <c r="K241" s="22" t="n"/>
-      <c r="L241" s="25" t="inlineStr">
-        <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
-        </is>
-      </c>
+      <c r="L241" s="25" t="n"/>
       <c r="M241" s="25" t="n"/>
       <c r="N241" s="25" t="n"/>
       <c r="O241" s="25" t="n"/>
       <c r="P241" s="25" t="n"/>
     </row>
     <row r="242">
-      <c r="A242" s="21" t="inlineStr">
-        <is>
-          <t>平臺自動化和DevOps</t>
-        </is>
-      </c>
-      <c r="B242" s="21" t="inlineStr">
-        <is>
-          <t>開發生命週期</t>
-        </is>
-      </c>
-      <c r="C242" s="21" t="inlineStr">
-        <is>
-          <t>建立使用代碼實現快速修復的流程。始終在團隊的待辦事項中註冊快速修復，以便以後可以重新設計每個修復程式，並且可以限制技術債務。</t>
-        </is>
-      </c>
+      <c r="A242" s="21" t="n"/>
+      <c r="B242" s="21" t="n"/>
+      <c r="C242" s="21" t="n"/>
       <c r="D242" s="21" t="n"/>
-      <c r="E242" s="21" t="inlineStr">
-        <is>
-          <t>中等</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>未驗證</t>
-        </is>
-      </c>
+      <c r="E242" s="21" t="n"/>
       <c r="G242" s="21" t="n"/>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-platform</t>
-        </is>
-      </c>
       <c r="J242" s="22" t="n"/>
       <c r="K242" s="22" t="n"/>
-      <c r="L242" s="25" t="inlineStr">
-        <is>
-          <t>2676ae46-65ca-444e-8695-fdddeace4cb1</t>
-        </is>
-      </c>
+      <c r="L242" s="25" t="n"/>
       <c r="M242" s="25" t="n"/>
       <c r="N242" s="25" t="n"/>
       <c r="O242" s="25" t="n"/>
       <c r="P242" s="25" t="n"/>
     </row>
     <row r="243">
-      <c r="A243" s="21" t="inlineStr">
-        <is>
-          <t>平臺自動化和DevOps</t>
-        </is>
-      </c>
-      <c r="B243" s="21" t="inlineStr">
-        <is>
-          <t>發展戰略</t>
-        </is>
-      </c>
-      <c r="C243" s="21" t="inlineStr">
-        <is>
-          <t>利用聲明性基礎結構即代碼工具（如 Azure Bicep、ARM 範本或 Terraform）來構建和維護 Azure 登陸區域體系結構。從平臺和應用程式工作負載的角度來看。</t>
-        </is>
-      </c>
+      <c r="A243" s="21" t="n"/>
+      <c r="B243" s="21" t="n"/>
+      <c r="C243" s="21" t="n"/>
       <c r="D243" s="21" t="n"/>
-      <c r="E243" s="21" t="inlineStr">
-        <is>
-          <t>高</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>未驗證</t>
-        </is>
-      </c>
+      <c r="E243" s="21" t="n"/>
       <c r="G243" s="21" t="n"/>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
-        </is>
-      </c>
       <c r="J243" s="22" t="n"/>
       <c r="K243" s="22" t="n"/>
-      <c r="L243" s="25" t="inlineStr">
-        <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
-        </is>
-      </c>
+      <c r="L243" s="25" t="n"/>
       <c r="M243" s="25" t="n"/>
       <c r="N243" s="25" t="n"/>
       <c r="O243" s="25" t="n"/>
       <c r="P243" s="25" t="n"/>
     </row>
     <row r="244">
-      <c r="A244" s="21" t="inlineStr">
-        <is>
-          <t>平臺自動化和DevOps</t>
-        </is>
-      </c>
-      <c r="B244" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="C244" s="21" t="inlineStr">
-        <is>
-          <t>將安全性集成到 DevOps 中已經合併的開發和運營流程中，以降低創新流程中的風險。</t>
-        </is>
-      </c>
+      <c r="A244" s="21" t="n"/>
+      <c r="B244" s="21" t="n"/>
+      <c r="C244" s="21" t="n"/>
       <c r="D244" s="21" t="n"/>
-      <c r="E244" s="21" t="inlineStr">
-        <is>
-          <t>高</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>未驗證</t>
-        </is>
-      </c>
+      <c r="E244" s="21" t="n"/>
       <c r="G244" s="21" t="n"/>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
-        </is>
-      </c>
       <c r="J244" s="22" t="n"/>
       <c r="K244" s="22" t="n"/>
-      <c r="L244" s="25" t="inlineStr">
-        <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
-        </is>
-      </c>
+      <c r="L244" s="25" t="n"/>
       <c r="M244" s="25" t="n"/>
       <c r="N244" s="25" t="n"/>
       <c r="O244" s="25" t="n"/>
@@ -13162,7 +13024,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F245" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F240" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -13322,7 +13184,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>此檢查已通過驗證，並且沒有與之關聯的進一步操作項</t>
+          <t>此檢查已經過驗證，並且沒有與之關聯的其他操作項</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -13344,7 +13206,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>建議已理解，但當前需求不需要</t>
+          <t>建議已理解，但當前要求不需要</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -13356,7 +13218,7 @@
     <row r="6">
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>不適用</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">

--- a/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
@@ -1089,7 +1089,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/considerations-recommendations</t>
         </is>
       </c>
-      <c r="I8" s="15" t="n"/>
+      <c r="I8" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/deploy-resources-scopes-bicep/2-understand-deployment-scopes</t>
+        </is>
+      </c>
       <c r="J8" s="22" t="n"/>
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
@@ -1135,7 +1139,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/automation</t>
         </is>
       </c>
-      <c r="I9" s="15" t="n"/>
+      <c r="I9" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/architecture/multi-tenant-user-management-introduction/</t>
+        </is>
+      </c>
       <c r="J9" s="22" t="n"/>
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
@@ -1231,7 +1239,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
-      <c r="I11" s="15" t="n"/>
+      <c r="I11" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/lighthouse/how-to/onboard-customer</t>
+        </is>
+      </c>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
@@ -1323,7 +1335,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
-      <c r="I13" s="15" t="n"/>
+      <c r="I13" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/</t>
+        </is>
+      </c>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
@@ -1415,7 +1431,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
-      <c r="I15" s="15" t="n"/>
+      <c r="I15" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/understand-ea-roles</t>
+        </is>
+      </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
@@ -1511,7 +1531,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
-      <c r="I17" s="15" t="n"/>
+      <c r="I17" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/devtest/offer/how-to-manage-monitor-devtest</t>
+        </is>
+      </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
@@ -1557,7 +1581,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
-      <c r="I18" s="15" t="n"/>
+      <c r="I18" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/mca-setup-account</t>
+        </is>
+      </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
@@ -1603,7 +1631,11 @@
           <t>https://learn.microsoft.com/azure/cost-management-billing/manage/mca-section-invoice</t>
         </is>
       </c>
-      <c r="I19" s="15" t="n"/>
+      <c r="I19" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/understand/mca-overview#billing-profiles</t>
+        </is>
+      </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
@@ -1649,7 +1681,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
-      <c r="I20" s="15" t="n"/>
+      <c r="I20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/devtest/offer/overview-what-is-devtest-offer-visual-studio</t>
+        </is>
+      </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
@@ -1695,7 +1731,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
-      <c r="I21" s="15" t="n"/>
+      <c r="I21" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/understand-mca-roles</t>
+        </is>
+      </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
@@ -2238,7 +2278,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/entra/identity/domain-services/overview</t>
+          <t>https://learn.microsoft.com/entra/identity/domain-services/overview</t>
         </is>
       </c>
       <c r="I32" s="15" t="inlineStr">
@@ -2291,7 +2331,11 @@
           <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
         </is>
       </c>
-      <c r="I33" s="15" t="n"/>
+      <c r="I33" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/identity/monitoring-health/howto-integrate-activity-logs-with-azure-monitor-logs</t>
+        </is>
+      </c>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
@@ -2387,7 +2431,11 @@
           <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
-      <c r="I35" s="15" t="n"/>
+      <c r="I35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/identity/hybrid/connect/plan-connect-topologies</t>
+        </is>
+      </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
@@ -2633,7 +2681,11 @@
           <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
         </is>
       </c>
-      <c r="I40" s="15" t="n"/>
+      <c r="I40" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/id-governance/privileged-identity-management/pim-perform-roles-and-resource-roles-review</t>
+        </is>
+      </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
@@ -2929,7 +2981,11 @@
           <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
-      <c r="I46" s="15" t="n"/>
+      <c r="I46" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
@@ -2975,7 +3031,11 @@
           <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
-      <c r="I47" s="15" t="n"/>
+      <c r="I47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-role-based-access-control/</t>
+        </is>
+      </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
@@ -3063,7 +3123,12 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/entra/id-governance/access-reviews-overview</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/plan-implement-manage-access-review/</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
@@ -3111,7 +3176,11 @@
           <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
-      <c r="I50" s="15" t="n"/>
+      <c r="I50" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/</t>
+        </is>
+      </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
@@ -3204,12 +3273,12 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-portal/azure-portal-dashboards</t>
+          <t>https://learn.microsoft.com/azure/azure-portal/azure-portal-dashboards</t>
         </is>
       </c>
       <c r="I52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-gb/training/modules/visualize-data-workbooks/</t>
+          <t>https://learn.microsoft.com/training/modules/visualize-data-workbooks/</t>
         </is>
       </c>
       <c r="J52" s="22" t="n"/>
@@ -3407,6 +3476,11 @@
           <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/02-Architecture.md</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/industry/sovereignty/slz-overview</t>
+        </is>
+      </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
@@ -3697,6 +3771,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/traditional-azure-networking-topology</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
@@ -3838,7 +3917,11 @@
           <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
-      <c r="I65" s="15" t="n"/>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
@@ -3884,6 +3967,11 @@
           <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
+        </is>
+      </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
@@ -4029,7 +4117,11 @@
           <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
-      <c r="I69" s="15" t="n"/>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
@@ -4075,7 +4167,11 @@
           <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
-      <c r="I70" s="15" t="n"/>
+      <c r="I70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
@@ -4121,7 +4217,11 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
         </is>
       </c>
-      <c r="I71" s="15" t="n"/>
+      <c r="I71" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
@@ -4167,7 +4267,11 @@
           <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-macsec</t>
         </is>
       </c>
-      <c r="I72" s="15" t="n"/>
+      <c r="I72" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
@@ -4563,7 +4667,11 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I80" s="15" t="n"/>
+      <c r="I80" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-700t00</t>
+        </is>
+      </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
@@ -4659,7 +4767,11 @@
           <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
-      <c r="I82" s="15" t="n"/>
+      <c r="I82" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
+        </is>
+      </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
@@ -4705,7 +4817,11 @@
           <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
-      <c r="I83" s="15" t="n"/>
+      <c r="I83" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
+        </is>
+      </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
@@ -4951,7 +5067,11 @@
           <t>https://learn.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
-      <c r="I88" s="15" t="n"/>
+      <c r="I88" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
@@ -5047,7 +5167,11 @@
           <t>https://github.com/Azure/Enterprise-Scale/wiki/ALZ-Policies#corp</t>
         </is>
       </c>
-      <c r="I90" s="15" t="n"/>
+      <c r="I90" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-policy/</t>
+        </is>
+      </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
@@ -5247,7 +5371,11 @@
           <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
-      <c r="I94" s="15" t="n"/>
+      <c r="I94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
@@ -5293,7 +5421,11 @@
           <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
         </is>
       </c>
-      <c r="I95" s="15" t="n"/>
+      <c r="I95" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
@@ -5839,7 +5971,11 @@
           <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager</t>
         </is>
       </c>
-      <c r="I106" s="15" t="n"/>
+      <c r="I106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
@@ -5931,7 +6067,11 @@
           <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
         </is>
       </c>
-      <c r="I108" s="15" t="n"/>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
@@ -6423,7 +6563,11 @@
           <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
-      <c r="I118" s="15" t="n"/>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
@@ -6469,6 +6613,11 @@
           <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+        </is>
+      </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
@@ -6560,7 +6709,11 @@
           <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
-      <c r="I121" s="15" t="n"/>
+      <c r="I121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+        </is>
+      </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
@@ -6752,7 +6905,11 @@
           <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
-      <c r="I125" s="15" t="n"/>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
@@ -6798,6 +6955,11 @@
           <t>https://learn.microsoft.com/azure/firewall-manager/rule-hierarchy</t>
         </is>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-firewall-manager/</t>
+        </is>
+      </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
@@ -6888,6 +7050,11 @@
           <t>https://learn.microsoft.com/azure/firewall/tutorial-firewall-dnat</t>
         </is>
       </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-to-azure-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
@@ -6933,6 +7100,11 @@
           <t>https://learn.microsoft.com/azure/firewall/integrate-with-nat-gateway</t>
         </is>
       </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-to-azure-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
@@ -7068,6 +7240,11 @@
           <t>https://learn.microsoft.com/azure/architecture/example-scenario/gateway/application-gateway-before-azure-firewall</t>
         </is>
       </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-application-gateway/</t>
+        </is>
+      </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
@@ -7113,6 +7290,11 @@
           <t>https://learn.microsoft.com/azure/firewall/dns-details</t>
         </is>
       </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-700t00/</t>
+        </is>
+      </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
@@ -7158,6 +7340,11 @@
           <t>https://learn.microsoft.com/azure/firewall/firewall-diagnostics</t>
         </is>
       </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-700t00/</t>
+        </is>
+      </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
@@ -7203,6 +7390,11 @@
           <t>https://learn.microsoft.com/azure/well-architected/service-guides/azure-firewall</t>
         </is>
       </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-104t00/</t>
+        </is>
+      </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
@@ -7888,6 +8080,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/virtual-wan-network-topology#virtual-wan-network-design-recommendationst</t>
         </is>
       </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
@@ -7983,6 +8180,11 @@
           <t>https://learn.microsoft.com/azure/virtual-wan/migrate-from-hub-spoke-topology</t>
         </is>
       </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
@@ -8028,6 +8230,11 @@
           <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
@@ -8073,6 +8280,11 @@
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
@@ -8118,6 +8330,11 @@
           <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
@@ -8163,6 +8380,11 @@
           <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
@@ -8208,6 +8430,11 @@
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
@@ -9194,7 +9421,12 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/effect-deny</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/deny-assignments?tabs=azure-portal</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
@@ -9242,6 +9474,11 @@
           <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-service-health/</t>
+        </is>
+      </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
@@ -9287,6 +9524,11 @@
           <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-gb/training/modules/incident-response-with-alerting-on-azure/7-actions-and-alert-processing-rules</t>
+        </is>
+      </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
@@ -9332,6 +9574,11 @@
           <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/logging-and-reporting/</t>
+        </is>
+      </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
@@ -9377,6 +9624,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-monitor/</t>
+        </is>
+      </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
@@ -9422,6 +9674,11 @@
           <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-extensions/</t>
+        </is>
+      </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
@@ -9467,6 +9724,11 @@
           <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/incident-response-with-alerting-on-azure/</t>
+        </is>
+      </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
@@ -9512,6 +9774,11 @@
           <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/az-104-monitor-backup-resources/</t>
+        </is>
+      </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
@@ -9557,6 +9824,11 @@
           <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-automation-devops/</t>
+        </is>
+      </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
@@ -9652,6 +9924,11 @@
           <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/provide-disaster-recovery-replicate-storage-data/</t>
+        </is>
+      </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
@@ -9697,6 +9974,11 @@
           <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-solution-for-backup-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
@@ -9791,6 +10073,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
@@ -9836,6 +10123,11 @@
           <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-infrastructure-with-site-recovery/</t>
+        </is>
+      </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
@@ -9881,6 +10173,11 @@
           <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/explore-iaas-paas-platform-tools-for-high-availability-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
@@ -9926,6 +10223,11 @@
           <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-solution-for-backup-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
@@ -9971,6 +10273,11 @@
           <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/capture-application-logs-app-service/</t>
+        </is>
+      </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
@@ -10016,6 +10323,11 @@
           <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/sc-200-connect-logs-to-azure-sentinel/</t>
+        </is>
+      </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
@@ -10061,6 +10373,11 @@
           <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-incident-readiness/</t>
+        </is>
+      </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
@@ -10106,6 +10423,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/security-zero-trust</t>
         </is>
       </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-zero-trust-best-practice-frameworks/</t>
+        </is>
+      </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
@@ -10151,6 +10473,11 @@
           <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
@@ -10196,6 +10523,11 @@
           <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
@@ -10241,6 +10573,11 @@
           <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
@@ -10286,6 +10623,11 @@
           <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
@@ -10331,6 +10673,11 @@
           <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/configure-and-manage-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
@@ -10376,6 +10723,11 @@
           <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
@@ -10421,6 +10773,11 @@
           <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/</t>
+        </is>
+      </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
@@ -10466,6 +10823,11 @@
           <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/analyze-infrastructure-with-azure-monitor-logs/</t>
+        </is>
+      </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
@@ -10511,6 +10873,11 @@
           <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-key-vault-networking-settings/</t>
+        </is>
+      </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
@@ -10556,6 +10923,11 @@
           <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
@@ -10601,6 +10973,11 @@
           <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
@@ -10646,6 +11023,11 @@
           <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
@@ -10691,6 +11073,11 @@
           <t>https://learn.microsoft.com/industry/sovereignty/key-management</t>
         </is>
       </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
@@ -10736,6 +11123,11 @@
           <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/monitor-report-aad-security-events/</t>
+        </is>
+      </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
@@ -10781,6 +11173,11 @@
           <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/analyze-infrastructure-with-azure-monitor-logs/</t>
+        </is>
+      </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
@@ -10826,6 +11223,11 @@
           <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/microsoft-defender-cloud-security-posture/</t>
+        </is>
+      </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
@@ -10871,6 +11273,11 @@
           <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/understand-azure-defender-cloud-workload-protection/</t>
+        </is>
+      </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
@@ -10916,6 +11323,11 @@
           <t>https://learn.microsoft.com/azure/defender-for-cloud/connect-azure-subscription</t>
         </is>
       </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/understand-azure-defender-cloud-workload-protection/</t>
+        </is>
+      </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
@@ -10961,6 +11373,11 @@
           <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-solutions-securing-server-client-endpoints/</t>
+        </is>
+      </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
@@ -11006,6 +11423,11 @@
           <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/create-log-analytics-workspace-microsoft-defender-cloud/</t>
+        </is>
+      </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
@@ -11051,6 +11473,11 @@
           <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/analyze-infrastructure-with-azure-monitor-logs/</t>
+        </is>
+      </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
@@ -11076,13 +11503,13 @@
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>對於 Sovereign Landing Zone，請在 Entra ID 租戶上啟用透明度日誌。</t>
+          <t>具有關聯日誌的集中式威脅檢測 - 將安全數據整合到一個中心位置，通過 SIEM（安全資訊和事件管理）在各種服務之間進行關聯</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11093,14 +11520,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/en-us/azure/well-architected/security/monitor-threats#centralized-threat-detection-with-correlated-logs</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>a56888b2-7e83-4404-bd31-b886528502d1</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11121,7 +11548,7 @@
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>對於 Sovereign Landing Zone，請在 Entra ID 租戶上啟用客戶密碼箱。</t>
+          <t>對於 Sovereign Landing Zone，請在 Entra ID 租戶上啟用透明度日誌。</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
@@ -11138,14 +11565,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11166,13 +11593,13 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>使用基於 Azure 事件網格的解決方案獲取面向日誌的即時警報。</t>
+          <t>對於 Sovereign Landing Zone，請在 Entra ID 租戶上啟用客戶密碼箱。</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
       <c r="E221" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -11183,14 +11610,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/event-grid/set-alerts</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>874a748b-662d-46d1-9051-2a66498f6dfe</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11206,18 +11633,18 @@
       </c>
       <c r="B222" s="21" t="inlineStr">
         <is>
-          <t>概述</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>啟用到存儲帳戶的安全傳輸。</t>
+          <t>使用基於 Azure 事件網格的解決方案獲取面向日誌的即時警報。</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11228,14 +11655,19 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/event-grid/set-alerts</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/azure-event-grid/</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>874a748b-662d-46d1-9051-2a66498f6dfe</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11256,7 +11688,7 @@
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
+          <t>啟用到存儲帳戶的安全傳輸。</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
@@ -11273,14 +11705,19 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-storage-account/</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11296,12 +11733,12 @@
       </c>
       <c r="B224" s="21" t="inlineStr">
         <is>
-          <t>保護特權訪問</t>
+          <t>概述</t>
         </is>
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>為 Azure 管理任務單獨使用特權管理員帳戶。</t>
+          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
@@ -11318,14 +11755,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11341,18 +11778,18 @@
       </c>
       <c r="B225" s="21" t="inlineStr">
         <is>
-          <t>服務支援框架</t>
+          <t>保護特權訪問</t>
         </is>
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>規劃如何實現新的 Azure 服務。</t>
+          <t>為 Azure 管理任務單獨使用特權管理員帳戶。</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11363,14 +11800,19 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-solutions-secure-privileged-access/</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11391,7 +11833,7 @@
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>規劃如何滿足 Azure 服務的服務請求。</t>
+          <t>規劃如何實現新的 Azure 服務。</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
@@ -11415,7 +11857,7 @@
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11426,23 +11868,23 @@
     <row r="227">
       <c r="A227" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>服務支援框架</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>確保擁有跨職能 DevOps 平台團隊來構建、管理和維護 Azure 登陸區域體系結構。</t>
+          <t>規劃如何滿足 Azure 服務的服務請求。</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
       <c r="E227" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11453,14 +11895,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11481,13 +11923,13 @@
       </c>
       <c r="C228" s="21" t="inlineStr">
         <is>
-          <t>旨在為 Azure 登陸區域平台團隊定義功能。</t>
+          <t>確保擁有跨職能 DevOps 平台團隊來構建、管理和維護 Azure 登陸區域體系結構。</t>
         </is>
       </c>
       <c r="D228" s="21" t="n"/>
       <c r="E228" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -11498,14 +11940,19 @@
       <c r="G228" s="21" t="n"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/choose-an-agile-approach/</t>
         </is>
       </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
       <c r="L228" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M228" s="25" t="n"/>
@@ -11526,7 +11973,7 @@
       </c>
       <c r="C229" s="21" t="inlineStr">
         <is>
-          <t>旨在為應用程式工作負載團隊定義功能，使其自給自足，並且不需要 DevOps 平台團隊的支援。通過使用自定義 RBAC 角色來實現此目的。</t>
+          <t>旨在為 Azure 登陸區域平台團隊定義功能。</t>
         </is>
       </c>
       <c r="D229" s="21" t="n"/>
@@ -11544,13 +11991,18 @@
       <c r="H229" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/az-400-work-git-for-enterprise-devops/</t>
         </is>
       </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
       <c r="L229" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M229" s="25" t="n"/>
@@ -11571,13 +12023,13 @@
       </c>
       <c r="C230" s="21" t="inlineStr">
         <is>
-          <t>使用 CI/CD 管道部署 IaC 專案，並確保部署和 Azure 環境的品質。</t>
+          <t>旨在為應用程式工作負載團隊定義功能，使其自給自足，並且不需要 DevOps 平台團隊的支援。通過使用自定義 RBAC 角色來實現此目的。</t>
         </is>
       </c>
       <c r="D230" s="21" t="n"/>
       <c r="E230" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -11588,14 +12040,19 @@
       <c r="G230" s="21" t="n"/>
       <c r="H230" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/az-400-work-git-for-enterprise-devops/</t>
         </is>
       </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
       <c r="L230" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M230" s="25" t="n"/>
@@ -11616,7 +12073,7 @@
       </c>
       <c r="C231" s="21" t="inlineStr">
         <is>
-          <t>在生成過程中包含 IaC 和應用程式代碼的單元測試。</t>
+          <t>使用 CI/CD 管道部署 IaC 專案，並確保部署和 Azure 環境的品質。</t>
         </is>
       </c>
       <c r="D231" s="21" t="n"/>
@@ -11633,14 +12090,19 @@
       <c r="G231" s="21" t="n"/>
       <c r="H231" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-multiple-environments-using-bicep-azure-pipelines/</t>
         </is>
       </c>
       <c r="J231" s="22" t="n"/>
       <c r="K231" s="22" t="n"/>
       <c r="L231" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M231" s="25" t="n"/>
@@ -11661,13 +12123,13 @@
       </c>
       <c r="C232" s="21" t="inlineStr">
         <is>
-          <t>使用 Key Vault 機密可避免對敏感資訊（如憑據、虛擬機、用戶密碼）、證書或密鑰進行硬編碼。</t>
+          <t>在生成過程中包含 IaC 和應用程式代碼的單元測試。</t>
         </is>
       </c>
       <c r="D232" s="21" t="n"/>
       <c r="E232" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -11679,13 +12141,18 @@
       <c r="H232" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/run-quality-tests-build-pipeline/</t>
         </is>
       </c>
       <c r="J232" s="22" t="n"/>
       <c r="K232" s="22" t="n"/>
       <c r="L232" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M232" s="25" t="n"/>
@@ -11706,13 +12173,13 @@
       </c>
       <c r="C233" s="21" t="inlineStr">
         <is>
-          <t>通過訂閱自動售貨服務為應用程式和工作負載的新登陸區域實施自動化。</t>
+          <t>使用 Key Vault 機密可避免對敏感資訊（如憑據、虛擬機、用戶密碼）、證書或密鑰進行硬編碼。</t>
         </is>
       </c>
       <c r="D233" s="21" t="n"/>
       <c r="E233" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -11723,14 +12190,19 @@
       <c r="G233" s="21" t="n"/>
       <c r="H233" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/implement-azure-key-vault/</t>
         </is>
       </c>
       <c r="J233" s="22" t="n"/>
       <c r="K233" s="22" t="n"/>
       <c r="L233" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M233" s="25" t="n"/>
@@ -11746,18 +12218,18 @@
       </c>
       <c r="B234" s="21" t="inlineStr">
         <is>
-          <t>開發生命週期</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C234" s="21" t="inlineStr">
         <is>
-          <t>確保對應用程式的原始程式碼和開發的 IaC 使用版本控制系統。Microsoft 推薦使用 Git。</t>
+          <t>通過訂閱自動售貨服務為應用程式和工作負載的新登陸區域實施自動化。</t>
         </is>
       </c>
       <c r="D234" s="21" t="n"/>
       <c r="E234" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -11768,14 +12240,14 @@
       <c r="G234" s="21" t="n"/>
       <c r="H234" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J234" s="22" t="n"/>
       <c r="K234" s="22" t="n"/>
       <c r="L234" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M234" s="25" t="n"/>
@@ -11796,13 +12268,13 @@
       </c>
       <c r="C235" s="21" t="inlineStr">
         <is>
-          <t>遵循分支策略，使團隊能夠更好地協作，並有效地管理 IaC 和應用程式代碼的版本控制。查看 Github Flow 等選項。</t>
+          <t>確保對應用程式的原始程式碼和開發的 IaC 使用版本控制系統。Microsoft 推薦使用 Git。</t>
         </is>
       </c>
       <c r="D235" s="21" t="n"/>
       <c r="E235" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -11813,14 +12285,19 @@
       <c r="G235" s="21" t="n"/>
       <c r="H235" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/intro-to-vc-git/</t>
         </is>
       </c>
       <c r="J235" s="22" t="n"/>
       <c r="K235" s="22" t="n"/>
       <c r="L235" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M235" s="25" t="n"/>
@@ -11841,13 +12318,13 @@
       </c>
       <c r="C236" s="21" t="inlineStr">
         <is>
-          <t>採用拉取請求策略來説明保持對合併到分支中的代碼更改的控制。</t>
+          <t>遵循分支策略，使團隊能夠更好地協作，並有效地管理 IaC 和應用程式代碼的版本控制。查看 Github Flow 等選項。</t>
         </is>
       </c>
       <c r="D236" s="21" t="n"/>
       <c r="E236" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -11859,13 +12336,18 @@
       <c r="H236" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-git-branches-workflows/</t>
         </is>
       </c>
       <c r="J236" s="22" t="n"/>
       <c r="K236" s="22" t="n"/>
       <c r="L236" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M236" s="25" t="n"/>
@@ -11886,7 +12368,7 @@
       </c>
       <c r="C237" s="21" t="inlineStr">
         <is>
-          <t>建立使用代碼實現快速修復的流程。始終在團隊的積壓工作中註冊快速修復，以便每個修復都可以在以後進行返工，並且可以限制技術債務。</t>
+          <t>採用拉取請求策略來説明保持對合併到分支中的代碼更改的控制。</t>
         </is>
       </c>
       <c r="D237" s="21" t="n"/>
@@ -11903,14 +12385,19 @@
       <c r="G237" s="21" t="n"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-platform</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/review-azure-infrastructure-changes-using-bicep-pull-requests/</t>
         </is>
       </c>
       <c r="J237" s="22" t="n"/>
       <c r="K237" s="22" t="n"/>
       <c r="L237" s="25" t="inlineStr">
         <is>
-          <t>2676ae46-65ca-444e-8695-fdddeace4cb1</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M237" s="25" t="n"/>
@@ -11926,18 +12413,18 @@
       </c>
       <c r="B238" s="21" t="inlineStr">
         <is>
-          <t>發展戰略</t>
+          <t>開發生命週期</t>
         </is>
       </c>
       <c r="C238" s="21" t="inlineStr">
         <is>
-          <t>利用聲明性基礎結構即代碼工具（如 Azure Bicep、ARM 範本或 Terraform）來構建和維護 Azure 登陸區域體系結構。從平臺和應用程式工作負載的角度來看。</t>
+          <t>建立使用代碼實現快速修復的流程。始終在團隊的積壓工作中註冊快速修復，以便每個修復都可以在以後進行返工，並且可以限制技術債務。</t>
         </is>
       </c>
       <c r="D238" s="21" t="n"/>
       <c r="E238" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -11948,14 +12435,19 @@
       <c r="G238" s="21" t="n"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-platform</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/branch-merge-git/</t>
         </is>
       </c>
       <c r="J238" s="22" t="n"/>
       <c r="K238" s="22" t="n"/>
       <c r="L238" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>2676ae46-65ca-444e-8695-fdddeace4cb1</t>
         </is>
       </c>
       <c r="M238" s="25" t="n"/>
@@ -11971,12 +12463,12 @@
       </c>
       <c r="B239" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>發展戰略</t>
         </is>
       </c>
       <c r="C239" s="21" t="inlineStr">
         <is>
-          <t>將安全性集成到 DevOps 中已經合併的開發和運營流程中，以降低創新過程中的風險。</t>
+          <t>利用聲明性基礎結構即代碼工具（如 Azure Bicep、ARM 範本或 Terraform）來構建和維護 Azure 登陸區域體系結構。從平臺和應用程式工作負載的角度來看。</t>
         </is>
       </c>
       <c r="D239" s="21" t="n"/>
@@ -11993,14 +12485,19 @@
       <c r="G239" s="21" t="n"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-to-infrastructure-as-code-using-bicep/</t>
         </is>
       </c>
       <c r="J239" s="22" t="n"/>
       <c r="K239" s="22" t="n"/>
       <c r="L239" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
         </is>
       </c>
       <c r="M239" s="25" t="n"/>
@@ -12009,15 +12506,50 @@
       <c r="P239" s="25" t="n"/>
     </row>
     <row r="240">
-      <c r="A240" s="21" t="n"/>
-      <c r="B240" s="21" t="n"/>
-      <c r="C240" s="21" t="n"/>
+      <c r="A240" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B240" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C240" s="21" t="inlineStr">
+        <is>
+          <t>將安全性集成到 DevOps 中已經合併的開發和運營流程中，以降低創新過程中的風險。</t>
+        </is>
+      </c>
       <c r="D240" s="21" t="n"/>
-      <c r="E240" s="21" t="n"/>
+      <c r="E240" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G240" s="21" t="n"/>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/az-400-implement-security-validate-code-bases-compliance/</t>
+        </is>
+      </c>
       <c r="J240" s="22" t="n"/>
       <c r="K240" s="22" t="n"/>
-      <c r="L240" s="25" t="n"/>
+      <c r="L240" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M240" s="25" t="n"/>
       <c r="N240" s="25" t="n"/>
       <c r="O240" s="25" t="n"/>
@@ -13024,7 +13556,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F240" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F241" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
@@ -9899,12 +9899,12 @@
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>在 Azure 中為具有配對區域的 BCDR 啟用跨區域複製。</t>
+          <t>使用 Azure 監視代理 （AMA）。Log Analytics 代理自 2024 年 8 月 31 日起已棄用</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9921,19 +9921,19 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/agents/azure-monitor-agent-overview</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/provide-disaster-recovery-replicate-storage-data/</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/agents/azure-monitor-agent-overview#installation</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>aa45be6a-8f2d-4896-b0e3-885e6e94e770</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9954,13 +9954,13 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 備份時，請使用正確的備份類型（GRS、ZRS 和 LRS）進行備份，因為預設設置為 GRS。</t>
+          <t>在 Azure 中為具有配對區域的 BCDR 啟用跨區域複製。</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
       <c r="E188" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9971,19 +9971,19 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-solution-for-backup-disaster-recovery/</t>
+          <t>https://learn.microsoft.com/training/modules/provide-disaster-recovery-replicate-storage-data/</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9999,18 +9999,18 @@
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 來賓策略通過 VM 擴展自動部署軟體配置，並強制實施合規的基線 VM 配置。</t>
+          <t>使用 Azure 備份時，請使用正確的備份類型（GRS、ZRS 和 LRS）進行備份，因為預設設置為 GRS。</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
       <c r="E189" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -10021,14 +10021,19 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-solution-for-backup-disaster-recovery/</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -10049,14 +10054,10 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure Policy 監視 VM 安全配置偏移。</t>
-        </is>
-      </c>
-      <c r="D190" s="21" t="inlineStr">
-        <is>
-          <t>使用 Azure Policy 的來賓配置功能來審核和修正電腦設置（例如 OS、應用程式、環境），以確保資源與預期配置保持一致，並且更新管理可以強制實施 VM 的修補程式管理。</t>
-        </is>
-      </c>
+          <t>使用 Azure 來賓策略通過 VM 擴展自動部署軟體配置，並強制實施合規的基線 VM 配置。</t>
+        </is>
+      </c>
+      <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -10070,19 +10071,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -10098,15 +10094,19 @@
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>保護和恢復</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Site Recovery 實現 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
-        </is>
-      </c>
-      <c r="D191" s="21" t="n"/>
+          <t>通過 Azure Policy 監視 VM 安全配置偏移。</t>
+        </is>
+      </c>
+      <c r="D191" s="21" t="inlineStr">
+        <is>
+          <t>使用 Azure Policy 的來賓配置功能來審核和修正電腦設置（例如 OS、應用程式、環境），以確保資源與預期配置保持一致，並且更新管理可以強制實施 VM 的修補程式管理。</t>
+        </is>
+      </c>
       <c r="E191" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -10120,19 +10120,19 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-infrastructure-with-site-recovery/</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>使用本機 PaaS 服務災難恢復功能。 使用這些功能執行故障轉移測試。</t>
+          <t>使用 Azure Site Recovery 實現 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -10170,19 +10170,19 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-iaas-paas-platform-tools-for-high-availability-disaster-recovery/</t>
+          <t>https://learn.microsoft.com/training/modules/protect-infrastructure-with-site-recovery/</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -10203,7 +10203,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
+          <t>使用本機 PaaS 服務災難恢復功能。 使用這些功能執行故障轉移測試。</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -10220,19 +10220,19 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-solution-for-backup-disaster-recovery/</t>
+          <t>https://learn.microsoft.com/en-us/training/modules/explore-iaas-paas-platform-tools-for-high-availability-disaster-recovery/</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -10248,18 +10248,18 @@
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>保護和恢復</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>添加診斷設置以保存來自應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）的 WAF 日誌。定期查看日誌，以檢查攻擊和誤報檢測。</t>
+          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
       <c r="E194" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -10270,19 +10270,19 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/capture-application-logs-app-service/</t>
+          <t>https://learn.microsoft.com/training/modules/design-solution-for-backup-disaster-recovery/</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -10303,13 +10303,13 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>將 WAF 日誌從應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測集成到整個 Azure 環境中。</t>
+          <t>添加診斷設置以保存來自應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）的 WAF 日誌。定期查看日誌，以檢查攻擊和誤報檢測。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
       <c r="E195" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -10320,19 +10320,19 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/sc-200-connect-logs-to-azure-sentinel/</t>
+          <t>https://learn.microsoft.com/training/modules/capture-application-logs-app-service/</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -10343,17 +10343,17 @@
     <row r="196" ht="16.5" customHeight="1">
       <c r="A196" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>存取控制</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>在允許 Azure 服務投入生產之前，確定其事件響應計劃。</t>
+          <t>將 WAF 日誌從應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測集成到整個 Azure 環境中。</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10370,19 +10370,19 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-incident-readiness/</t>
+          <t>https://learn.microsoft.com/training/paths/sc-200-connect-logs-to-azure-sentinel/</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10403,7 +10403,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>應用零信任方法訪問 Azure 平臺。</t>
+          <t>在允許 Azure 服務投入生產之前，確定其事件響應計劃。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10420,19 +10420,19 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/security-zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-zero-trust-best-practice-frameworks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-incident-readiness/</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10448,18 +10448,18 @@
       </c>
       <c r="B198" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>存取控制</t>
         </is>
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Key Vault 儲存機密和憑據。</t>
+          <t>應用零信任方法訪問 Azure 平臺。</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
       <c r="E198" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10470,19 +10470,19 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/security-zero-trust</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-key-vault/</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-zero-trust-best-practice-frameworks/</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10503,13 +10503,13 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>對不同的應用程式和區域使用不同的 Azure Key Vault，以避免事務規模限制並限制對機密的訪問。</t>
+          <t>使用 Azure Key Vault 儲存機密和憑據。</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10520,19 +10520,19 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-key-vault/</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10553,7 +10553,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>在啟用軟刪除和清除策略的情況下預配 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
+          <t>對不同的應用程式和區域使用不同的 Azure Key Vault，以避免事務規模限制並限制對機密的訪問。</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10570,19 +10570,19 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-key-vault/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10603,7 +10603,7 @@
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>遵循最低特權模型，將永久刪除密鑰、機密和證書的授權限制為專用的自定義 Microsoft Entra ID 角色。</t>
+          <t>在啟用軟刪除和清除策略的情況下預配 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10632,7 +10632,7 @@
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10653,7 +10653,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>使用公共證書頒發機構自動執行證書管理和續訂過程，以簡化管理。</t>
+          <t>遵循最低特權模型，將永久刪除密鑰、機密和證書的授權限制為專用的自定義 Microsoft Entra ID 角色。</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10675,14 +10675,14 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/configure-and-manage-azure-key-vault/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-key-vault/</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10703,7 +10703,7 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>建立金鑰和證書輪換的自動化流程。</t>
+          <t>使用公共證書頒發機構自動執行證書管理和續訂過程，以簡化管理。</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10725,14 +10725,14 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/</t>
+          <t>https://learn.microsoft.com/en-us/training/modules/configure-and-manage-azure-key-vault/</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10753,7 +10753,7 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>在保管庫上啟用防火牆和虛擬網路服務終結點或專用終結點，以控制對密鑰保管庫的訪問。</t>
+          <t>建立金鑰和證書輪換的自動化流程。</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10775,14 +10775,14 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10803,7 +10803,7 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>使用以平臺為中心的 Azure Monitor Log Analytics 工作區來審核 Key Vault 的每個實例中的密鑰、證書和機密使用方式。</t>
+          <t>在保管庫上啟用防火牆和虛擬網路服務終結點或專用終結點，以控制對密鑰保管庫的訪問。</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10820,19 +10820,19 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-infrastructure-with-azure-monitor-logs/</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10853,7 +10853,7 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>委託 Key Vault 實例化和特權訪問，並使用 Azure Policy 強制實施一致的合規配置。</t>
+          <t>使用以平臺為中心的 Azure Monitor Log Analytics 工作區來審核 Key Vault 的每個實例中的密鑰、證書和機密使用方式。</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
@@ -10870,19 +10870,19 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-key-vault-networking-settings/</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-infrastructure-with-azure-monitor-logs/</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10903,7 +10903,7 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>預設使用 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
+          <t>委託 Key Vault 實例化和特權訪問，並使用 Azure Policy 強制實施一致的合規配置。</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
@@ -10920,19 +10920,19 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-key-vault/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-key-vault-networking-settings/</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10953,7 +10953,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+          <t>預設使用 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10970,7 +10970,7 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -10982,7 +10982,7 @@
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -11003,7 +11003,7 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>如果要自帶密鑰，則並非所有考慮的服務都支援此功能。實施相關的緩解措施，使不一致之處不會妨礙預期的結果。選擇適當的區域對和災難恢復區域，以最大程度地減少延遲。</t>
+          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -11025,14 +11025,14 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-key-vault/</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -11053,7 +11053,7 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>對於 Sovereign Landing Zone，請使用 Azure Key Vault 託管 HSM 來儲存機密和憑據。</t>
+          <t>如果要自帶密鑰，則並非所有考慮的服務都支援此功能。實施相關的緩解措施，使不一致之處不會妨礙預期的結果。選擇適當的區域對和災難恢復區域，以最大程度地減少延遲。</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -11070,7 +11070,7 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -11082,7 +11082,7 @@
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -11098,12 +11098,12 @@
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra ID 報告功能生成訪問控制審核報告。</t>
+          <t>對於 Sovereign Landing Zone，請使用 Azure Key Vault 託管 HSM 來儲存機密和憑據。</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
@@ -11120,19 +11120,19 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/monitor-report-aad-security-events/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 活動日誌匯出到 Azure Monitor 紀錄，以實現長期數據保留。如有必要，可導出到 Azure 存儲以進行兩年以上的長期存儲。</t>
+          <t>使用 Microsoft Entra ID 報告功能生成訪問控制審核報告。</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
@@ -11170,19 +11170,19 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-infrastructure-with-azure-monitor-logs/</t>
+          <t>https://learn.microsoft.com/training/modules/monitor-report-aad-security-events/</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -11203,13 +11203,13 @@
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>為所有訂閱啟用Defender雲安全態勢管理。</t>
+          <t>將 Azure 活動日誌匯出到 Azure Monitor 紀錄，以實現長期數據保留。如有必要，可導出到 Azure 存儲以進行兩年以上的長期存儲。</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -11220,19 +11220,19 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/microsoft-defender-cloud-security-posture/</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-infrastructure-with-azure-monitor-logs/</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -11253,7 +11253,7 @@
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>在所有訂閱上為伺服器啟用Defender雲工作負載保護計劃。</t>
+          <t>為所有訂閱啟用Defender雲安全態勢管理。</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
@@ -11270,19 +11270,19 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/understand-azure-defender-cloud-workload-protection/</t>
+          <t>https://learn.microsoft.com/training/modules/microsoft-defender-cloud-security-posture/</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -11303,7 +11303,7 @@
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>在所有訂閱上為 Azure 資源啟用 Defender 雲工作負載保護計劃。</t>
+          <t>在所有訂閱上為伺服器啟用Defender雲工作負載保護計劃。</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
@@ -11320,7 +11320,7 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/connect-azure-subscription</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -11332,7 +11332,7 @@
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>在 IaaS 伺服器上啟用端點保護。</t>
+          <t>在所有訂閱上為 Azure 資源啟用 Defender 雲工作負載保護計劃。</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
@@ -11370,19 +11370,19 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/connect-azure-subscription</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-solutions-securing-server-client-endpoints/</t>
+          <t>https://learn.microsoft.com/training/modules/understand-azure-defender-cloud-workload-protection/</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -11403,13 +11403,13 @@
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure Monitor 紀錄和 Defender for Cloud 監視基本作業系統修補偏移。</t>
+          <t>在 IaaS 伺服器上啟用端點保護。</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -11420,19 +11420,19 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/create-log-analytics-workspace-microsoft-defender-cloud/</t>
+          <t>https://learn.microsoft.com/training/modules/design-solutions-securing-server-client-endpoints/</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -11453,7 +11453,7 @@
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>將預設資源配置連接到集中式 Azure Monitor Log Analytics 工作區。</t>
+          <t>通過 Azure Monitor 紀錄和 Defender for Cloud 監視基本作業系統修補偏移。</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
@@ -11470,19 +11470,19 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-infrastructure-with-azure-monitor-logs/</t>
+          <t>https://learn.microsoft.com/training/modules/create-log-analytics-workspace-microsoft-defender-cloud/</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11503,13 +11503,13 @@
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>具有關聯日誌的集中式威脅檢測 - 將安全數據整合到一個中心位置，通過 SIEM（安全資訊和事件管理）在各種服務之間進行關聯</t>
+          <t>將預設資源配置連接到集中式 Azure Monitor Log Analytics 工作區。</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11520,14 +11520,19 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/well-architected/security/monitor-threats#centralized-threat-detection-with-correlated-logs</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/analyze-infrastructure-with-azure-monitor-logs/</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>a56888b2-7e83-4404-bd31-b886528502d1</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11548,13 +11553,13 @@
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>對於 Sovereign Landing Zone，請在 Entra ID 租戶上啟用透明度日誌。</t>
+          <t>具有關聯日誌的集中式威脅檢測 - 將安全數據整合到一個中心位置，通過 SIEM（安全資訊和事件管理）在各種服務之間進行關聯</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
       <c r="E220" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11565,14 +11570,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/en-us/azure/well-architected/security/monitor-threats#centralized-threat-detection-with-correlated-logs</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>a56888b2-7e83-4404-bd31-b886528502d1</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11593,7 +11598,7 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>對於 Sovereign Landing Zone，請在 Entra ID 租戶上啟用客戶密碼箱。</t>
+          <t>對於 Sovereign Landing Zone，請在 Entra ID 租戶上啟用透明度日誌。</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
@@ -11610,14 +11615,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11638,13 +11643,13 @@
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>使用基於 Azure 事件網格的解決方案獲取面向日誌的即時警報。</t>
+          <t>對於 Sovereign Landing Zone，請在 Entra ID 租戶上啟用客戶密碼箱。</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11655,19 +11660,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/event-grid/set-alerts</t>
-        </is>
-      </c>
-      <c r="I222" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/azure-event-grid/</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>874a748b-662d-46d1-9051-2a66498f6dfe</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11683,18 +11683,18 @@
       </c>
       <c r="B223" s="21" t="inlineStr">
         <is>
-          <t>概述</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>啟用到存儲帳戶的安全傳輸。</t>
+          <t>使用基於 Azure 事件網格的解決方案獲取面向日誌的即時警報。</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
       <c r="E223" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11705,19 +11705,19 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/event-grid/set-alerts</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-storage-account/</t>
+          <t>https://learn.microsoft.com/training/modules/azure-event-grid/</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>874a748b-662d-46d1-9051-2a66498f6dfe</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11738,7 +11738,7 @@
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
+          <t>啟用到存儲帳戶的安全傳輸。</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
@@ -11755,14 +11755,19 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-storage-account/</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11778,12 +11783,12 @@
       </c>
       <c r="B225" s="21" t="inlineStr">
         <is>
-          <t>保護特權訪問</t>
+          <t>概述</t>
         </is>
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>為 Azure 管理任務單獨使用特權管理員帳戶。</t>
+          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
@@ -11800,19 +11805,14 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
-        </is>
-      </c>
-      <c r="I225" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/design-solutions-secure-privileged-access/</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11828,18 +11828,18 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>服務支援框架</t>
+          <t>保護特權訪問</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>規劃如何實現新的 Azure 服務。</t>
+          <t>為 Azure 管理任務單獨使用特權管理員帳戶。</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11850,14 +11850,19 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-solutions-secure-privileged-access/</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11878,7 +11883,7 @@
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>規劃如何滿足 Azure 服務的服務請求。</t>
+          <t>規劃如何實現新的 Azure 服務。</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
@@ -11902,7 +11907,7 @@
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11913,23 +11918,23 @@
     <row r="228">
       <c r="A228" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B228" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>服務支援框架</t>
         </is>
       </c>
       <c r="C228" s="21" t="inlineStr">
         <is>
-          <t>確保擁有跨職能 DevOps 平台團隊來構建、管理和維護 Azure 登陸區域體系結構。</t>
+          <t>規劃如何滿足 Azure 服務的服務請求。</t>
         </is>
       </c>
       <c r="D228" s="21" t="n"/>
       <c r="E228" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -11940,19 +11945,14 @@
       <c r="G228" s="21" t="n"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
-        </is>
-      </c>
-      <c r="I228" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/choose-an-agile-approach/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
       <c r="L228" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M228" s="25" t="n"/>
@@ -11973,13 +11973,13 @@
       </c>
       <c r="C229" s="21" t="inlineStr">
         <is>
-          <t>旨在為 Azure 登陸區域平台團隊定義功能。</t>
+          <t>確保擁有跨職能 DevOps 平台團隊來構建、管理和維護 Azure 登陸區域體系結構。</t>
         </is>
       </c>
       <c r="D229" s="21" t="n"/>
       <c r="E229" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -11990,19 +11990,19 @@
       <c r="G229" s="21" t="n"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/az-400-work-git-for-enterprise-devops/</t>
+          <t>https://learn.microsoft.com/training/modules/choose-an-agile-approach/</t>
         </is>
       </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
       <c r="L229" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M229" s="25" t="n"/>
@@ -12023,7 +12023,7 @@
       </c>
       <c r="C230" s="21" t="inlineStr">
         <is>
-          <t>旨在為應用程式工作負載團隊定義功能，使其自給自足，並且不需要 DevOps 平台團隊的支援。通過使用自定義 RBAC 角色來實現此目的。</t>
+          <t>旨在為 Azure 登陸區域平台團隊定義功能。</t>
         </is>
       </c>
       <c r="D230" s="21" t="n"/>
@@ -12052,7 +12052,7 @@
       <c r="K230" s="22" t="n"/>
       <c r="L230" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M230" s="25" t="n"/>
@@ -12073,13 +12073,13 @@
       </c>
       <c r="C231" s="21" t="inlineStr">
         <is>
-          <t>使用 CI/CD 管道部署 IaC 專案，並確保部署和 Azure 環境的品質。</t>
+          <t>旨在為應用程式工作負載團隊定義功能，使其自給自足，並且不需要 DevOps 平台團隊的支援。通過使用自定義 RBAC 角色來實現此目的。</t>
         </is>
       </c>
       <c r="D231" s="21" t="n"/>
       <c r="E231" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -12090,19 +12090,19 @@
       <c r="G231" s="21" t="n"/>
       <c r="H231" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-multiple-environments-using-bicep-azure-pipelines/</t>
+          <t>https://learn.microsoft.com/training/paths/az-400-work-git-for-enterprise-devops/</t>
         </is>
       </c>
       <c r="J231" s="22" t="n"/>
       <c r="K231" s="22" t="n"/>
       <c r="L231" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M231" s="25" t="n"/>
@@ -12123,7 +12123,7 @@
       </c>
       <c r="C232" s="21" t="inlineStr">
         <is>
-          <t>在生成過程中包含 IaC 和應用程式代碼的單元測試。</t>
+          <t>使用 CI/CD 管道部署 IaC 專案，並確保部署和 Azure 環境的品質。</t>
         </is>
       </c>
       <c r="D232" s="21" t="n"/>
@@ -12140,19 +12140,19 @@
       <c r="G232" s="21" t="n"/>
       <c r="H232" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/run-quality-tests-build-pipeline/</t>
+          <t>https://learn.microsoft.com/training/modules/manage-multiple-environments-using-bicep-azure-pipelines/</t>
         </is>
       </c>
       <c r="J232" s="22" t="n"/>
       <c r="K232" s="22" t="n"/>
       <c r="L232" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M232" s="25" t="n"/>
@@ -12173,13 +12173,13 @@
       </c>
       <c r="C233" s="21" t="inlineStr">
         <is>
-          <t>使用 Key Vault 機密可避免對敏感資訊（如憑據、虛擬機、用戶密碼）、證書或密鑰進行硬編碼。</t>
+          <t>在生成過程中包含 IaC 和應用程式代碼的單元測試。</t>
         </is>
       </c>
       <c r="D233" s="21" t="n"/>
       <c r="E233" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -12195,14 +12195,14 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/implement-azure-key-vault/</t>
+          <t>https://learn.microsoft.com/training/modules/run-quality-tests-build-pipeline/</t>
         </is>
       </c>
       <c r="J233" s="22" t="n"/>
       <c r="K233" s="22" t="n"/>
       <c r="L233" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M233" s="25" t="n"/>
@@ -12223,13 +12223,13 @@
       </c>
       <c r="C234" s="21" t="inlineStr">
         <is>
-          <t>通過訂閱自動售貨服務為應用程式和工作負載的新登陸區域實施自動化。</t>
+          <t>使用 Key Vault 機密可避免對敏感資訊（如憑據、虛擬機、用戶密碼）、證書或密鑰進行硬編碼。</t>
         </is>
       </c>
       <c r="D234" s="21" t="n"/>
       <c r="E234" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -12240,14 +12240,19 @@
       <c r="G234" s="21" t="n"/>
       <c r="H234" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/implement-azure-key-vault/</t>
         </is>
       </c>
       <c r="J234" s="22" t="n"/>
       <c r="K234" s="22" t="n"/>
       <c r="L234" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M234" s="25" t="n"/>
@@ -12263,18 +12268,18 @@
       </c>
       <c r="B235" s="21" t="inlineStr">
         <is>
-          <t>開發生命週期</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C235" s="21" t="inlineStr">
         <is>
-          <t>確保對應用程式的原始程式碼和開發的 IaC 使用版本控制系統。Microsoft 推薦使用 Git。</t>
+          <t>通過訂閱自動售貨服務為應用程式和工作負載的新登陸區域實施自動化。</t>
         </is>
       </c>
       <c r="D235" s="21" t="n"/>
       <c r="E235" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -12285,19 +12290,14 @@
       <c r="G235" s="21" t="n"/>
       <c r="H235" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
-        </is>
-      </c>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/paths/intro-to-vc-git/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J235" s="22" t="n"/>
       <c r="K235" s="22" t="n"/>
       <c r="L235" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M235" s="25" t="n"/>
@@ -12318,13 +12318,13 @@
       </c>
       <c r="C236" s="21" t="inlineStr">
         <is>
-          <t>遵循分支策略，使團隊能夠更好地協作，並有效地管理 IaC 和應用程式代碼的版本控制。查看 Github Flow 等選項。</t>
+          <t>確保對應用程式的原始程式碼和開發的 IaC 使用版本控制系統。Microsoft 推薦使用 Git。</t>
         </is>
       </c>
       <c r="D236" s="21" t="n"/>
       <c r="E236" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -12335,19 +12335,19 @@
       <c r="G236" s="21" t="n"/>
       <c r="H236" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-git-branches-workflows/</t>
+          <t>https://learn.microsoft.com/training/paths/intro-to-vc-git/</t>
         </is>
       </c>
       <c r="J236" s="22" t="n"/>
       <c r="K236" s="22" t="n"/>
       <c r="L236" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M236" s="25" t="n"/>
@@ -12368,13 +12368,13 @@
       </c>
       <c r="C237" s="21" t="inlineStr">
         <is>
-          <t>採用拉取請求策略來説明保持對合併到分支中的代碼更改的控制。</t>
+          <t>遵循分支策略，使團隊能夠更好地協作，並有效地管理 IaC 和應用程式代碼的版本控制。查看 Github Flow 等選項。</t>
         </is>
       </c>
       <c r="D237" s="21" t="n"/>
       <c r="E237" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -12390,14 +12390,14 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/review-azure-infrastructure-changes-using-bicep-pull-requests/</t>
+          <t>https://learn.microsoft.com/training/modules/manage-git-branches-workflows/</t>
         </is>
       </c>
       <c r="J237" s="22" t="n"/>
       <c r="K237" s="22" t="n"/>
       <c r="L237" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M237" s="25" t="n"/>
@@ -12418,7 +12418,7 @@
       </c>
       <c r="C238" s="21" t="inlineStr">
         <is>
-          <t>建立使用代碼實現快速修復的流程。始終在團隊的積壓工作中註冊快速修復，以便每個修復都可以在以後進行返工，並且可以限制技術債務。</t>
+          <t>採用拉取請求策略來説明保持對合併到分支中的代碼更改的控制。</t>
         </is>
       </c>
       <c r="D238" s="21" t="n"/>
@@ -12435,19 +12435,19 @@
       <c r="G238" s="21" t="n"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-platform</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/branch-merge-git/</t>
+          <t>https://learn.microsoft.com/training/modules/review-azure-infrastructure-changes-using-bicep-pull-requests/</t>
         </is>
       </c>
       <c r="J238" s="22" t="n"/>
       <c r="K238" s="22" t="n"/>
       <c r="L238" s="25" t="inlineStr">
         <is>
-          <t>2676ae46-65ca-444e-8695-fdddeace4cb1</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M238" s="25" t="n"/>
@@ -12463,18 +12463,18 @@
       </c>
       <c r="B239" s="21" t="inlineStr">
         <is>
-          <t>發展戰略</t>
+          <t>開發生命週期</t>
         </is>
       </c>
       <c r="C239" s="21" t="inlineStr">
         <is>
-          <t>利用聲明性基礎結構即代碼工具（如 Azure Bicep、ARM 範本或 Terraform）來構建和維護 Azure 登陸區域體系結構。從平臺和應用程式工作負載的角度來看。</t>
+          <t>建立使用代碼實現快速修復的流程。始終在團隊的積壓工作中註冊快速修復，以便每個修復都可以在以後進行返工，並且可以限制技術債務。</t>
         </is>
       </c>
       <c r="D239" s="21" t="n"/>
       <c r="E239" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -12485,19 +12485,19 @@
       <c r="G239" s="21" t="n"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-platform</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-to-infrastructure-as-code-using-bicep/</t>
+          <t>https://learn.microsoft.com/training/modules/branch-merge-git/</t>
         </is>
       </c>
       <c r="J239" s="22" t="n"/>
       <c r="K239" s="22" t="n"/>
       <c r="L239" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>2676ae46-65ca-444e-8695-fdddeace4cb1</t>
         </is>
       </c>
       <c r="M239" s="25" t="n"/>
@@ -12513,12 +12513,12 @@
       </c>
       <c r="B240" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>發展戰略</t>
         </is>
       </c>
       <c r="C240" s="21" t="inlineStr">
         <is>
-          <t>將安全性集成到 DevOps 中已經合併的開發和運營流程中，以降低創新過程中的風險。</t>
+          <t>利用聲明性基礎結構即代碼工具（如 Azure Bicep、ARM 範本或 Terraform）來構建和維護 Azure 登陸區域體系結構。從平臺和應用程式工作負載的角度來看。</t>
         </is>
       </c>
       <c r="D240" s="21" t="n"/>
@@ -12535,19 +12535,19 @@
       <c r="G240" s="21" t="n"/>
       <c r="H240" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/az-400-implement-security-validate-code-bases-compliance/</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-to-infrastructure-as-code-using-bicep/</t>
         </is>
       </c>
       <c r="J240" s="22" t="n"/>
       <c r="K240" s="22" t="n"/>
       <c r="L240" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
         </is>
       </c>
       <c r="M240" s="25" t="n"/>
@@ -12556,15 +12556,50 @@
       <c r="P240" s="25" t="n"/>
     </row>
     <row r="241">
-      <c r="A241" s="21" t="n"/>
-      <c r="B241" s="21" t="n"/>
-      <c r="C241" s="21" t="n"/>
+      <c r="A241" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B241" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C241" s="21" t="inlineStr">
+        <is>
+          <t>將安全性集成到 DevOps 中已經合併的開發和運營流程中，以降低創新過程中的風險。</t>
+        </is>
+      </c>
       <c r="D241" s="21" t="n"/>
-      <c r="E241" s="21" t="n"/>
+      <c r="E241" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G241" s="21" t="n"/>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/az-400-implement-security-validate-code-bases-compliance/</t>
+        </is>
+      </c>
       <c r="J241" s="22" t="n"/>
       <c r="K241" s="22" t="n"/>
-      <c r="L241" s="25" t="n"/>
+      <c r="L241" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M241" s="25" t="n"/>
       <c r="N241" s="25" t="n"/>
       <c r="O241" s="25" t="n"/>
@@ -13556,7 +13591,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F241" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F242" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>使用一個 Entra 租戶來管理 Azure 資源，除非你對多租戶有明確的法規或業務要求。</t>
+          <t>使用一個 Entra 租戶來管理 Azure 資源，除非對多租戶有明確的法規或業務要求。</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>使用多租戶自動化方法管理 Microsoft Entra ID 租戶。</t>
+          <t>使用多租戶自動化方法管理您的 Microsoft Entra ID 租戶。</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>如果向合作夥伴授予管理租戶的訪問許可權，請使用 Azure Lighthouse。</t>
+          <t>如果向合作夥伴授予管理租戶的許可權，請使用 Azure Lighthouse。</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>如果你有 CSP 合作夥伴，請定義並記錄支援請求和上報過程。</t>
+          <t>如果您有 CSP 合作夥伴，請定義並記錄您的支援請求和升級流程。</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>在EA註冊上啟用DA查看費用和AO查看費用，以允許具有正確許可權的使用者查看成本和計費數據。</t>
+          <t>在您的EA註冊上啟用DA View Charges和 AO View Charges，以允許具有正確許可權的使用者查看成本和帳單數據。</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>使用企業開發/測試訂閱來降低非生產工作負載的成本。</t>
+          <t>使用 Enterprise Dev/Test 訂閱來降低非生產工作負載的成本。</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>配置協定計費帳戶通知聯繫電子郵件。</t>
+          <t>配置協定計費帳戶通知聯繫人電子郵件。</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>利用 Microsoft Azure 開發/測試產品/服務計劃來降低非生產工作負載的成本。</t>
+          <t>利用 Microsoft Azure 開發/測試計劃產品/服務來降低非生產工作負載的成本。</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>定義並記錄一個流程，以定期審核協定計費 RBAC 角色分配，以審查誰有權訪問您的 MCA 計費帳戶。</t>
+          <t>定義並記錄定期審核協定計費 RBAC 角色分配的流程，以審查誰有權訪問您的 MCA 計費帳戶。</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>強制實施與雲操作模型相符的 RBAC 模型。跨管理組和訂閱確定範圍和分配。</t>
+          <t>實施與您的雲操作模型相一致的 RBAC 模型。跨管理組和訂閱確定範圍和分配。</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>使用託管標識（而不是服務主體）對 Azure 服務進行身份驗證。可以通過 Entra ID &gt;登錄日誌&gt;服務主體登錄來檢查現有服務主體。</t>
+          <t>使用託管標識而不是服務主體對 Azure 服務進行身份驗證。可以通過 Entra ID &gt;登錄日誌&gt;服務主體登錄來檢查現有服務主體。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>僅對所有帳戶類型使用身份驗證類型「工作或學校帳戶」。避免使用 Microsoft 帳戶</t>
+          <t>僅對所有帳戶類型使用身份驗證類型 Work or school account。避免使用 Microsoft 帳戶</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>僅使用組來分配許可權。如果已建立組管理系統，則將本地組添加到僅 Entra ID 組。</t>
+          <t>僅使用組來分配許可權。如果組管理系統已就位，請將本地組添加到僅 Entra ID 組。</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>對有權訪問 Azure 環境的任何用戶強制實施 Microsoft Entra ID 條件訪問策略。</t>
+          <t>對 Azure 環境具有許可權的任何使用者強制實施 Microsoft Entra ID 條件訪問策略。</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>根據角色和安全要求，強制實施集中和委派的職責，以管理部署在登陸區域內的資源。</t>
+          <t>根據角色和安全要求，強制實施集中和委派的職責，以管理部署在 landing zone 內的資源。</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>強制實施 Microsoft Entra ID 特權標識管理 （PIM） 以建立零長期訪問許可權和最低特權。</t>
+          <t>強制實施 Microsoft Entra ID Privileged Identity Management （PIM） 以建立零長期訪問和最低許可權。</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>部署 Active Directory 域控制器時，請使用具有可用性區域的位置，並在這些區域中至少部署兩個 VM。如果不可用，請在可用性集中進行部署。</t>
+          <t>部署 Active Directory 域控制器時，請使用具有可用區的位置，並在這些區域中部署至少兩個 VM。如果不可用，請在可用性集中部署。</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 自定義 RBAC 角色用於以下關鍵角色，以提供跨 ALZ 的精細訪問：Azure 平臺擁有者、網路管理、安全操作、訂閱擁有者、應用程式擁有者。使這些角色與企業中的團隊和職責保持一致。</t>
+          <t>將 Azure 自定義 RBAC 角色用於以下關鍵角色，以提供跨 ALZ 的精細訪問：Azure 平臺擁有者、網路管理、安全操作、訂閱擁有者、應用程式擁有者。使這些角色與您企業內的團隊和職責保持一致。</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>將 Microsoft Entra ID 日誌與平臺為中心的 Azure Monitor 集成。Azure Monitor 允許圍繞 Azure 中的日誌和監視數據提供單一事實來源，為組織提供雲原生選項，以滿足日誌收集和保留方面的要求。</t>
+          <t>使用 Microsoft Entra 域服務時，請使用副本集。副本集將提高託管域的復原能力，並允許您部署到其他區域。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2328,19 +2328,19 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
+          <t>https://learn.microsoft.com/entra/identity/domain-services/overview</t>
         </is>
       </c>
       <c r="I33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/entra/identity/monitoring-health/howto-integrate-activity-logs-with-azure-monitor-logs</t>
+          <t>https://learn.microsoft.com/training/modules/understand-azure-active-directory/6-examine-azure-domain-services</t>
         </is>
       </c>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
+          <t>0dd4e625-9c4b-4a56-b54a-4357bac12761</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2361,13 +2361,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>實施緊急訪問或打破玻璃帳戶，以防止租戶範圍的帳戶鎖定。</t>
+          <t>將 Microsoft Entra ID 紀錄與平臺中心的 Azure Monitor 集成。Azure Monitor 允許 Azure 中日誌和監視數據的單一事實來源，為組織提供雲原生選項來滿足日誌收集和保留的要求。</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2378,19 +2378,19 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
         </is>
       </c>
       <c r="I34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/entra/identity/monitoring-health/howto-integrate-activity-logs-with-azure-monitor-logs</t>
         </is>
       </c>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2406,18 +2406,18 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>部署 Microsoft Entra Connect 時，請使用暫存伺服器實現高可用性/災難恢復。</t>
+          <t>實施緊急訪問或不受限帳戶，以防止租戶範圍的帳戶鎖定。</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2428,19 +2428,19 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/entra/identity/hybrid/connect/plan-connect-topologies</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2456,12 +2456,12 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>Microsoft Entra ID</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>請勿使用本地同步帳戶進行 Microsoft Entra ID 角色分配，除非你有特別需要它的方案。</t>
+          <t>部署 Microsoft Entra Connect 時，請使用暫存伺服器實現高可用性/災難恢復。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2478,19 +2478,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/entra/identity/hybrid/connect/plan-connect-topologies</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra ID 應用程式代理為遠端使用者提供對應用程式的訪問許可權時，請將其作為平臺資源進行管理，因為每個租戶只能有一個實例。</t>
+          <t>請勿將本地同步帳戶用於 Microsoft Entra ID 角色分配，除非你的方案特別需要它。</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2528,19 +2528,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2556,18 +2556,18 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>登陸區域</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>通過使用虛擬網路配置標識網路分段，並對等互連到中心。在應用程式登陸區域 （舊版） 內提供身份驗證。</t>
+          <t>使用 Microsoft Entra ID 應用程式代理為遠端使用者提供對應用程式的訪問許可權時，請將其作為平臺資源進行管理，因為每個租戶只能有一個實例。</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2578,19 +2578,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>9cf5418b-1520-4b7b-add7-88eb28f833e8</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2611,13 +2611,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>如果可能，請使用 Azure RBAC 管理對資源的數據平面訪問。例如，跨 Key Vault、存儲帳戶和資料庫服務的數據操作。</t>
+          <t>通過使用虛擬網路配置身份網路分段，並對等互連回中心。在應用程式登錄區域（舊版）內提供身份驗證。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2628,19 +2628,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>d4d1ad54-1abc-4919-b267-3f342d3b49e4</t>
+          <t>9cf5418b-1520-4b7b-add7-88eb28f833e8</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra ID PIM 訪問評審定期驗證資源權利。</t>
+          <t>如果可能，請使用 Azure RBAC 管理數據平面對資源的訪問。例如，跨 Key Vault、存儲帳戶和資料庫服務的數據操作。</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2678,19 +2678,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
         </is>
       </c>
       <c r="I40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/entra/id-governance/privileged-identity-management/pim-perform-roles-and-resource-roles-review</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>d505ebcb-79b1-4274-9c0d-a27c8bea489c</t>
+          <t>d4d1ad54-1abc-4919-b267-3f342d3b49e4</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2701,27 +2701,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>資源組織</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>命名和標記</t>
+          <t>登陸區域</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>對資源使用明確定義的命名方案，例如 Microsoft 最佳實踐命名標準。</t>
-        </is>
-      </c>
-      <c r="D41" s="21" t="inlineStr">
-        <is>
-          <t>請考慮使用 https://aka.ms/azurenamingtool 上提供的 Azure 命名工具</t>
-        </is>
-      </c>
+          <t>使用 Microsoft Entra ID PIM 訪問評審定期驗證資源權利。</t>
+        </is>
+      </c>
+      <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2732,15 +2728,19 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/id-governance/privileged-identity-management/pim-perform-roles-and-resource-roles-review</t>
+        </is>
+      </c>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>d505ebcb-79b1-4274-9c0d-a27c8bea489c</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2756,18 +2756,22 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>命名和標記</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>強制實施合理扁平的管理組層次結構，不超過四個級別。</t>
-        </is>
-      </c>
-      <c r="D42" s="21" t="n"/>
+          <t>對資源使用定義明確的命名方案，例如 Microsoft 最佳實踐命名標準。</t>
+        </is>
+      </c>
+      <c r="D42" s="21" t="inlineStr">
+        <is>
+          <t>請考慮使用 https://aka.ms/azurenamingtool 上提供的 Azure 命名工具</t>
+        </is>
+      </c>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2778,19 +2782,15 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I42" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+        </is>
+      </c>
+      <c r="I42" s="15" t="n"/>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>強制實施沙箱管理組，允許使用者立即試驗 Azure。</t>
+          <t>強制實施不超過四個級別的合理扁平管理組層次結構。</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2828,19 +2828,19 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>在根管理組下強制實施平臺管理組，以支持常見的平臺策略和 Azure 角色分配。</t>
+          <t>強制實施沙箱管理組，以允許使用者立即試用 Azure。</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2890,7 +2890,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>在連接管理組中強制實施專用連接訂閱，以託管 Azure 虛擬 WAN 中心、專用非 AD 功能變數名稱系統 （DNS）、ExpressRoute 線路和其他網路資源。</t>
+          <t>在根管理組下強制實施平臺管理組，以支援通用平臺策略和 Azure 角色分配。</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2940,7 +2940,7 @@
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>強制在根管理組下不放置任何訂閱。</t>
+          <t>在連接管理組中強制實施專用連接訂閱，以託管 Azure 虛擬 WAN 中心、專用非 AD 功能變數名稱系統 （DNS）、ExpressRoute 線路和其他網路資源。</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2978,19 +2978,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>通過在管理組層次結構設置中啟用 Azure RBAC 授權，強制只有特權使用者才能操作租戶中的管理組。</t>
+          <t>強制不將任何訂閱放置在根管理組下。</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -3028,19 +3028,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-role-based-access-control/</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>在根級別管理組下強制實施管理組，以根據其安全性、合規性、連接性和功能需求來表示工作負載的類型。</t>
+          <t>通過在管理組層次結構設置中啟用 Azure RBAC 授權，強制只有特權使用者才能操作租戶中的管理組。</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3078,14 +3078,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-role-based-access-control/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3106,13 +3111,13 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>強制執行流程，使資源擁有者瞭解其角色和職責、訪問評審、預算評審、策略合規性，並在必要時進行修正。</t>
+          <t>在根級管理組下強制實施管理組，以根據工作負載的安全性、合規性、連接性和功能需求來表示工作負載的類型。</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3123,19 +3128,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/entra/id-governance/access-reviews-overview</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/plan-implement-manage-access-review/</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3156,13 +3156,13 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>確保所有訂閱擁有者和IT核心團隊都瞭解訂閱配額及其對給定訂閱的預配資源的影響。</t>
+          <t>實施一個流程，讓資源擁有者了解他們的角色和職責、訪問審查、預算審查、策略合規性，並在必要時進行補救。</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3173,19 +3173,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/entra/id-governance/access-reviews-overview</t>
         </is>
       </c>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/</t>
+          <t>https://learn.microsoft.com/training/modules/plan-implement-manage-access-review/</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3206,13 +3206,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>在適當的情況下使用預留實例來優化成本並確保目標區域的可用容量。</t>
+          <t>確保所有訂閱擁有者和IT核心團隊都瞭解訂閱配額及其對給定訂閱的預置資源的影響。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3223,19 +3223,19 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/</t>
         </is>
       </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3256,13 +3256,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>建立儀錶板和/或可視化效果，以監控計算和存儲容量指標。（即 CPU、記憶體、磁碟空間）</t>
+          <t>在適當的情況下使用預留實例來優化成本並確保目標區域中的可用容量。</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3273,19 +3273,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-portal/azure-portal-dashboards</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/visualize-data-workbooks/</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3306,13 +3306,13 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>作為雲採用的一部分，請使用“託管雲成本”過程實施詳細的成本管理計劃。</t>
+          <t>建立控制面板和/或可視化效果，以監控計算和存儲容量指標。（即 CPU、記憶體、磁碟空間）</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3323,19 +3323,19 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/get-started/manage-costs</t>
+          <t>https://learn.microsoft.com/azure/azure-portal/azure-portal-dashboards</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/training/modules/visualize-data-workbooks/</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3356,13 +3356,13 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>如果伺服器將用於身份服務（如域控制器），請在身份管理組中建立專用身份訂閱，以託管這些服務。確保將資源設置為使用其區域中可用的域控制器。</t>
+          <t>作為雲採用的一部分，請使用“託管雲成本”流程實施詳細的成本管理計劃。</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3373,19 +3373,19 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/get-started/manage-costs</t>
         </is>
       </c>
       <c r="I54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>確保將標籤用於計費和成本管理。</t>
+          <t>如果伺服器將用於 Identity 服務（如域控制器），請在 Identity Management 組中建立專用 Identity Subscription 來託管這些服務。確保將資源設置為使用其區域中可用的域控制器。</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3423,19 +3423,19 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>對於 Sovereign Landing Zone，在「登陸區」MG 下直接擁有“機密公司”和“機密在線”管理組。</t>
+          <t>確保使用標籤進行計費和成本管理。</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3473,19 +3473,19 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/02-Architecture.md</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/industry/sovereignty/slz-overview</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>6cc0ea22-42bb-441e-a345-804ab0a09666</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3501,18 +3501,18 @@
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>地區</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>為部署選擇正確的 Azure 區域。Azure 是一個全球規模的雲平臺，可在許多區域和地理位置提供全球覆蓋。不同的 Azure 區域具有不同的特徵、訪問和可用性模型、成本、容量和提供的服務，因此必須考慮所有條件和要求。</t>
+          <t>對於 Sovereign 登陸區域，請在「登陸區域」MG 下直接擁有「機密公司」和「機密聯機」管理組。</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
       <c r="E57" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3523,19 +3523,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/02-Architecture.md</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/industry/sovereignty/slz-overview</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>250d81ce-8bbe-4f85-9051-6a18a8221e50</t>
+          <t>6cc0ea22-42bb-441e-a345-804ab0a09666</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3556,13 +3556,13 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>在多區域部署中部署 Azure 登陸區域。根據客戶規模、位置和用戶狀態，在多個區域運營可能是提供服務和在離他們更近的地方運行應用程式的常見選擇。使用多區域部署對於提供異地災難恢復功能、消除對單個區域容量的依賴性以及降低臨時和局部資源容量限制的風險也很重要。</t>
+          <t>為您的部署選擇合適的 Azure 區域。Azure 是一個全球規模的雲平臺，通過許多區域和地理位置提供全球覆蓋。不同的 Azure 區域具有不同的特徵、訪問和可用性模型、成本、容量和提供的服務，因此考慮所有標準和要求非常重要。</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3573,7 +3573,7 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3585,7 +3585,7 @@
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>19ca3f89-397d-44b1-b5b6-5e18661372ac</t>
+          <t>250d81ce-8bbe-4f85-9051-6a18a8221e50</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>確保所需的服務和功能在選定的部署區域內可用。</t>
+          <t>在多區域部署中部署 Azure 登陸區域。根據客戶規模、位置和用戶數量，在多個區域運營可能是在更靠近他們的地方提供服務和運行應用程式的常見選擇。使用多區域部署對於提供異地災難恢復功能也很重要，可以消除對單個區域容量的依賴性，並降低臨時和局部資源容量限制的風險。</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3623,7 +3623,7 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3635,7 +3635,7 @@
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>19ca3f89-397d-44b1-b5b6-5e18661372ac</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3646,17 +3646,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>資源組織</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>地區</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>記錄一個標準，用於使用應用程式閘道和 Azure Front Door 從工作負載分支保護交付應用程式內容。 您可以使用應用程式交付清單來獲取建議。</t>
+          <t>確保所需的服務和功能在所選部署區域中可用。</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3673,14 +3673,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3696,12 +3701,12 @@
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>中心輻射型</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>對於需要最大靈活性的網路方案，請使用中心輻射型網路拓撲。</t>
+          <t>記錄使用應用程式閘道和 Azure Front Door 保護來自工作負載分支的交付應用程式內容的標準。 您可以使用 Application Delivery checklist 來獲取建議。</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3718,19 +3723,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3746,18 +3746,18 @@
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>中心輻射型</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>在中心虛擬網路中部署共用網路服務，包括 ExpressRoute 閘道、VPN 閘道和 Azure 防火牆或合作夥伴 NVA。如有必要，還可以部署 DNS 服務。</t>
+          <t>對於需要最大靈活性的網路方案，請使用中心輻射型網路拓撲。</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3768,19 +3768,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/traditional-azure-networking-topology</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3796,12 +3796,12 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>對應用程式登陸區域中的所有公共IP位址使用 DDoS 網路或IP保護計畫。</t>
+          <t>在中心虛擬網路中部署共用網路服務，包括 ExpressRoute 閘道、VPN 閘道和 Azure 防火牆或合作夥伴 NVA。如有必要，還要部署 DNS 服務。</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3818,19 +3818,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/traditional-azure-networking-topology</t>
         </is>
       </c>
       <c r="I63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
         </is>
       </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3846,18 +3846,18 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>中心輻射型</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>部署合作夥伴網路技術或 NVA 時，請遵循合作夥伴供應商的指導。</t>
+          <t>對應用程式登陸區域中的所有公共IP位址使用 DDoS 網路或IP保護計畫。</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3868,15 +3868,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3892,18 +3896,18 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>中心輻射型</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>如果需要在中心輻射型方案中在 ExpressRoute 和 VPN 閘道之間傳輸，請使用 Azure 路由伺服器。</t>
+          <t>部署合作夥伴網路技術或 NVA 時，請遵循合作夥伴供應商的指導。</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3914,19 +3918,15 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3942,12 +3942,12 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>中心輻射型</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>如果使用路由伺服器，請對路由伺服器子網使用 /27 前置綴。</t>
+          <t>如果需要在中心輻射型方案中在 ExpressRoute 和 VPN 閘道之間傳輸，請使用 Azure 路由伺服器。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3964,7 +3964,7 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3976,7 +3976,7 @@
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3992,18 +3992,18 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>中心輻射型</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>對於跨 Azure 區域具有多個中心輻射型拓撲的網路體系結構，請在中心 VNet 之間使用全域虛擬網路對等互連將區域相互連接。</t>
+          <t>如果使用路由伺服器，請對路由伺服器子網使用 /27 前置綴。</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4014,19 +4014,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -4042,12 +4042,12 @@
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>中心輻射型</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>使用用於網路的 Azure Monitor 監視 Azure 上網路的端到端狀態。</t>
+          <t>對於跨 Azure 區域具有多個中心輻射型拓撲的網路體系結構，請在中心 VNet 之間使用全域虛擬網路對等互連將區域相互連接。</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -4064,19 +4064,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4092,12 +4092,12 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>中心輻射型</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>如果一個區域中有超過 400 個分支網路，請部署一個額外的中心，以繞過 VNet 對等互連限制 （500） 和可通過 ExpressRoute 播發的最大前綴數 （1000）。</t>
+          <t>使用適用於網路的 Azure Monitor 監視 Azure 上網路的端到端狀態。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4114,19 +4114,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4142,12 +4142,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>中心輻射型</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>將每個路由表的路由數限制為 400 個。</t>
+          <t>如果一個區域中的分支網路超過 400 個，請部署一個額外的中心以繞過 VNet 對等互連限制 （500） 和可通過 ExpressRoute 播發的最大前綴數 （1000）。</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4176,7 +4176,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4192,18 +4192,18 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>中心輻射型</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>配置 VNet 對等互連時，請使用「允許流量流向遠端虛擬網路」設置。</t>
+          <t>將每個路由表的路由數限制為 400。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4214,7 +4214,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
@@ -4226,7 +4226,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4242,18 +4242,18 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>加密</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>使用 ExpressRoute Direct 時，請配置 MACsec，以便加密組織路由器和 MSEE 之間的第二層級別的流量。該圖顯示了流中的此加密。</t>
+          <t>配置 VNet 對等互連時，請使用「允許流量流向遠端虛擬網路」設置。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4264,19 +4264,19 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-macsec</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
         </is>
       </c>
       <c r="I72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
         </is>
       </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4292,18 +4292,18 @@
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>加密</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>對於無法使用MACsec的情況（例如，不使用ExpressRoute Direct），請使用 VPN 閘道通過 ExpressRoute 專用對等互連建立 IPsec 隧道。</t>
+          <t>將標準負載均衡器 SKU 與區域冗餘部署配合使用，選擇標準 SKU 負載均衡器可通過可用性區域和區域復原能力增強可靠性，確保部署能夠承受區域和區域故障。與 Basic 不同，它支援全域負載平衡並提供 SLA。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4314,19 +4314,15 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/site-to-site-vpn-private-peering</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/reliability/reliability-load-balancer?tabs=graph#zone-redundant</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="n"/>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>9dcd6250-9c4a-4382-aa9b-5b84c64fc1fe</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4342,12 +4338,12 @@
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>確保在 Azure 區域和本地位置之間不使用重疊的 IP 位址空間。</t>
+          <t>確保負載均衡器後端池至少包含兩個實例，在後端部署至少包含兩個實例的 Azure 負載均衡器可以防止單點故障並支援可伸縮性。</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4364,19 +4360,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/reliability/reliability-load-balancer?tabs=graph#zone-redundant</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>48682fb1-1e86-4458-a686-518ebd47393d</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4392,12 +4384,12 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>加密</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>使用專用 Internet 的位址分配範圍中的 IP 位址 （RFC 1918）。</t>
+          <t>使用 ExpressRoute Direct 時，請配置 MACsec，以便在組織路由器和 MSEE 之間的第二層加密流量。該圖顯示了這種加密流程。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4414,19 +4406,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-macsec</t>
         </is>
       </c>
       <c r="I75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4442,18 +4434,18 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>加密</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>確保不會浪費IP位址空間，不要創建不必要的大型虛擬網路（例如/16）。</t>
+          <t>對於無法使用MACsec的情況（例如，不使用ExpressRoute Direct），請使用 VPN 閘道通過 ExpressRoute 專用對等互連建立 IPsec 隧道。</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4464,19 +4456,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/site-to-site-vpn-private-peering</t>
         </is>
       </c>
       <c r="I76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4492,12 +4484,12 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>IP 計劃</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>請勿對生產網站和災難恢復網站使用重疊的IP位址範圍。</t>
+          <t>確保 Azure 區域和本地位置之間沒有使用重疊的 IP 位址空間。</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4514,19 +4506,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4542,12 +4534,12 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>IP 計劃</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>對於只需要在 Azure 中進行名稱解析的環境，請使用 Azure 專用 DNS 進行解析，並使用委託區域進行名稱解析（例如“azure.contoso.com”）。</t>
+          <t>使用私有互聯網的位址分配範圍 （RFC 1918） 中的IP位址。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4564,19 +4556,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-getstarted-portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4592,18 +4584,18 @@
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>IP 計劃</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>對於需要跨 Azure 和本地進行名稱解析且沒有現有企業 DNS 服務（如 Active Directory）的環境，請使用 Azure DNS 專用解析程式將 DNS 請求路由到 Azure 或本地 DNS 伺服器。</t>
+          <t>確保IP位址空間不會浪費，不要創建不必要的大型虛擬網路（例如/16）。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4614,19 +4606,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4642,18 +4634,18 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>IP 計劃</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>需要並部署自己的 DNS（例如 Red Hat OpenShift）的特殊工作負載應使用其首選的 DNS 解決方案。</t>
+          <t>不要對生產和災難恢復網站使用重疊的IP位址範圍。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4664,19 +4656,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/courses/az-700t00</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4692,12 +4684,12 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>知識產權計劃</t>
+          <t>IP 計劃</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>啟用 Azure DNS 的自動註冊，以自動管理虛擬網路中部署的虛擬機的 DNS 記錄的生命週期。</t>
+          <t>使用標準 SKU 和區域冗餘 IP（如果適用），Azure 中的公共 IP 位址可以是標準 SKU，以非區域、區域或區域冗餘的形式提供。區域冗餘IP可跨所有區域訪問，可抵禦任何單個區域故障，從而提供更高的彈性。</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4714,19 +4706,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses#availability-zone</t>
         </is>
       </c>
       <c r="I81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/en-gb/training/modules/configure-virtual-networks/6-create-public-ip-addressing</t>
         </is>
       </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>0c47f486-656d-4699-8c30-edef5b8a93c4</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4742,12 +4734,12 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>IP 計劃</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Bastion 安全地連接到網路。</t>
+          <t>對於只需要在 Azure 中進行名稱解析的環境，請使用 Azure 專用 DNS 進行解析，並使用委託區域進行名稱解析（例如“azure.contoso.com”）。</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4764,19 +4756,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-getstarted-portal</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4792,12 +4784,12 @@
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>IP 計劃</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>在子網 /26 或更大的情況下使用 Azure Bastion。</t>
+          <t>對於需要跨 Azure 和本地進行名稱解析且沒有 Active Directory 等現有企業 DNS 服務的環境，請使用 Azure DNS 專用解析程式將 DNS 請求路由到 Azure 或本地 DNS 伺服器。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4814,19 +4806,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4842,18 +4834,18 @@
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>IP 計劃</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為登陸區域的入站 HTTP/S 連接提供全域保護。</t>
+          <t>需要並部署自己的 DNS 的特殊工作負載（例如 Red Hat OpenShift）應使用其首選的 DNS 解決方案。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4864,19 +4856,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/courses/az-700t00</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4892,18 +4884,18 @@
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>IP 計劃</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 Azure 應用程式閘道幫助保護 HTTP/S 應用時，請在 Azure Front Door 中使用 WAF 策略。鎖定 Azure 應用程式閘道，以便僅接收來自 Azure Front Door 的流量。</t>
+          <t>為 Azure DNS 啟用自動註冊，以自動管理虛擬網路中部署的虛擬機的 DNS 記錄的生命週期。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4914,19 +4906,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4947,13 +4939,13 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>當入站 HTTP/S 連接需要 WAF 和其他反向代理時，請將它們部署在登陸區域虛擬網路中，並將它們與它們要保護和向 Internet 公開的應用一起部署。</t>
+          <t>使用 Azure Bastion 安全地連接到您的網路。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4964,19 +4956,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="I86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
         </is>
       </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4997,13 +4989,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure DDoS 網路或 IP 保護計劃來幫助保護虛擬網路中的公共 IP 位址終結點。</t>
+          <t>在子網 /26 或更大的子網中使用 Azure Bastion。</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5014,19 +5006,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -5047,15 +5039,11 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>在即將到來的重大更改之前，規劃如何管理網路出站流量配置和策略。2025 年 9 月 30 日，新部署的預設出站訪問將停用，僅允許顯式訪問配置。</t>
+          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為到登陸區域的入站 HTTP/S 連接提供全域保護。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
-      <c r="E88" s="21" t="inlineStr">
-        <is>
-          <t>高</t>
-        </is>
-      </c>
+      <c r="E88" s="21" t="n"/>
       <c r="F88" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -5064,19 +5052,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -5097,13 +5085,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>添加診斷設置以保存所有受保護的公共IP位址（DDoS IP或網路保護）的 DDoS 相關日誌。</t>
+          <t>使用 Azure Front Door 和 Azure 應用程式閘道幫助保護 HTTP/S 應用時，請使用 Azure Front Door 中的 WAF 策略。鎖定 Azure 應用程式閘道以僅接收來自 Azure Front Door 的流量。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5114,19 +5102,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5147,7 +5135,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>確保存在策略分配，以拒絕直接綁定到虛擬機的公共IP位址。 如果特定 VM 上需要公共 IP，請使用排除項。</t>
+          <t>當入站 HTTP/S 連接需要 WAF 和其他反向代理時，請將它們部署在登陸區虛擬網路中，並與它們保護並公開給 Internet 的應用程式一起部署。</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5164,19 +5152,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/Enterprise-Scale/wiki/ALZ-Policies#corp</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-policy/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>3c5a808d-c695-4c14-a63c-c7ab7a510e41</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5192,18 +5180,18 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>使用 ExpressRoute 作為到 Azure 的主要連接。 使用 VPN 作為備用連接源。</t>
+          <t>使用 Azure DDoS 網路或 IP 保護計劃來幫助保護虛擬網路中的公共 IP 位址終結點。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5214,19 +5202,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5242,22 +5230,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>使用多個 ExpressRoute 線路或多個本地位置時，請使用 BGP 屬性來優化路由。</t>
-        </is>
-      </c>
-      <c r="D92" s="21" t="inlineStr">
-        <is>
-          <t>可以使用 AS 路徑預置和連接權重來影響從 Azure 到本地的流量，並使用自己的路由器中的所有 BGP 屬性來影響從本地到 Azure 的流量。</t>
-        </is>
-      </c>
+          <t>規劃如何在即將到來的重大更改之前管理您的網路出站流量配置和策略。2025 年 9 月 30 日，新部署的預設出站訪問將停用，僅允許顯式訪問配置。</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5268,19 +5252,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-networks/</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5296,18 +5280,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>根據頻寬和性能要求為 ExpressRoute/VPN 閘道選擇正確的 SKU。</t>
+          <t>添加診斷設置以保存所有受保護的公有IP位址（DDoS IP或網路保護）的 DDoS 相關日誌。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5318,19 +5302,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways?source=recommendations#gwsku</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5346,14 +5330,10 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
-        </is>
-      </c>
-      <c r="C94" s="21" t="inlineStr">
-        <is>
-          <t>確保僅在達到與其成本相符的頻寬時才使用無限數據的 ExpressRoute 線路。</t>
-        </is>
-      </c>
+          <t>互聯網</t>
+        </is>
+      </c>
+      <c r="C94" s="21" t="n"/>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
@@ -5368,19 +5348,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+          <t>https://github.com/Azure/Enterprise-Scale/wiki/ALZ-Policies#corp</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-policy/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>3c5a808d-c695-4c14-a63c-c7ab7a510e41</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5401,13 +5381,13 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>如果線路對等互連位置支援本地 SKU 的 Azure 區域，則利用 ExpressRoute 的本地 SKU 來降低線路成本。</t>
+          <t>使用 ExpressRoute 作為與 Azure 的主要連接。 使用 VPN 作為備份連接的源。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5418,19 +5398,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5449,12 +5429,12 @@
           <t>混合</t>
         </is>
       </c>
-      <c r="C96" s="21" t="inlineStr">
-        <is>
-          <t>在受支援的 Azure 區域中部署區域冗餘 ExpressRoute 閘道。</t>
-        </is>
-      </c>
-      <c r="D96" s="21" t="n"/>
+      <c r="C96" s="21" t="n"/>
+      <c r="D96" s="21" t="inlineStr">
+        <is>
+          <t>您可以使用 AS 路徑預置和連接權重來影響從 Azure 到本地的流量，並使用您自己的路由器中的所有 BGP 屬性來影響從本地到 Azure 的流量。</t>
+        </is>
+      </c>
       <c r="E96" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -5468,7 +5448,7 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
@@ -5480,7 +5460,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5501,7 +5481,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>對於需要頻寬高於 10 Gbps 或專用 10/100 Gbps 埠的方案，請使用 ExpressRoute Direct。</t>
+          <t>根據頻寬和性能要求為 ExpressRoute/VPN 閘道選擇正確的 SKU。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5518,7 +5498,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways?source=recommendations#gwsku</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
@@ -5530,7 +5510,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5551,13 +5531,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>如果需要低延遲，或者從本地到 Azure 的輸送量必須大於 10 Gbps，請啟用 FastPath 以從數據路徑繞過 ExpressRoute 閘道。</t>
+          <t>確保僅在達到與成本相稱的頻寬時才使用無限數據 ExpressRoute 線路。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5568,19 +5548,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5601,13 +5581,13 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>使用區域冗餘 VPN 閘道將分支或遠端位置連接到 Azure（如果可用）。</t>
+          <t>如果你的線路對等互連位置支援本地 SKU 的 Azure 區域，請利用 ExpressRoute 的本地 SKU 來降低線路的成本。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5618,19 +5598,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5651,7 +5631,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>在本地使用冗餘 VPN 設備（主動/主動或主動/被動）。</t>
+          <t>在支援的 Azure 區域中部署區域冗餘 ExpressRoute 閘道。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5668,19 +5648,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-highlyavailable</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5701,13 +5681,13 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>如果使用 ExpressRoute Direct，請考慮使用到本地 Azure 區域的 ExpressRoute 本地線路來節省成本。</t>
+          <t>對於需要高於 10 Gbps 的頻寬或專用 10/100 Gbps 埠的方案，請使用 ExpressRoute Direct。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5718,7 +5698,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
@@ -5730,7 +5710,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5751,7 +5731,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>當需要流量隔離或專用頻寬時，例如用於分離生產環境和非生產環境，請使用不同的 ExpressRoute 線路。它將幫助您確保隔離的路由域並減輕嘈雜的鄰居風險。</t>
+          <t>當需要低延遲，或者從本地到 Azure 的輸送量必須大於 10 Gbps 時，請啟用 FastPath 以從數據路徑繞過 ExpressRoute 閘道。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5768,7 +5748,7 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
@@ -5780,7 +5760,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5801,7 +5781,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>使用內置的 Express Route Insights 監視 ExpressRoute 的可用性和利用率。</t>
+          <t>使用區域冗餘 VPN 閘道將分支或遠端位置連接到 Azure（如果可用）。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5818,19 +5798,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5851,7 +5831,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>使用連接監視器監視整個網路的連接監視，尤其是本地和 Azure 之間的連接監視。</t>
+          <t>在本地使用冗餘 VPN 設備（主動/主動或主動/被動）。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5868,19 +5848,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-highlyavailable</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5901,13 +5881,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>使用來自不同對等互連位置的 ExpressRoute 線路實現冗餘。</t>
+          <t>如果使用 ExpressRoute Direct，請考慮使用連接到本地 Azure 區域的 ExpressRoute 本地線路以節省成本。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5918,7 +5898,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#need-for-redundant-connectivity-solution</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
@@ -5930,7 +5910,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5951,7 +5931,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>如果僅使用單個 ExpressRoute 線路，則使用網站到網站 VPN 作為 ExpressRoute 的故障轉移。</t>
+          <t>當需要流量隔離或專用頻寬時（例如用於分離生產和非生產環境），請使用不同的 ExpressRoute 線路。它將幫助您確保隔離的路由域並減輕嘈雜的鄰居風險。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5968,19 +5948,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -6001,13 +5981,13 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>如果在 GatewaySubnet 中使用路由表，請確保傳播閘道路由。</t>
+          <t>使用內置的 Express Route Insights 監控 ExpressRoute 的可用性和利用率。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -6018,15 +5998,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
-        </is>
-      </c>
-      <c r="I107" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+        </is>
+      </c>
+      <c r="I107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -6047,13 +6031,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>如果使用 ExpressRoute，則本地路由應是動態的：如果連接失敗，它應收斂到線路的其餘連接。負載應在兩個連接之間共用，理想情況下為主動/主動，儘管也支持主動/被動。</t>
+          <t>使用連接監視器進行跨網路的連接監控，尤其是本地和 Azure 之間的連接。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -6064,19 +6048,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -6097,7 +6081,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>確保 ExpressRoute 線路的兩個物理鏈路連接到網路中的兩個不同的邊緣設備。</t>
+          <t>使用來自不同對等互連位置的 ExpressRoute 線路以實現冗餘。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -6114,7 +6098,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#need-for-redundant-connectivity-solution</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
@@ -6126,7 +6110,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6147,7 +6131,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>確保在客戶或供應商邊緣路由設備上啟用並配置雙向轉發檢測 （BFD）。</t>
+          <t>如果僅使用單個 ExpressRoute 線路，請使用網站到網站 VPN 作為 ExpressRoute 的故障轉移。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6164,19 +6148,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-bfd</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
+          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6197,7 +6181,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>將 ExpressRoute 閘道連接到來自不同對等互連位置的兩條或多條線路，以實現更高的復原能力。</t>
+          <t>如果您在 GatewaySubnet 中使用路由表，請確保傳播閘道路由。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6214,19 +6198,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6247,13 +6226,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>配置 ExpressRoute 虛擬網路閘道的診斷日誌和警報。</t>
+          <t>如果使用 ExpressRoute，則本地路由應該是動態的：如果連接失敗，它應收斂到線路的剩餘連接。理想情況下，負載應在兩個連接之間共用，即主動/主動，但也支持主動/被動。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6264,19 +6243,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-howto-setup-alerts-virtual-network-gateway-log</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6297,7 +6276,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>請勿使用 ExpressRoute 線路進行 VNet 到 VNet 通信。</t>
+          <t>確保 ExpressRoute 線路的兩個物理連結連接到網路中的兩個不同的邊緣設備。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6314,7 +6293,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/virtual-network-connectivity-guidance</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
@@ -6326,7 +6305,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
+          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6347,13 +6326,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>請勿將 Azure 流量發送到混合位置進行檢查。 相反，請遵循“Azure 中的流量保留在 Azure 中”的原則，以便 Azure 中的資源之間的通信通過 Microsoft 主幹網络進行。</t>
+          <t>確保在客戶或供應商邊緣路由設備上啟用和配置雙向轉發檢測 （BFD）。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6364,15 +6343,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-bfd</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6388,12 +6371,12 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>防火牆</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 防火牆來管理到 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東西流量篩選（如果組織需要）。</t>
+          <t>將 ExpressRoute 閘道連接到來自不同對等互連位置的兩條或多條線路，以獲得更高的復原能力。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6410,19 +6393,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6438,12 +6421,12 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>防火牆</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>創建全域 Azure 防火牆策略以管理全球網路環境中的安全狀況，並將其分配給所有 Azure 防火牆實例。通過 Azure 基於角色的訪問控制將增量防火牆策略委派給本地安全團隊，從而允許使用精細策略來滿足特定區域的要求。</t>
+          <t>為 ExpressRoute 虛擬網路閘道配置診斷日誌和警報。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6460,19 +6443,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall-manager/policy-overview</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-howto-setup-alerts-virtual-network-gateway-log</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6488,18 +6471,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>防火牆</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>如果組織想要使用此類解決方案來幫助保護出站連接，請在 Firewall Manager 中配置受支援的合作夥伴 SaaS 安全提供者。</t>
+          <t>不要使用 ExpressRoute 線路進行 VNet 到 VNet 通信。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6510,19 +6493,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall-manager/deploy-trusted-security-partner</t>
+          <t>https://learn.microsoft.com/azure/expressroute/virtual-network-connectivity-guidance</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6538,18 +6521,18 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>防火牆</t>
+          <t>混合</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>使用應用程式規則篩選目標主機名上的出站流量，以查找受支持的協定。 使用基於 FQDN 的網路規則和具有 DNS 代理的 Azure 防火牆來篩選通過其他協定流向 Internet 的傳出流量。</t>
+          <t>不要將 Azure 流量發送到混合位置進行檢查。 相反，請遵循“Azure 中的流量保留在 Azure 中”的原則，以便通過 Microsoft 主幹網络進行 Azure 中資源的通信。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6560,19 +6543,15 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6593,7 +6572,7 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 防火牆高級版啟用其他安全功能。</t>
+          <t>使用 Azure 防火牆來管理到 Internet 的 Azure 出站流量、非 HTTP/S 入站連接和東西向流量篩選（如果組織需要）。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6610,19 +6589,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/overview</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6643,13 +6622,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 防火牆威脅情報模式配置為「警報」和「拒絕」以獲得額外保護。</t>
+          <t>創建全域 Azure 防火牆策略以管理全球網路環境中的安全狀況，並將其分配給所有 Azure 防火牆實例。通過 Azure 基於角色的訪問控制將增量防火牆策略委派給本地安全團隊，從而允許精細策略以滿足特定區域的要求。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6660,15 +6639,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps-signature-rules</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/firewall-manager/policy-overview</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6689,13 +6672,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 防火牆 IDPS 模式配置為「拒絕」以獲得額外保護。</t>
+          <t>如果組織希望使用此類解決方案來幫助保護出站連接，請在 Firewall Manager 中配置受支援的合作夥伴 SaaS 安全提供者。</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6706,19 +6689,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall-manager/deploy-trusted-security-partner</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6739,7 +6722,7 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>對於未連接到虛擬 WAN 的 VNet 中的子網，請附加路由表，以便將 Internet 流量重定向到 Azure 防火牆或網路虛擬設備。</t>
+          <t>使用應用程式規則篩選目標主機名上的出站流量，以瞭解支持的協定。 使用基於 FQDN 的網路規則和帶有 DNS 代理的 Azure 防火牆，通過其他協議篩選到 Internet 的出口流量。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
@@ -6756,15 +6739,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6785,13 +6772,13 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>添加診斷設置，使用「特定於資源」的目標表保存所有 Azure 防火牆部署的日誌。</t>
+          <t>使用 Azure 防火牆高級版啟用其他安全功能。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6802,19 +6789,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-structured-logs</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6835,13 +6822,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>從 Azure 防火牆經典規則（如果存在）遷移到防火牆策略。</t>
+          <t>將 Azure 防火牆威脅情報模式配置為 Alert 和 Deny 以獲得額外的保護。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>重要</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6852,19 +6839,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall-manager/migrate-to-policy</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps-signature-rules</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6880,12 +6863,12 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>對 Azure 防火牆子網使用 /26 前置綴。</t>
+          <t>將 Azure 防火牆 IDPS 模式配置為 Deny 以獲得額外保護。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6902,7 +6885,7 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
@@ -6914,7 +6897,7 @@
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6935,13 +6918,13 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>根據防火牆策略中的規則的使用頻率，將規則排列到規則集合組和規則集合中。</t>
+          <t>對於 VNet 中未連接到虛擬 WAN 的子網，請附加路由表，以便將 Internet 流量重定向到 Azure 防火牆或網路虛擬設備。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6952,19 +6935,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall-manager/rule-hierarchy</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-firewall-manager/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>828cec2e-af6c-40c2-8fa2-1b681ee63eb7</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6985,7 +6963,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>使用IP組或IP前置綴來減少IP表規則的數量。</t>
+          <t>添加診斷設置，以使用特定於資源的目標表保存所有 Azure 防火牆部署的日誌。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -7002,14 +6980,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/ip-groups</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-structured-logs</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>0da83bb1-2f39-49af-b5c9-835fc455e3d1</t>
+          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -7030,13 +7013,13 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>不要使用通配符作為DNAT的源IP，例如 *或 any，您應該為傳入的DNAT指定源IP。</t>
+          <t>從 Azure 防火牆經典規則（如果存在）遷移到防火牆策略。</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>重要</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -7047,19 +7030,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/tutorial-firewall-dnat</t>
+          <t>https://learn.microsoft.com/azure/firewall-manager/migrate-to-policy</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-to-azure-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>c44c6f0e-1642-4a61-a17b-0922f835c93a</t>
+          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -7075,18 +7058,18 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>防火牆</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>通過監控 SNAT 埠使用方式、評估 NAT 閘道設置並確保無縫故障轉移，防止 SNAT 埠耗盡。如果埠計數接近限制，則表明 SNAT 耗盡可能迫在眉睫。</t>
+          <t>對 Azure 防火牆子網使用 /26 前置綴。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -7097,19 +7080,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/integrate-with-nat-gateway</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-to-azure-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>7371dc21-251a-47a3-af14-6e01b9da4757</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7130,13 +7113,13 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>如果使用的是 Azure 防火牆高級版，請啟用 TLS 檢查。</t>
+          <t>根據規則的使用頻率，將防火牆策略中的規則排列到規則集合組和規則集合中。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7147,14 +7130,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#tls-inspection</t>
+          <t>https://learn.microsoft.com/azure/firewall-manager/rule-hierarchy</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-firewall-manager/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>346840b8-1064-496e-8396-4b1340172d52</t>
+          <t>828cec2e-af6c-40c2-8fa2-1b681ee63eb7</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7175,13 +7163,13 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>使用 Web 類別允許或拒絕對特定主題的出站訪問。</t>
+          <t>使用IP組或IP前置綴來減少IP表規則的數量。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7192,14 +7180,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#web-categories</t>
+          <t>https://learn.microsoft.com/azure/firewall/ip-groups</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>39990a13-915c-45f9-a2d3-562d7d6c4b7c</t>
+          <t>0da83bb1-2f39-49af-b5c9-835fc455e3d1</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7220,7 +7208,7 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>作為 TLS 檢查的一部分，請計劃從 Azure 應用閘道接收流量以進行檢查。</t>
+          <t>請勿使用通配符作為DNAT的源IP，例如*或任何，您應該為傳入的DNAT指定源IP。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7237,19 +7225,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/gateway/application-gateway-before-azure-firewall</t>
+          <t>https://learn.microsoft.com/azure/firewall/tutorial-firewall-dnat</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-application-gateway/</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-to-azure-virtual-networks/</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>6eff7e6c-6c4a-43d7-be3f-6641c2cb3d4a</t>
+          <t>c44c6f0e-1642-4a61-a17b-0922f835c93a</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7270,7 +7258,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>啟用 Azure 防火牆 DNS 代理配置。</t>
+          <t>通過監控 SNAT 埠使用方式、評估 NAT 閘道設置並確保無縫故障轉移，防止 SNAT 埠耗盡。如果埠計數接近限制，則表明 SNAT 耗儘可能即將耗盡。</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7287,19 +7275,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/dns-details</t>
+          <t>https://learn.microsoft.com/azure/firewall/integrate-with-nat-gateway</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/courses/az-700t00/</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-to-azure-virtual-networks/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>94f3eede-9aa3-4088-92a3-bb9a56509fad</t>
+          <t>7371dc21-251a-47a3-af14-6e01b9da4757</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7320,7 +7308,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 防火牆與 Azure Monitor 集成，並啟用診斷日誌記錄以存儲和分析防火牆日誌。</t>
+          <t>如果使用的是 Azure 防火牆高級版，請啟用 TLS 檢查。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7337,19 +7325,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-diagnostics</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/courses/az-700t00/</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#tls-inspection</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>1dc04554-dece-4ffb-a49e-5c683e09f8da</t>
+          <t>346840b8-1064-496e-8396-4b1340172d52</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7370,7 +7353,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>實施防火牆規則的備份</t>
+          <t>使用 Web 類別允許或拒絕對特定主題的出站訪問。</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7387,19 +7370,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/well-architected/service-guides/azure-firewall</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/courses/az-104t00/</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#web-categories</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>64e7000e-3c06-485e-b455-ced7f454cba3</t>
+          <t>39990a13-915c-45f9-a2d3-562d7d6c4b7c</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7415,18 +7393,18 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>PaaS 開發</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>不要中斷注入虛擬網路的 Azure PaaS 服務的控制平面通信，例如使用 0.0.0.0/0 路由或阻止控制平面流量的 NSG 規則。</t>
+          <t>作為 TLS 檢查的一部分，請規劃從 Azure 應用程式閘道接收流量進行檢查。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7437,19 +7415,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/gateway/application-gateway-before-azure-firewall</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-application-gateway/</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>6eff7e6c-6c4a-43d7-be3f-6641c2cb3d4a</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7465,12 +7443,12 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>PaaS 開發</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>使用專用連結（如果可用）獲取共用 Azure PaaS 服務。</t>
+          <t>啟用 Azure 防火牆 DNS 代理配置。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7487,19 +7465,19 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/private-link/private-link-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/dns-details</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/courses/az-700t00/</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>94f3eede-9aa3-4088-92a3-bb9a56509fad</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7515,18 +7493,18 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>PaaS 開發</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>通過專用終結點和 ExpressRoute 專用對等互連從本地訪問 Azure PaaS 服務。此方法可避免在公共 Internet 上傳輸。</t>
+          <t>將 Azure 防火牆與 Azure Monitor 集成，並啟用診斷日誌記錄來存儲和分析防火牆日誌和指標。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7537,19 +7515,19 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/private-link/private-endpoint-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-diagnostics</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/courses/az-700t00/</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>1dc04554-dece-4ffb-a49e-5c683e09f8da</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7565,18 +7543,18 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>PaaS 開發</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>默認情況下，不要在所有子網上啟用虛擬網路服務終結點。</t>
+          <t>為防火牆規則實施備份</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7587,19 +7565,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
+          <t>https://learn.microsoft.com/azure/well-architected/service-guides/azure-firewall</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/training/courses/az-104t00/</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>64e7000e-3c06-485e-b455-ced7f454cba3</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7615,18 +7593,18 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>PaaS 開發</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>使用 FQDN 而不是 Azure 防火牆或 NVA 中的 IP 位址篩選流向 Azure PaaS 服務的出口流量，以防止數據外洩。如果使用專用連結，則可以阻止所有 FQDN，否則僅允許所需的 PaaS 服務。</t>
+          <t>跨多個可用性區域部署 Azure 防火牆。Azure 防火牆根據其部署提供不同的 SLA;在單個可用區或跨多個可用區，從而可能提高可靠性和性能。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7637,19 +7615,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>azure/private-link/inspect-traffic-with-azure-firewall</t>
+          <t>https://learn.microsoft.com/azure/firewall/deploy-availability-zone-powershell</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/training/courses/az-104t00/</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>d38ad60c-bc9e-4d49-b699-97e5d4dcf707</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7665,12 +7643,12 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>防火牆</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>至少對閘道子網使用 /27 前置綴。</t>
+          <t>在 Azure 防火牆 VNet 上配置 DDoS 防護，將 DDoS 防護計劃與託管 Azure 防火牆的虛擬網路相關聯，以提供針對 DDoS 攻擊的增強緩解。Azure 防火牆管理器集成了防火牆基礎結構和 DDoS 防護計劃的創建。</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7687,14 +7665,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/en-gb/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>e8143efa-0301-4d62-be54-ca7b5ce566dc</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7710,12 +7688,12 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>PaaS 的</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>不要依賴使用 VirtualNetwork 服務標記的 NSG 入站預設規則來限制連接。</t>
+          <t>不要中斷注入虛擬網路的 Azure PaaS 服務的控制平面通信，例如使用 0.0.0.0/0 路由或阻止控制平面流量的 NSG 規則。</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7732,14 +7710,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7755,12 +7738,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>PaaS 的</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>將子網創建委託給登陸區域擁有者。</t>
+          <t>將專用連結（如果可用）用於共用的 Azure PaaS 服務。</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7777,19 +7760,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/private-link/private-link-overview</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7805,12 +7788,12 @@
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>PaaS 的</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>使用 NSG 説明保護子網之間的流量，以及平台中的東西向流量（登陸區域之間的流量）。</t>
+          <t>通過專用終結點和 ExpressRoute 專用對等互連從本地訪問 Azure PaaS 服務。此方法可避免通過公共 Internet 傳輸。</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7827,19 +7810,19 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/private-link/private-endpoint-overview</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7855,18 +7838,18 @@
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>PaaS 的</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>使用 NSG 和應用程式安全組對登陸區域內的流量進行微分段，並避免使用中心 NVA 篩選流量流。</t>
+          <t>默認情況下，不要在所有子網上啟用虛擬網路服務終端節點。</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7877,19 +7860,19 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7905,12 +7888,12 @@
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>分割</t>
+          <t>PaaS 的</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>啟用 VNet 流日誌並將其饋送到流量分析中，以深入了解內部和外部流量流。</t>
+          <t>使用 FQDN 而不是 Azure 防火牆或 NVA 中的 IP 位址篩選到 Azure PaaS 服務的出口流量，以防止數據外洩。如果使用專用連結，則可以阻止所有 FQDN，否則僅允許所需的 PaaS 服務。</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7927,19 +7910,19 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/vnet-flow-logs-overview</t>
+          <t>azure/private-link/inspect-traffic-with-azure-firewall</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7960,13 +7943,13 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>由於規則限制為 1000 條，因此每個 NSG 實施的 NSG 規則不要超過 900 個。</t>
+          <t>至少為您的閘道子網使用 /27 前置綴。</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7977,19 +7960,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -8005,18 +7983,18 @@
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>如果在虛擬 WAN 路由設計清單中明確描述了你的方案，請使用虛擬 WAN。</t>
+          <t>不要依賴使用 VirtualNetwork 服務標記的 NSG 入站預設規則來限制連接。</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -8027,19 +8005,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -8055,12 +8028,12 @@
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>使用每個 Azure 區域的虛擬 WAN 中心，透過通用的全球 Azure 虛擬 WAN 跨 Azure 區域將多個登陸區域連接在一起。</t>
+          <t>將子網創建委託給landing zone 擁有者。</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -8077,19 +8050,19 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/virtual-wan-network-topology#virtual-wan-network-design-recommendationst</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -8105,12 +8078,12 @@
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>對於出站 Internet 流量保護和篩選，請在安全中心部署 Azure 防火牆。</t>
+          <t>使用 NSG 説明保護跨子網的流量，以及跨平台的東西向流量（登陸區域之間的流量）。</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -8127,19 +8100,19 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/howto-firewall</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -8155,12 +8128,12 @@
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>確保虛擬 WAN 網路體系結構與已確定的體系結構方案保持一致。</t>
+          <t>使用 NSG 和應用程式安全組對登陸區域內的流量進行微分段，並避免使用中央 NVA 來篩選流量。</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -8177,19 +8150,19 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/migrate-from-hub-spoke-topology</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8205,12 +8178,12 @@
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>使用適用於虛擬 WAN 的 Azure Monitor 見解來監視虛擬 WAN 的端到端拓撲、狀態和關鍵指標。</t>
+          <t>啟用 VNet 流日誌並將其饋送到流量分析中，以深入了解內部和外部流量流。</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8227,19 +8200,19 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/vnet-flow-logs-overview</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8255,12 +8228,12 @@
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>分割</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>不要在虛擬 WAN 中禁用分支到分支流量，除非應明確阻止這些流。</t>
+          <t>由於規則數限制為 1000 個，因此每個 NSG 實施的 NSG 規則不要超過 900 個。</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8277,19 +8250,19 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8305,12 +8278,12 @@
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>虛擬 WAN</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>使用 AS-Path 作為中心路由首選項，因為它比 ExpressRoute 或 VPN 更靈活。</t>
+          <t>如果您的方案在虛擬 WAN 路由設計清單中明確描述，請使用虛擬 WAN。</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8327,19 +8300,19 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8355,12 +8328,12 @@
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>虛擬 WAN</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>在虛擬 WAN 中配置基於標籤的傳播，否則虛擬中心之間的連接將受到損害。</t>
+          <t>使用每個 Azure 區域的虛擬 WAN 中心，透過通用的全球 Azure 虛擬 WAN 跨 Azure 區域將多個登陸區域連接在一起。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8377,7 +8350,7 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/virtual-wan-network-topology#virtual-wan-network-design-recommendationst</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -8389,7 +8362,7 @@
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8405,18 +8378,18 @@
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>虛擬廣域網</t>
+          <t>虛擬 WAN</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>至少為虛擬中心分配一個 /23 前置綴，以確保有足夠的IP空間可用。</t>
+          <t>對於出站 Internet 流量保護和篩選，請在安全中心部署 Azure 防火牆。</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8427,19 +8400,19 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/howto-firewall</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8450,23 +8423,23 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬 WAN</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>戰略性地利用 Azure Policy，為環境定義控制，使用策略計劃對相關策略進行分組。</t>
+          <t>確保您的虛擬 WAN 網路架構與已確定的架構方案保持一致。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8477,14 +8450,19 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/migrate-from-hub-spoke-topology</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8495,17 +8473,17 @@
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬 WAN</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>將法規和合規性要求映射到 Azure Policy 定義和 Azure 角色分配。</t>
+          <t>使用適用於虛擬 WAN 的 Azure Monitor Insights 來監視虛擬 WAN 的端到端拓撲、狀態和關鍵指標。</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8522,14 +8500,19 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8540,17 +8523,17 @@
     <row r="159" ht="16.5" customHeight="1">
       <c r="A159" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬 WAN</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>在中間根管理組建立 Azure Policy 定義，以便可以在繼承的範圍內分配它們。</t>
+          <t>不要在虛擬 WAN 中禁用分支到分支流量，除非應明確阻止這些流。</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8567,14 +8550,19 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8585,23 +8573,23 @@
     <row r="160" ht="16.5" customHeight="1">
       <c r="A160" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬 WAN</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>如果需要，在最高適當級別管理策略分配，並在底層管理排除項。</t>
+          <t>使用 AS-Path 作為中心路由首選項，因為它比 ExpressRoute 或 VPN 更靈活。</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
       <c r="E160" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8612,14 +8600,19 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8630,23 +8623,23 @@
     <row r="161" ht="16.5" customHeight="1">
       <c r="A161" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬 WAN</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 控制使用者可以在訂閱/管理組級別預配哪些服務。</t>
+          <t>在虛擬 WAN 中配置基於標籤的傳播，否則虛擬中心之間的連接將受到影響。</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
       <c r="E161" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8657,14 +8650,19 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8675,17 +8673,17 @@
     <row r="162" ht="16.5" customHeight="1">
       <c r="A162" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>統轄</t>
+          <t>虛擬 WAN</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>盡可能使用內置策略，以最大程度地減少運營開銷。</t>
+          <t>為虛擬中心分配至少 /23 前置綴，以確保有足夠的IP空間可用。</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8702,14 +8700,19 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8730,17 +8733,13 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>在特定範圍內分配內置的「資源策略參與者」角色，以啟用應用程式級治理。</t>
-        </is>
-      </c>
-      <c r="D163" s="21" t="inlineStr">
-        <is>
-          <t>通過將「資源策略參與者」角色分配給特定範圍，可以將策略管理委派給相關團隊。例如，中心 IT 團隊可以監督管理組級別的策略，而應用程式團隊則處理其訂閱的策略，從而在遵守組織標準的情況下實現分散式治理。</t>
-        </is>
-      </c>
+          <t>戰略性地利用 Azure Policy，使用策略計劃對相關策略進行分組，為您的環境定義控制措施。</t>
+        </is>
+      </c>
+      <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8751,14 +8750,19 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-policy/</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8779,7 +8783,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>限制在根管理組範圍內執行的 Azure Policy 分配數，以避免在繼承的範圍內通過排除項進行管理。</t>
+          <t>將法規和合規性要求映射到 Azure Policy 定義和 Azure 角色分配。</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8797,13 +8801,18 @@
       <c r="H164" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/governance-security/</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8824,7 +8833,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>如果存在任何數據主權要求，則應部署 Azure 策略來強制實施這些要求。</t>
+          <t>在中間根管理組建立 Azure Policy 定義，以便可以在繼承的範圍內分配這些定義。</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8841,19 +8850,19 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/industry/release-plan/2023wave2/cloud-sovereignty/enable-data-sovereignty-policy-baseline</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-policy/</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8874,13 +8883,13 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，部署主權策略基線，並在正確的管理組級別進行分配。</t>
+          <t>如果需要，在最高適當的級別管理策略分配，並在最低級別管理排除項。</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
       <c r="E166" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8891,14 +8900,19 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/sovereign-landing-zone</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-policy/</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8919,13 +8933,13 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區域，將主權控制目標記錄到策略映射。</t>
+          <t>使用 Azure Policy 控制使用者可以在訂閱/管理組級別預配哪些服務。</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
       <c r="E167" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8936,14 +8950,19 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/industry/sovereignty/policy-portfolio-baseline</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-policy/</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8964,13 +8983,13 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>對於主權登陸區，請確保已制定“主權控制目標到策略映射”的管理流程。</t>
+          <t>盡可能使用內置策略，以最大程度地減少運營開銷。</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8981,14 +9000,19 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/industry/sovereignty/policy-portfolio-baseline#sovereignty-baseline-policy-initiatives</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-policy/</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -9004,15 +9028,19 @@
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>優化您的雲投資</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>配置“實際”和“預測”預算警報。</t>
-        </is>
-      </c>
-      <c r="D169" s="21" t="n"/>
+          <t>在特定範圍內分配內置的 Resource Policy Contributor 角色，以啟用應用程式級監管。</t>
+        </is>
+      </c>
+      <c r="D169" s="21" t="inlineStr">
+        <is>
+          <t>通過將 Resource Policy Contributor 角色分配給特定範圍，您可以將策略管理委派給相關團隊。例如，中央IT團隊可以監督管理組級別的策略，而應用程式團隊則處理其訂閱的策略，從而在遵守組織標準的情況下實現分散式治理。</t>
+        </is>
+      </c>
       <c r="E169" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -9026,14 +9054,19 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-policy/</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -9044,17 +9077,17 @@
     <row r="170" ht="16.5" customHeight="1">
       <c r="A170" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>使用單個監視器日誌工作區集中管理平臺，但 Azure 基於角色的訪問控制 （Azure RBAC）、數據主權要求或數據保留策略要求使用單獨工作區的情況除外。</t>
+          <t>限制在根管理組範圍內進行的 Azure Policy 分配的數量，以避免通過繼承範圍內的排除項進行管理。</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -9071,19 +9104,19 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-policy/</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -9094,23 +9127,23 @@
     <row r="171" ht="16.5" customHeight="1">
       <c r="A171" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>如果日誌保留要求超過 12 年，請將日誌匯出到 Azure 存儲。使用具有一次寫入、多次讀取策略的不可變存儲，使數據在使用者指定的時間間隔內不可擦除且不可修改。</t>
+          <t>如果存在任何數據主權要求，則應部署 Azure 策略來強制實施這些要求。</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -9121,19 +9154,19 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/industry/release-plan/2023wave2/cloud-sovereignty/enable-data-sovereignty-policy-baseline</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -9144,17 +9177,17 @@
     <row r="172" ht="16.5" customHeight="1">
       <c r="A172" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Policy 監視 OS 等級虛擬機 （VM） 配置偏移。通過策略啟用 Azure Automanage 計算機配置審核功能可説明應用程式團隊工作負載立即使用功能，而無需付出任何努力。</t>
+          <t>對於 Sovereign Landing Zone，請部署主權策略基線並在正確的管理組級別進行分配。</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -9171,19 +9204,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/machine-configuration/overview</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/sovereign-landing-zone</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -9194,17 +9222,17 @@
     <row r="173" ht="16.5" customHeight="1">
       <c r="A173" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Update Manager 作為 Azure 中 Windows 和 Linux VM 的修補機制。</t>
+          <t>對於 Sovereign Landing Zone，將 Sovereign Control 目標記錄到策略映射。</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -9221,19 +9249,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+          <t>https://learn.microsoft.com/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -9244,17 +9267,17 @@
     <row r="174" ht="16.5" customHeight="1">
       <c r="A174" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Arc 將 Azure Update Manager 用作 Azure 外部的 Windows 和 Linux VM 的修補機制。</t>
+          <t>對於 Sovereign Landing Zone，請確保已制定管理“主權控制目標到策略映射”的流程。</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9271,19 +9294,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+          <t>https://learn.microsoft.com/industry/sovereignty/policy-portfolio-baseline#sovereignty-baseline-policy-initiatives</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9294,17 +9312,17 @@
     <row r="175" ht="16.5" customHeight="1">
       <c r="A175" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統轄</t>
         </is>
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>優化您的雲投資</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>使用網路觀察程序主動監視流量流。</t>
+          <t>配置“實際”和“預測”預算警報。</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9321,19 +9339,19 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9354,7 +9372,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>使用資源鎖可防止意外刪除關鍵共享服務。</t>
+          <t>使用單個監視器日誌工作區集中管理平臺，除非 Azure 基於角色的訪問控制 （Azure RBAC）、數據主權要求或數據保留策略要求單獨的工作區。</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9371,19 +9389,19 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9404,13 +9422,13 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>使用拒絕策略來補充 Azure 角色分配。拒絕策略和 Azure 角色分配的組合可確保設置適當的防護機制，以強制執行誰可以部署和配置資源以及他們可以部署和配置哪些資源。</t>
+          <t>如果您的日誌保留要求超過 12 年，請將日誌匯出到 Azure 存儲。將不可變存儲與一次寫入、多次讀取策略結合使用，使數據在使用者指定的時間間隔內不可擦除且不可修改。</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
       <c r="E177" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -9421,19 +9439,19 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/effect-deny</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/deny-assignments?tabs=azure-portal</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9454,7 +9472,7 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>將服務和資源運行狀況事件作為整體平臺監視解決方案的一部分包含在內。從平臺角度跟蹤服務和資源運行狀況是 Azure 中資源管理的一個重要組成部分。</t>
+          <t>使用 Azure Policy 監視 OS 等級的虛擬機 （VM） 配置偏移。通過策略啟用 Azure Automanage 計算機配置審核功能可幫助應用程式團隊工作負載輕鬆立即使用功能。</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9471,19 +9489,19 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/governance/machine-configuration/overview</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-service-health/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9499,12 +9517,12 @@
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>將警報和操作組作為 Azure 服務運行狀況平臺的一部分包含在內，以確保可以處理警報或問題。</t>
+          <t>使用 Azure 更新管理員作為 Azure 中 Windows 和 Linux VM 的修補機制。</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9521,19 +9539,19 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-gb/training/modules/incident-response-with-alerting-on-azure/7-actions-and-alert-processing-rules</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9549,12 +9567,12 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>監測</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>不要將原始日誌條目發送回本地監視系統。相反，應採用在 Azure 中生成的數據保留在 Azure 中的原則。如果需要本地 SIEM 集成，請發送嚴重警報而不是日誌。</t>
+          <t>使用 Azure Update Manager 作為使用 Azure Arc 的 Azure 外部 Windows 和 Linux VM 的修補機制。</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9571,19 +9589,19 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/logging-and-reporting/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9604,7 +9622,7 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
+          <t>使用網路觀察程序主動監控流量。</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9621,19 +9639,19 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9654,7 +9672,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>如有必要，請在登陸區域中使用共用存儲帳戶進行 Azure 診斷擴展日誌存儲。</t>
+          <t>使用資源鎖來防止意外刪除關鍵共享服務。</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9671,19 +9689,19 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-extensions/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9704,13 +9722,13 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Monitor 警報生成操作警報。</t>
+          <t>使用拒絕策略來補充 Azure 角色分配。拒絕策略和 Azure 角色分配的組合可確保適當的防護機制到位，以強制誰可以部署和配置資源以及他們可以部署和配置哪些資源。</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9721,19 +9739,19 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/effect-deny</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/incident-response-with-alerting-on-azure/</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/deny-assignments?tabs=azure-portal</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9754,7 +9772,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>確保已評估監視要求，並應用了適當的數據收集和警報配置。</t>
+          <t>將服務和資源運行狀況事件作為整個平台監控解決方案的一部分。從平臺角度跟蹤服務和資源運行狀況是 Azure 中資源管理的重要組成部分。</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9771,19 +9789,19 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/az-104-monitor-backup-resources/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-service-health/</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9804,7 +9822,7 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure 自動化帳戶使用更改和清單跟蹤時，請確保已選擇受支持的區域，以便將 Log Analytics 工作區和自動化帳戶連結在一起。</t>
+          <t>將警報和操作組作為 Azure 服務運行狀況平臺的一部分，以確保可以處理警報或問題。</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9821,19 +9839,19 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-automation-devops/</t>
+          <t>https://learn.microsoft.com/en-gb/training/modules/incident-response-with-alerting-on-azure/7-actions-and-alert-processing-rules</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9854,7 +9872,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>部署AMBA以建立對登陸區域的平臺元件的監視 - AMBA 是一種可用的框架解決方案，它提供了一種使用 Azure Policy 縮放警報的簡單方法。</t>
+          <t>不要將原始日誌條目發送回本地監控系統。相反，請採用 Azure 中產生的數據保留在 Azure 中的原則。如果需要本地 SIEM 集成，請發送關鍵警報而不是日誌。</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9871,19 +9889,19 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-monitor</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://azure.github.io/azure-monitor-baseline-alerts/patterns/alz/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/logging-and-reporting/</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>aa45be6a-8f2d-4896-b0e3-775e6e94e610</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9904,7 +9922,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 監視代理 （AMA）。Log Analytics 代理自 2024 年 8 月 31 日起已棄用</t>
+          <t>使用 Azure Monitor 紀錄獲取見解和報告。</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9921,19 +9939,19 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/agents/azure-monitor-agent-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/agents/azure-monitor-agent-overview#installation</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-monitor/</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>aa45be6a-8f2d-4896-b0e3-885e6e94e770</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9949,12 +9967,12 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>在 Azure 中為具有配對區域的 BCDR 啟用跨區域複製。</t>
+          <t>必要時，請在登陸區域中使用共用存儲帳戶進行 Azure 診斷擴展日誌存儲。</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9971,19 +9989,19 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/provide-disaster-recovery-replicate-storage-data/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-extensions/</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9999,18 +10017,18 @@
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>數據保護</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 備份時，請使用正確的備份類型（GRS、ZRS 和 LRS）進行備份，因為預設設置為 GRS。</t>
+          <t>使用 Azure Monitor 警報生成操作警報。</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
       <c r="E189" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -10021,19 +10039,19 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-solution-for-backup-disaster-recovery/</t>
+          <t>https://learn.microsoft.com/training/modules/incident-response-with-alerting-on-azure/</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -10049,12 +10067,12 @@
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 來賓策略通過 VM 擴展自動部署軟體配置，並強制實施合規的基線 VM 配置。</t>
+          <t>確保已評估監控要求，並應用適當的數據收集和警報配置。</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -10071,14 +10089,19 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/az-104-monitor-backup-resources/</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -10094,19 +10117,15 @@
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>運營合規性</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure Policy 監視 VM 安全配置偏移。</t>
-        </is>
-      </c>
-      <c r="D191" s="21" t="inlineStr">
-        <is>
-          <t>使用 Azure Policy 的來賓配置功能來審核和修正電腦設置（例如 OS、應用程式、環境），以確保資源與預期配置保持一致，並且更新管理可以強制實施 VM 的修補程式管理。</t>
-        </is>
-      </c>
+          <t>通過 Azure 自動化帳戶使用更改和清單跟蹤時，請確保已選擇受支持的區域，以便將 Log Analytics 工作區和自動化帳戶連結在一起。</t>
+        </is>
+      </c>
+      <c r="D191" s="21" t="n"/>
       <c r="E191" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -10120,19 +10139,19 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-automation-devops/</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -10148,12 +10167,12 @@
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>保護和恢復</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Site Recovery 實現 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
+          <t>部署AMBA以建立對登陸區域的平臺元件的監視 - AMBA 是一個可用的框架解決方案，它提供了一種使用 Azure Policy 縮放警報的簡單方法。</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -10170,19 +10189,19 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-monitor</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/protect-infrastructure-with-site-recovery/</t>
+          <t>https://azure.github.io/azure-monitor-baseline-alerts/patterns/alz/</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>aa45be6a-8f2d-4896-b0e3-775e6e94e610</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -10198,12 +10217,12 @@
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>保護和恢復</t>
+          <t>監測</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>使用本機 PaaS 服務災難恢復功能。 使用這些功能執行故障轉移測試。</t>
+          <t>使用 Azure Monitoring Agent （AMA）。Log Analytics 代理自 2024 年 8 月 31 日起已棄用</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -10220,19 +10239,19 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/azure-monitor-agent-overview</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/explore-iaas-paas-platform-tools-for-high-availability-disaster-recovery/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/azure-monitor-agent-overview#installation</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>aa45be6a-8f2d-4896-b0e3-885e6e94e770</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -10246,20 +10265,16 @@
           <t>管理</t>
         </is>
       </c>
-      <c r="B194" s="21" t="inlineStr">
-        <is>
-          <t>保護和恢復</t>
-        </is>
-      </c>
+      <c r="B194" s="21" t="n"/>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 本機備份功能或與 Azure 相容的第三方備份解決方案。</t>
+          <t>確保存儲帳戶是區域或區域冗餘的，冗餘可確保存儲帳戶在故障中滿足可用性和持久性目標，從而在降低成本與高可用性之間權衡。本地冗餘存儲以最低的成本提供最低的持久性。</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
       <c r="E194" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -10270,19 +10285,19 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/en-gb/azure/storage/common/redundancy-migration?tabs=portal</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-solution-for-backup-disaster-recovery/</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>0d83fd81-952c-4d47-a6cb-3a930925ef2e</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -10298,18 +10313,18 @@
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>添加診斷設置以保存來自應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）的 WAF 日誌。定期查看日誌，以檢查攻擊和誤報檢測。</t>
+          <t>在 Azure 中為具有配對區域的 BCDR 啟用跨區域複製。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
       <c r="E195" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -10320,19 +10335,19 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/capture-application-logs-app-service/</t>
+          <t>https://learn.microsoft.com/training/modules/provide-disaster-recovery-replicate-storage-data/</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -10348,18 +10363,18 @@
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>數據保護</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>將 WAF 日誌從應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測集成到整個 Azure 環境中。</t>
+          <t>使用Azure備份時，請使用正確的備份類型（GRS，ZRS和LRS）進行備份，因為預設設置是GRS。</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
       <c r="E196" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -10370,19 +10385,19 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/sc-200-connect-logs-to-azure-sentinel/</t>
+          <t>https://learn.microsoft.com/training/modules/design-solution-for-backup-disaster-recovery/</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10393,17 +10408,17 @@
     <row r="197" ht="16.5" customHeight="1">
       <c r="A197" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>存取控制</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>在允許 Azure 服務投入生產之前，確定其事件響應計劃。</t>
+          <t>使用 Azure 來賓策略通過 VM 擴展自動部署軟體配置，並強制實施合規的基線 VM 配置。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10420,19 +10435,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-incident-readiness/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10443,20 +10453,24 @@
     <row r="198" ht="16.5" customHeight="1">
       <c r="A198" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B198" s="21" t="inlineStr">
         <is>
-          <t>存取控制</t>
+          <t>運營合規性</t>
         </is>
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>應用零信任方法訪問 Azure 平臺。</t>
-        </is>
-      </c>
-      <c r="D198" s="21" t="n"/>
+          <t>通過 Azure Policy 監視 VM 安全配置偏移。</t>
+        </is>
+      </c>
+      <c r="D198" s="21" t="inlineStr">
+        <is>
+          <t>使用 Azure Policy 的來賓配置功能來審核和修正電腦設置（例如，操作系統、應用程式、環境），以確保資源與預期配置保持一致，並且更新管理可以對 VM 強制實施修補程式管理。</t>
+        </is>
+      </c>
       <c r="E198" s="21" t="inlineStr">
         <is>
           <t>中等</t>
@@ -10470,19 +10484,19 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/security-zero-trust</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-zero-trust-best-practice-frameworks/</t>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10493,23 +10507,23 @@
     <row r="199" ht="16.5" customHeight="1">
       <c r="A199" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>保護和恢復</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Key Vault 儲存機密和憑據。</t>
+          <t>將 Azure Site Recovery 用於 Azure 到 Azure 虛擬機的災難恢復方案。這使您能夠跨區域複製工作負載。</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10520,19 +10534,19 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-key-vault/</t>
+          <t>https://learn.microsoft.com/training/modules/protect-infrastructure-with-site-recovery/</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10543,17 +10557,17 @@
     <row r="200" ht="16.5" customHeight="1">
       <c r="A200" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>保護和恢復</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>對不同的應用程式和區域使用不同的 Azure Key Vault，以避免事務規模限制並限制對機密的訪問。</t>
+          <t>使用原生 PaaS 服務容災能力。 使用這些功能執行故障轉移測試。</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10570,19 +10584,19 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/</t>
+          <t>https://learn.microsoft.com/en-us/training/modules/explore-iaas-paas-platform-tools-for-high-availability-disaster-recovery/</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10593,17 +10607,17 @@
     <row r="201" ht="16.5" customHeight="1">
       <c r="A201" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>保護和恢復</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>在啟用軟刪除和清除策略的情況下預配 Azure Key Vault，以允許對已刪除物件進行保留保護。</t>
+          <t>使用 Azure 原生備份功能或與 Azure 相容的第三方備份解決方案。</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10620,19 +10634,19 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-key-vault/</t>
+          <t>https://learn.microsoft.com/training/modules/design-solution-for-backup-disaster-recovery/</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10643,23 +10657,23 @@
     <row r="202" ht="16.5" customHeight="1">
       <c r="A202" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>遵循最低特權模型，將永久刪除密鑰、機密和證書的授權限制為專用的自定義 Microsoft Entra ID 角色。</t>
+          <t>添加診斷設置以保存來自應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）的 WAF 日誌。定期查看日誌以檢查是否存在攻擊和誤報檢測。</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
       <c r="E202" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10670,19 +10684,19 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-key-vault/</t>
+          <t>https://learn.microsoft.com/training/modules/capture-application-logs-app-service/</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10693,17 +10707,17 @@
     <row r="203" ht="16.5" customHeight="1">
       <c r="A203" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>使用公共證書頒發機構自動執行證書管理和續訂過程，以簡化管理。</t>
+          <t>將 WAF 日誌從應用程式交付服務（如 Azure Front Door 和 Azure 應用程式閘道）發送到 Microsoft Sentinel。檢測攻擊並將 WAF 遙測集成到整個 Azure 環境中。</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10720,19 +10734,19 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/configure-and-manage-azure-key-vault/</t>
+          <t>https://learn.microsoft.com/training/paths/sc-200-connect-logs-to-azure-sentinel/</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10748,12 +10762,12 @@
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>存取控制</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>建立金鑰和證書輪換的自動化流程。</t>
+          <t>在允許 Azure 服務投入生產之前，確定 Azure 服務的事件響應計劃。</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10770,19 +10784,19 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-incident-readiness/</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10798,12 +10812,12 @@
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>加密和金鑰</t>
+          <t>存取控制</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>在保管庫上啟用防火牆和虛擬網路服務終結點或專用終結點，以控制對密鑰保管庫的訪問。</t>
+          <t>應用零信任方法來訪問 Azure 平臺。</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10820,19 +10834,19 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/security-zero-trust</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/training/modules/introduction-zero-trust-best-practice-frameworks/</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10853,13 +10867,13 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>使用以平臺為中心的 Azure Monitor Log Analytics 工作區來審核 Key Vault 的每個實例中的密鑰、證書和機密使用方式。</t>
+          <t>使用 Azure Key Vault 儲存機密和憑據。</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10870,19 +10884,19 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-infrastructure-with-azure-monitor-logs/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-key-vault/</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10903,7 +10917,7 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>委託 Key Vault 實例化和特權訪問，並使用 Azure Policy 強制實施一致的合規配置。</t>
+          <t>對不同的應用程式和區域使用不同的 Azure Key Vault，以避免事務規模限制並限制對機密的訪問。</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
@@ -10920,19 +10934,19 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-key-vault-networking-settings/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10953,7 +10967,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>預設使用 Microsoft 管理的金鑰以實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
+          <t>預配 Azure Key Vault 並啟用軟刪除和清除策略，以允許對已刪除的物件進行保留保護。</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10970,7 +10984,7 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -10982,7 +10996,7 @@
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -11003,7 +11017,7 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>每個應用程式、每個環境、每個區域使用 Azure Key Vault。</t>
+          <t>通過將永久刪除密鑰、機密和證書的授權限制為專門的自定義 Microsoft Entra ID 角色，遵循最低許可權模型。</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -11032,7 +11046,7 @@
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -11053,7 +11067,7 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>如果要自帶密鑰，則並非所有考慮的服務都支援此功能。實施相關的緩解措施，使不一致之處不會妨礙預期的結果。選擇適當的區域對和災難恢復區域，以最大程度地減少延遲。</t>
+          <t>與公共證書頒發機構一起自動執行證書管理和續訂流程，以簡化管理。</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -11075,14 +11089,14 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/</t>
+          <t>https://learn.microsoft.com/en-us/training/modules/configure-and-manage-azure-key-vault/</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -11103,7 +11117,7 @@
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>對於 Sovereign Landing Zone，請使用 Azure Key Vault 託管 HSM 來儲存機密和憑據。</t>
+          <t>建立金鑰和證書輪換的自動化流程。</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
@@ -11120,7 +11134,7 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -11132,7 +11146,7 @@
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -11148,12 +11162,12 @@
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra ID 報告功能生成訪問控制審核報告。</t>
+          <t>在保管庫上啟用防火牆和虛擬網路服務終結點或專用終結點，以控制對密鑰保管庫的訪問。</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
@@ -11170,19 +11184,19 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/monitor-report-aad-security-events/</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -11198,12 +11212,12 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 活動日誌匯出到 Azure Monitor 紀錄，以實現長期數據保留。如有必要，可導出到 Azure 存儲以進行兩年以上的長期存儲。</t>
+          <t>使用平臺中心的 Azure Monitor Log Analytics 工作區來審核 Key Vault 的每個實例中的密鑰、證書和機密使用方式。</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
@@ -11220,7 +11234,7 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -11232,7 +11246,7 @@
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -11248,18 +11262,18 @@
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>為所有訂閱啟用Defender雲安全態勢管理。</t>
+          <t>委託 Key Vault 實例化和特權訪問，並使用 Azure Policy 強制實施一致的合規配置。</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -11270,19 +11284,19 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/microsoft-defender-cloud-security-posture/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-key-vault-networking-settings/</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -11298,18 +11312,18 @@
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>在所有訂閱上為伺服器啟用Defender雲工作負載保護計劃。</t>
+          <t>預設使用 Microsoft 管理的金鑰來實現主體加密功能，並在需要時使用客戶管理的金鑰。</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -11320,19 +11334,19 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/understand-azure-defender-cloud-workload-protection/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-key-vault/</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -11348,18 +11362,18 @@
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>在所有訂閱上為 Azure 資源啟用 Defender 雲工作負載保護計劃。</t>
+          <t>每個區域每個環境的每個應用程式使用 Azure Key Vault。</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -11370,19 +11384,19 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/connect-azure-subscription</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/understand-azure-defender-cloud-workload-protection/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-key-vault/</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -11398,18 +11412,18 @@
       </c>
       <c r="B217" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>在 IaaS 伺服器上啟用端點保護。</t>
+          <t>如果您想使用自己的金鑰，則可能並非所有考慮的服務都支援此功能。實施相關的緩解措施，以便不一致不會妨礙預期的結果。選擇適當的區域對和災難恢復區域，以最大限度地減少延遲。</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -11420,19 +11434,19 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-solutions-securing-server-client-endpoints/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -11448,12 +11462,12 @@
       </c>
       <c r="B218" s="21" t="inlineStr">
         <is>
-          <t>操作</t>
+          <t>加密和金鑰</t>
         </is>
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>通過 Azure Monitor 紀錄和 Defender for Cloud 監視基本作業系統修補偏移。</t>
+          <t>對於主權登陸區域，請使用 Azure Key Vault 託管 HSM 來儲存機密和憑據。</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
@@ -11470,19 +11484,19 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/create-log-analytics-workspace-microsoft-defender-cloud/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11503,7 +11517,7 @@
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>將預設資源配置連接到集中式 Azure Monitor Log Analytics 工作區。</t>
+          <t>使用 Microsoft Entra ID 報告功能生成訪問控制審核報告。</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
@@ -11520,19 +11534,19 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-infrastructure-with-azure-monitor-logs/</t>
+          <t>https://learn.microsoft.com/training/modules/monitor-report-aad-security-events/</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11553,13 +11567,13 @@
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>具有關聯日誌的集中式威脅檢測 - 將安全數據整合到一個中心位置，通過 SIEM（安全資訊和事件管理）在各種服務之間進行關聯</t>
+          <t>將 Azure 活動日誌匯出到 Azure Monitor 紀錄，以便長期保留數據。如有必要，導出到 Azure 存儲，以便長期存儲超過兩年。</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
       <c r="E220" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11570,14 +11584,19 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/well-architected/security/monitor-threats#centralized-threat-detection-with-correlated-logs</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/analyze-infrastructure-with-azure-monitor-logs/</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>a56888b2-7e83-4404-bd31-b886528502d1</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11598,13 +11617,13 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>對於 Sovereign Landing Zone，請在 Entra ID 租戶上啟用透明度日誌。</t>
+          <t>為所有訂閱啟用Defender Cloud安全態勢管理。</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
       <c r="E221" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -11615,14 +11634,19 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/microsoft-defender-cloud-security-posture/</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11643,13 +11667,13 @@
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>對於 Sovereign Landing Zone，請在 Entra ID 租戶上啟用客戶密碼箱。</t>
+          <t>為所有訂閱上的伺服器啟用Defender雲工作負載保護計劃。</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11660,14 +11684,19 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/understand-azure-defender-cloud-workload-protection/</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11688,13 +11717,13 @@
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>使用基於 Azure 事件網格的解決方案獲取面向日誌的即時警報。</t>
+          <t>在所有訂閱上為 Azure 資源啟用 Defender Cloud 工作負載保護計劃。</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
       <c r="E223" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11705,19 +11734,19 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/event-grid/set-alerts</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/connect-azure-subscription</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/azure-event-grid/</t>
+          <t>https://learn.microsoft.com/training/modules/understand-azure-defender-cloud-workload-protection/</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>874a748b-662d-46d1-9051-2a66498f6dfe</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11733,12 +11762,12 @@
       </c>
       <c r="B224" s="21" t="inlineStr">
         <is>
-          <t>概述</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>啟用到存儲帳戶的安全傳輸。</t>
+          <t>在 IaaS 伺服器上啟用 Endpoint Protection。</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
@@ -11755,19 +11784,19 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-storage-account/</t>
+          <t>https://learn.microsoft.com/training/modules/design-solutions-securing-server-client-endpoints/</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11783,18 +11812,18 @@
       </c>
       <c r="B225" s="21" t="inlineStr">
         <is>
-          <t>概述</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
+          <t>通過 Azure Monitor 紀錄和 Defender for Cloud 監視基本作業系統修補偏差。</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11805,14 +11834,19 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/create-log-analytics-workspace-microsoft-defender-cloud/</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11828,18 +11862,18 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>保護特權訪問</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>為 Azure 管理任務單獨使用特權管理員帳戶。</t>
+          <t>將預設資源配置連接到集中式 Azure Monitor Log Analytics 工作區。</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11850,19 +11884,19 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-solutions-secure-privileged-access/</t>
+          <t>https://learn.microsoft.com/training/modules/analyze-infrastructure-with-azure-monitor-logs/</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11878,18 +11912,18 @@
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>服務支援框架</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>規劃如何實現新的 Azure 服務。</t>
+          <t>使用關聯日誌進行集中威脅檢測 - 將安全數據整合到一個中心位置，以便通過SIEM（安全資訊和事件管理）在各種服務之間關聯數據</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
       <c r="E227" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11900,14 +11934,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/en-us/azure/well-architected/security/monitor-threats#centralized-threat-detection-with-correlated-logs</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>a56888b2-7e83-4404-bd31-b886528502d1</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11923,12 +11957,12 @@
       </c>
       <c r="B228" s="21" t="inlineStr">
         <is>
-          <t>服務支援框架</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C228" s="21" t="inlineStr">
         <is>
-          <t>規劃如何滿足 Azure 服務的服務請求。</t>
+          <t>對於 Sovereign Landing Zone，請在 Entra ID 租戶上啟用透明度日誌。</t>
         </is>
       </c>
       <c r="D228" s="21" t="n"/>
@@ -11945,14 +11979,14 @@
       <c r="G228" s="21" t="n"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
       <c r="L228" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M228" s="25" t="n"/>
@@ -11963,23 +11997,23 @@
     <row r="229">
       <c r="A229" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B229" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C229" s="21" t="inlineStr">
         <is>
-          <t>確保擁有跨職能 DevOps 平台團隊來構建、管理和維護 Azure 登陸區域體系結構。</t>
+          <t>對於 Sovereign Landing Zone，請在 Entra ID 租戶上啟用客戶密碼箱。</t>
         </is>
       </c>
       <c r="D229" s="21" t="n"/>
       <c r="E229" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -11990,19 +12024,14 @@
       <c r="G229" s="21" t="n"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
-        </is>
-      </c>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/choose-an-agile-approach/</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
       <c r="L229" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M229" s="25" t="n"/>
@@ -12013,17 +12042,17 @@
     <row r="230">
       <c r="A230" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B230" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>操作</t>
         </is>
       </c>
       <c r="C230" s="21" t="inlineStr">
         <is>
-          <t>旨在為 Azure 登陸區域平台團隊定義功能。</t>
+          <t>使用基於 Azure 事件網格的解決方案實現面向日誌的即時警報。</t>
         </is>
       </c>
       <c r="D230" s="21" t="n"/>
@@ -12040,19 +12069,19 @@
       <c r="G230" s="21" t="n"/>
       <c r="H230" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/event-grid/set-alerts</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/az-400-work-git-for-enterprise-devops/</t>
+          <t>https://learn.microsoft.com/training/modules/azure-event-grid/</t>
         </is>
       </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
       <c r="L230" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>874a748b-662d-46d1-9051-2a66498f6dfe</t>
         </is>
       </c>
       <c r="M230" s="25" t="n"/>
@@ -12063,23 +12092,23 @@
     <row r="231">
       <c r="A231" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B231" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>概述</t>
         </is>
       </c>
       <c r="C231" s="21" t="inlineStr">
         <is>
-          <t>旨在為應用程式工作負載團隊定義功能，使其自給自足，並且不需要 DevOps 平台團隊的支援。通過使用自定義 RBAC 角色來實現此目的。</t>
+          <t>啟用到存儲帳戶的安全傳輸。</t>
         </is>
       </c>
       <c r="D231" s="21" t="n"/>
       <c r="E231" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -12090,19 +12119,19 @@
       <c r="G231" s="21" t="n"/>
       <c r="H231" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/az-400-work-git-for-enterprise-devops/</t>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-storage-account/</t>
         </is>
       </c>
       <c r="J231" s="22" t="n"/>
       <c r="K231" s="22" t="n"/>
       <c r="L231" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M231" s="25" t="n"/>
@@ -12113,23 +12142,23 @@
     <row r="232">
       <c r="A232" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B232" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>概述</t>
         </is>
       </c>
       <c r="C232" s="21" t="inlineStr">
         <is>
-          <t>使用 CI/CD 管道部署 IaC 專案，並確保部署和 Azure 環境的品質。</t>
+          <t>為存儲帳戶啟用容器軟刪除，以恢復已刪除的容器及其內容。</t>
         </is>
       </c>
       <c r="D232" s="21" t="n"/>
       <c r="E232" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -12140,19 +12169,14 @@
       <c r="G232" s="21" t="n"/>
       <c r="H232" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
-        </is>
-      </c>
-      <c r="I232" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/manage-multiple-environments-using-bicep-azure-pipelines/</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J232" s="22" t="n"/>
       <c r="K232" s="22" t="n"/>
       <c r="L232" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M232" s="25" t="n"/>
@@ -12163,23 +12187,23 @@
     <row r="233">
       <c r="A233" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B233" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>安全的特權訪問</t>
         </is>
       </c>
       <c r="C233" s="21" t="inlineStr">
         <is>
-          <t>在生成過程中包含 IaC 和應用程式代碼的單元測試。</t>
+          <t>為 Azure 管理任務提供單獨的特權管理員帳戶。</t>
         </is>
       </c>
       <c r="D233" s="21" t="n"/>
       <c r="E233" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -12190,19 +12214,19 @@
       <c r="G233" s="21" t="n"/>
       <c r="H233" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/run-quality-tests-build-pipeline/</t>
+          <t>https://learn.microsoft.com/training/modules/design-solutions-secure-privileged-access/</t>
         </is>
       </c>
       <c r="J233" s="22" t="n"/>
       <c r="K233" s="22" t="n"/>
       <c r="L233" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M233" s="25" t="n"/>
@@ -12213,23 +12237,23 @@
     <row r="234">
       <c r="A234" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B234" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>服務支援框架</t>
         </is>
       </c>
       <c r="C234" s="21" t="inlineStr">
         <is>
-          <t>使用 Key Vault 機密可避免對敏感資訊（如憑據、虛擬機、用戶密碼）、證書或密鑰進行硬編碼。</t>
+          <t>規劃如何實施新的 Azure 服務。</t>
         </is>
       </c>
       <c r="D234" s="21" t="n"/>
       <c r="E234" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -12240,19 +12264,14 @@
       <c r="G234" s="21" t="n"/>
       <c r="H234" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
-        </is>
-      </c>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/training/modules/implement-azure-key-vault/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J234" s="22" t="n"/>
       <c r="K234" s="22" t="n"/>
       <c r="L234" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M234" s="25" t="n"/>
@@ -12263,23 +12282,23 @@
     <row r="235">
       <c r="A235" s="21" t="inlineStr">
         <is>
-          <t>平臺自動化和DevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B235" s="21" t="inlineStr">
         <is>
-          <t>DevOps 團隊拓撲</t>
+          <t>服務支援框架</t>
         </is>
       </c>
       <c r="C235" s="21" t="inlineStr">
         <is>
-          <t>通過訂閱自動售貨服務為應用程式和工作負載的新登陸區域實施自動化。</t>
+          <t>規劃如何滿足 Azure 服務的服務請求。</t>
         </is>
       </c>
       <c r="D235" s="21" t="n"/>
       <c r="E235" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -12290,14 +12309,14 @@
       <c r="G235" s="21" t="n"/>
       <c r="H235" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J235" s="22" t="n"/>
       <c r="K235" s="22" t="n"/>
       <c r="L235" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M235" s="25" t="n"/>
@@ -12313,12 +12332,12 @@
       </c>
       <c r="B236" s="21" t="inlineStr">
         <is>
-          <t>開發生命週期</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C236" s="21" t="inlineStr">
         <is>
-          <t>確保對應用程式的原始程式碼和開發的 IaC 使用版本控制系統。Microsoft 推薦使用 Git。</t>
+          <t>確保您有一個跨職能的DevOps平臺團隊來構建、管理和維護您的 Azure 登陸區域體系結構。</t>
         </is>
       </c>
       <c r="D236" s="21" t="n"/>
@@ -12335,19 +12354,19 @@
       <c r="G236" s="21" t="n"/>
       <c r="H236" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/intro-to-vc-git/</t>
+          <t>https://learn.microsoft.com/training/modules/choose-an-agile-approach/</t>
         </is>
       </c>
       <c r="J236" s="22" t="n"/>
       <c r="K236" s="22" t="n"/>
       <c r="L236" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M236" s="25" t="n"/>
@@ -12363,12 +12382,12 @@
       </c>
       <c r="B237" s="21" t="inlineStr">
         <is>
-          <t>開發生命週期</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C237" s="21" t="inlineStr">
         <is>
-          <t>遵循分支策略，使團隊能夠更好地協作，並有效地管理 IaC 和應用程式代碼的版本控制。查看 Github Flow 等選項。</t>
+          <t>旨在為 Azure 登陸區域平台團隊定義功能。</t>
         </is>
       </c>
       <c r="D237" s="21" t="n"/>
@@ -12385,19 +12404,19 @@
       <c r="G237" s="21" t="n"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/manage-git-branches-workflows/</t>
+          <t>https://learn.microsoft.com/training/paths/az-400-work-git-for-enterprise-devops/</t>
         </is>
       </c>
       <c r="J237" s="22" t="n"/>
       <c r="K237" s="22" t="n"/>
       <c r="L237" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M237" s="25" t="n"/>
@@ -12413,18 +12432,18 @@
       </c>
       <c r="B238" s="21" t="inlineStr">
         <is>
-          <t>開發生命週期</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C238" s="21" t="inlineStr">
         <is>
-          <t>採用拉取請求策略來説明保持對合併到分支中的代碼更改的控制。</t>
+          <t>旨在為應用程式工作負載團隊定義自給自足的功能，並且不需要 DevOps 平台團隊的支援。通過使用自定義 RBAC 角色來實現此目的。</t>
         </is>
       </c>
       <c r="D238" s="21" t="n"/>
       <c r="E238" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -12435,19 +12454,19 @@
       <c r="G238" s="21" t="n"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/review-azure-infrastructure-changes-using-bicep-pull-requests/</t>
+          <t>https://learn.microsoft.com/training/paths/az-400-work-git-for-enterprise-devops/</t>
         </is>
       </c>
       <c r="J238" s="22" t="n"/>
       <c r="K238" s="22" t="n"/>
       <c r="L238" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M238" s="25" t="n"/>
@@ -12463,12 +12482,12 @@
       </c>
       <c r="B239" s="21" t="inlineStr">
         <is>
-          <t>開發生命週期</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C239" s="21" t="inlineStr">
         <is>
-          <t>建立使用代碼實現快速修復的流程。始終在團隊的積壓工作中註冊快速修復，以便每個修復都可以在以後進行返工，並且可以限制技術債務。</t>
+          <t>使用 CI/CD 管道部署 IaC 專案，並確保部署和 Azure 環境的品質。</t>
         </is>
       </c>
       <c r="D239" s="21" t="n"/>
@@ -12485,19 +12504,19 @@
       <c r="G239" s="21" t="n"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-platform</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/branch-merge-git/</t>
+          <t>https://learn.microsoft.com/training/modules/manage-multiple-environments-using-bicep-azure-pipelines/</t>
         </is>
       </c>
       <c r="J239" s="22" t="n"/>
       <c r="K239" s="22" t="n"/>
       <c r="L239" s="25" t="inlineStr">
         <is>
-          <t>2676ae46-65ca-444e-8695-fdddeace4cb1</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M239" s="25" t="n"/>
@@ -12513,18 +12532,18 @@
       </c>
       <c r="B240" s="21" t="inlineStr">
         <is>
-          <t>發展戰略</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C240" s="21" t="inlineStr">
         <is>
-          <t>利用聲明性基礎結構即代碼工具（如 Azure Bicep、ARM 範本或 Terraform）來構建和維護 Azure 登陸區域體系結構。從平臺和應用程式工作負載的角度來看。</t>
+          <t>在構建過程中包括 IaC 和應用程式代碼的單元測試。</t>
         </is>
       </c>
       <c r="D240" s="21" t="n"/>
       <c r="E240" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -12535,19 +12554,19 @@
       <c r="G240" s="21" t="n"/>
       <c r="H240" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/introduction-to-infrastructure-as-code-using-bicep/</t>
+          <t>https://learn.microsoft.com/training/modules/run-quality-tests-build-pipeline/</t>
         </is>
       </c>
       <c r="J240" s="22" t="n"/>
       <c r="K240" s="22" t="n"/>
       <c r="L240" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M240" s="25" t="n"/>
@@ -12563,12 +12582,12 @@
       </c>
       <c r="B241" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>DevOps 團隊拓撲</t>
         </is>
       </c>
       <c r="C241" s="21" t="inlineStr">
         <is>
-          <t>將安全性集成到 DevOps 中已經合併的開發和運營流程中，以降低創新過程中的風險。</t>
+          <t>使用 Key Vault 機密來避免對敏感資訊進行硬編碼，例如憑據（虛擬機用戶密碼）、證書或密鑰。</t>
         </is>
       </c>
       <c r="D241" s="21" t="n"/>
@@ -12585,19 +12604,19 @@
       <c r="G241" s="21" t="n"/>
       <c r="H241" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/paths/az-400-implement-security-validate-code-bases-compliance/</t>
+          <t>https://learn.microsoft.com/en-us/training/modules/implement-azure-key-vault/</t>
         </is>
       </c>
       <c r="J241" s="22" t="n"/>
       <c r="K241" s="22" t="n"/>
       <c r="L241" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M241" s="25" t="n"/>
@@ -12606,105 +12625,345 @@
       <c r="P241" s="25" t="n"/>
     </row>
     <row r="242">
-      <c r="A242" s="21" t="n"/>
-      <c r="B242" s="21" t="n"/>
-      <c r="C242" s="21" t="n"/>
+      <c r="A242" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B242" s="21" t="inlineStr">
+        <is>
+          <t>DevOps 團隊拓撲</t>
+        </is>
+      </c>
+      <c r="C242" s="21" t="inlineStr">
+        <is>
+          <t>通過訂閱自動售貨機為應用程式和工作負載的新登錄區實施自動化。</t>
+        </is>
+      </c>
       <c r="D242" s="21" t="n"/>
-      <c r="E242" s="21" t="n"/>
+      <c r="E242" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G242" s="21" t="n"/>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+        </is>
+      </c>
       <c r="J242" s="22" t="n"/>
       <c r="K242" s="22" t="n"/>
-      <c r="L242" s="25" t="n"/>
+      <c r="L242" s="25" t="inlineStr">
+        <is>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+        </is>
+      </c>
       <c r="M242" s="25" t="n"/>
       <c r="N242" s="25" t="n"/>
       <c r="O242" s="25" t="n"/>
       <c r="P242" s="25" t="n"/>
     </row>
     <row r="243">
-      <c r="A243" s="21" t="n"/>
-      <c r="B243" s="21" t="n"/>
-      <c r="C243" s="21" t="n"/>
+      <c r="A243" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B243" s="21" t="inlineStr">
+        <is>
+          <t>開發生命週期</t>
+        </is>
+      </c>
+      <c r="C243" s="21" t="inlineStr">
+        <is>
+          <t>確保將版本控制系統用於應用程式的原始程式碼和開發的 IaC。Microsoft 建議使用 Git。</t>
+        </is>
+      </c>
       <c r="D243" s="21" t="n"/>
-      <c r="E243" s="21" t="n"/>
+      <c r="E243" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G243" s="21" t="n"/>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/intro-to-vc-git/</t>
+        </is>
+      </c>
       <c r="J243" s="22" t="n"/>
       <c r="K243" s="22" t="n"/>
-      <c r="L243" s="25" t="n"/>
+      <c r="L243" s="25" t="inlineStr">
+        <is>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+        </is>
+      </c>
       <c r="M243" s="25" t="n"/>
       <c r="N243" s="25" t="n"/>
       <c r="O243" s="25" t="n"/>
       <c r="P243" s="25" t="n"/>
     </row>
     <row r="244">
-      <c r="A244" s="21" t="n"/>
-      <c r="B244" s="21" t="n"/>
-      <c r="C244" s="21" t="n"/>
+      <c r="A244" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B244" s="21" t="inlineStr">
+        <is>
+          <t>開發生命週期</t>
+        </is>
+      </c>
+      <c r="C244" s="21" t="inlineStr">
+        <is>
+          <t>遵循分支策略，使團隊能夠更好地協作並有效地管理 IaC 和應用程式代碼的版本控制。查看 Github Flow 等選項。</t>
+        </is>
+      </c>
       <c r="D244" s="21" t="n"/>
-      <c r="E244" s="21" t="n"/>
+      <c r="E244" s="21" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G244" s="21" t="n"/>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-git-branches-workflows/</t>
+        </is>
+      </c>
       <c r="J244" s="22" t="n"/>
       <c r="K244" s="22" t="n"/>
-      <c r="L244" s="25" t="n"/>
+      <c r="L244" s="25" t="inlineStr">
+        <is>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+        </is>
+      </c>
       <c r="M244" s="25" t="n"/>
       <c r="N244" s="25" t="n"/>
       <c r="O244" s="25" t="n"/>
       <c r="P244" s="25" t="n"/>
     </row>
     <row r="245">
-      <c r="A245" s="21" t="n"/>
-      <c r="B245" s="21" t="n"/>
-      <c r="C245" s="21" t="n"/>
+      <c r="A245" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B245" s="21" t="inlineStr">
+        <is>
+          <t>開發生命週期</t>
+        </is>
+      </c>
+      <c r="C245" s="21" t="inlineStr">
+        <is>
+          <t>採用拉取請求策略來説明保持對合併到分支中的代碼更改的控制。</t>
+        </is>
+      </c>
       <c r="D245" s="21" t="n"/>
-      <c r="E245" s="21" t="n"/>
+      <c r="E245" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G245" s="21" t="n"/>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/review-azure-infrastructure-changes-using-bicep-pull-requests/</t>
+        </is>
+      </c>
       <c r="J245" s="22" t="n"/>
       <c r="K245" s="22" t="n"/>
-      <c r="L245" s="25" t="n"/>
+      <c r="L245" s="25" t="inlineStr">
+        <is>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+        </is>
+      </c>
       <c r="M245" s="25" t="n"/>
       <c r="N245" s="25" t="n"/>
       <c r="O245" s="25" t="n"/>
       <c r="P245" s="25" t="n"/>
     </row>
     <row r="246">
-      <c r="A246" s="21" t="n"/>
-      <c r="B246" s="21" t="n"/>
-      <c r="C246" s="21" t="n"/>
+      <c r="A246" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B246" s="21" t="inlineStr">
+        <is>
+          <t>開發生命週期</t>
+        </is>
+      </c>
+      <c r="C246" s="21" t="inlineStr">
+        <is>
+          <t>建立使用代碼實現快速修復的流程。始終在團隊的積壓工作中註冊快速修復，以便以後可以重新處理每個修復，並且可以限制技術債務。</t>
+        </is>
+      </c>
       <c r="D246" s="21" t="n"/>
-      <c r="E246" s="21" t="n"/>
+      <c r="E246" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G246" s="21" t="n"/>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-platform</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/branch-merge-git/</t>
+        </is>
+      </c>
       <c r="J246" s="22" t="n"/>
       <c r="K246" s="22" t="n"/>
-      <c r="L246" s="25" t="n"/>
+      <c r="L246" s="25" t="inlineStr">
+        <is>
+          <t>2676ae46-65ca-444e-8695-fdddeace4cb1</t>
+        </is>
+      </c>
       <c r="M246" s="25" t="n"/>
       <c r="N246" s="25" t="n"/>
       <c r="O246" s="25" t="n"/>
       <c r="P246" s="25" t="n"/>
     </row>
     <row r="247">
-      <c r="A247" s="21" t="n"/>
-      <c r="B247" s="21" t="n"/>
-      <c r="C247" s="21" t="n"/>
+      <c r="A247" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B247" s="21" t="inlineStr">
+        <is>
+          <t>發展戰略</t>
+        </is>
+      </c>
+      <c r="C247" s="21" t="inlineStr">
+        <is>
+          <t>利用 Azure Bicep、ARM 範本或 Terraform 等聲明性基礎結構即代碼工具來構建和維護 Azure 登陸區域體系結構。從平臺和應用程式工作負載的角度來看都是如此。</t>
+        </is>
+      </c>
       <c r="D247" s="21" t="n"/>
-      <c r="E247" s="21" t="n"/>
+      <c r="E247" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G247" s="21" t="n"/>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-to-infrastructure-as-code-using-bicep/</t>
+        </is>
+      </c>
       <c r="J247" s="22" t="n"/>
       <c r="K247" s="22" t="n"/>
-      <c r="L247" s="25" t="n"/>
+      <c r="L247" s="25" t="inlineStr">
+        <is>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+        </is>
+      </c>
       <c r="M247" s="25" t="n"/>
       <c r="N247" s="25" t="n"/>
       <c r="O247" s="25" t="n"/>
       <c r="P247" s="25" t="n"/>
     </row>
     <row r="248">
-      <c r="A248" s="21" t="n"/>
-      <c r="B248" s="21" t="n"/>
-      <c r="C248" s="21" t="n"/>
+      <c r="A248" s="21" t="inlineStr">
+        <is>
+          <t>平臺自動化和DevOps</t>
+        </is>
+      </c>
+      <c r="B248" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C248" s="21" t="inlineStr">
+        <is>
+          <t>將安全性集成到 DevOps 中已經組合的開發和運營流程中，以降低創新流程中的風險。</t>
+        </is>
+      </c>
       <c r="D248" s="21" t="n"/>
-      <c r="E248" s="21" t="n"/>
+      <c r="E248" s="21" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>未驗證</t>
+        </is>
+      </c>
       <c r="G248" s="21" t="n"/>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/az-400-implement-security-validate-code-bases-compliance/</t>
+        </is>
+      </c>
       <c r="J248" s="22" t="n"/>
       <c r="K248" s="22" t="n"/>
-      <c r="L248" s="25" t="n"/>
+      <c r="L248" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M248" s="25" t="n"/>
       <c r="N248" s="25" t="n"/>
       <c r="O248" s="25" t="n"/>
@@ -13591,7 +13850,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F242" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F249" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -13697,7 +13956,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>此檢查尚未查看</t>
+          <t>尚未查看此檢查</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -13724,7 +13983,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>有一個與此檢查關聯的操作項</t>
+          <t>存在與此檢查關聯的操作項</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -13751,7 +14010,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>此檢查已經過驗證，並且沒有與之關聯的其他操作項</t>
+          <t>此檢查已經過驗證，沒有與之關聯的其他操作項</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -13785,7 +14044,7 @@
     <row r="6">
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>不適用</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">

--- a/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.zh-Hant.xlsx
@@ -1059,17 +1059,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Azure 計費和 Microsoft Entra ID 租戶</t>
+          <t>網路拓撲和連接</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 租戶</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>使用一個 Entra 租戶來管理 Azure 資源，除非對多租戶有明確的法規或業務要求。</t>
+          <t>在多個區域中部署 Azure 登陸區域連接資源，以便可以快速支援多區域應用程式登陸區域和災難恢復方案。</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,19 +1086,19 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/considerations-recommendations</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/regions</t>
         </is>
       </c>
       <c r="I8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/deploy-resources-scopes-bicep/2-understand-deployment-scopes</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
         </is>
       </c>
       <c r="J8" s="22" t="n"/>
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>70c15989-c726-42c7-b0d3-24b7375b9201</t>
+          <t>7bc1c396-2461-4698-b57f-30ca69525252</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1119,13 +1119,13 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>使用多租戶自動化方法管理您的 Microsoft Entra ID 租戶。</t>
+          <t>使用一個 Entra 租戶來管理 Azure 資源，除非對多租戶有明確的法規或業務要求。</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
       <c r="E9" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1136,19 +1136,19 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/automation</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/considerations-recommendations</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/entra/architecture/multi-tenant-user-management-introduction/</t>
+          <t>https://learn.microsoft.com/training/modules/deploy-resources-scopes-bicep/2-understand-deployment-scopes</t>
         </is>
       </c>
       <c r="J9" s="22" t="n"/>
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>6309957b-821a-43d1-b9d9-7fcf1802b747</t>
+          <t>70c15989-c726-42c7-b0d3-24b7375b9201</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1169,13 +1169,13 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>使用具有相同 ID 的 Azure Lighthouse 進行多租戶管理。</t>
+          <t>使用多租戶自動化方法管理您的 Microsoft Entra ID 租戶。</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1186,19 +1186,19 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/lighthouse</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/automation</t>
         </is>
       </c>
       <c r="I10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/concepts/cross-tenant-management-experience</t>
+          <t>https://learn.microsoft.com/entra/architecture/multi-tenant-user-management-introduction/</t>
         </is>
       </c>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>78e11934-499a-45ed-8ef7-aae5578f0ecf</t>
+          <t>6309957b-821a-43d1-b9d9-7fcf1802b747</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1214,12 +1214,12 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>雲解決方案供應商</t>
+          <t>Microsoft Entra ID 租戶</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>如果向合作夥伴授予管理租戶的許可權，請使用 Azure Lighthouse。</t>
+          <t>使用具有相同 ID 的 Azure Lighthouse 進行多租戶管理。</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1236,19 +1236,19 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/lighthouse</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/how-to/onboard-customer</t>
+          <t>https://learn.microsoft.com/azure/lighthouse/concepts/cross-tenant-management-experience</t>
         </is>
       </c>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>5d82e6df-6f61-42f2-82e2-3132d293be3d</t>
+          <t>78e11934-499a-45ed-8ef7-aae5578f0ecf</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1269,13 +1269,13 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>如果您有 CSP 合作夥伴，請定義並記錄您的支援請求和升級流程。</t>
+          <t>如果向合作夥伴授予管理租戶的許可權，請使用 Azure Lighthouse。</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1286,15 +1286,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-cloud-solution-provider#design-recommendations</t>
-        </is>
-      </c>
-      <c r="I12" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/lighthouse/how-to/onboard-customer</t>
+        </is>
+      </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>a24d0de3-d4b9-4dfb-8ddd-bbfaf123fa01</t>
+          <t>5d82e6df-6f61-42f2-82e2-3132d293be3d</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1315,13 +1319,13 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 成本管理設置成本報告和檢視。</t>
+          <t>如果您有 CSP 合作夥伴，請定義並記錄您的支援請求和升級流程。</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1332,19 +1336,15 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
-        </is>
-      </c>
-      <c r="I13" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-cloud-solution-provider#design-recommendations</t>
+        </is>
+      </c>
+      <c r="I13" s="15" t="n"/>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>32952499-58c8-4e6f-ada5-972e67893d55</t>
+          <t>a24d0de3-d4b9-4dfb-8ddd-bbfaf123fa01</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1360,12 +1360,12 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>企業協定</t>
+          <t>雲解決方案供應商</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>將通知連絡人配置到組郵箱。</t>
+          <t>使用 Azure 成本管理設置成本報告和檢視。</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1382,15 +1382,19 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
-        </is>
-      </c>
-      <c r="I14" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+        </is>
+      </c>
+      <c r="I14" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/</t>
+        </is>
+      </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>685cb4f2-ac9c-4b19-9167-993ed0b32415</t>
+          <t>32952499-58c8-4e6f-ada5-972e67893d55</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1411,13 +1415,13 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>使用部門和帳戶將組織的結構映射到註冊層次結構，這有助於分離計費。</t>
+          <t>將通知連絡人配置到組郵箱。</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1428,19 +1432,15 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
-        </is>
-      </c>
-      <c r="I15" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/understand-ea-roles</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
+        </is>
+      </c>
+      <c r="I15" s="15" t="n"/>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>12cd499f-96e2-4e41-a243-231fb3245a1c</t>
+          <t>685cb4f2-ac9c-4b19-9167-993ed0b32415</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1461,13 +1461,13 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>在您的EA註冊上啟用DA View Charges和 AO View Charges，以允許具有正確許可權的使用者查看成本和帳單數據。</t>
+          <t>使用部門和帳戶將組織的結構映射到註冊層次結構，這有助於分離計費。</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1478,19 +1478,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/assign-access-acm-data#enable-access-to-costs-in-the-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/understand-ea-roles</t>
         </is>
       </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>ca0fe401-12ad-46fc-8a7e-86293866a9f6</t>
+          <t>12cd499f-96e2-4e41-a243-231fb3245a1c</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1511,13 +1511,13 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>使用 Enterprise Dev/Test 訂閱來降低非生產工作負載的成本。</t>
+          <t>在您的EA註冊上啟用DA View Charges和 AO View Charges，以允許具有正確許可權的使用者查看成本和帳單數據。</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1528,19 +1528,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/devtest/offer/how-to-manage-monitor-devtest</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/assign-access-acm-data#enable-access-to-costs-in-the-azure-portal</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>5cf9f485-2784-49b3-9824-75d9b8bdb57b</t>
+          <t>ca0fe401-12ad-46fc-8a7e-86293866a9f6</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1556,12 +1556,12 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Microsoft 客戶協定</t>
+          <t>企業協定</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>配置協定計費帳戶通知聯繫人電子郵件。</t>
+          <t>使用 Enterprise Dev/Test 訂閱來降低非生產工作負載的成本。</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1578,19 +1578,19 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/mca-setup-account</t>
+          <t>https://learn.microsoft.com/azure/devtest/offer/how-to-manage-monitor-devtest</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>6ad5c3dd-e5ea-4ff1-81a4-7886ff87845c</t>
+          <t>5cf9f485-2784-49b3-9824-75d9b8bdb57b</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>使用「計費配置檔」和「發票」部分來構建協定計費，以實現有效的成本管理。</t>
+          <t>配置協定計費帳戶通知聯繫人電子郵件。</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1628,19 +1628,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/mca-section-invoice</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/understand/mca-overview#billing-profiles</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/mca-setup-account</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>90e87802-602f-4dfb-acea-67c60689f1d7</t>
+          <t>6ad5c3dd-e5ea-4ff1-81a4-7886ff87845c</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>利用 Microsoft Azure 開發/測試計劃產品/服務來降低非生產工作負載的成本。</t>
+          <t>使用「計費配置檔」和「發票」部分來構建協定計費，以實現有效的成本管理。</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1678,19 +1678,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/mca-section-invoice</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/devtest/offer/overview-what-is-devtest-offer-visual-studio</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/understand/mca-overview#billing-profiles</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>e81a73f0-84c4-4641-b406-14db3b4d1f50</t>
+          <t>90e87802-602f-4dfb-acea-67c60689f1d7</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1711,13 +1711,13 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>定義並記錄定期審核協定計費 RBAC 角色分配的流程，以審查誰有權訪問您的 MCA 計費帳戶。</t>
+          <t>利用 Microsoft Azure 開發/測試計劃產品/服務來降低非生產工作負載的成本。</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1733,14 +1733,14 @@
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/understand-mca-roles</t>
+          <t>https://learn.microsoft.com/azure/devtest/offer/overview-what-is-devtest-offer-visual-studio</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>ae757485-92a4-482a-8bc9-eefe6f5b5ec3</t>
+          <t>e81a73f0-84c4-4641-b406-14db3b4d1f50</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1751,23 +1751,23 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>身份和訪問管理</t>
+          <t>Azure 計費和 Microsoft Entra ID 租戶</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>Microsoft 客戶協定</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>實施與您的雲操作模型相一致的 RBAC 模型。跨管理組和訂閱確定範圍和分配。</t>
+          <t>定義並記錄定期審核協定計費 RBAC 角色分配的流程，以審查誰有權訪問您的 MCA 計費帳戶。</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1778,19 +1778,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/understand-mca-roles</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>ae757485-92a4-482a-8bc9-eefe6f5b5ec3</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1806,12 +1806,12 @@
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 和混合標識</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>使用託管標識而不是服務主體對 Azure 服務進行身份驗證。可以通過 Entra ID &gt;登錄日誌&gt;服務主體登錄來檢查現有服務主體。</t>
+          <t>實施與您的雲操作模型相一致的 RBAC 模型。跨管理組和訂閱確定範圍和分配。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1828,19 +1828,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>4348bf81-7573-4512-8f46-9061cc198fea</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1856,12 +1856,12 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>Microsoft Entra ID 和混合標識</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>僅對所有帳戶類型使用身份驗證類型 Work or school account。避免使用 Microsoft 帳戶</t>
+          <t>使用託管標識而不是服務主體對 Azure 服務進行身份驗證。可以通過 Entra ID &gt;登錄日誌&gt;服務主體登錄來檢查現有服務主體。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1878,19 +1878,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
         </is>
       </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>4348bf81-7573-4512-8f46-9061cc198fea</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>僅使用組來分配許可權。如果組管理系統已就位，請將本地組添加到僅 Entra ID 組。</t>
+          <t>僅對所有帳戶類型使用身份驗證類型 Work or school account。避免使用 Microsoft 帳戶</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1928,19 +1928,19 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1961,13 +1961,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>對 Azure 環境具有許可權的任何使用者強制實施 Microsoft Entra ID 條件訪問策略。</t>
+          <t>僅使用組來分配許可權。如果組管理系統已就位，請將本地組添加到僅 Entra ID 組。</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1978,19 +1978,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>對有權訪問 Azure 環境的任何使用者強制實施多重身份驗證。</t>
+          <t>對 Azure 環境具有許可權的任何使用者強制實施 Microsoft Entra ID 條件訪問策略。</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2028,19 +2028,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>根據角色和安全要求，強制實施集中和委派的職責，以管理部署在 landing zone 內的資源。</t>
+          <t>對有權訪問 Azure 環境的任何使用者強制實施多重身份驗證。</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2078,19 +2078,19 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2111,13 +2111,13 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>強制實施 Microsoft Entra ID Privileged Identity Management （PIM） 以建立零長期訪問和最低許可權。</t>
+          <t>根據角色和安全要求，強制實施集中和委派的職責，以管理部署在 landing zone 內的資源。</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2128,19 +2128,19 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2161,13 +2161,13 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>部署 Active Directory 域控制器時，請使用具有可用區的位置，並在這些區域中部署至少兩個 VM。如果不可用，請在可用性集中部署。</t>
+          <t>強制實施 Microsoft Entra ID Privileged Identity Management （PIM） 以建立零長期訪問和最低許可權。</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2178,19 +2178,19 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2211,13 +2211,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>將 Azure 自定義 RBAC 角色用於以下關鍵角色，以提供跨 ALZ 的精細訪問：Azure 平臺擁有者、網路管理、安全操作、訂閱擁有者、應用程式擁有者。使這些角色與您企業內的團隊和職責保持一致。</t>
+          <t>部署 Active Directory 域控制器時，請使用具有可用區的位置，並在這些區域中部署至少兩個 VM。如果不可用，請在可用性集中部署。</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2228,19 +2228,19 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>如果計劃從 Active Directory 域服務切換到 Entra 域服務，請評估所有工作負載的相容性。</t>
+          <t>在多個區域中部署 Azure 登陸區域標識資源。 如果使用域控制器，請將每個區域與一個 Active Directory 網站相關聯，以便資源可以解析到其本地域控制器。</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2278,19 +2278,19 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/entra/identity/domain-services/overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/regions#identity</t>
         </is>
       </c>
       <c r="I32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>e8aa1e41-870d-4968-94c6-77be14f510ac</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra 域服務時，請使用副本集。副本集將提高託管域的復原能力，並允許您部署到其他區域。</t>
+          <t>將 Azure 自定義 RBAC 角色用於以下關鍵角色，以提供跨 ALZ 的精細訪問：Azure 平臺擁有者、網路管理、安全操作、訂閱擁有者、應用程式擁有者。使這些角色與您企業內的團隊和職責保持一致。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2328,19 +2328,19 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/entra/identity/domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/understand-azure-active-directory/6-examine-azure-domain-services</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>0dd4e625-9c4b-4a56-b54a-4357bac12761</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>將 Microsoft Entra ID 紀錄與平臺中心的 Azure Monitor 集成。Azure Monitor 允許 Azure 中日誌和監視數據的單一事實來源，為組織提供雲原生選項來滿足日誌收集和保留的要求。</t>
+          <t>如果計劃從 Active Directory 域服務切換到 Entra 域服務，請評估所有工作負載的相容性。</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2378,19 +2378,19 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
+          <t>https://learn.microsoft.com/entra/identity/domain-services/overview</t>
         </is>
       </c>
       <c r="I34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/entra/identity/monitoring-health/howto-integrate-activity-logs-with-azure-monitor-logs</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2411,13 +2411,13 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>實施緊急訪問或不受限帳戶，以防止租戶範圍的帳戶鎖定。</t>
+          <t>使用 Microsoft Entra 域服務時，請使用副本集。副本集將提高託管域的復原能力，並允許您部署到其他區域。</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2428,19 +2428,19 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/entra/identity/domain-services/overview</t>
         </is>
       </c>
       <c r="I35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/training/modules/understand-azure-active-directory/6-examine-azure-domain-services</t>
         </is>
       </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>0dd4e625-9c4b-4a56-b54a-4357bac12761</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2456,12 +2456,12 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>部署 Microsoft Entra Connect 時，請使用暫存伺服器實現高可用性/災難恢復。</t>
+          <t>將 Microsoft Entra ID 紀錄與平臺中心的 Azure Monitor 集成。Azure Monitor 允許 Azure 中日誌和監視數據的單一事實來源，為組織提供雲原生選項來滿足日誌收集和保留的要求。</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2478,19 +2478,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/entra/identity/hybrid/connect/plan-connect-topologies</t>
+          <t>https://learn.microsoft.com/entra/identity/monitoring-health/howto-integrate-activity-logs-with-azure-monitor-logs</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2511,13 +2511,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>請勿將本地同步帳戶用於 Microsoft Entra ID 角色分配，除非你的方案特別需要它。</t>
+          <t>實施緊急訪問或不受限帳戶，以防止租戶範圍的帳戶鎖定。</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2528,19 +2528,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2556,12 +2556,12 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>Microsoft Entra ID</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra ID 應用程式代理為遠端使用者提供對應用程式的訪問許可權時，請將其作為平臺資源進行管理，因為每個租戶只能有一個實例。</t>
+          <t>部署 Microsoft Entra Connect 時，請使用暫存伺服器實現高可用性/災難恢復。</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2578,19 +2578,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
       <c r="I38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/entra/identity/hybrid/connect/plan-connect-topologies</t>
         </is>
       </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2606,18 +2606,18 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>登陸區域</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>通過使用虛擬網路配置身份網路分段，並對等互連回中心。在應用程式登錄區域（舊版）內提供身份驗證。</t>
+          <t>請勿將本地同步帳戶用於 Microsoft Entra ID 角色分配，除非你的方案特別需要它。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2628,19 +2628,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>9cf5418b-1520-4b7b-add7-88eb28f833e8</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2656,12 +2656,12 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>登陸區域</t>
+          <t>身份</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>如果可能，請使用 Azure RBAC 管理數據平面對資源的訪問。例如，跨 Key Vault、存儲帳戶和資料庫服務的數據操作。</t>
+          <t>使用 Microsoft Entra ID 應用程式代理為遠端使用者提供對應用程式的訪問許可權時，請將其作為平臺資源進行管理，因為每個租戶只能有一個實例。</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2678,19 +2678,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>d4d1ad54-1abc-4919-b267-3f342d3b49e4</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2711,13 +2711,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra ID PIM 訪問評審定期驗證資源權利。</t>
+          <t>通過使用虛擬網路配置身份網路分段，並對等互連回中心。在應用程式登錄區域（舊版）內提供身份驗證。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2728,19 +2728,19 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/entra/id-governance/privileged-identity-management/pim-perform-roles-and-resource-roles-review</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>d505ebcb-79b1-4274-9c0d-a27c8bea489c</t>
+          <t>9cf5418b-1520-4b7b-add7-88eb28f833e8</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2751,27 +2751,23 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>資源組織</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>命名和標記</t>
+          <t>登陸區域</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>對資源使用定義明確的命名方案，例如 Microsoft 最佳實踐命名標準。</t>
-        </is>
-      </c>
-      <c r="D42" s="21" t="inlineStr">
-        <is>
-          <t>請考慮使用 https://aka.ms/azurenamingtool 上提供的 Azure 命名工具</t>
-        </is>
-      </c>
+          <t>如果可能，請使用 Azure RBAC 管理數據平面對資源的訪問。例如，跨 Key Vault、存儲帳戶和資料庫服務的數據操作。</t>
+        </is>
+      </c>
+      <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2782,15 +2778,19 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
-        </is>
-      </c>
-      <c r="I42" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
+        </is>
+      </c>
+      <c r="I42" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+        </is>
+      </c>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>d4d1ad54-1abc-4919-b267-3f342d3b49e4</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2801,17 +2801,17 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>資源組織</t>
+          <t>身份和訪問管理</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>登陸區域</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>強制實施不超過四個級別的合理扁平管理組層次結構。</t>
+          <t>使用 Microsoft Entra ID PIM 訪問評審定期驗證資源權利。</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2828,19 +2828,19 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
         </is>
       </c>
       <c r="I43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/entra/id-governance/privileged-identity-management/pim-perform-roles-and-resource-roles-review</t>
         </is>
       </c>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>d505ebcb-79b1-4274-9c0d-a27c8bea489c</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2856,18 +2856,22 @@
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>訂閱</t>
+          <t>命名和標記</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>強制實施沙箱管理組，以允許使用者立即試用 Azure。</t>
-        </is>
-      </c>
-      <c r="D44" s="21" t="n"/>
+          <t>對資源使用定義明確的命名方案，例如 Microsoft 最佳實踐命名標準。</t>
+        </is>
+      </c>
+      <c r="D44" s="21" t="inlineStr">
+        <is>
+          <t>請考慮使用 https://aka.ms/azurenamingtool 上提供的 Azure 命名工具</t>
+        </is>
+      </c>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2878,19 +2882,15 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>在根管理組下強制實施平臺管理組，以支援通用平臺策略和 Azure 角色分配。</t>
+          <t>強制實施不超過四個級別的合理扁平管理組層次結構。</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2928,19 +2928,19 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>在連接管理組中強制實施專用連接訂閱，以託管 Azure 虛擬 WAN 中心、專用非 AD 功能變數名稱系統 （DNS）、ExpressRoute 線路和其他網路資源。</t>
+          <t>強制實施沙箱管理組，以允許使用者立即試用 Azure。</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2990,7 +2990,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>強制不將任何訂閱放置在根管理組下。</t>
+          <t>在根管理組下強制實施平臺管理組，以支援通用平臺策略和 Azure 角色分配。</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -3028,19 +3028,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>通過在管理組層次結構設置中啟用 Azure RBAC 授權，強制只有特權使用者才能操作租戶中的管理組。</t>
+          <t>在連接管理組中強制實施專用連接訂閱，以託管 Azure 虛擬 WAN 中心、專用非 AD 功能變數名稱系統 （DNS）、ExpressRoute 線路和其他網路資源。</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3078,19 +3078,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-role-based-access-control/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>在根級管理組下強制實施管理組，以根據工作負載的安全性、合規性、連接性和功能需求來表示工作負載的類型。</t>
+          <t>強制不將任何訂閱放置在根管理組下。</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3127,6 +3127,11 @@
       </c>
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
@@ -3135,7 +3140,7 @@
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3156,13 +3161,13 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>實施一個流程，讓資源擁有者了解他們的角色和職責、訪問審查、預算審查、策略合規性，並在必要時進行補救。</t>
+          <t>通過在管理組層次結構設置中啟用 Azure RBAC 授權，強制只有特權使用者才能操作租戶中的管理組。</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3173,19 +3178,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/entra/id-governance/access-reviews-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/plan-implement-manage-access-review/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-role-based-access-control/</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3206,7 +3211,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>確保所有訂閱擁有者和IT核心團隊都瞭解訂閱配額及其對給定訂閱的預置資源的影響。</t>
+          <t>在根級管理組下強制實施管理組，以根據工作負載的安全性、合規性、連接性和功能需求來表示工作負載的類型。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3223,19 +3228,15 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3256,7 +3257,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>在適當的情況下使用預留實例來優化成本並確保目標區域中的可用容量。</t>
+          <t>實施一個流程，讓資源擁有者了解他們的角色和職責、訪問審查、預算審查、策略合規性，並在必要時進行補救。</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3273,19 +3274,19 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+          <t>https://learn.microsoft.com/entra/id-governance/access-reviews-overview</t>
         </is>
       </c>
       <c r="I52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://learn.microsoft.com/training/modules/plan-implement-manage-access-review/</t>
         </is>
       </c>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>建立控制面板和/或可視化效果，以監控計算和存儲容量指標。（即 CPU、記憶體、磁碟空間）</t>
+          <t>確保所有訂閱擁有者和IT核心團隊都瞭解訂閱配額及其對給定訂閱的預置資源的影響。</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3323,19 +3324,19 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-portal/azure-portal-dashboards</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/visualize-data-workbooks/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3356,7 +3357,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>作為雲採用的一部分，請使用“託管雲成本”流程實施詳細的成本管理計劃。</t>
+          <t>在適當的情況下使用預留實例來優化成本並確保目標區域中的可用容量。</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3373,19 +3374,19 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/get-started/manage-costs</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3406,7 +3407,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>如果伺服器將用於 Identity 服務（如域控制器），請在 Identity Management 組中建立專用 Identity Subscription 來託管這些服務。確保將資源設置為使用其區域中可用的域控制器。</t>
+          <t>建立控制面板和/或可視化效果，以監控計算和存儲容量指標。（即 CPU、記憶體、磁碟空間）</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3423,19 +3424,19 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-portal/azure-portal-dashboards</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/training/modules/visualize-data-workbooks/</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3456,13 +3457,13 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>確保使用標籤進行計費和成本管理。</t>
+          <t>作為雲採用的一部分，請使用“託管雲成本”流程實施詳細的成本管理計劃。</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3473,19 +3474,19 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/get-started/manage-costs</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3506,7 +3507,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>對於 Sovereign 登陸區域，請在「登陸區域」MG 下直接擁有「機密公司」和「機密聯機」管理組。</t>
+          <t>如果伺服器將用於 Identity 服務（如域控制器），請在 Identity Management 組中建立專用 Identity Subscription 來託管這些服務。確保將資源設置為使用其區域中可用的域控制器。</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3523,19 +3524,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/02-Architecture.md</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/industry/sovereignty/slz-overview</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>6cc0ea22-42bb-441e-a345-804ab0a09666</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3551,18 +3552,18 @@
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>地區</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>為您的部署選擇合適的 Azure 區域。Azure 是一個全球規模的雲平臺，通過許多區域和地理位置提供全球覆蓋。不同的 Azure 區域具有不同的特徵、訪問和可用性模型、成本、容量和提供的服務，因此考慮所有標準和要求非常重要。</t>
+          <t>確保使用標籤進行計費和成本管理。</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3573,19 +3574,19 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>250d81ce-8bbe-4f85-9051-6a18a8221e50</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3601,12 +3602,12 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>地區</t>
+          <t>訂閱</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>在多區域部署中部署 Azure 登陸區域。根據客戶規模、位置和用戶數量，在多個區域運營可能是在更靠近他們的地方提供服務和運行應用程式的常見選擇。使用多區域部署對於提供異地災難恢復功能也很重要，可以消除對單個區域容量的依賴性，並降低臨時和局部資源容量限制的風險。</t>
+          <t>對於 Sovereign 登陸區域，請在「登陸區域」MG 下直接擁有「機密公司」和「機密聯機」管理組。</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3623,19 +3624,19 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/02-Architecture.md</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/industry/sovereignty/slz-overview</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>19ca3f89-397d-44b1-b5b6-5e18661372ac</t>
+          <t>6cc0ea22-42bb-441e-a345-804ab0a09666</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3656,13 +3657,13 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>確保所需的服務和功能在所選部署區域中可用。</t>
+          <t>為您的部署選擇合適的 Azure 區域。Azure 是一個全球規模的雲平臺，通過許多區域和地理位置提供全球覆蓋。不同的 Azure 區域具有不同的特徵、訪問和可用性模型、成本、容量和提供的服務，因此考慮所有標準和要求非常重要。</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
       <c r="E60" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3673,7 +3674,7 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3685,7 +3686,7 @@
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>250d81ce-8bbe-4f85-9051-6a18a8221e50</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3696,17 +3697,17 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>資源組織</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>地區</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>記錄使用應用程式閘道和 Azure Front Door 保護來自工作負載分支的交付應用程式內容的標準。 您可以使用 Application Delivery checklist 來獲取建議。</t>
+          <t>在多區域部署中部署 Azure 登陸區域。根據客戶規模、位置和用戶數量，在多個區域運營可能是在更靠近他們的地方提供服務和運行應用程式的常見選擇。使用多區域部署對於提供異地災難恢復功能也很重要，可以消除對單個區域容量的依賴性，並降低臨時和局部資源容量限制的風險。</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3723,14 +3724,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
+          <t>19ca3f89-397d-44b1-b5b6-5e18661372ac</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3741,17 +3747,17 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>網路拓撲和連接</t>
+          <t>資源組織</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>地區</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>對於需要最大靈活性的網路方案，請使用中心輻射型網路拓撲。</t>
+          <t>確保所需的服務和功能在所選部署區域中可用。</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3768,19 +3774,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3796,18 +3802,18 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>在中心虛擬網路中部署共用網路服務，包括 ExpressRoute 閘道、VPN 閘道和 Azure 防火牆或合作夥伴 NVA。如有必要，還要部署 DNS 服務。</t>
+          <t>記錄使用應用程式閘道和 Azure Front Door 保護來自工作負載分支的交付應用程式內容的標準。 您可以使用 Application Delivery checklist 來獲取建議。</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3818,19 +3824,15 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/traditional-azure-networking-topology</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3846,18 +3848,18 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>應用交付</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>對應用程式登陸區域中的所有公共IP位址使用 DDoS 網路或IP保護計畫。</t>
+          <t>對於需要最大靈活性的網路方案，請使用中心輻射型網路拓撲。</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3868,19 +3870,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3901,13 +3903,13 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>部署合作夥伴網路技術或 NVA 時，請遵循合作夥伴供應商的指導。</t>
+          <t>在中心虛擬網路中部署共用網路服務，包括 ExpressRoute 閘道、VPN 閘道和 Azure 防火牆或合作夥伴 NVA。如有必要，還要部署 DNS 服務。</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3918,15 +3920,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/traditional-azure-networking-topology</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3942,18 +3948,18 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>應用交付</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>如果需要在中心輻射型方案中在 ExpressRoute 和 VPN 閘道之間傳輸，請使用 Azure 路由伺服器。</t>
+          <t>對應用程式登陸區域中的所有公共IP位址使用 DDoS 網路或IP保護計畫。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3964,19 +3970,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3997,13 +4003,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>如果使用路由伺服器，請對路由伺服器子網使用 /27 前置綴。</t>
+          <t>部署合作夥伴網路技術或 NVA 時，請遵循合作夥伴供應商的指導。</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4014,19 +4020,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -4047,13 +4049,13 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>對於跨 Azure 區域具有多個中心輻射型拓撲的網路體系結構，請在中心 VNet 之間使用全域虛擬網路對等互連將區域相互連接。</t>
+          <t>如果需要在中心輻射型方案中在 ExpressRoute 和 VPN 閘道之間傳輸，請使用 Azure 路由伺服器。</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4064,19 +4066,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4097,13 +4099,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>使用適用於網路的 Azure Monitor 監視 Azure 上網路的端到端狀態。</t>
+          <t>如果使用路由伺服器，請對路由伺服器子網使用 /27 前置綴。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4114,19 +4116,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
         </is>
       </c>
       <c r="I69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
         </is>
       </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4147,7 +4149,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>如果一個區域中的分支網路超過 400 個，請部署一個額外的中心以繞過 VNet 對等互連限制 （500） 和可通過 ExpressRoute 播發的最大前綴數 （1000）。</t>
+          <t>對於跨 Azure 區域具有多個中心輻射型拓撲的網路體系結構，請在中心 VNet 之間使用全域虛擬網路對等互連將區域相互連接。</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4164,19 +4166,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4197,7 +4199,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>將每個路由表的路由數限制為 400。</t>
+          <t>使用適用於網路的 Azure Monitor 監視 Azure 上網路的端到端狀態。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4214,19 +4216,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4247,13 +4249,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>配置 VNet 對等互連時，請使用「允許流量流向遠端虛擬網路」設置。</t>
+          <t>如果一個區域中的分支網路超過 400 個，請部署一個額外的中心以繞過 VNet 對等互連限制 （500） 和可通過 ExpressRoute 播發的最大前綴數 （1000）。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4264,7 +4266,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I72" s="15" t="inlineStr">
@@ -4276,7 +4278,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4297,13 +4299,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>將標準負載均衡器 SKU 與區域冗餘部署配合使用，選擇標準 SKU 負載均衡器可通過可用性區域和區域復原能力增強可靠性，確保部署能夠承受區域和區域故障。與 Basic 不同，它支援全域負載平衡並提供 SLA。</t>
+          <t>將每個路由表的路由數限制為 400。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4314,15 +4316,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/reliability/reliability-load-balancer?tabs=graph#zone-redundant</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>9dcd6250-9c4a-4382-aa9b-5b84c64fc1fe</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4343,7 +4349,7 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>確保負載均衡器後端池至少包含兩個實例，在後端部署至少包含兩個實例的 Azure 負載均衡器可以防止單點故障並支援可伸縮性。</t>
+          <t>配置 VNet 對等互連時，請使用「允許流量流向遠端虛擬網路」設置。</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4360,15 +4366,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/reliability/reliability-load-balancer?tabs=graph#zone-redundant</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>48682fb1-1e86-4458-a686-518ebd47393d</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4384,18 +4394,18 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>加密</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>使用 ExpressRoute Direct 時，請配置 MACsec，以便在組織路由器和 MSEE 之間的第二層加密流量。該圖顯示了這種加密流程。</t>
+          <t>將標準負載均衡器 SKU 與區域冗餘部署配合使用，選擇標準 SKU 負載均衡器可通過可用性區域和區域復原能力增強可靠性，確保部署能夠承受區域和區域故障。與 Basic 不同，它支援全域負載平衡並提供 SLA。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4406,19 +4416,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-macsec</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/reliability/reliability-load-balancer?tabs=graph#zone-redundant</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>9dcd6250-9c4a-4382-aa9b-5b84c64fc1fe</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4434,18 +4440,18 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>加密</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>對於無法使用MACsec的情況（例如，不使用ExpressRoute Direct），請使用 VPN 閘道通過 ExpressRoute 專用對等互連建立 IPsec 隧道。</t>
+          <t>確保負載均衡器後端池至少包含兩個實例，在後端部署至少包含兩個實例的 Azure 負載均衡器可以防止單點故障並支援可伸縮性。</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4456,19 +4462,15 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/site-to-site-vpn-private-peering</t>
-        </is>
-      </c>
-      <c r="I76" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/reliability/reliability-load-balancer?tabs=graph#zone-redundant</t>
+        </is>
+      </c>
+      <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>48682fb1-1e86-4458-a686-518ebd47393d</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4484,18 +4486,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>IP 計劃</t>
+          <t>加密</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>確保 Azure 區域和本地位置之間沒有使用重疊的 IP 位址空間。</t>
+          <t>使用 ExpressRoute Direct 時，請配置 MACsec，以便在組織路由器和 MSEE 之間的第二層加密流量。該圖顯示了這種加密流程。</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4506,19 +4508,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-macsec</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4534,12 +4536,12 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>IP 計劃</t>
+          <t>加密</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>使用私有互聯網的位址分配範圍 （RFC 1918） 中的IP位址。</t>
+          <t>對於無法使用MACsec的情況（例如，不使用ExpressRoute Direct），請使用 VPN 閘道通過 ExpressRoute 專用對等互連建立 IPsec 隧道。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4556,19 +4558,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/site-to-site-vpn-private-peering</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4589,7 +4591,7 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>確保IP位址空間不會浪費，不要創建不必要的大型虛擬網路（例如/16）。</t>
+          <t>確保 Azure 區域和本地位置之間沒有使用重疊的 IP 位址空間。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4618,7 +4620,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4639,13 +4641,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>不要對生產和災難恢復網站使用重疊的IP位址範圍。</t>
+          <t>使用私有互聯網的位址分配範圍 （RFC 1918） 中的IP位址。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4656,19 +4658,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4689,7 +4691,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>使用標準 SKU 和區域冗餘 IP（如果適用），Azure 中的公共 IP 位址可以是標準 SKU，以非區域、區域或區域冗餘的形式提供。區域冗餘IP可跨所有區域訪問，可抵禦任何單個區域故障，從而提供更高的彈性。</t>
+          <t>確保IP位址空間不會浪費，不要創建不必要的大型虛擬網路（例如/16）。</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4706,19 +4708,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses#availability-zone</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-gb/training/modules/configure-virtual-networks/6-create-public-ip-addressing</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>0c47f486-656d-4699-8c30-edef5b8a93c4</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4739,13 +4741,13 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>對於只需要在 Azure 中進行名稱解析的環境，請使用 Azure 專用 DNS 進行解析，並使用委託區域進行名稱解析（例如“azure.contoso.com”）。</t>
+          <t>不要對生產和災難恢復網站使用重疊的IP位址範圍。</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4756,7 +4758,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-getstarted-portal</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
@@ -4768,7 +4770,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4789,13 +4791,13 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>對於需要跨 Azure 和本地進行名稱解析且沒有 Active Directory 等現有企業 DNS 服務的環境，請使用 Azure DNS 專用解析程式將 DNS 請求路由到 Azure 或本地 DNS 伺服器。</t>
+          <t>使用標準 SKU 和區域冗餘 IP（如果適用），Azure 中的公共 IP 位址可以是標準 SKU，以非區域、區域或區域冗餘的形式提供。區域冗餘IP可跨所有區域訪問，可抵禦任何單個區域故障，從而提供更高的彈性。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4806,19 +4808,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses#availability-zone</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/en-gb/training/modules/configure-virtual-networks/6-create-public-ip-addressing</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>0c47f486-656d-4699-8c30-edef5b8a93c4</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4839,13 +4841,13 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>需要並部署自己的 DNS 的特殊工作負載（例如 Red Hat OpenShift）應使用其首選的 DNS 解決方案。</t>
+          <t>對於只需要在 Azure 中進行名稱解析的環境，請使用 Azure 專用 DNS 進行解析，並使用委託區域進行名稱解析（例如“azure.contoso.com”）。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4856,19 +4858,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-getstarted-portal</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/courses/az-700t00</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4889,13 +4891,13 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>為 Azure DNS 啟用自動註冊，以自動管理虛擬網路中部署的虛擬機的 DNS 記錄的生命週期。</t>
+          <t>對於需要跨 Azure 和本地進行名稱解析且沒有 Active Directory 等現有企業 DNS 服務的環境，請使用 Azure DNS 專用解析程式將 DNS 請求路由到 Azure 或本地 DNS 伺服器。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4906,19 +4908,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4934,18 +4936,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>IP 計劃</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Bastion 安全地連接到您的網路。</t>
+          <t>需要並部署自己的 DNS 的特殊工作負載（例如 Red Hat OpenShift）應使用其首選的 DNS 解決方案。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4956,19 +4958,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
+          <t>https://learn.microsoft.com/training/courses/az-700t00</t>
         </is>
       </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4984,18 +4986,18 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>IP 計劃</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>在子網 /26 或更大的子網中使用 Azure Bastion。</t>
+          <t>為 Azure DNS 啟用自動註冊，以自動管理虛擬網路中部署的虛擬機的 DNS 記錄的生命週期。</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5006,19 +5008,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -5034,16 +5036,20 @@
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>互聯網</t>
+          <t>IP 計劃</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為到登陸區域的入站 HTTP/S 連接提供全域保護。</t>
+          <t>實施一個計劃，用於管理多個 Azure 區域之間的 DNS 解析以及服務故障轉移到另一個區域時</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
-      <c r="E88" s="21" t="n"/>
+      <c r="E88" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -5052,19 +5058,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-best-practices/private-link-and-dns-integration-at-scale#private-link-and-dns-integration-in-hub-and-spoke-network-architectures</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>18c80eb0-582a-4198-bf5c-d8800b2d263b</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -5085,13 +5091,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure Front Door 和 Azure 應用程式閘道幫助保護 HTTP/S 應用時，請使用 Azure Front Door 中的 WAF 策略。鎖定 Azure 應用程式閘道以僅接收來自 Azure Front Door 的流量。</t>
+          <t>使用 Azure Bastion 安全地連接到您的網路。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5102,19 +5108,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
         </is>
       </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5135,13 +5141,13 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>當入站 HTTP/S 連接需要 WAF 和其他反向代理時，請將它們部署在登陸區虛擬網路中，並與它們保護並公開給 Internet 的應用程式一起部署。</t>
+          <t>在子網 /26 或更大的子網中使用 Azure Bastion。</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5152,19 +5158,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5185,13 +5191,13 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure DDoS 網路或 IP 保護計劃來幫助保護虛擬網路中的公共 IP 位址終結點。</t>
+          <t>使用 Azure Front Door 和 WAF 策略跨 Azure 區域為到登陸區域的入站 HTTP/S 連接提供全域保護。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5202,19 +5208,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5235,13 +5241,13 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>規劃如何在即將到來的重大更改之前管理您的網路出站流量配置和策略。2025 年 9 月 30 日，新部署的預設出站訪問將停用，僅允許顯式訪問配置。</t>
+          <t>使用 Azure Front Door 和 Azure 應用程式閘道幫助保護 HTTP/S 應用時，請使用 Azure Front Door 中的 WAF 策略。鎖定 Azure 應用程式閘道以僅接收來自 Azure Front Door 的流量。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5252,19 +5258,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5285,7 +5291,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>添加診斷設置以保存所有受保護的公有IP位址（DDoS IP或網路保護）的 DDoS 相關日誌。</t>
+          <t>當入站 HTTP/S 連接需要 WAF 和其他反向代理時，請將它們部署在登陸區虛擬網路中，並與它們保護並公開給 Internet 的應用程式一起部署。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5302,19 +5308,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5333,7 +5339,11 @@
           <t>互聯網</t>
         </is>
       </c>
-      <c r="C94" s="21" t="n"/>
+      <c r="C94" s="21" t="inlineStr">
+        <is>
+          <t>使用 Azure DDoS 網路或 IP 保護計劃來幫助保護虛擬網路中的公共 IP 位址終結點。</t>
+        </is>
+      </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
@@ -5348,19 +5358,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/Enterprise-Scale/wiki/ALZ-Policies#corp</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-azure-policy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>3c5a808d-c695-4c14-a63c-c7ab7a510e41</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5376,18 +5386,18 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>使用 ExpressRoute 作為與 Azure 的主要連接。 使用 VPN 作為備份連接的源。</t>
+          <t>規劃如何在即將到來的重大更改之前管理您的網路出站流量配置和策略。2025 年 9 月 30 日，新部署的預設出站訪問將停用，僅允許顯式訪問配置。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5398,19 +5408,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-networks/</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5426,18 +5436,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
-        </is>
-      </c>
-      <c r="C96" s="21" t="n"/>
-      <c r="D96" s="21" t="inlineStr">
-        <is>
-          <t>您可以使用 AS 路徑預置和連接權重來影響從 Azure 到本地的流量，並使用您自己的路由器中的所有 BGP 屬性來影響從本地到 Azure 的流量。</t>
-        </is>
-      </c>
+          <t>互聯網</t>
+        </is>
+      </c>
+      <c r="C96" s="21" t="inlineStr">
+        <is>
+          <t>添加診斷設置以保存所有受保護的公有IP位址（DDoS IP或網路保護）的 DDoS 相關日誌。</t>
+        </is>
+      </c>
+      <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5448,19 +5458,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5476,18 +5486,18 @@
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>混合</t>
+          <t>互聯網</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>根據頻寬和性能要求為 ExpressRoute/VPN 閘道選擇正確的 SKU。</t>
+          <t>確保有一個策略分配來拒絕直接連接到虛擬機的公有IP位址。 如果特定 VM 上需要公共 IP，請使用排除項。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5498,19 +5508,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways?source=recommendations#gwsku</t>
+          <t>https://github.com/Azure/Enterprise-Scale/wiki/ALZ-Policies#corp</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-policy/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>3c5a808d-c695-4c14-a63c-c7ab7a510e41</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5531,13 +5541,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>確保僅在達到與成本相稱的頻寬時才使用無限數據 ExpressRoute 線路。</t>
+          <t>使用 ExpressRoute 作為與 Azure 的主要連接。 使用 VPN 作為備份連接的源。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5548,19 +5558,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5581,13 +5591,17 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>如果你的線路對等互連位置支援本地 SKU 的 Azure 區域，請利用 ExpressRoute 的本地 SKU 來降低線路的成本。</t>
-        </is>
-      </c>
-      <c r="D99" s="21" t="n"/>
+          <t>使用多個 ExpressRoute 線路或多個本地位置時，請使用 BGP 屬性來優化路由。</t>
+        </is>
+      </c>
+      <c r="D99" s="21" t="inlineStr">
+        <is>
+          <t>您可以使用 AS 路徑預置和連接權重來影響從 Azure 到本地的流量，並使用您自己的路由器中的所有 BGP 屬性來影響從本地到 Azure 的流量。</t>
+        </is>
+      </c>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5598,19 +5612,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5631,7 +5645,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>在支援的 Azure 區域中部署區域冗餘 ExpressRoute 閘道。</t>
+          <t>根據頻寬和性能要求為 ExpressRoute/VPN 閘道選擇正確的 SKU。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5648,7 +5662,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways?source=recommendations#gwsku</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5660,7 +5674,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5681,13 +5695,13 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>對於需要高於 10 Gbps 的頻寬或專用 10/100 Gbps 埠的方案，請使用 ExpressRoute Direct。</t>
+          <t>確保僅在達到與成本相稱的頻寬時才使用無限數據 ExpressRoute 線路。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5698,19 +5712,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5731,13 +5745,13 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>當需要低延遲，或者從本地到 Azure 的輸送量必須大於 10 Gbps 時，請啟用 FastPath 以從數據路徑繞過 ExpressRoute 閘道。</t>
+          <t>如果你的線路對等互連位置支援本地 SKU 的 Azure 區域，請利用 ExpressRoute 的本地 SKU 來降低線路的成本。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5748,19 +5762,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5781,7 +5795,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>使用區域冗餘 VPN 閘道將分支或遠端位置連接到 Azure（如果可用）。</t>
+          <t>在支援的 Azure 區域中部署區域冗餘 ExpressRoute 閘道。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5798,19 +5812,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5831,7 +5845,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>在本地使用冗餘 VPN 設備（主動/主動或主動/被動）。</t>
+          <t>對於需要高於 10 Gbps 的頻寬或專用 10/100 Gbps 埠的方案，請使用 ExpressRoute Direct。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5848,19 +5862,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-highlyavailable</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5881,13 +5895,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>如果使用 ExpressRoute Direct，請考慮使用連接到本地 Azure 區域的 ExpressRoute 本地線路以節省成本。</t>
+          <t>當需要低延遲，或者從本地到 Azure 的輸送量必須大於 10 Gbps 時，請啟用 FastPath 以從數據路徑繞過 ExpressRoute 閘道。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5898,7 +5912,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
@@ -5910,7 +5924,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5931,7 +5945,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>當需要流量隔離或專用頻寬時（例如用於分離生產和非生產環境），請使用不同的 ExpressRoute 線路。它將幫助您確保隔離的路由域並減輕嘈雜的鄰居風險。</t>
+          <t>使用區域冗餘 VPN 閘道將分支或遠端位置連接到 Azure（如果可用）。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5948,19 +5962,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5981,7 +5995,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>使用內置的 Express Route Insights 監控 ExpressRoute 的可用性和利用率。</t>
+          <t>在本地使用冗餘 VPN 設備（主動/主動或主動/被動）。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5998,19 +6012,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-highlyavailable</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -6031,13 +6045,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>使用連接監視器進行跨網路的連接監控，尤其是本地和 Azure 之間的連接。</t>
+          <t>如果使用 ExpressRoute Direct，請考慮使用連接到本地 Azure 區域的 ExpressRoute 本地線路以節省成本。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -6048,7 +6062,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
@@ -6060,7 +6074,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -6081,7 +6095,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>使用來自不同對等互連位置的 ExpressRoute 線路以實現冗餘。</t>
+          <t>當需要流量隔離或專用頻寬時（例如用於分離生產和非生產環境），請使用不同的 ExpressRoute 線路。它將幫助您確保隔離的路由域並減輕嘈雜的鄰居風險。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -6098,7 +6112,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#need-for-redundant-connectivity-solution</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
@@ -6110,7 +6124,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6131,7 +6145,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>如果僅使用單個 ExpressRoute 線路，請使用網站到網站 VPN 作為 ExpressRoute 的故障轉移。</t>
+          <t>使用內置的 Express Route Insights 監控 ExpressRoute 的可用性和利用率。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6148,19 +6162,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6181,13 +6195,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>如果您在 GatewaySubnet 中使用路由表，請確保傳播閘道路由。</t>
+          <t>使用連接監視器進行跨網路的連接監控，尤其是本地和 Azure 之間的連接。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6198,14 +6212,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6226,13 +6245,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>如果使用 ExpressRoute，則本地路由應該是動態的：如果連接失敗，它應收斂到線路的剩餘連接。理想情況下，負載應在兩個連接之間共用，即主動/主動，但也支持主動/被動。</t>
+          <t>使用來自不同對等互連位置的 ExpressRoute 線路以實現冗餘。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>中等</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6243,19 +6262,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#need-for-redundant-connectivity-solution</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6276,7 +6295,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>確保 ExpressRoute 線路的兩個物理連結連接到網路中的兩個不同的邊緣設備。</t>
+          <t>如果僅使用單個 ExpressRoute 線路，請使用網站到網站 VPN 作為 ExpressRoute 的故障轉移。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6293,19 +6312,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
+          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6326,13 +6345,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>確保在客戶或供應商邊緣路由設備上啟用和配置雙向轉發檢測 （BFD）。</t>
+          <t>如果您在 GatewaySubnet 中使用路由表，請確保傳播閘道路由。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>中等</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6343,19 +6362,15 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-bfd</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="n"/>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6376,7 +6391,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>將 ExpressRoute 閘道連接到來自不同對等互連位置的兩條或多條線路，以獲得更高的復原能力。</t>
+          <t>如果使用 ExpressRoute，則本地路由應該是動態的：如果連接失敗，它應收斂到線路的剩餘連接。理想情況下，負載應在兩個連接之間共用，即主動/主動，但也支持主動/被動。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6393,19 +6408,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6426,7 +6441,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>為 ExpressRoute 虛擬網路閘道配置診斷日誌和警報。</t>
+          <t>確保 ExpressRoute 線路的兩個物理連結連接到網路中的兩個不同的邊緣設備。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6443,7 +6458,7 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-howto-setup-alerts-virtual-network-gateway-log</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6455,7 +6470,7 @@
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
+          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6476,7 +6491,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>不要使用 ExpressRoute 線路進行 VNet 到 VNet 通信。</t>
+          <t>確保在客戶或供應商邊緣路由設備上啟用和配置雙向轉發檢測 （BFD）。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6493,7 +6508,7 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/virtual-network-connectivity-guidance</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-bfd</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6505,7 +6520,7 @@
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
+          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6526,13 +6541,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>不要將 Azure 流量發送到混合位置進行檢查。 相反，請遵循“Azure 中的流量保留在 Azure 中”的原則，以便通過 Microsoft 主幹網络進行 Azure 中資源的通信。</t>
+          <t>將 ExpressRoute 閘道連接到來自不同對等互連位置的兩條或多條線路，以獲得更高的復原能力。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6543,15 +6558,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
- 